--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -1281,6 +1281,15 @@
   <si>
     <t xml:space="preserve">yǔ máo </t>
   </si>
+  <si>
+    <t xml:space="preserve">瓜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melon seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guā zǐ </t>
+  </si>
 </sst>
 </file>
 
@@ -1804,10 +1813,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ35"/>
+  <dimension ref="A2:AMJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P40" activeCellId="0" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31672,6 +31681,17 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="500" activeTab="20"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="635" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="20220619" sheetId="19" r:id="rId19"/>
     <sheet name="20220626" sheetId="20" r:id="rId20"/>
     <sheet name="20220703" sheetId="21" r:id="rId21"/>
+    <sheet name="20220710" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1158">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -13649,6 +13650,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Is everything okay? You </t>
     </r>
     <r>
@@ -13688,6 +13694,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">yī qiē dōu hǎo ma ？nǐ </t>
     </r>
     <r>
@@ -14046,6 +14058,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ yòng </t>
     </r>
     <r>
@@ -14112,6 +14129,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">yī gè yuè </t>
     </r>
     <r>
@@ -14151,6 +14173,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">and you </t>
     </r>
     <r>
@@ -14200,6 +14227,358 @@
   </si>
   <si>
     <t>come to the point</t>
+  </si>
+  <si>
+    <t>Going on business</t>
+  </si>
+  <si>
+    <t>A:  我听说你要出差了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:i heard you will go on a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>business trip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  wǒ tīng shuō nǐ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chū chai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 是啊，我要去上海参加一个企划会议。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Yes, i must go to ShangHai to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>meeting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> shì ā ，wǒ yào qù shàng hǎi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cān jiā</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>our plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">qǐ huá </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>huì yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 去多久？</t>
+  </si>
+  <si>
+    <t>A:  How long will you be away?</t>
+  </si>
+  <si>
+    <t>qù duō jiǔ ？</t>
+  </si>
+  <si>
+    <t>B: 六天左右。</t>
+  </si>
+  <si>
+    <t>B:  Six days or so.</t>
+  </si>
+  <si>
+    <t>liù tiān zuǒ yòu 。</t>
+  </si>
+  <si>
+    <t>A: 谁接替你的岗位？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Who will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>take your place</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> shuí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jiē tì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>gǎng wèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 哈利，他一直在帮我做这个企划。</t>
+  </si>
+  <si>
+    <t>B:  Harry. He has been assisting me on the plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hā lì ，tā yī zhí zài bāng wǒ zuò zhè gè qǐ huá 。</t>
+  </si>
+  <si>
+    <t>A: 不错，他做这工作没问题。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Good choice, He is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>competent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for the position.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú cuò ，tā zuò zhè gōng zuò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>méi wèn tí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B: 嗯，他对这个企划很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熟悉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: Yes. He is familiar with the plan.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> èn ，tā duì zhè gè qǐ huá </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hěn shú xī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。 </t>
+    </r>
+  </si>
+  <si>
+    <t>死期</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>活期</t>
+  </si>
+  <si>
+    <t>economy</t>
   </si>
 </sst>
 </file>
@@ -14212,7 +14591,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -14236,14 +14615,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -14513,7 +14892,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -14525,7 +14910,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -16771,7 +17156,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>672</v>
       </c>
     </row>
@@ -17012,7 +17397,7 @@
       <c r="D2" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="6" t="s">
         <v>717</v>
       </c>
     </row>
@@ -17069,7 +17454,7 @@
       <c r="C10" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="X10" s="2" t="s">
         <v>730</v>
       </c>
@@ -17097,7 +17482,7 @@
       <c r="D14" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="6" t="s">
         <v>736</v>
       </c>
       <c r="Q14" s="10" t="s">
@@ -17123,7 +17508,7 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>742</v>
       </c>
     </row>
@@ -17147,7 +17532,7 @@
       <c r="D21" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="6" t="s">
         <v>747</v>
       </c>
       <c r="Y21" s="2" t="s">
@@ -17155,12 +17540,12 @@
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>750</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -17413,7 +17798,7 @@
       <c r="D2" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
@@ -17478,7 +17863,7 @@
       <c r="C10" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="T10" s="2" t="s">
         <v>816</v>
       </c>
@@ -17505,7 +17890,7 @@
         <v>820</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="Q14" s="10"/>
       <c r="T14" s="1" t="s">
         <v>821</v>
@@ -17527,7 +17912,7 @@
       <c r="C17" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="T17" s="2" t="s">
         <v>825</v>
       </c>
@@ -17544,7 +17929,7 @@
       <c r="D19" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="6" t="s">
         <v>829</v>
       </c>
       <c r="U19" s="7"/>
@@ -17561,16 +17946,16 @@
       <c r="D21" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="S21" s="5"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="6"/>
       <c r="T23" s="1" t="s">
         <v>834</v>
       </c>
@@ -17630,7 +18015,7 @@
       <c r="C2" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="3:18">
       <c r="C3" s="1" t="s">
@@ -17686,7 +18071,7 @@
       <c r="C10" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="R10" s="1" t="s">
         <v>851</v>
       </c>
@@ -17695,7 +18080,7 @@
       <c r="D11" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="6" t="s">
         <v>853</v>
       </c>
       <c r="X11" s="10"/>
@@ -17717,7 +18102,7 @@
         <v>856</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="1" t="s">
         <v>857</v>
@@ -17737,7 +18122,7 @@
       <c r="C17" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="R17" s="2" t="s">
         <v>860</v>
       </c>
@@ -17759,7 +18144,7 @@
       <c r="D20" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="6" t="s">
         <v>865</v>
       </c>
     </row>
@@ -17767,13 +18152,13 @@
       <c r="C21" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="1" t="s">
@@ -17858,7 +18243,7 @@
       <c r="D35" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="1" t="s">
@@ -17906,7 +18291,7 @@
       <c r="C2" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -17959,7 +18344,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -17983,7 +18368,7 @@
         <v>905</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="Q14" s="10"/>
       <c r="S14" s="1" t="s">
         <v>906</v>
@@ -18002,7 +18387,7 @@
       <c r="C17" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="S17" s="2" t="s">
         <v>909</v>
       </c>
@@ -18027,13 +18412,13 @@
       <c r="R20" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="S20" s="5"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="22" spans="3:19">
       <c r="C22" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
       <c r="S22" s="1" t="s">
         <v>916</v>
       </c>
@@ -18042,7 +18427,7 @@
       <c r="D23" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" s="6" t="s">
         <v>918</v>
       </c>
     </row>
@@ -18111,7 +18496,7 @@
       <c r="C35" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="S35" s="1" t="s">
         <v>933</v>
       </c>
@@ -18247,7 +18632,7 @@
       <c r="C2" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="4" spans="3:18">
       <c r="C4" s="1" t="s">
@@ -18324,7 +18709,7 @@
       <c r="D14" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="4:4">
@@ -18342,7 +18727,7 @@
       <c r="C17" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="R17" s="2" t="s">
         <v>978</v>
       </c>
@@ -18368,7 +18753,7 @@
       <c r="R20" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="S20" s="5"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="2" t="s">
@@ -18377,7 +18762,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
@@ -18386,7 +18771,7 @@
       <c r="R23" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="T23" s="5"/>
+      <c r="T23" s="6"/>
     </row>
     <row r="24" spans="4:22">
       <c r="D24" s="3" t="s">
@@ -18458,7 +18843,7 @@
       <c r="D35" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:18">
       <c r="C36" s="1" t="s">
@@ -18519,7 +18904,7 @@
       <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -18739,7 +19124,7 @@
       <c r="C2" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
@@ -18811,7 +19196,7 @@
       <c r="D14" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="Q14" s="10"/>
       <c r="Y14" s="1" t="s">
         <v>1018</v>
@@ -18854,7 +19239,7 @@
         <v>1024</v>
       </c>
       <c r="R20" s="2"/>
-      <c r="S20" s="5"/>
+      <c r="S20" s="6"/>
       <c r="Y20" s="1" t="s">
         <v>1025</v>
       </c>
@@ -18871,7 +19256,7 @@
       <c r="C22" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
       <c r="X22" s="2" t="s">
         <v>1029</v>
       </c>
@@ -18881,7 +19266,7 @@
         <v>1030</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="T23" s="5"/>
+      <c r="T23" s="6"/>
       <c r="Y23" s="8" t="s">
         <v>1031</v>
       </c>
@@ -18957,7 +19342,7 @@
       <c r="D35" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="Y35" s="1" t="s">
         <v>1048</v>
       </c>
@@ -19056,8 +19441,8 @@
   <sheetPr/>
   <dimension ref="C1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AV39" sqref="AV39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -19078,7 +19463,7 @@
       <c r="D2" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="AA2" s="5"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
@@ -19158,7 +19543,7 @@
       <c r="D14" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="V14" s="1" t="s">
@@ -19205,7 +19590,7 @@
         <v>1091</v>
       </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="5"/>
+      <c r="T20" s="6"/>
       <c r="V20" s="1" t="s">
         <v>1092</v>
       </c>
@@ -19220,7 +19605,7 @@
       <c r="C22" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
       <c r="U22" s="1" t="s">
         <v>1095</v>
       </c>
@@ -19231,7 +19616,7 @@
         <v>1096</v>
       </c>
       <c r="S23" s="2"/>
-      <c r="U23" s="5"/>
+      <c r="U23" s="6"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="4:23">
@@ -19316,7 +19701,7 @@
       <c r="D35" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="V35" s="1" t="s">
         <v>1116</v>
       </c>
@@ -19363,6 +19748,226 @@
       <c r="G43" s="1" t="s">
         <v>1126</v>
       </c>
+    </row>
+    <row r="49" ht="17.85" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AB49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:27">
+      <c r="D2" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="3:19">
+      <c r="C6" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="S6" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="7" spans="4:28">
+      <c r="D7" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="4:28">
+      <c r="D8" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="S9" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="11" spans="20:25">
+      <c r="T11" s="2"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="3:20">
+      <c r="C12" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="S12" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="4:20">
+      <c r="D13" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="4:18">
+      <c r="D14" s="2"/>
+      <c r="M14" s="6"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="S15" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="16" spans="4:27">
+      <c r="D16" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AA16" s="13"/>
+    </row>
+    <row r="17" spans="4:19">
+      <c r="D17" s="4"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="3:20">
+      <c r="C18" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="S18" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="4:25">
+      <c r="D19" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="4:20">
+      <c r="D20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="S21" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="4:26">
+      <c r="D23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="U23" s="6"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="3:23">
+      <c r="C24" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="S24" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="34" spans="20:20">
+      <c r="T34" s="12"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="5"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -19410,8 +20015,8 @@
       <c r="D5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="V5" s="5" t="s">
+      <c r="S5" s="6"/>
+      <c r="V5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -19699,11 +20304,11 @@
       <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="5"/>
+      <c r="V5" s="6"/>
       <c r="W5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="5"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="2" t="s">
@@ -19898,8 +20503,8 @@
       <c r="S5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="Y5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
@@ -19933,7 +20538,7 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -20128,8 +20733,8 @@
   <sheetPr/>
   <dimension ref="C1:AL47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -20162,11 +20767,11 @@
       <c r="D5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V5" s="5"/>
+      <c r="V5" s="6"/>
       <c r="X5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y5" s="5"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="4:24">
       <c r="D6" s="1" t="s">
@@ -20228,7 +20833,7 @@
       <c r="D14" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Y14" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -20405,8 +21010,8 @@
       <c r="D5" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="Y5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
@@ -20465,7 +21070,7 @@
       <c r="V15" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="Y15" s="5"/>
+      <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="2" t="s">

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="635" firstSheet="15" activeTab="21"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="635" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="20220626" sheetId="20" r:id="rId20"/>
     <sheet name="20220703" sheetId="21" r:id="rId21"/>
     <sheet name="20220710" sheetId="22" r:id="rId22"/>
+    <sheet name="20220717" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1222">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -14236,6 +14237,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:i heard you will go on a </t>
     </r>
     <r>
@@ -14258,6 +14264,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  wǒ tīng shuō nǐ yào </t>
     </r>
     <r>
@@ -14283,6 +14294,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Yes, i must go to ShangHai to </t>
     </r>
     <r>
@@ -14314,6 +14330,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> shì ā ，wǒ yào qù shàng hǎi </t>
     </r>
     <r>
@@ -14328,6 +14350,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">about </t>
     </r>
     <r>
@@ -14350,6 +14377,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> yī gè </t>
     </r>
     <r>
@@ -14403,6 +14436,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Who will </t>
     </r>
     <r>
@@ -14425,6 +14463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> shuí </t>
     </r>
     <r>
@@ -14478,6 +14522,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Good choice, He is </t>
     </r>
     <r>
@@ -14500,6 +14549,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">bú cuò ，tā zuò zhè gōng zuò </t>
     </r>
     <r>
@@ -14522,6 +14576,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>B: 嗯，他对这个企划很</t>
     </r>
     <r>
@@ -14547,6 +14606,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> èn ，tā duì zhè gè qǐ huá </t>
     </r>
     <r>
@@ -14579,6 +14644,597 @@
   </si>
   <si>
     <t>economy</t>
+  </si>
+  <si>
+    <t>Catching up on Friends</t>
+  </si>
+  <si>
+    <t>A: Mike, 你好，好久不见。</t>
+  </si>
+  <si>
+    <t>A:Mike, what's going on, man. Long time no see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike, nǐ hǎo ，hǎo jiǔ bú jiàn </t>
+  </si>
+  <si>
+    <t>B: 嗨，Pat! 我有几年没见到你了，过的怎么样？</t>
+  </si>
+  <si>
+    <t>B: Hey, Pat. Yeah, i haven't see you in ages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hēi ，Pat! wǒ yǒu jǐ nián méi jiàn dào nǐ le ，guò de zěn me yàng ？ </t>
+  </si>
+  <si>
+    <t>How's it going?</t>
+  </si>
+  <si>
+    <t>A: 我很好。居然能遇到你，真有趣，世界还是真小，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: This is going great. it's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>funny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> running into you like this.</t>
+    </r>
+  </si>
+  <si>
+    <t>你知道吗？上周我还遇到了Matt。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Small </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>world</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> there</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. You know Just last week i ran into </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wǒ hěn hǎo 。jū rán néng yù dào nǐ ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhēn yǒu qù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shì jiè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hái shì zhēn xiǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>Matt as well.</t>
+  </si>
+  <si>
+    <t>nǐ zhī dào ma ？shàng zhōu wǒ hái yù dào le Matt。</t>
+  </si>
+  <si>
+    <t>B: 是吗？他怎么样？</t>
+  </si>
+  <si>
+    <t>B: Yeah, How's he doing?</t>
+  </si>
+  <si>
+    <t>shì ma ？tā zěn me yàng ？</t>
+  </si>
+  <si>
+    <t>A: 挺好的，我们一起出去喝了几杯，然后发生了</t>
+  </si>
+  <si>
+    <t>A: He's doing well, We went out for a couple of beers</t>
+  </si>
+  <si>
+    <t>一件很有趣的事情。</t>
+  </si>
+  <si>
+    <t>and the funniest thing happened.</t>
+  </si>
+  <si>
+    <r>
+      <t>tǐng hǎo de ，wǒ men yī qǐ chū qù hē le jǐ bēi ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>rán hòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>fā shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le</t>
+    </r>
+  </si>
+  <si>
+    <t>yī jiàn hěn yǒu qù de shì qíng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>happened</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 什么事情？</t>
+  </si>
+  <si>
+    <t>B: Oh yeah?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shen me shì qíng </t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>A: 我们在说着话，聊着以前做的事情，谈工作，家庭。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Well, we were talking and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>catching up on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> what we've </t>
+    </r>
+  </si>
+  <si>
+    <t>突然，Matt看见一只老鼠跑到他的椅子下面，</t>
+  </si>
+  <si>
+    <t>been doing, talking about work and family, when all of</t>
+  </si>
+  <si>
+    <t>然后他吓坏了，开始大喊大叫。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a sudden, Matt saw a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>mouse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> run under his </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>chair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wǒ men zài shuō zhe huà ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>liáo zhe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yǐ qián zuò de shì qíng ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He started </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>freaking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> out and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>screaming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tán gōng zuò ，jiā tíng。tū rán ，Matt kàn jiàn yī zhī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>lǎo shǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pǎo dào tā de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yǐ zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xià miàn </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rán hòu tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xià huài le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，kāi shǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dà hǎn dà jiào</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 哈哈，真的吗？</t>
+  </si>
+  <si>
+    <t>B: HaHa, Really?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hā hā ，zhēn de ma </t>
+  </si>
+  <si>
+    <t>A: 对。最好笑的是，他跳到椅子上，像小女孩一样开始尖叫。</t>
+  </si>
+  <si>
+    <t>A:  Yeah, the funniest thing was that he jumped onto</t>
+  </si>
+  <si>
+    <t>你真该来看看，每个人都盯着他笑。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">his chair and started </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shrieking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> like a girl. You should</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> duì 。zuì hǎo xiào de shì ，tā tiào dào yǐ zǐ shàng ，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">have been there, everyone was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>staring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and laughing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiàng xiǎo nǚ hái yī yàng kāi shǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jiān jiào</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ zhēn gāi lái kàn kàn ，měi gè rén dōu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dīng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zhe tā xiào </t>
+    </r>
+  </si>
+  <si>
+    <t>过日子</t>
+  </si>
+  <si>
+    <t>guo ri zi</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>混日子</t>
+  </si>
+  <si>
+    <t>hun ri zi</t>
+  </si>
+  <si>
+    <t>idle away one's time;drift along aimlessly</t>
+  </si>
+  <si>
+    <t>遇到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yu dao </t>
+  </si>
+  <si>
+    <t>居然</t>
+  </si>
+  <si>
+    <t>ju ran</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>挺好</t>
+  </si>
+  <si>
+    <t>ting hao</t>
+  </si>
+  <si>
+    <t>a little better then just so so.</t>
   </si>
 </sst>
 </file>
@@ -14591,10 +15247,27 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -14889,6 +15562,24 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15284,148 +15975,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15436,18 +16128,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15843,213 +16538,213 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="3:23">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="W16" s="1" t="s">
+      <c r="D16" s="8"/>
+      <c r="W16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="17"/>
+      <c r="W17" s="21"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="4"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="25" t="s">
+      <c r="X21" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="21"/>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:23">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="4"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="4"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="4"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="21:30">
-      <c r="U34" s="1" t="s">
+      <c r="U34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Y34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AD34" s="17"/>
+      <c r="AD34" s="21"/>
     </row>
     <row r="35" spans="23:25">
-      <c r="W35" s="1" t="s">
+      <c r="W35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Y35" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16071,197 +16766,197 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="5" spans="11:11">
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="5" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="5" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="5" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="6" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="5" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="16" spans="3:20">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="5" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="Z17" s="13"/>
+      <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="20" spans="4:21">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="11" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="21" spans="4:21">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="6" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="T24" s="6" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="26" spans="12:12">
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="11" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" s="6" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="29" spans="13:13">
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="5" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="30" spans="3:20">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="5" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>496</v>
       </c>
     </row>
@@ -16284,262 +16979,262 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="4:22">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="6" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="5" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="6" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="AA9" s="7"/>
+      <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="6" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="5" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="5" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="5" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="6" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="U19" s="7"/>
-      <c r="V19" s="1" t="s">
+      <c r="U19" s="11"/>
+      <c r="V19" s="5" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="6" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="D23" s="6"/>
+      <c r="U23" s="6" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="5" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="15" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="V26" s="1" t="s">
+      <c r="L26" s="11"/>
+      <c r="V26" s="5" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="5" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="5" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="30" spans="4:22">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="5" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" s="5" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" s="5" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" s="5" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>552</v>
       </c>
     </row>
@@ -16562,264 +17257,264 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="6" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="4" spans="4:25">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="5" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="5" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="10" spans="3:24">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="5" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="11" spans="4:25">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" s="6" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="13" spans="4:16">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="5" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="14" spans="3:24">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" s="5" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="15" spans="4:26">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Y15" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="Z15" s="13"/>
+      <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17" s="6" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="18" spans="4:25">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="U18" s="7"/>
-      <c r="Y18" s="2" t="s">
+      <c r="U18" s="11"/>
+      <c r="Y18" s="6" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Y19" s="6" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="21" spans="3:24">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="X21" s="2" t="s">
+      <c r="D21" s="6"/>
+      <c r="X21" s="6" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="22" spans="4:32">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AF22" s="5" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="V24" s="11"/>
-      <c r="X24" s="2" t="s">
+      <c r="V24" s="15"/>
+      <c r="X24" s="6" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="Y25" s="2" t="s">
+      <c r="L25" s="11"/>
+      <c r="Y25" s="6" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" s="5" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="X30" s="2" t="s">
+      <c r="D30" s="6"/>
+      <c r="X30" s="6" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="5" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="5" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>610</v>
       </c>
     </row>
@@ -16842,234 +17537,234 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="3" spans="3:23">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="5" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="6" spans="3:23">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="W6" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="W6" s="6" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="X11" s="14" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="12" spans="4:24">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="5" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="18" spans="3:23">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="W18" s="6" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="19" spans="4:24">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="U19" s="7"/>
-      <c r="X19" s="2" t="s">
+      <c r="U19" s="11"/>
+      <c r="X19" s="6" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="22" spans="3:23">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="W22" s="2" t="s">
+      <c r="D22" s="6"/>
+      <c r="W22" s="6" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="25" spans="3:23">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="V25" s="11"/>
-      <c r="W25" s="1" t="s">
+      <c r="V25" s="15"/>
+      <c r="W25" s="5" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="26" spans="4:24">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="X26" s="2" t="s">
+      <c r="L26" s="11"/>
+      <c r="X26" s="6" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="27" spans="4:24">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="X27" s="1" t="s">
+      <c r="L27" s="11"/>
+      <c r="X27" s="5" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="30" spans="3:23">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="W30" s="6" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="2"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="35" spans="3:10">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="5" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="37" ht="82.8" spans="3:10">
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="5" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>659</v>
       </c>
     </row>
@@ -17092,275 +17787,275 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="5" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="T6" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="T6" s="6" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="6" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="6" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="6" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="5" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="13"/>
+      <c r="D16" s="6"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="T17" s="2" t="s">
+      <c r="D17" s="6"/>
+      <c r="T17" s="6" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="7"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="5" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="2"/>
-      <c r="J22" s="1" t="s">
+      <c r="D22" s="6"/>
+      <c r="J22" s="5" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="T23" s="2" t="s">
+      <c r="D23" s="6"/>
+      <c r="T23" s="6" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="6" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="25" spans="13:22">
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="V25" s="11"/>
+      <c r="V25" s="15"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="L26" s="7"/>
-      <c r="T26" s="2" t="s">
+      <c r="D26" s="6"/>
+      <c r="L26" s="11"/>
+      <c r="T26" s="6" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="D28" s="2"/>
-      <c r="N28" s="1" t="s">
+      <c r="D28" s="6"/>
+      <c r="N28" s="5" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="T29" s="1" t="s">
+      <c r="D29" s="6"/>
+      <c r="T29" s="5" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="32" spans="3:20">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="T32" s="1" t="s">
+      <c r="D32" s="6"/>
+      <c r="T32" s="5" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="5" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="16"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" spans="3:9">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="5" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="43" ht="124.2" spans="3:10">
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="20" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="44" spans="7:10">
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="8" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="5" t="s">
         <v>715</v>
       </c>
     </row>
@@ -17383,384 +18078,384 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="10" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="6" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="4" spans="4:25">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" s="6" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="6" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y6" s="6" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="10" spans="3:24">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="X10" s="2" t="s">
+      <c r="D10" s="10"/>
+      <c r="X10" s="6" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="11" spans="4:25">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="2" t="s">
+      <c r="X11" s="14"/>
+      <c r="Y11" s="6" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="14" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="15" spans="3:24">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="X15" s="2" t="s">
+      <c r="D15" s="6"/>
+      <c r="X15" s="6" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="7"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="5" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y21" s="6" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="10" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="5" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="5" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="V25" s="11"/>
-      <c r="Y25" s="1" t="s">
+      <c r="V25" s="15"/>
+      <c r="Y25" s="5" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="29" spans="3:25">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="Y29" s="2" t="s">
+      <c r="D29" s="6"/>
+      <c r="Y29" s="6" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="X32" s="2" t="s">
+      <c r="D32" s="6"/>
+      <c r="X32" s="6" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="33" spans="4:25">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="Y33" s="2" t="s">
+      <c r="Y33" s="6" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="Q34" s="5" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="36" spans="3:25">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Y36" s="5" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="37" spans="3:25">
-      <c r="C37" s="16"/>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Y37" s="5" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="8" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="39" spans="9:9">
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="21" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="40" spans="3:25">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Y40" s="5" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="41" spans="4:25">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Y41" s="5" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="42" spans="4:25">
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Y42" s="5" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="J43" s="16"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="4:10">
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="16:16">
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="5" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="46" spans="16:16">
-      <c r="P46" s="1" t="s">
+      <c r="P46" s="5" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="47" spans="4:16">
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" s="5" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="48" spans="4:7">
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="5" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="49" spans="4:7">
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="5" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="50" ht="17.85" customHeight="1" spans="4:7">
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="5" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="52" spans="4:7">
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="5" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="53" spans="4:7">
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="5" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="54" spans="4:7">
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="5" t="s">
         <v>799</v>
       </c>
     </row>
@@ -17782,203 +18477,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.49074074074074" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="6" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="6" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="5" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="T6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="T6" s="5" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="T10" s="2" t="s">
+      <c r="D10" s="10"/>
+      <c r="T10" s="6" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="10"/>
-      <c r="T14" s="1" t="s">
+      <c r="D14" s="18"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="T14" s="5" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="L16" s="1" t="s">
+      <c r="D16" s="6"/>
+      <c r="L16" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="T17" s="2" t="s">
+      <c r="D17" s="10"/>
+      <c r="T17" s="6" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="5" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="U19" s="7"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="6" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="S21" s="6"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="T23" s="1" t="s">
+      <c r="D23" s="10"/>
+      <c r="T23" s="5" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="24" spans="4:21">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="6" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="V25" s="11"/>
+      <c r="V25" s="15"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -17999,260 +18694,260 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="5" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="6" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="R7" s="2" t="s">
+      <c r="D7" s="6"/>
+      <c r="R7" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="AA8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="R10" s="1" t="s">
+      <c r="D10" s="10"/>
+      <c r="R10" s="5" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="1" t="s">
+      <c r="D14" s="18"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="5" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="13"/>
+      <c r="D16" s="6"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="R17" s="2" t="s">
+      <c r="D17" s="10"/>
+      <c r="R17" s="6" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="6" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="10" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="6" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="24" spans="3:32">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="V24" s="11"/>
-      <c r="AD24" s="1" t="s">
+      <c r="V24" s="15"/>
+      <c r="AD24" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AF24" s="5" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="5" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="5" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="5" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="5" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="5" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="5" t="s">
         <v>889</v>
       </c>
     </row>
@@ -18275,326 +18970,326 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="5" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="6" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="5" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="S8" s="1" t="s">
+      <c r="D8" s="6"/>
+      <c r="S8" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="10"/>
-      <c r="S14" s="1" t="s">
+      <c r="D14" s="18"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="S14" s="5" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="13"/>
+      <c r="D16" s="6"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="S17" s="2" t="s">
+      <c r="D17" s="10"/>
+      <c r="S17" s="6" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="6" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="S22" s="1" t="s">
+      <c r="D22" s="10"/>
+      <c r="S22" s="5" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T23" s="10" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="15"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
-      <c r="S25" s="1" t="s">
+      <c r="D25" s="6"/>
+      <c r="L25" s="11"/>
+      <c r="S25" s="5" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="5" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="5" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="5" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="5" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="S35" s="1" t="s">
+      <c r="E35" s="9"/>
+      <c r="S35" s="5" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="5" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="5" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="5" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="5" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="46" spans="3:9">
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="5" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="47" spans="3:9">
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="5" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="48" spans="3:9">
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="5" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1" spans="3:9">
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="5" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="50" spans="5:9">
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="5" t="s">
         <v>957</v>
       </c>
     </row>
@@ -18616,245 +19311,245 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="4" spans="3:18">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="5" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="R7" s="2" t="s">
+      <c r="D7" s="7"/>
+      <c r="R7" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="X11" s="10"/>
+      <c r="S11" s="6"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="12" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="13" spans="4:19">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="13" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="R17" s="2" t="s">
+      <c r="D17" s="10"/>
+      <c r="R17" s="6" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="6" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="R20" s="2" t="s">
+      <c r="D20" s="6"/>
+      <c r="R20" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="T23" s="6"/>
+      <c r="T23" s="10"/>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="15"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="5" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="5" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="5" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="30" spans="3:18">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" s="5" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="33" spans="3:18">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="5" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="34" spans="4:19">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="S34" s="12" t="s">
+      <c r="S34" s="16" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="3:18">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -18877,216 +19572,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:18">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="4:19">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="3:18">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="3:18">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="4:19">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="3:18">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="3:18">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="3:15">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -19108,324 +19803,324 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="4" spans="3:24">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="R7" s="2"/>
-      <c r="X7" s="2" t="s">
+      <c r="D7" s="7"/>
+      <c r="R7" s="6"/>
+      <c r="X7" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="3:24">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="X10" s="1" t="s">
+      <c r="D10" s="6"/>
+      <c r="X10" s="5" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="X11" s="10"/>
+      <c r="S11" s="6"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="2"/>
-      <c r="S12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="S13" s="9"/>
-      <c r="X13" s="1" t="s">
+      <c r="D13" s="6"/>
+      <c r="S13" s="13"/>
+      <c r="X13" s="5" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="10"/>
-      <c r="Y14" s="1" t="s">
+      <c r="M14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="Y14" s="5" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="X16" s="1" t="s">
+      <c r="D16" s="6"/>
+      <c r="X16" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="4:18">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>1022</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="X19" s="2" t="s">
+      <c r="D19" s="6"/>
+      <c r="X19" s="6" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="20" spans="4:25">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="6"/>
-      <c r="Y20" s="1" t="s">
+      <c r="R20" s="6"/>
+      <c r="S20" s="10"/>
+      <c r="Y20" s="5" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="21" spans="4:16">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="5" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="X22" s="2" t="s">
+      <c r="D22" s="10"/>
+      <c r="X22" s="6" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="T23" s="6"/>
-      <c r="Y23" s="8" t="s">
+      <c r="R23" s="6"/>
+      <c r="T23" s="10"/>
+      <c r="Y23" s="12" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="15"/>
     </row>
     <row r="25" spans="3:24">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
-      <c r="X25" s="1" t="s">
+      <c r="D25" s="6"/>
+      <c r="L25" s="11"/>
+      <c r="X25" s="5" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X28" s="5" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="X31" s="5" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="32" spans="4:25">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Y32" s="5" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="33" spans="4:15">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="5" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="S34" s="12"/>
-      <c r="X34" s="1" t="s">
+      <c r="S34" s="16"/>
+      <c r="X34" s="5" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="35" spans="4:25">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="Y35" s="1" t="s">
+      <c r="E35" s="9"/>
+      <c r="Y35" s="5" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="36" spans="4:25">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Y36" s="5" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="X38" s="5" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="39" spans="4:25">
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Y39" s="5" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="X41" s="5" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="42" spans="4:25">
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>1058</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Y42" s="5" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="5" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="16" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="X45" s="5" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1" spans="3:12">
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="5" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -19447,305 +20142,305 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:27">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="AA2" s="6"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="3:21">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1070</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="5" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="3:21">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="U6" s="1" t="s">
+      <c r="D6" s="7"/>
+      <c r="U6" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="AB7" s="7"/>
+      <c r="S7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="AB7" s="11"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="2"/>
-      <c r="AB8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="AB8" s="11"/>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="U9" s="1" t="s">
+      <c r="D9" s="6"/>
+      <c r="U9" s="5" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="2"/>
-      <c r="Y11" s="10"/>
+      <c r="T11" s="6"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="1" t="s">
+      <c r="D12" s="6"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="5" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="V13" s="1" t="s">
+      <c r="T13" s="13"/>
+      <c r="V13" s="5" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="V14" s="1" t="s">
+      <c r="M14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="V14" s="5" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="16" spans="3:27">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="U16" s="1" t="s">
+      <c r="D16" s="6"/>
+      <c r="U16" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="AA16" s="13"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="S17" s="2"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="T18" s="6"/>
     </row>
     <row r="19" spans="3:25">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="U19" s="1" t="s">
+      <c r="D19" s="6"/>
+      <c r="U19" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="6"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>1091</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="6"/>
-      <c r="V20" s="1" t="s">
+      <c r="S20" s="6"/>
+      <c r="T20" s="10"/>
+      <c r="V20" s="5" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="D21" s="2"/>
-      <c r="Q21" s="1" t="s">
+      <c r="D21" s="6"/>
+      <c r="Q21" s="5" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="U22" s="1" t="s">
+      <c r="D22" s="10"/>
+      <c r="U22" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="U23" s="6"/>
-      <c r="Z23" s="8"/>
+      <c r="S23" s="6"/>
+      <c r="U23" s="10"/>
+      <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="W24" s="11"/>
+      <c r="W24" s="15"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="5" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="27" spans="4:22">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="5" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="5" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="5" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="32" spans="3:21">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" s="5" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="33" spans="4:22">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="5" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="34" spans="4:22">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="T34" s="12"/>
-      <c r="V34" s="1" t="s">
+      <c r="T34" s="16"/>
+      <c r="V34" s="5" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="35" spans="4:22">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="V35" s="1" t="s">
+      <c r="E35" s="9"/>
+      <c r="V35" s="5" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="38" spans="3:12">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="5" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="5" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="42" spans="3:7">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="5" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="5" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -19762,217 +20457,508 @@
   <sheetPr/>
   <dimension ref="C1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:27">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="AA2" s="6"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="5" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:19">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="S6" s="1" t="s">
+      <c r="D6" s="7"/>
+      <c r="S6" s="5" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="AB7" s="7"/>
+      <c r="Y7" s="6"/>
+      <c r="AB7" s="11"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>1135</v>
       </c>
-      <c r="AB8" s="7"/>
+      <c r="AB8" s="11"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="S9" s="1" t="s">
+      <c r="D9" s="6"/>
+      <c r="S9" s="5" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="2"/>
-      <c r="Y11" s="10"/>
+      <c r="T11" s="6"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="S12" s="1" t="s">
+      <c r="D12" s="6"/>
+      <c r="S12" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="T12" s="8"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="T13" s="9"/>
+      <c r="T13" s="13"/>
     </row>
     <row r="14" spans="4:18">
-      <c r="D14" s="2"/>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="D14" s="6"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="S15" s="1" t="s">
+      <c r="D15" s="7"/>
+      <c r="S15" s="5" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="AA16" s="13"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="4"/>
-      <c r="S17" s="2"/>
+      <c r="D17" s="8"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="S18" s="1" t="s">
+      <c r="D18" s="6"/>
+      <c r="S18" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="T18" s="2"/>
+      <c r="T18" s="6"/>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="6"/>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="S21" s="1" t="s">
+      <c r="D21" s="6"/>
+      <c r="S21" s="5" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="U23" s="6"/>
-      <c r="Z23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="U23" s="10"/>
+      <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="S24" s="1" t="s">
+      <c r="D24" s="7"/>
+      <c r="S24" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="W24" s="11"/>
+      <c r="W24" s="15"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="5" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="12"/>
+      <c r="T34" s="16"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="1" max="7" width="8.88888888888889" style="1"/>
+    <col min="8" max="8" width="34.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -19988,273 +20974,273 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="S5" s="10"/>
+      <c r="V5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="4:22">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="4:22">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="4:19">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="4:27">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AA25" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="11:26">
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="3:22">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="37" spans="3:10">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="38" spans="3:10">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="5:10">
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="42" ht="23.05" customHeight="1" spans="3:9">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="44" spans="3:9">
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -20276,188 +21262,188 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="1"/>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="1" t="s">
+      <c r="V5" s="10"/>
+      <c r="W5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="4:25">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="Y9" s="20"/>
+      <c r="Y9" s="24"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="U12" s="2" t="s">
+      <c r="D12" s="6"/>
+      <c r="U12" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="26" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" spans="14:14">
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="27" spans="3:21">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="6:9">
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="5" t="s">
         <v>198</v>
       </c>
     </row>
@@ -20480,243 +21466,243 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="1"/>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="3:25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="V5" s="10"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="4:25">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="Y9" s="20"/>
+      <c r="Y9" s="24"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="S11" s="2" t="s">
+      <c r="D11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="22"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="4:20">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="19" spans="4:20">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="21" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="1">
+      <c r="C34" s="5">
         <v>9</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="5" t="s">
         <v>248</v>
       </c>
     </row>
@@ -20739,232 +21725,232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="1"/>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="X5" s="1" t="s">
+      <c r="V5" s="10"/>
+      <c r="X5" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="4:24">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="4:24">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="4:26">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="Z10" s="19" t="s">
+      <c r="Z10" s="23" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="12:38">
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="AL12" s="1" t="s">
+      <c r="Y12" s="24"/>
+      <c r="AL12" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="X13" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="4:25">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Y15" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="Z17" s="21" t="s">
+      <c r="Z17" s="25" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="X19" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="20" spans="4:25">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="X24" s="2" t="s">
+      <c r="X24" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Y25" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="26" spans="4:25">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Y26" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X28" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="X31" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="X34" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="38" spans="3:7">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>299</v>
       </c>
     </row>
@@ -20987,223 +21973,223 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="1"/>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="V5" s="10"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="V7" s="2" t="s">
+      <c r="D7" s="6"/>
+      <c r="V7" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="9" spans="4:23">
-      <c r="D9" s="2"/>
-      <c r="W9" s="1" t="s">
+      <c r="D9" s="6"/>
+      <c r="W9" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="Z11" s="19"/>
+      <c r="Z11" s="23"/>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="V12" s="2" t="s">
+      <c r="D12" s="6"/>
+      <c r="V12" s="6" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="13" spans="4:25">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="24"/>
     </row>
     <row r="15" spans="3:25">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="V15" s="2" t="s">
+      <c r="D15" s="6"/>
+      <c r="V15" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="Y15" s="6"/>
+      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="3:26">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="W18" s="18"/>
-      <c r="Z18" s="21"/>
+      <c r="W18" s="22"/>
+      <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="2"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="V27" s="2" t="s">
+      <c r="D27" s="6"/>
+      <c r="V27" s="6" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="5" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="31" spans="3:22">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="3"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="3:22">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38" spans="3:9">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="5" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="5" t="s">
         <v>343</v>
       </c>
     </row>
@@ -21226,234 +22212,234 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="3" spans="3:23">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="6" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="6" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="8" spans="4:24">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="9" spans="4:24">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9" s="6" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="W14" s="6" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="5" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="11" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="18" spans="3:23">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="21" spans="3:23">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="6" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="3:23">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" s="5" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="30" spans="3:23">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="W30" s="6" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="32" spans="3:23">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="5" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="5" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="5" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>394</v>
       </c>
     </row>
@@ -21476,272 +22462,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="6" spans="3:25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="5" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="3:25">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="12" spans="3:25">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="5" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="15" spans="3:25">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Y15" s="6" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="6" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="Z17" s="17" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="Z18" s="6" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="21" spans="3:25">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y21" s="6" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="22" spans="4:26">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="Z22" s="6" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="24" spans="4:24">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="5" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="25" spans="3:25">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Y25" s="6" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="26" spans="4:26">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="Z26" s="2" t="s">
+      <c r="Z26" s="6" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="27" spans="4:26">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="6" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="28" spans="4:26">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="6" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="29" spans="4:26">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="Z29" s="2" t="s">
+      <c r="Z29" s="6" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="30" spans="4:26">
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="34" spans="4:18">
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="R34" s="5" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="35" spans="3:25">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="Y35" s="6" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="36" spans="4:26">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="Z36" s="6" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="39" spans="3:25">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Y39" s="5" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="5" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="5" t="s">
         <v>455</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="635" firstSheet="15" activeTab="22"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="635" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,15 @@
     <sheet name="20220703" sheetId="21" r:id="rId21"/>
     <sheet name="20220710" sheetId="22" r:id="rId22"/>
     <sheet name="20220717" sheetId="23" r:id="rId23"/>
+    <sheet name="20220724" sheetId="24" r:id="rId24"/>
+    <sheet name="20220731" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1318">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -14674,6 +14676,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">A: This is going great. it's </t>
     </r>
     <r>
@@ -14700,6 +14708,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Small </t>
     </r>
     <r>
@@ -14732,6 +14746,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>wǒ hěn hǎo 。jū rán néng yù dào nǐ ，</t>
     </r>
     <r>
@@ -14809,6 +14829,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>tǐng hǎo de ，wǒ men yī qǐ chū qù hē le jǐ bēi ，</t>
     </r>
     <r>
@@ -14853,6 +14879,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">then </t>
     </r>
     <r>
@@ -14882,6 +14914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">A: Well, we were talking and </t>
     </r>
     <r>
@@ -14914,6 +14952,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">a sudden, Matt saw a </t>
     </r>
     <r>
@@ -14955,6 +14999,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>wǒ men zài shuō zhe huà ，</t>
     </r>
     <r>
@@ -14978,6 +15028,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">He started </t>
     </r>
     <r>
@@ -15019,6 +15075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">tán gōng zuò ，jiā tíng。tū rán ，Matt kàn jiàn yī zhī </t>
     </r>
     <r>
@@ -15060,6 +15122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">rán hòu tā </t>
     </r>
     <r>
@@ -15110,6 +15178,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">his chair and started </t>
     </r>
     <r>
@@ -15136,6 +15210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">have been there, everyone was </t>
     </r>
     <r>
@@ -15159,6 +15239,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">xiàng xiǎo nǚ hái yī yàng kāi shǐ </t>
     </r>
     <r>
@@ -15173,6 +15259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">nǐ zhēn gāi lái kàn kàn ，měi gè rén dōu </t>
     </r>
     <r>
@@ -15235,6 +15327,1048 @@
   </si>
   <si>
     <t>a little better then just so so.</t>
+  </si>
+  <si>
+    <t>Asking for favor</t>
+  </si>
+  <si>
+    <t>A: 嗯，不好意思打扰你，我叫Rachel。我是新来的，可以请你</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  Um... sorry to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bother you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, Um...my name is Rachel.</t>
+    </r>
+  </si>
+  <si>
+    <t>帮个忙吗？</t>
+  </si>
+  <si>
+    <t>i'm new here. Can i ask you for a favor?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">èn ，bú hǎo yì sī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dǎ rǎo nǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ jiào Rachel。wǒ shì xīn lái de ，kě yǐ qǐng nǐ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bāng gè máng ma </t>
+  </si>
+  <si>
+    <t>B: 嘿，Rachel，欢迎加入我们公司。恐怕我现在帮不了你，</t>
+  </si>
+  <si>
+    <t>B: Hi, Rachel, Welcome on board. i'm afraid i can't help</t>
+  </si>
+  <si>
+    <t>我正在准备要参加一个重要的会议。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">you right now. i'm getting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for a very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>important</t>
+    </r>
+  </si>
+  <si>
+    <t>meeting.</t>
+  </si>
+  <si>
+    <t>hēi ，Rachel，huān yíng jiā rù wǒ men gōng sī 。kǒng pà wǒ xiàn zài bāng bú liao nǐ ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wǒ zhèng zài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhǔn bèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yào cān jiā yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhòng yào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de huì yì </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 实在抱歉，我能打扰你一会儿吗？</t>
+  </si>
+  <si>
+    <t>A: Excuse me, but can i bother you for a sec?</t>
+  </si>
+  <si>
+    <t>shí zài bào qiàn ，wǒ néng dǎ rǎo nǐ yī huì ér ma ？</t>
+  </si>
+  <si>
+    <t>C: 你知道吗？我是想帮你的，但是我要去见一位重要的客户，</t>
+  </si>
+  <si>
+    <t>C:  You know what, i'd love to help you, but i'm about to</t>
+  </si>
+  <si>
+    <t>你看要不要换Sean问问？他坐在那边。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">meet an important </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Do you want to try Sean instead?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ zhī dào ma ？wǒ shì xiǎng bāng nǐ de ，dàn shì wǒ yào qù jiàn yī wèi </t>
+  </si>
+  <si>
+    <t>He sits right over there.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhòng yào de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kè hù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, nǐ kàn yào bú yào huàn Sean  wèn wèn ？tā zuò zài nà biān </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 不好意思，Sean，能帮我个小忙吗？</t>
+  </si>
+  <si>
+    <t>A: Sorry to interrupt you. Sean. Could you do me a quick favor?</t>
+  </si>
+  <si>
+    <t>bú hǎo yì sī ，Sean，néng bāng wǒ gè xiǎo máng ma ？</t>
+  </si>
+  <si>
+    <t>D: 实际上，我正在写一个文件，需要在几分钟内完成。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">D: Actually. i'm working on a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> that is due in a couple of</t>
+    </r>
+  </si>
+  <si>
+    <t>我现在真的不能和你聊天，不好意思。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mintues. i really can't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>talk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to you right now. Sorry about that.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shí jì shàng ，wǒ zhèng zài xiě yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wén jiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，xū yào zài jǐ fèn zhōng nèi wán chéng </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xiàn zài zhēn de bú néng hé nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liáo tiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，bú hǎo yì sī 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A:天啊，我只想知道厕所在哪里，这些人是怎么了？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: oh my god. i just want to know where the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bathroom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tiān ā ，wǒ zhī xiǎng zhī dào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cè suǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zài nǎ lǐ ，zhè xiē rén shì zěn me le ？</t>
+    </r>
+  </si>
+  <si>
+    <t>What's wrong with you people?</t>
+  </si>
+  <si>
+    <t>帮不了</t>
+  </si>
+  <si>
+    <t>bang bu liao</t>
+  </si>
+  <si>
+    <t>have no ability to help you</t>
+  </si>
+  <si>
+    <t>不能帮</t>
+  </si>
+  <si>
+    <t>bu neng bang</t>
+  </si>
+  <si>
+    <t>do not help you.</t>
+  </si>
+  <si>
+    <t>Courses in University</t>
+  </si>
+  <si>
+    <t>A: 对不起，请问这里是登记处吗？我想</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Excuse me, is this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>where i register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>报名参加下学期的课程。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i'd like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sign up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for my courses for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>next semester</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>duì bú qǐ ，qǐng wèn zhè lǐ shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dēng jì chù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？wǒ xiǎng </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bào míng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cān jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xià xué qī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de kè chéng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 是的，当然可以，麻烦给我一下你的学生证。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yes, of course. i need your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>student ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> please.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，dāng rán kě yǐ ，má fán gěi wǒ yī xià nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xué shēng zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 给你。</t>
+  </si>
+  <si>
+    <t>A: Here you are.</t>
+  </si>
+  <si>
+    <t>gěi nǐ 。</t>
+  </si>
+  <si>
+    <t>B: 好的，susan，上面写着你是商务专业二年级，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Okay, Susan. It says here that you're a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>business</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>major</t>
+    </r>
+  </si>
+  <si>
+    <t>请问信息对吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and you're in your second year. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ，susan，shàng miàn xiě zhe nǐ shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shāng wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhuān yè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> èr nián jí ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>qǐng wèn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xìn xī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dui ma  </t>
+    </r>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>A:是的，没有问题。我的确希望今年能够多拿一些学分，</t>
+  </si>
+  <si>
+    <t>A: yes. i do want to take some additional credits this year</t>
+  </si>
+  <si>
+    <t>然后辅修心理学。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to get a minor in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>shì de ，méi yǒu wèn tí 。wǒ di què xī wàng jīn nián néng gòu duō ná yī xiē xué fen ，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rán hòu fǔ xiū </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xīn lǐ xué</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>make sure</t>
+  </si>
+  <si>
+    <t>B；  好的，没问题了，你有这学期想要报名的课程列表吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Sure. That's not a problem. Do you have this list of </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hǎo de ，méi wèn tí le ，nǐ yǒu zhè xué qī xiǎng yào </t>
+  </si>
+  <si>
+    <r>
+      <t>courses  you want to take</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this semester.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bào míng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kè chéng liè biǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>A: 有的，给你。不过我不确定是否还能安排下所有课程。</t>
+  </si>
+  <si>
+    <t>A: Yeah, Here is my list. i'm not sure if the class schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yǒu de ，gěi nǐ 。bú guò wǒ bú què dìng shì fǒu </t>
+  </si>
+  <si>
+    <t>will allow me to take all of them though.</t>
+  </si>
+  <si>
+    <r>
+      <t>hái néng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ān pái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xià suǒ yǒu kè chéng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 可以的，很完美，你要辅修的科目？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yeah, That's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>perfect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. What about the subjects for your minor?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kě yǐ de ，hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wán měi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ yào fǔ xiū de kē mù ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 对了，差点忘了。我想修基础语言学，消费者心理。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Oh yeah! almosta forgot, I need to take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fundamental linguistics.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">duì le ，chà diǎn wàng le 。wǒ xiǎng xiū </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jī chǔ yǔ yán xué</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> psychology.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiāo fèi zhě</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xīn lǐ</t>
+    </r>
+  </si>
+  <si>
+    <t>B: Wow, 你这学期会很忙的。好了，给你，已经登记好了。</t>
+  </si>
+  <si>
+    <t>B: Wow, You're going to be busy this semester. Okay, here you go.</t>
+  </si>
+  <si>
+    <t>在课程开始之前要先去交学费。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You're registered now. You'll have to make you first </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tuition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Wow, nǐ zhè xué qī huì hěn máng de 。hǎo le ，gěi nǐ ，</t>
+  </si>
+  <si>
+    <r>
+      <t>payment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> befor classes start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yǐ jīng dēng jì hǎo le 。zài kè chéng kāi shǐ zhī qián yào xiān qù jiāo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xué fèi</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -15255,6 +16389,88 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF407927"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -15270,70 +16486,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00864B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF407927"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A65D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15583,27 +16735,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15975,151 +17109,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -16131,18 +17264,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16538,213 +17674,213 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AB8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="W13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="3:23">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="W16" s="5" t="s">
+      <c r="D16" s="10"/>
+      <c r="W16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="21"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="8"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="29" t="s">
+      <c r="X21" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="21"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="X25" s="5" t="s">
+      <c r="X25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:23">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="8"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="8"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="8"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="21:30">
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W34" s="5" t="s">
+      <c r="W34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y34" s="5" t="s">
+      <c r="Y34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD34" s="21"/>
+      <c r="AD34" s="23"/>
     </row>
     <row r="35" spans="23:25">
-      <c r="W35" s="5" t="s">
+      <c r="W35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y35" s="5" t="s">
+      <c r="Y35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16766,197 +17902,197 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Z3" s="6"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="5" spans="11:11">
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="1" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="1" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="16" spans="3:20">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="U17" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="Z17" s="17"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="7" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="20" spans="4:21">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="12" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="21" spans="4:21">
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="7" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="26" spans="12:12">
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="12" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="T27" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="29" spans="13:13">
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="1" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="30" spans="3:20">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" s="1" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>496</v>
       </c>
     </row>
@@ -16979,262 +18115,262 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="Z3" s="6"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="4:22">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="1" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="AA9" s="11"/>
+      <c r="AA9" s="12"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="U10" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="1" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="U18" s="7" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="5" t="s">
+      <c r="U19" s="12"/>
+      <c r="V19" s="1" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="U23" s="6" t="s">
+      <c r="D23" s="7"/>
+      <c r="U23" s="7" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="1" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="V25" s="15" t="s">
+      <c r="V25" s="14" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="V26" s="5" t="s">
+      <c r="L26" s="12"/>
+      <c r="V26" s="1" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U28" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="30" spans="4:22">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="V30" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="1" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="1" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="U37" s="5" t="s">
+      <c r="U37" s="1" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="U40" s="5" t="s">
+      <c r="U40" s="1" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="1" t="s">
         <v>552</v>
       </c>
     </row>
@@ -17257,264 +18393,264 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="4" spans="4:25">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="10" spans="3:24">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="1" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="11" spans="4:25">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="Y11" s="6" t="s">
+      <c r="Y11" s="7" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="13" spans="4:16">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="1" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="14" spans="3:24">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="1" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="15" spans="4:26">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="Z15" s="17"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="X17" s="7" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="18" spans="4:25">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="Y18" s="6" t="s">
+      <c r="U18" s="12"/>
+      <c r="Y18" s="7" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="21" spans="3:24">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="X21" s="6" t="s">
+      <c r="D21" s="7"/>
+      <c r="X21" s="7" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="22" spans="4:32">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="AF22" s="5" t="s">
+      <c r="AF22" s="1" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="V24" s="15"/>
-      <c r="X24" s="6" t="s">
+      <c r="V24" s="14"/>
+      <c r="X24" s="7" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="Y25" s="6" t="s">
+      <c r="L25" s="12"/>
+      <c r="Y25" s="7" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="X27" s="5" t="s">
+      <c r="X27" s="1" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="X30" s="6" t="s">
+      <c r="D30" s="7"/>
+      <c r="X30" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="1" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="1" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>610</v>
       </c>
     </row>
@@ -17537,234 +18673,234 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="3" spans="3:23">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="1" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="6" spans="3:23">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="W6" s="6" t="s">
+      <c r="D6" s="7"/>
+      <c r="W6" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="W10" s="7" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="X11" s="14" t="s">
+      <c r="X11" s="9" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="12" spans="4:24">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="1" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="1" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="X16" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="18" spans="3:23">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="W18" s="7" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="19" spans="4:24">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="X19" s="6" t="s">
+      <c r="U19" s="12"/>
+      <c r="X19" s="7" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="22" spans="3:23">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="W22" s="6" t="s">
+      <c r="D22" s="7"/>
+      <c r="W22" s="7" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="25" spans="3:23">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="V25" s="15"/>
-      <c r="W25" s="5" t="s">
+      <c r="V25" s="14"/>
+      <c r="W25" s="1" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="26" spans="4:24">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="X26" s="6" t="s">
+      <c r="L26" s="12"/>
+      <c r="X26" s="7" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="27" spans="4:24">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="X27" s="5" t="s">
+      <c r="L27" s="12"/>
+      <c r="X27" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="30" spans="3:23">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="W30" s="6" t="s">
+      <c r="W30" s="7" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="6"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="35" spans="3:10">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="1" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="37" ht="82.8" spans="3:10">
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="1" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>659</v>
       </c>
     </row>
@@ -17787,275 +18923,275 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="1" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="T6" s="6" t="s">
+      <c r="D6" s="7"/>
+      <c r="T6" s="7" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="7" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="7" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="1" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="6"/>
-      <c r="Z16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="T17" s="6" t="s">
+      <c r="D17" s="7"/>
+      <c r="T17" s="7" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="11"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="1" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="6"/>
-      <c r="J22" s="5" t="s">
+      <c r="D22" s="7"/>
+      <c r="J22" s="1" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="T23" s="6" t="s">
+      <c r="D23" s="7"/>
+      <c r="T23" s="7" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="25" spans="13:22">
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="V25" s="15"/>
+      <c r="V25" s="14"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="L26" s="11"/>
-      <c r="T26" s="6" t="s">
+      <c r="D26" s="7"/>
+      <c r="L26" s="12"/>
+      <c r="T26" s="7" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="D28" s="6"/>
-      <c r="N28" s="5" t="s">
+      <c r="D28" s="7"/>
+      <c r="N28" s="1" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="T29" s="5" t="s">
+      <c r="D29" s="7"/>
+      <c r="T29" s="1" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="32" spans="3:20">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="T32" s="5" t="s">
+      <c r="D32" s="7"/>
+      <c r="T32" s="1" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="20"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="3:9">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="43" ht="124.2" spans="3:10">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="22" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="44" spans="7:10">
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="10" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="1" t="s">
         <v>715</v>
       </c>
     </row>
@@ -18078,384 +19214,384 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="6" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="4" spans="4:25">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="7" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="7" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="7" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="10" spans="3:24">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="X10" s="6" t="s">
+      <c r="D10" s="6"/>
+      <c r="X10" s="7" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="11" spans="4:25">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="6" t="s">
+      <c r="X11" s="9"/>
+      <c r="Y11" s="7" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="20" t="s">
         <v>735</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="9" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="15" spans="3:24">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="X15" s="6" t="s">
+      <c r="D15" s="7"/>
+      <c r="X15" s="7" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="Y16" s="5" t="s">
+      <c r="Y16" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="11"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="X20" s="5" t="s">
+      <c r="X20" s="1" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="7" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="6" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="1" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="1" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="V25" s="15"/>
-      <c r="Y25" s="5" t="s">
+      <c r="V25" s="14"/>
+      <c r="Y25" s="1" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="29" spans="3:25">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="Y29" s="6" t="s">
+      <c r="D29" s="7"/>
+      <c r="Y29" s="7" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="X32" s="6" t="s">
+      <c r="D32" s="7"/>
+      <c r="X32" s="7" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="33" spans="4:25">
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="Y33" s="6" t="s">
+      <c r="Y33" s="7" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="1" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="36" spans="3:25">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="Y36" s="5" t="s">
+      <c r="Y36" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="37" spans="3:25">
-      <c r="C37" s="20"/>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="Y37" s="5" t="s">
+      <c r="Y37" s="1" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="10" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="39" spans="9:9">
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="23" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="40" spans="3:25">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="Y40" s="5" t="s">
+      <c r="Y40" s="1" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="41" spans="4:25">
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="Y41" s="5" t="s">
+      <c r="Y41" s="1" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="42" spans="4:25">
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="Y42" s="5" t="s">
+      <c r="Y42" s="1" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="J43" s="20"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="4:10">
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="J44" s="8"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="16:16">
-      <c r="P45" s="5" t="s">
+      <c r="P45" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="46" spans="16:16">
-      <c r="P46" s="5" t="s">
+      <c r="P46" s="1" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="47" spans="4:16">
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P47" s="1" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="48" spans="4:7">
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="1" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="49" spans="4:7">
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="1" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="50" ht="17.85" customHeight="1" spans="4:7">
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="1" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="52" spans="4:7">
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="53" spans="4:7">
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="1" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="54" spans="4:7">
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="1" t="s">
         <v>799</v>
       </c>
     </row>
@@ -18477,203 +19613,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.49074074074074" style="5" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="1" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="T6" s="5" t="s">
+      <c r="D6" s="7"/>
+      <c r="T6" s="1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="T10" s="6" t="s">
+      <c r="D10" s="6"/>
+      <c r="T10" s="7" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="T14" s="5" t="s">
+      <c r="D14" s="20"/>
+      <c r="M14" s="6"/>
+      <c r="Q14" s="9"/>
+      <c r="T14" s="1" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="6"/>
-      <c r="L16" s="5" t="s">
+      <c r="D16" s="7"/>
+      <c r="L16" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="T17" s="6" t="s">
+      <c r="D17" s="6"/>
+      <c r="T17" s="7" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="1" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="U19" s="11"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="7" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="S21" s="10"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="T23" s="5" t="s">
+      <c r="D23" s="6"/>
+      <c r="T23" s="1" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="24" spans="4:21">
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U24" s="7" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="V25" s="15"/>
+      <c r="V25" s="14"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -18694,260 +19830,260 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="1" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="R7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="R7" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="AA8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="R10" s="5" t="s">
+      <c r="D10" s="6"/>
+      <c r="R10" s="1" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="5" t="s">
+      <c r="D14" s="20"/>
+      <c r="M14" s="6"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="1" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="6"/>
-      <c r="Z16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="R17" s="6" t="s">
+      <c r="D17" s="6"/>
+      <c r="R17" s="7" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="7" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="6" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="7" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="24" spans="3:32">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="V24" s="15"/>
-      <c r="AD24" s="5" t="s">
+      <c r="V24" s="14"/>
+      <c r="AD24" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="AF24" s="5" t="s">
+      <c r="AF24" s="1" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="6"/>
-      <c r="L25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="1" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="1" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="1" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="1" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="1" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="1" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="1" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="1" t="s">
         <v>889</v>
       </c>
     </row>
@@ -18970,326 +20106,326 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="1" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="S8" s="5" t="s">
+      <c r="D8" s="7"/>
+      <c r="S8" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="10"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="S14" s="5" t="s">
+      <c r="D14" s="20"/>
+      <c r="M14" s="6"/>
+      <c r="Q14" s="9"/>
+      <c r="S14" s="1" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="6"/>
-      <c r="Z16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="S17" s="6" t="s">
+      <c r="D17" s="6"/>
+      <c r="S17" s="7" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="7" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="S20" s="10"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="S22" s="5" t="s">
+      <c r="D22" s="6"/>
+      <c r="S22" s="1" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="T23" s="10" t="s">
+      <c r="T23" s="6" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="V24" s="15"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="L25" s="11"/>
-      <c r="S25" s="5" t="s">
+      <c r="D25" s="7"/>
+      <c r="L25" s="12"/>
+      <c r="S25" s="1" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="1" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="8"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="1" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="1" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="1" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="S35" s="5" t="s">
+      <c r="E35" s="5"/>
+      <c r="S35" s="1" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="S38" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="1" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="1" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="1" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="1" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="46" spans="3:9">
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="1" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="47" spans="3:9">
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="1" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="48" spans="3:9">
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="1" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1" spans="3:9">
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="1" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="50" spans="5:9">
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="1" t="s">
         <v>957</v>
       </c>
     </row>
@@ -19311,89 +20447,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="4" spans="3:18">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="1" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="R7" s="6" t="s">
+      <c r="D7" s="8"/>
+      <c r="R7" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="X11" s="14"/>
+      <c r="S11" s="7"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="11" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="13" spans="4:19">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>972</v>
       </c>
       <c r="S13" s="13" t="s">
@@ -19401,155 +20537,155 @@
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
+      <c r="M14" s="6"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="R17" s="6" t="s">
+      <c r="D17" s="6"/>
+      <c r="R17" s="7" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="7" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="R20" s="6" t="s">
+      <c r="D20" s="7"/>
+      <c r="R20" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="S20" s="10"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="T23" s="10"/>
+      <c r="T23" s="6"/>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="V24" s="15"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="6"/>
-      <c r="L25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="1" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="1" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="8"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="1" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="30" spans="3:18">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="1" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="33" spans="3:18">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="1" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="34" spans="4:19">
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="S34" s="16" t="s">
+      <c r="S34" s="15" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:18">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="R36" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -19572,216 +20708,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:18">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="4:19">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="3:18">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="3:18">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="4:19">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="3:18">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="3:18">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="3:15">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -19803,324 +20939,324 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="4" spans="3:24">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="R7" s="6"/>
-      <c r="X7" s="6" t="s">
+      <c r="D7" s="8"/>
+      <c r="R7" s="7"/>
+      <c r="X7" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="3:24">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="X10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="X10" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="X11" s="14"/>
+      <c r="S11" s="7"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="6"/>
-      <c r="S12" s="12"/>
+      <c r="D12" s="7"/>
+      <c r="S12" s="11"/>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="S13" s="13"/>
-      <c r="X13" s="5" t="s">
+      <c r="X13" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="Y14" s="5" t="s">
+      <c r="M14" s="6"/>
+      <c r="Q14" s="9"/>
+      <c r="Y14" s="1" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="X16" s="5" t="s">
+      <c r="D16" s="7"/>
+      <c r="X16" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="4:18">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="X19" s="6" t="s">
+      <c r="D19" s="7"/>
+      <c r="X19" s="7" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="20" spans="4:25">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="10"/>
-      <c r="Y20" s="5" t="s">
+      <c r="R20" s="7"/>
+      <c r="S20" s="6"/>
+      <c r="Y20" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="21" spans="4:16">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="X22" s="6" t="s">
+      <c r="D22" s="6"/>
+      <c r="X22" s="7" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="T23" s="10"/>
-      <c r="Y23" s="12" t="s">
+      <c r="R23" s="7"/>
+      <c r="T23" s="6"/>
+      <c r="Y23" s="11" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="V24" s="15"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" spans="3:24">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="L25" s="11"/>
-      <c r="X25" s="5" t="s">
+      <c r="D25" s="7"/>
+      <c r="L25" s="12"/>
+      <c r="X25" s="1" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="X28" s="1" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="X31" s="5" t="s">
+      <c r="X31" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="32" spans="4:25">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="Y32" s="5" t="s">
+      <c r="Y32" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="33" spans="4:15">
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="X34" s="5" t="s">
+      <c r="S34" s="15"/>
+      <c r="X34" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="35" spans="4:25">
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="Y35" s="5" t="s">
+      <c r="E35" s="5"/>
+      <c r="Y35" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="36" spans="4:25">
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="Y36" s="5" t="s">
+      <c r="Y36" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="X38" s="5" t="s">
+      <c r="X38" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="39" spans="4:25">
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="Y39" s="5" t="s">
+      <c r="Y39" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="X41" s="5" t="s">
+      <c r="X41" s="1" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="42" spans="4:25">
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="Y42" s="5" t="s">
+      <c r="Y42" s="1" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="1" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="X45" s="5" t="s">
+      <c r="X45" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="1" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1" spans="3:12">
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="1" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -20142,305 +21278,305 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:27">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="3:21">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="1" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="3:21">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="U6" s="5" t="s">
+      <c r="D6" s="8"/>
+      <c r="U6" s="1" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="AB7" s="11"/>
+      <c r="S7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="AB7" s="12"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="6"/>
-      <c r="AB8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="AB8" s="12"/>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="U9" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="U9" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="6"/>
-      <c r="Y11" s="14"/>
+      <c r="T11" s="7"/>
+      <c r="Y11" s="9"/>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="5" t="s">
+      <c r="D12" s="7"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>1081</v>
       </c>
       <c r="T13" s="13"/>
-      <c r="V13" s="5" t="s">
+      <c r="V13" s="1" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="V14" s="5" t="s">
+      <c r="M14" s="6"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="V14" s="1" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="16" spans="3:27">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="U16" s="5" t="s">
+      <c r="D16" s="7"/>
+      <c r="U16" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="19"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>1088</v>
       </c>
-      <c r="S17" s="6"/>
+      <c r="S17" s="7"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="3:25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="U19" s="5" t="s">
+      <c r="D19" s="7"/>
+      <c r="U19" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="Y19" s="6"/>
+      <c r="Y19" s="7"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="10"/>
-      <c r="V20" s="5" t="s">
+      <c r="S20" s="7"/>
+      <c r="T20" s="6"/>
+      <c r="V20" s="1" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="D21" s="6"/>
-      <c r="Q21" s="5" t="s">
+      <c r="D21" s="7"/>
+      <c r="Q21" s="1" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="U22" s="5" t="s">
+      <c r="D22" s="6"/>
+      <c r="U22" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="Y22" s="6"/>
+      <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="U23" s="10"/>
-      <c r="Z23" s="12"/>
+      <c r="S23" s="7"/>
+      <c r="U23" s="6"/>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="W24" s="15"/>
+      <c r="W24" s="14"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="U26" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="27" spans="4:22">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="1" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="8"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="1" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="32" spans="3:21">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="1" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="33" spans="4:22">
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="1" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="34" spans="4:22">
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="T34" s="16"/>
-      <c r="V34" s="5" t="s">
+      <c r="T34" s="15"/>
+      <c r="V34" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="35" spans="4:22">
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="V35" s="5" t="s">
+      <c r="E35" s="5"/>
+      <c r="V35" s="1" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="38" spans="3:12">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="1" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="1" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="42" spans="3:7">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="1" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="1" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -20463,205 +21599,205 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:27">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:19">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="S6" s="5" t="s">
+      <c r="D6" s="8"/>
+      <c r="S6" s="1" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="5" t="s">
+      <c r="S7" s="7"/>
+      <c r="T7" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="Y7" s="6"/>
-      <c r="AB7" s="11"/>
+      <c r="Y7" s="7"/>
+      <c r="AB7" s="12"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="AB8" s="11"/>
+      <c r="AB8" s="12"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="S9" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="S9" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="6"/>
-      <c r="Y11" s="14"/>
+      <c r="T11" s="7"/>
+      <c r="Y11" s="9"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="S12" s="5" t="s">
+      <c r="D12" s="7"/>
+      <c r="S12" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="T12" s="12"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>1141</v>
       </c>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="4:18">
-      <c r="D14" s="6"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="D14" s="7"/>
+      <c r="M14" s="6"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="S15" s="5" t="s">
+      <c r="D15" s="8"/>
+      <c r="S15" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="19"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="8"/>
-      <c r="S17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="S17" s="7"/>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="S18" s="5" t="s">
+      <c r="D18" s="7"/>
+      <c r="S18" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="T18" s="6"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="Y19" s="6"/>
+      <c r="Y19" s="7"/>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="10"/>
+      <c r="D20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="6"/>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="S21" s="5" t="s">
+      <c r="D21" s="7"/>
+      <c r="S21" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="10" t="s">
         <v>1150</v>
       </c>
-      <c r="Y22" s="6"/>
+      <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="U23" s="10"/>
-      <c r="Z23" s="12"/>
+      <c r="D23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="U23" s="6"/>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="S24" s="5" t="s">
+      <c r="D24" s="8"/>
+      <c r="S24" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="W24" s="15"/>
+      <c r="W24" s="14"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>1154</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="1" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="16"/>
+      <c r="T34" s="15"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="9"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -20676,289 +21812,820 @@
   <sheetPr/>
   <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="7" width="8.88888888888889" style="1"/>
-    <col min="8" max="8" width="34.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="7" width="8.88888888888889" style="16"/>
+    <col min="8" max="8" width="34.4444444444444" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>1159</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="16" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="16" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>1164</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="16" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>1166</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="16" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="16" t="s">
         <v>1168</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="18" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="16" t="s">
         <v>1170</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="16" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="16" t="s">
         <v>1173</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="16" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="16" t="s">
         <v>1176</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="16" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="16" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="16" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
         <v>1183</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="16" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="16" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="16" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="16" t="s">
         <v>1187</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="16" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="16" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="16" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="16" t="s">
         <v>1193</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="16" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="16" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="16" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="16" t="s">
         <v>1197</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="16" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="16" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="16" t="s">
         <v>1200</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="16" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="16" t="s">
         <v>1202</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="16" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="16" t="s">
         <v>1204</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="16" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="16" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="16" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="16" t="s">
         <v>1208</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="16" t="s">
         <v>1209</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="16" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="16" t="s">
         <v>1211</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="16" t="s">
         <v>1212</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="16" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="16" t="s">
         <v>1214</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="16" t="s">
         <v>1215</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="16" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="16" t="s">
         <v>1216</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="16" t="s">
         <v>1217</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="16" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="16" t="s">
         <v>1219</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="16" t="s">
         <v>1220</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="16" t="s">
         <v>1221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AV49"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:27">
+      <c r="C2" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="2:27">
+      <c r="B3" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="4" spans="3:28">
+      <c r="C4" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29">
+      <c r="C5" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="3:29">
+      <c r="C6" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="25:44">
+      <c r="Y7" s="7"/>
+      <c r="AC7" s="8"/>
+      <c r="AR7" s="7"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AC8" s="7"/>
+    </row>
+    <row r="9" spans="3:46">
+      <c r="C9" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AC9" s="7"/>
+      <c r="AT9" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29">
+      <c r="C10" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AC10" s="7"/>
+    </row>
+    <row r="11" spans="3:45">
+      <c r="C11" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Y11" s="9"/>
+      <c r="AS11" s="7"/>
+    </row>
+    <row r="12" spans="29:45">
+      <c r="AC12" s="7"/>
+      <c r="AS12" s="11"/>
+    </row>
+    <row r="13" spans="29:45">
+      <c r="AC13" s="7"/>
+      <c r="AS13" s="13"/>
+    </row>
+    <row r="14" spans="2:43">
+      <c r="B14" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AC14" s="7"/>
+      <c r="AL14" s="6"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+    </row>
+    <row r="15" spans="3:29">
+      <c r="C15" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="29:29">
+      <c r="AC16" s="7"/>
+    </row>
+    <row r="17" spans="29:44">
+      <c r="AC17" s="10"/>
+      <c r="AR17" s="7"/>
+    </row>
+    <row r="18" spans="2:45">
+      <c r="B18" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AC18" s="7"/>
+      <c r="AS18" s="7"/>
+    </row>
+    <row r="19" spans="3:29">
+      <c r="C19" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Y19" s="7"/>
+      <c r="AB19" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AC19" s="7"/>
+    </row>
+    <row r="20" spans="3:45">
+      <c r="C20" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AC20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="6"/>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="C21" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="25:29">
+      <c r="Y22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="10"/>
+    </row>
+    <row r="23" spans="26:46">
+      <c r="Z23" s="11"/>
+      <c r="AC23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AT23" s="6"/>
+    </row>
+    <row r="24" spans="2:48">
+      <c r="B24" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AC24" s="8"/>
+      <c r="AV24" s="14"/>
+    </row>
+    <row r="25" spans="3:37">
+      <c r="C25" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AC25" s="7"/>
+      <c r="AK25" s="12"/>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB28" s="10" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28">
+      <c r="C29" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27">
+      <c r="B33" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="34" spans="3:45">
+      <c r="C34" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AS34" s="15"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="49" ht="17.85" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:Y40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="3" spans="3:24">
+      <c r="C3" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="4" spans="4:25">
+      <c r="D4" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="2" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24">
+      <c r="C8" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="10" ht="17.85" customHeight="1"/>
+    <row r="11" spans="3:24">
+      <c r="C11" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24">
+      <c r="C13" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="14" spans="4:25">
+      <c r="D14" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24">
+      <c r="C19" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="20" spans="4:25">
+      <c r="D20" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="D22" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24">
+      <c r="C23" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="24" spans="4:25">
+      <c r="D24" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="C27" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="28" spans="4:25">
+      <c r="D28" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20">
+      <c r="D29" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24">
+      <c r="C30" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24">
+      <c r="C33" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="34" spans="4:25">
+      <c r="D34" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24">
+      <c r="C37" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="38" spans="4:25">
+      <c r="D38" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="39" spans="4:25">
+      <c r="D39" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -20974,273 +22641,273 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="V5" s="10" t="s">
+      <c r="S5" s="6"/>
+      <c r="V5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="4:22">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="4:22">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="4:19">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="4:27">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AA25" s="5" t="s">
+      <c r="AA25" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="11:26">
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z26" s="5" t="s">
+      <c r="Z26" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="3:22">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="V30" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="37" spans="3:10">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="38" spans="3:10">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="5:10">
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="42" ht="23.05" customHeight="1" spans="3:9">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="44" spans="3:9">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -21262,188 +22929,188 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="1"/>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="5" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="4:25">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="Y9" s="24"/>
+      <c r="Y9" s="26"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="U12" s="6" t="s">
+      <c r="D12" s="7"/>
+      <c r="U12" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="28" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" spans="14:14">
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="27" spans="3:21">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="6:9">
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -21466,243 +23133,243 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="1"/>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="3:25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="V5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="4:25">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y9" s="24"/>
+      <c r="Y9" s="26"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="S11" s="6" t="s">
+      <c r="D11" s="7"/>
+      <c r="S11" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="26"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="4:20">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="19" spans="4:20">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="T26" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="23" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="5">
+      <c r="C34" s="1">
         <v>9</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -21725,232 +23392,232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="1"/>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="X5" s="5" t="s">
+      <c r="V5" s="6"/>
+      <c r="X5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="4:24">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="4:24">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="4:26">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="Z10" s="25" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="12:38">
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Y12" s="24"/>
-      <c r="AL12" s="5" t="s">
+      <c r="Y12" s="26"/>
+      <c r="AL12" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="Y14" s="10" t="s">
+      <c r="Y14" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="4:25">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="W17" s="22" t="s">
+      <c r="W17" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="Z17" s="25" t="s">
+      <c r="Z17" s="27" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="X19" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="20" spans="4:25">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="X24" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="26" spans="4:25">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="Y26" s="5" t="s">
+      <c r="Y26" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="X28" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="X31" s="5" t="s">
+      <c r="X31" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="X34" s="5" t="s">
+      <c r="X34" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="38" spans="3:7">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>299</v>
       </c>
     </row>
@@ -21973,223 +23640,223 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="1"/>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="V5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="V7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="V7" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="9" spans="4:23">
-      <c r="D9" s="6"/>
-      <c r="W9" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="W9" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="Z11" s="23"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="D12" s="7"/>
+      <c r="V12" s="7" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="13" spans="4:25">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="Y13" s="24"/>
+      <c r="Y13" s="26"/>
     </row>
     <row r="15" spans="3:25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="D15" s="7"/>
+      <c r="V15" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="3:26">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="W18" s="22"/>
-      <c r="Z18" s="25"/>
+      <c r="W18" s="24"/>
+      <c r="Z18" s="27"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="V21" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="6"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="V27" s="6" t="s">
+      <c r="D27" s="7"/>
+      <c r="V27" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="31" spans="3:22">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="V31" s="5" t="s">
+      <c r="V31" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="7"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="3:22">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="V34" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38" spans="3:9">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -22212,234 +23879,234 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="3" spans="3:23">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="7" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="8" spans="4:24">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" s="12" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="9" spans="4:24">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="X9" s="7" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="W14" s="7" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="18" spans="3:23">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="21" spans="3:23">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="W21" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="3:23">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="W27" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="30" spans="3:23">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="W30" s="6" t="s">
+      <c r="W30" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="32" spans="3:23">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="W32" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="1" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -22462,272 +24129,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="Z3" s="6"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="6" spans="3:25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="3:25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="Y9" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="12" spans="3:25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Y12" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="15" spans="3:25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="Z16" s="6" t="s">
+      <c r="Z16" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="Z17" s="17" t="s">
+      <c r="Z17" s="19" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="Z18" s="6" t="s">
+      <c r="Z18" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="21" spans="3:25">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="7" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="22" spans="4:26">
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="Z22" s="6" t="s">
+      <c r="Z22" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="24" spans="4:24">
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="25" spans="3:25">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="7" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="26" spans="4:26">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Z26" s="6" t="s">
+      <c r="Z26" s="7" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="27" spans="4:26">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Z27" s="6" t="s">
+      <c r="Z27" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="28" spans="4:26">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="Z28" s="6" t="s">
+      <c r="Z28" s="7" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="29" spans="4:26">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="Z29" s="6" t="s">
+      <c r="Z29" s="7" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="30" spans="4:26">
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="Z30" s="5" t="s">
+      <c r="Z30" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="34" spans="4:18">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="1" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="35" spans="3:25">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="Y35" s="6" t="s">
+      <c r="Y35" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="36" spans="4:26">
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="Z36" s="6" t="s">
+      <c r="Z36" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="39" spans="3:25">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="Y39" s="5" t="s">
+      <c r="Y39" s="1" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="1" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="1" t="s">
         <v>455</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="635" firstSheet="17" activeTab="24"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="635" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="20220717" sheetId="23" r:id="rId23"/>
     <sheet name="20220724" sheetId="24" r:id="rId24"/>
     <sheet name="20220731" sheetId="25" r:id="rId25"/>
+    <sheet name="20220807" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1382">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -15545,6 +15546,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhòng yào de </t>
     </r>
     <r>
@@ -15774,6 +15780,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Excuse me, is this </t>
     </r>
     <r>
@@ -15799,6 +15810,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i'd like to </t>
     </r>
     <r>
@@ -15838,6 +15854,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>duì bú qǐ ，qǐng wèn zhè lǐ shì</t>
     </r>
     <r>
@@ -15860,6 +15881,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>bào míng</t>
     </r>
     <r>
@@ -15893,6 +15920,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yes, of course. i need your </t>
     </r>
     <r>
@@ -15915,6 +15947,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì de ，dāng rán kě yǐ ，má fán gěi wǒ yī xià nǐ de </t>
     </r>
     <r>
@@ -15949,6 +15986,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Okay, Susan. It says here that you're a </t>
     </r>
     <r>
@@ -15986,6 +16028,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo de ，susan，shàng miàn xiě zhe nǐ shì </t>
     </r>
     <r>
@@ -16025,6 +16072,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>qǐng wèn</t>
     </r>
     <r>
@@ -16059,6 +16111,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">to get a minor in </t>
     </r>
     <r>
@@ -16084,6 +16141,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">rán hòu fǔ xiū </t>
     </r>
     <r>
@@ -16118,6 +16180,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>courses  you want to take</t>
     </r>
     <r>
@@ -16131,6 +16199,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bào míng de </t>
     </r>
     <r>
@@ -16168,6 +16241,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>hái néng</t>
     </r>
     <r>
@@ -16193,6 +16271,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yeah, That's </t>
     </r>
     <r>
@@ -16215,6 +16298,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">kě yǐ de ，hěn </t>
     </r>
     <r>
@@ -16240,6 +16328,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Oh yeah! almosta forgot, I need to take </t>
     </r>
     <r>
@@ -16254,6 +16347,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">duì le ，chà diǎn wàng le 。wǒ xiǎng xiū </t>
     </r>
     <r>
@@ -16276,6 +16374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>consumer</t>
     </r>
     <r>
@@ -16289,6 +16393,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>，</t>
     </r>
     <r>
@@ -16320,6 +16429,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">You're registered now. You'll have to make you first </t>
     </r>
     <r>
@@ -16345,6 +16459,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>payment</t>
     </r>
     <r>
@@ -16358,6 +16478,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">yǐ jīng dēng jì hǎo le 。zài kè chéng kāi shǐ zhī qián yào xiān qù jiāo </t>
     </r>
     <r>
@@ -16369,6 +16494,643 @@
       </rPr>
       <t>xué fèi</t>
     </r>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>A: 好的，孩子们，让我们复习一下。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Alright, children, let's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. Tommy, </t>
+    </r>
+  </si>
+  <si>
+    <t>Tommy, 注意听。</t>
+  </si>
+  <si>
+    <r>
+      <t>pay attention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ，hái zǐ men ，ràng wǒ men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fù xí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tommy, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhù yì tīng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。 </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 对不起，kadlec老师。</t>
+  </si>
+  <si>
+    <t>B: Sorry, Miss kadlec.</t>
+  </si>
+  <si>
+    <t>duì bú qǐ ，kadlec lǎo shī 。</t>
+  </si>
+  <si>
+    <t>A: 好的，Crystal。现在告诉我4加11等于多少？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Okay, Crystal. now </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tell me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, what's four puls eleven?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ，Crystal。xiàn zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gào sù wǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 jiā 11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>děng yú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> duō shǎo ？</t>
+    </r>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>C: 15.</t>
+  </si>
+  <si>
+    <t>C: fifteen.</t>
+  </si>
+  <si>
+    <t>shi  15</t>
+  </si>
+  <si>
+    <t>A: Kadlec老师总是提问crystal，她是老师的红人。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Miss Kadlec always asks crystal. She's such a teacher's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kadlec lǎo shī zǒng shì tí wèn crystal，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā shì lǎo shī de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hóng rén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好的，56减去60是多少？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Okay, and what about fifty six </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>minus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sixty?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> hǎo de ，56 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiǎn qù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 60 shì duō shǎo ？</t>
+    </r>
+  </si>
+  <si>
+    <t>C: 负4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Negative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> four.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> fù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 很好，12乘以12呢？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Very good, Twelve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>times</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> twelve?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hěn hǎo ，12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chéng yǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 12 ne </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 还很好，马屁精。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Very good. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Suck up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hái hěn hǎo ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mǎ pì jīng</t>
+    </r>
+  </si>
+  <si>
+    <t>C:144.</t>
+  </si>
+  <si>
+    <t>C: One hundred and forty four!</t>
+  </si>
+  <si>
+    <t>A: 0除以1？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: zero </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>divided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by one?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chú yǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 0</t>
+  </si>
+  <si>
+    <t>B: zero</t>
+  </si>
+  <si>
+    <t>A:你是怎么知道的？聪明的孩子。</t>
+  </si>
+  <si>
+    <t>A: How did you know that?</t>
+  </si>
+  <si>
+    <t>二的开平方？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Okay, smarty pants, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>square root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of two?</t>
+    </r>
+  </si>
+  <si>
+    <t>nǐ shì zěn me zhī dào de ？cōng míng de hái zǐ 。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">èr de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kāi píng fāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B:我猜你肯定不会，自以为是的家伙。</t>
+  </si>
+  <si>
+    <r>
+      <t>B:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you're not going to get that one, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>know-it-all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cāi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ kěn dìng bú huì ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zì yǐ wéi shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de jiā huǒ</t>
+    </r>
+  </si>
+  <si>
+    <t>C:1.412135.</t>
+  </si>
+  <si>
+    <t>C: one point four one four two one three five.</t>
+  </si>
+  <si>
+    <t>大红大紫</t>
+  </si>
+  <si>
+    <t>da hong da zi</t>
+  </si>
+  <si>
+    <t>in the limelight</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2th</t>
+  </si>
+  <si>
+    <t>2 X 2</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>2 ci fang</t>
+  </si>
+  <si>
+    <t>ping fang</t>
+  </si>
+  <si>
+    <t>3x3x3</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
+    <t>3 ci fang</t>
+  </si>
+  <si>
+    <t>li fang</t>
   </si>
 </sst>
 </file>
@@ -16395,13 +17157,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -16463,12 +17231,6 @@
       <color rgb="FF00A65D"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -17244,16 +18006,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17703,7 +18468,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
@@ -17722,7 +18487,7 @@
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17735,12 +18500,12 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
@@ -17759,7 +18524,7 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="12"/>
       <c r="W16" s="1" t="s">
         <v>17</v>
       </c>
@@ -17768,15 +18533,15 @@
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="23"/>
+      <c r="W17" s="24"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="10"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="1" t="s">
@@ -17790,23 +18555,23 @@
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="31" t="s">
+      <c r="X21" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="23"/>
+      <c r="W23" s="24"/>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="W24" s="1" t="s">
@@ -17814,7 +18579,7 @@
       </c>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -17822,7 +18587,7 @@
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -17845,16 +18610,16 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="10"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="10"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="10"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -17874,7 +18639,7 @@
       <c r="Y34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD34" s="23"/>
+      <c r="AD34" s="24"/>
     </row>
     <row r="35" spans="23:25">
       <c r="W35" s="1" t="s">
@@ -17924,10 +18689,10 @@
       <c r="T3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Z3" s="7"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>459</v>
       </c>
     </row>
@@ -17950,7 +18715,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="1" t="s">
@@ -17969,7 +18734,7 @@
       <c r="C12" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="9" t="s">
         <v>468</v>
       </c>
     </row>
@@ -17982,7 +18747,7 @@
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>471</v>
       </c>
     </row>
@@ -18000,16 +18765,16 @@
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="Z17" s="19"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>477</v>
       </c>
     </row>
@@ -18017,7 +18782,7 @@
       <c r="C19" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="9" t="s">
         <v>479</v>
       </c>
     </row>
@@ -18025,7 +18790,7 @@
       <c r="D20" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="U20" s="14" t="s">
         <v>481</v>
       </c>
     </row>
@@ -18033,17 +18798,17 @@
       <c r="D21" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="U21" s="7" t="s">
+      <c r="U21" s="9" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>485</v>
       </c>
     </row>
@@ -18051,17 +18816,17 @@
       <c r="C24" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="9" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="26" spans="12:12">
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="14" t="s">
         <v>489</v>
       </c>
     </row>
@@ -18069,12 +18834,12 @@
       <c r="C27" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="9" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="9" t="s">
         <v>492</v>
       </c>
     </row>
@@ -18137,13 +18902,13 @@
       <c r="U3" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="Z3" s="7"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="4:22">
       <c r="D4" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="9" t="s">
         <v>501</v>
       </c>
     </row>
@@ -18156,35 +18921,35 @@
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="9" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="AA9" s="12"/>
+      <c r="AA9" s="14"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="9" t="s">
         <v>510</v>
       </c>
     </row>
@@ -18218,19 +18983,19 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="Z16" s="19"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" s="9" t="s">
         <v>520</v>
       </c>
     </row>
@@ -18238,7 +19003,7 @@
       <c r="D19" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="U19" s="12"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="1" t="s">
         <v>522</v>
       </c>
@@ -18247,17 +19012,17 @@
       <c r="D20" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="9" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -18265,8 +19030,8 @@
       <c r="C23" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="U23" s="7" t="s">
+      <c r="D23" s="9"/>
+      <c r="U23" s="9" t="s">
         <v>528</v>
       </c>
     </row>
@@ -18279,27 +19044,27 @@
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="V25" s="16" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="14"/>
       <c r="V26" s="1" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -18326,12 +19091,12 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="9" t="s">
         <v>543</v>
       </c>
     </row>
@@ -18412,7 +19177,7 @@
       <c r="C3" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="9" t="s">
         <v>555</v>
       </c>
     </row>
@@ -18425,7 +19190,7 @@
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>558</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -18433,7 +19198,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>560</v>
       </c>
     </row>
@@ -18441,22 +19206,22 @@
       <c r="C7" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>563</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>565</v>
       </c>
     </row>
@@ -18472,17 +19237,17 @@
       <c r="D11" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="9" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="13" spans="4:16">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>571</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -18498,16 +19263,16 @@
       </c>
     </row>
     <row r="15" spans="4:26">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="Z15" s="19"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>577</v>
       </c>
     </row>
@@ -18515,7 +19280,7 @@
       <c r="C17" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="X17" s="9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -18523,21 +19288,21 @@
       <c r="D18" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="U18" s="12"/>
-      <c r="Y18" s="7" t="s">
+      <c r="U18" s="14"/>
+      <c r="Y18" s="9" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="Y19" s="7" t="s">
+      <c r="Y19" s="9" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>584</v>
       </c>
     </row>
@@ -18545,13 +19310,13 @@
       <c r="C21" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="X21" s="7" t="s">
+      <c r="D21" s="9"/>
+      <c r="X21" s="9" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="22" spans="4:32">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>587</v>
       </c>
       <c r="AF22" s="1" t="s">
@@ -18562,25 +19327,25 @@
       <c r="C24" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="V24" s="14"/>
-      <c r="X24" s="7" t="s">
+      <c r="V24" s="16"/>
+      <c r="X24" s="9" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="Y25" s="7" t="s">
+      <c r="L25" s="14"/>
+      <c r="Y25" s="9" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="3:24">
       <c r="C27" s="1" t="s">
@@ -18599,13 +19364,13 @@
       <c r="C30" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="X30" s="7" t="s">
+      <c r="D30" s="9"/>
+      <c r="X30" s="9" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>599</v>
       </c>
     </row>
@@ -18705,8 +19470,8 @@
       <c r="C6" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="W6" s="7" t="s">
+      <c r="D6" s="9"/>
+      <c r="W6" s="9" t="s">
         <v>616</v>
       </c>
     </row>
@@ -18714,19 +19479,19 @@
       <c r="D7" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>620</v>
       </c>
     </row>
@@ -18734,7 +19499,7 @@
       <c r="C10" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="9" t="s">
         <v>622</v>
       </c>
     </row>
@@ -18742,12 +19507,12 @@
       <c r="D11" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="X11" s="11" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="12" spans="4:24">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>625</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -18755,7 +19520,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>627</v>
       </c>
     </row>
@@ -18768,16 +19533,16 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="X16" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="Z16" s="19"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>632</v>
       </c>
     </row>
@@ -18785,7 +19550,7 @@
       <c r="C18" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="W18" s="7" t="s">
+      <c r="W18" s="9" t="s">
         <v>634</v>
       </c>
     </row>
@@ -18793,18 +19558,18 @@
       <c r="D19" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="U19" s="12"/>
-      <c r="X19" s="7" t="s">
+      <c r="U19" s="14"/>
+      <c r="X19" s="9" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>638</v>
       </c>
     </row>
@@ -18812,13 +19577,13 @@
       <c r="C22" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="W22" s="7" t="s">
+      <c r="D22" s="9"/>
+      <c r="W22" s="9" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>641</v>
       </c>
     </row>
@@ -18826,36 +19591,36 @@
       <c r="C25" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="V25" s="14"/>
+      <c r="V25" s="16"/>
       <c r="W25" s="1" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="26" spans="4:24">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="X26" s="7" t="s">
+      <c r="L26" s="14"/>
+      <c r="X26" s="9" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="27" spans="4:24">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="14"/>
       <c r="X27" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="9" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
         <v>649</v>
       </c>
     </row>
@@ -18863,7 +19628,7 @@
       <c r="C30" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="W30" s="7" t="s">
+      <c r="W30" s="9" t="s">
         <v>651</v>
       </c>
     </row>
@@ -18873,12 +19638,12 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="9" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="7"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="1" t="s">
@@ -18892,7 +19657,7 @@
       </c>
     </row>
     <row r="37" ht="82.8" spans="3:10">
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="23" t="s">
         <v>657</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -18955,8 +19720,8 @@
       <c r="C6" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="T6" s="7" t="s">
+      <c r="D6" s="9"/>
+      <c r="T6" s="9" t="s">
         <v>665</v>
       </c>
     </row>
@@ -18967,41 +19732,41 @@
       <c r="U7" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="9" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="X11" s="9"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="9" t="s">
         <v>675</v>
       </c>
     </row>
@@ -19009,12 +19774,12 @@
       <c r="D13" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="9" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>678</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -19022,30 +19787,30 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7"/>
-      <c r="Z16" s="19"/>
+      <c r="D16" s="9"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="T17" s="7" t="s">
+      <c r="D17" s="9"/>
+      <c r="T17" s="9" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="12"/>
+      <c r="U19" s="14"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
@@ -19056,12 +19821,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="7"/>
+      <c r="D22" s="9"/>
       <c r="J22" s="1" t="s">
         <v>687</v>
       </c>
@@ -19070,13 +19835,13 @@
       <c r="C23" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="T23" s="7" t="s">
+      <c r="D23" s="9"/>
+      <c r="T23" s="9" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="9" t="s">
         <v>690</v>
       </c>
     </row>
@@ -19084,26 +19849,26 @@
       <c r="M25" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="V25" s="14"/>
+      <c r="V25" s="16"/>
     </row>
     <row r="26" spans="3:20">
       <c r="C26" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="T26" s="7" t="s">
+      <c r="D26" s="9"/>
+      <c r="L26" s="14"/>
+      <c r="T26" s="9" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="D28" s="7"/>
+      <c r="D28" s="9"/>
       <c r="N28" s="1" t="s">
         <v>695</v>
       </c>
@@ -19112,7 +19877,7 @@
       <c r="C29" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="9"/>
       <c r="T29" s="1" t="s">
         <v>697</v>
       </c>
@@ -19126,13 +19891,13 @@
       <c r="C32" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="9"/>
       <c r="T32" s="1" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>701</v>
       </c>
     </row>
@@ -19148,7 +19913,7 @@
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="22"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="1" t="s">
@@ -19172,13 +19937,13 @@
       </c>
     </row>
     <row r="43" ht="124.2" spans="3:10">
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>710</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="23" t="s">
         <v>712</v>
       </c>
     </row>
@@ -19186,7 +19951,7 @@
       <c r="G44" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="12" t="s">
         <v>714</v>
       </c>
     </row>
@@ -19228,7 +19993,7 @@
       <c r="D2" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="8" t="s">
         <v>717</v>
       </c>
     </row>
@@ -19236,7 +20001,7 @@
       <c r="C3" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="9" t="s">
         <v>719</v>
       </c>
     </row>
@@ -19244,7 +20009,7 @@
       <c r="D4" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="9" t="s">
         <v>721</v>
       </c>
     </row>
@@ -19252,32 +20017,32 @@
       <c r="D5" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="9" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="9" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>728</v>
       </c>
     </row>
@@ -19285,8 +20050,8 @@
       <c r="C10" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="X10" s="7" t="s">
+      <c r="D10" s="8"/>
+      <c r="X10" s="9" t="s">
         <v>730</v>
       </c>
     </row>
@@ -19294,29 +20059,29 @@
       <c r="D11" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="7" t="s">
+      <c r="X11" s="11"/>
+      <c r="Y11" s="9" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="11" t="s">
         <v>737</v>
       </c>
     </row>
@@ -19324,22 +20089,22 @@
       <c r="C15" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="X15" s="7" t="s">
+      <c r="D15" s="9"/>
+      <c r="X15" s="9" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>740</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="Z16" s="19"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>742</v>
       </c>
     </row>
@@ -19349,7 +20114,7 @@
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="12"/>
+      <c r="U19" s="14"/>
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="1" t="s">
@@ -19360,23 +20125,23 @@
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="Y21" s="7" t="s">
+      <c r="Y21" s="9" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="8" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>750</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -19398,25 +20163,25 @@
       <c r="D25" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="V25" s="14"/>
+      <c r="V25" s="16"/>
       <c r="Y25" s="1" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="9" t="s">
         <v>759</v>
       </c>
     </row>
@@ -19424,13 +20189,13 @@
       <c r="C29" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="Y29" s="7" t="s">
+      <c r="D29" s="9"/>
+      <c r="Y29" s="9" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>762</v>
       </c>
     </row>
@@ -19438,21 +20203,21 @@
       <c r="C32" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="X32" s="7" t="s">
+      <c r="D32" s="9"/>
+      <c r="X32" s="9" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="33" spans="4:25">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="Y33" s="7" t="s">
+      <c r="Y33" s="9" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="9" t="s">
         <v>767</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -19468,7 +20233,7 @@
       </c>
     </row>
     <row r="37" spans="3:25">
-      <c r="C37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="1" t="s">
         <v>771</v>
       </c>
@@ -19477,12 +20242,12 @@
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="12" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="39" spans="9:9">
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="24" t="s">
         <v>747</v>
       </c>
     </row>
@@ -19514,17 +20279,17 @@
       <c r="A43" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="J43" s="22"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="4:10">
       <c r="D44" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="J44" s="10"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="16:16">
       <c r="P45" s="1" t="s">
@@ -19629,21 +20394,21 @@
       <c r="D2" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="9" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="9" t="s">
         <v>804</v>
       </c>
     </row>
@@ -19651,7 +20416,7 @@
       <c r="A5" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>806</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -19665,28 +20430,28 @@
       <c r="C6" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
       <c r="T6" s="1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>814</v>
       </c>
     </row>
@@ -19694,62 +20459,62 @@
       <c r="C10" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="T10" s="7" t="s">
+      <c r="D10" s="8"/>
+      <c r="T10" s="9" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="X11" s="9"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="9"/>
+      <c r="D14" s="21"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="11"/>
       <c r="T14" s="1" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7"/>
+      <c r="D16" s="9"/>
       <c r="L16" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="Z16" s="19"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="T17" s="7" t="s">
+      <c r="D17" s="8"/>
+      <c r="T17" s="9" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>826</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -19757,36 +20522,36 @@
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="U19" s="12"/>
+      <c r="U19" s="14"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="9" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="S21" s="6"/>
+      <c r="S21" s="8"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
       <c r="T23" s="1" t="s">
         <v>834</v>
       </c>
@@ -19795,7 +20560,7 @@
       <c r="D24" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="9" t="s">
         <v>836</v>
       </c>
     </row>
@@ -19803,13 +20568,13 @@
       <c r="D25" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="V25" s="14"/>
+      <c r="V25" s="16"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -19846,7 +20611,7 @@
       <c r="C2" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="3:18">
       <c r="C3" s="1" t="s">
@@ -19860,41 +20625,41 @@
       <c r="D4" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="9" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="R7" s="7" t="s">
+      <c r="D7" s="9"/>
+      <c r="R7" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="AA8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>849</v>
       </c>
     </row>
@@ -19902,39 +20667,39 @@
       <c r="C10" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="R10" s="1" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="X11" s="9"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="3:18">
       <c r="C14" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="9"/>
+      <c r="D14" s="21"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="1" t="s">
         <v>857</v>
       </c>
@@ -19943,23 +20708,23 @@
       <c r="C15" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7"/>
-      <c r="Z16" s="19"/>
+      <c r="D16" s="9"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="R17" s="7" t="s">
+      <c r="D17" s="8"/>
+      <c r="R17" s="9" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>861</v>
       </c>
     </row>
@@ -19967,43 +20732,43 @@
       <c r="C19" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="9" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="8" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="9" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="24" spans="3:32">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="V24" s="14"/>
+      <c r="V24" s="16"/>
       <c r="AD24" s="1" t="s">
         <v>871</v>
       </c>
@@ -20012,8 +20777,8 @@
       </c>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="7"/>
-      <c r="L25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -20032,7 +20797,7 @@
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>877</v>
       </c>
     </row>
@@ -20074,7 +20839,7 @@
       <c r="D35" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="1" t="s">
@@ -20122,7 +20887,7 @@
       <c r="C2" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -20136,12 +20901,12 @@
       <c r="D4" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="9" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>895</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -20149,77 +20914,77 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="3:27">
       <c r="C8" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="9"/>
       <c r="S8" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="X11" s="9"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="3:19">
       <c r="C14" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="9"/>
+      <c r="D14" s="21"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="11"/>
       <c r="S14" s="1" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7"/>
-      <c r="Z16" s="19"/>
+      <c r="D16" s="9"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="S17" s="7" t="s">
+      <c r="D17" s="8"/>
+      <c r="S17" s="9" t="s">
         <v>909</v>
       </c>
     </row>
@@ -20227,29 +20992,29 @@
       <c r="D18" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="9" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>913</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="8"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="S22" s="1" t="s">
         <v>916</v>
       </c>
@@ -20258,22 +21023,22 @@
       <c r="D23" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T23" s="8" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="V24" s="14"/>
+      <c r="V24" s="16"/>
     </row>
     <row r="25" spans="3:19">
       <c r="C25" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="L25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="L25" s="14"/>
       <c r="S25" s="1" t="s">
         <v>921</v>
       </c>
@@ -20292,7 +21057,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="10"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="1" t="s">
         <v>925</v>
       </c>
@@ -20327,7 +21092,7 @@
       <c r="C35" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
       <c r="S35" s="1" t="s">
         <v>933</v>
       </c>
@@ -20463,7 +21228,7 @@
       <c r="C2" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="4" spans="3:18">
       <c r="C4" s="1" t="s">
@@ -20474,39 +21239,39 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="R7" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="R7" s="9" t="s">
         <v>963</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>964</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>967</v>
       </c>
     </row>
@@ -20517,62 +21282,62 @@
       <c r="R11" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="X11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="13" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="13" spans="4:19">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="15" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="Z16" s="19"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="R17" s="7" t="s">
+      <c r="D17" s="8"/>
+      <c r="R17" s="9" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>979</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="9" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>981</v>
       </c>
     </row>
@@ -20580,39 +21345,39 @@
       <c r="C20" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="R20" s="7" t="s">
+      <c r="D20" s="9"/>
+      <c r="R20" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="8"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="T23" s="6"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="V24" s="14"/>
+      <c r="V24" s="16"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="7"/>
-      <c r="L25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -20631,7 +21396,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="10"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="1" t="s">
         <v>992</v>
       </c>
@@ -20666,7 +21431,7 @@
       <c r="D34" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="S34" s="15" t="s">
+      <c r="S34" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -20674,7 +21439,7 @@
       <c r="D35" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:18">
       <c r="C36" s="1" t="s">
@@ -20732,10 +21497,10 @@
       </c>
     </row>
     <row r="5" spans="4:19">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -20743,12 +21508,12 @@
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -20772,12 +21537,12 @@
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="4:19">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -20788,12 +21553,12 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -20801,12 +21566,12 @@
       <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -20955,7 +21720,7 @@
       <c r="C2" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
@@ -20966,38 +21731,38 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="R7" s="7"/>
-      <c r="X7" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="R7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="9"/>
       <c r="X10" s="1" t="s">
         <v>1013</v>
       </c>
@@ -21006,77 +21771,77 @@
       <c r="D11" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="X11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="7"/>
-      <c r="S12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="S12" s="13"/>
     </row>
     <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="S13" s="13"/>
+      <c r="D13" s="9"/>
+      <c r="S13" s="15"/>
       <c r="X13" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="11"/>
       <c r="Y14" s="1" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="3:26">
       <c r="C16" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="9"/>
       <c r="X16" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="Z16" s="19"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="4:18">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="R17" s="7"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="7"/>
-      <c r="S18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="S18" s="9"/>
     </row>
     <row r="19" spans="3:24">
       <c r="C19" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="X19" s="7" t="s">
+      <c r="D19" s="9"/>
+      <c r="X19" s="9" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="20" spans="4:25">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="6"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="8"/>
       <c r="Y20" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="21" spans="4:16">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>1026</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -21084,36 +21849,36 @@
       </c>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="X22" s="7" t="s">
+      <c r="D22" s="8"/>
+      <c r="X22" s="9" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="R23" s="7"/>
-      <c r="T23" s="6"/>
-      <c r="Y23" s="11" t="s">
+      <c r="R23" s="9"/>
+      <c r="T23" s="8"/>
+      <c r="Y23" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="V24" s="14"/>
+      <c r="V24" s="16"/>
     </row>
     <row r="25" spans="3:24">
       <c r="C25" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="L25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="L25" s="14"/>
       <c r="X25" s="1" t="s">
         <v>1034</v>
       </c>
@@ -21124,7 +21889,7 @@
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>1036</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -21164,7 +21929,7 @@
       <c r="C34" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="S34" s="15"/>
+      <c r="S34" s="5"/>
       <c r="X34" s="1" t="s">
         <v>1046</v>
       </c>
@@ -21173,7 +21938,7 @@
       <c r="D35" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
       <c r="Y35" s="1" t="s">
         <v>1048</v>
       </c>
@@ -21232,7 +21997,7 @@
       <c r="A44" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="5" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -21294,7 +22059,7 @@
       <c r="D2" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="AA2" s="6"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
@@ -21310,79 +22075,79 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
       <c r="U6" s="1" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>1075</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="AB7" s="12"/>
+      <c r="S7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="AB7" s="14"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="7"/>
-      <c r="AB8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="AB8" s="14"/>
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
       <c r="U9" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="7"/>
-      <c r="Y11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="Y11" s="11"/>
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="T12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="T12" s="13"/>
       <c r="U12" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="T13" s="13"/>
+      <c r="T13" s="15"/>
       <c r="V13" s="1" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
       <c r="V14" s="1" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -21390,77 +22155,77 @@
       <c r="C16" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="9"/>
       <c r="U16" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="AA16" s="19"/>
+      <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>1088</v>
       </c>
-      <c r="S17" s="7"/>
+      <c r="S17" s="9"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="7"/>
-      <c r="T18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="3:25">
       <c r="C19" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
       <c r="U19" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>1091</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="6"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="8"/>
       <c r="V20" s="1" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="D21" s="7"/>
+      <c r="D21" s="9"/>
       <c r="Q21" s="1" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="U22" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="U23" s="6"/>
-      <c r="Z23" s="11"/>
+      <c r="S23" s="9"/>
+      <c r="U23" s="8"/>
+      <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>1097</v>
       </c>
-      <c r="W24" s="14"/>
+      <c r="W24" s="16"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>1098</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
@@ -21479,7 +22244,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="10"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="1" t="s">
         <v>1103</v>
       </c>
@@ -21523,7 +22288,7 @@
       <c r="D34" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="T34" s="15"/>
+      <c r="T34" s="5"/>
       <c r="V34" s="1" t="s">
         <v>1114</v>
       </c>
@@ -21532,7 +22297,7 @@
       <c r="D35" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
       <c r="V35" s="1" t="s">
         <v>1116</v>
       </c>
@@ -21615,7 +22380,7 @@
       <c r="D2" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="AA2" s="6"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -21631,154 +22396,154 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:19">
       <c r="C6" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
       <c r="S6" s="1" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>1133</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="AB7" s="12"/>
+      <c r="Y7" s="9"/>
+      <c r="AB7" s="14"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>1135</v>
       </c>
-      <c r="AB8" s="12"/>
+      <c r="AB8" s="14"/>
     </row>
     <row r="9" spans="3:19">
       <c r="C9" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
       <c r="S9" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="7"/>
-      <c r="Y11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="Y11" s="11"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
       <c r="S12" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="T12" s="11"/>
+      <c r="T12" s="13"/>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>1141</v>
       </c>
-      <c r="T13" s="13"/>
+      <c r="T13" s="15"/>
     </row>
     <row r="14" spans="4:18">
-      <c r="D14" s="7"/>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="3:19">
       <c r="C15" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="10"/>
       <c r="S15" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="AA16" s="19"/>
+      <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="10"/>
-      <c r="S17" s="7"/>
+      <c r="D17" s="12"/>
+      <c r="S17" s="9"/>
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="9"/>
       <c r="S18" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>1147</v>
       </c>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="6"/>
+      <c r="D20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="9"/>
       <c r="S21" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="7"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="12" t="s">
         <v>1150</v>
       </c>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="U23" s="6"/>
-      <c r="Z23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="U23" s="8"/>
+      <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="10"/>
       <c r="S24" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="W24" s="14"/>
+      <c r="W24" s="16"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>1153</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>1154</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -21794,10 +22559,10 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="15"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -21818,278 +22583,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="7" width="8.88888888888889" style="16"/>
-    <col min="8" max="8" width="34.4444444444444" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="16"/>
+    <col min="1" max="7" width="8.88888888888889" style="17"/>
+    <col min="8" max="8" width="34.4444444444444" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>1159</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>1162</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="17" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>1164</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="17" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>1166</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="17" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>1168</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="19" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>1170</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>1173</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>1176</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="17" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>1178</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="17" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>1181</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="17" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>1183</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="17" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="17" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>1187</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="17" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>1189</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>1191</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="17" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>1193</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="17" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>1197</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="17" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>1200</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="17" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>1202</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="17" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>1204</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="17" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="17" t="s">
         <v>1208</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="17" t="s">
         <v>1209</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="17" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>1211</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>1212</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="17" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="17" t="s">
         <v>1214</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="17" t="s">
         <v>1215</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="17" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>1216</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="17" t="s">
         <v>1217</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="17" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>1219</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="17" t="s">
         <v>1220</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="17" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -22126,7 +22891,7 @@
       <c r="C2" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="AA2" s="6"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="1" t="s">
@@ -22148,18 +22913,18 @@
       <c r="C5" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="9"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:29">
       <c r="C6" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="AC6" s="8"/>
+      <c r="AC6" s="10"/>
     </row>
     <row r="7" spans="25:44">
-      <c r="Y7" s="7"/>
-      <c r="AC7" s="8"/>
-      <c r="AR7" s="7"/>
+      <c r="Y7" s="9"/>
+      <c r="AC7" s="10"/>
+      <c r="AR7" s="9"/>
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="1" t="s">
@@ -22168,7 +22933,7 @@
       <c r="AA8" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="AC8" s="7"/>
+      <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="3:46">
       <c r="C9" s="1" t="s">
@@ -22177,7 +22942,7 @@
       <c r="AB9" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="AC9" s="7"/>
+      <c r="AC9" s="9"/>
       <c r="AT9" s="1" t="s">
         <v>1233</v>
       </c>
@@ -22186,22 +22951,22 @@
       <c r="C10" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="AC10" s="7"/>
+      <c r="AC10" s="9"/>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="Y11" s="9"/>
-      <c r="AS11" s="7"/>
+      <c r="Y11" s="11"/>
+      <c r="AS11" s="9"/>
     </row>
     <row r="12" spans="29:45">
-      <c r="AC12" s="7"/>
-      <c r="AS12" s="11"/>
+      <c r="AC12" s="9"/>
+      <c r="AS12" s="13"/>
     </row>
     <row r="13" spans="29:45">
-      <c r="AC13" s="7"/>
-      <c r="AS13" s="13"/>
+      <c r="AC13" s="9"/>
+      <c r="AS13" s="15"/>
     </row>
     <row r="14" spans="2:43">
       <c r="B14" s="1" t="s">
@@ -22210,23 +22975,23 @@
       <c r="AA14" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="AC14" s="7"/>
-      <c r="AL14" s="6"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AL14" s="8"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
     </row>
     <row r="15" spans="3:29">
       <c r="C15" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="AC15" s="8"/>
+      <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="29:29">
-      <c r="AC16" s="7"/>
+      <c r="AC16" s="9"/>
     </row>
     <row r="17" spans="29:44">
-      <c r="AC17" s="10"/>
-      <c r="AR17" s="7"/>
+      <c r="AC17" s="12"/>
+      <c r="AR17" s="9"/>
     </row>
     <row r="18" spans="2:45">
       <c r="B18" s="1" t="s">
@@ -22235,18 +23000,18 @@
       <c r="AA18" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="AC18" s="7"/>
-      <c r="AS18" s="7"/>
+      <c r="AC18" s="9"/>
+      <c r="AS18" s="9"/>
     </row>
     <row r="19" spans="3:29">
       <c r="C19" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="9"/>
       <c r="AB19" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="AC19" s="7"/>
+      <c r="AC19" s="9"/>
     </row>
     <row r="20" spans="3:45">
       <c r="C20" s="1" t="s">
@@ -22255,26 +23020,26 @@
       <c r="AB20" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="AC20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="6"/>
+      <c r="AC20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="8"/>
     </row>
     <row r="21" spans="3:29">
       <c r="C21" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="AC21" s="7"/>
+      <c r="AC21" s="9"/>
     </row>
     <row r="22" spans="25:29">
-      <c r="Y22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="10"/>
+      <c r="Y22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="12"/>
     </row>
     <row r="23" spans="26:46">
-      <c r="Z23" s="11"/>
-      <c r="AC23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AT23" s="6"/>
+      <c r="Z23" s="13"/>
+      <c r="AC23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AT23" s="8"/>
     </row>
     <row r="24" spans="2:48">
       <c r="B24" s="1" t="s">
@@ -22283,21 +23048,21 @@
       <c r="AA24" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="AC24" s="8"/>
-      <c r="AV24" s="14"/>
+      <c r="AC24" s="10"/>
+      <c r="AV24" s="16"/>
     </row>
     <row r="25" spans="3:37">
       <c r="C25" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="AC25" s="7"/>
-      <c r="AK25" s="12"/>
+      <c r="AC25" s="9"/>
+      <c r="AK25" s="14"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="AB28" s="10" t="s">
+      <c r="AB28" s="12" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -22334,10 +23099,10 @@
       <c r="AB34" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="AS34" s="15"/>
+      <c r="AS34" s="5"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="1" t="s">
@@ -22374,7 +23139,7 @@
   <sheetPr/>
   <dimension ref="C1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -22419,7 +23184,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>1271</v>
       </c>
     </row>
@@ -22522,7 +23287,7 @@
       <c r="D24" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="2" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -22556,7 +23321,7 @@
       <c r="D29" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="2" t="s">
         <v>914</v>
       </c>
     </row>
@@ -22585,7 +23350,7 @@
       <c r="D34" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="Y34" s="4" t="s">
+      <c r="Y34" s="6" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -22614,7 +23379,7 @@
       <c r="D39" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="Y39" s="3" t="s">
+      <c r="Y39" s="2" t="s">
         <v>1316</v>
       </c>
     </row>
@@ -22624,6 +23389,340 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:Y56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22">
+      <c r="C3" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="4" spans="4:23">
+      <c r="D4" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="9" ht="17.85" customHeight="1"/>
+    <row r="10" spans="3:22">
+      <c r="C10" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15">
+      <c r="D12" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22">
+      <c r="C13" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22">
+      <c r="C16" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22">
+      <c r="C22" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25">
+      <c r="D23" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="25" spans="3:22">
+      <c r="C25" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="T28" s="2"/>
+      <c r="V28" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="25:25">
+      <c r="Y33" s="6"/>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="C34" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="V34" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22">
+      <c r="C37" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="V37" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="38" spans="4:25">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="40" spans="3:22">
+      <c r="C40" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="41" spans="4:23">
+      <c r="D41" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22">
+      <c r="C44" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22">
+      <c r="C47" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8">
+      <c r="D48" s="3">
+        <v>1.412135</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="C55" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="C56" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D48:H48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -22665,11 +23764,11 @@
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="S5" s="8"/>
+      <c r="V5" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -22677,7 +23776,7 @@
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -22685,7 +23784,7 @@
       <c r="D8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -22693,27 +23792,27 @@
       <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="27" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>108</v>
       </c>
     </row>
@@ -22726,7 +23825,7 @@
       </c>
     </row>
     <row r="15" spans="4:19">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>111</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -22734,7 +23833,7 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -22755,12 +23854,12 @@
       <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V21" s="7" t="s">
+      <c r="V21" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -22773,7 +23872,7 @@
       </c>
     </row>
     <row r="25" spans="4:27">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>122</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -22896,7 +23995,7 @@
       <c r="F43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -22949,7 +24048,7 @@
       <c r="C4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="9" t="s">
         <v>161</v>
       </c>
     </row>
@@ -22957,19 +24056,19 @@
       <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="6"/>
+      <c r="V5" s="8"/>
       <c r="W5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>165</v>
       </c>
     </row>
@@ -22977,7 +24076,7 @@
       <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -22985,18 +24084,18 @@
       <c r="D9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="Y9" s="26"/>
+      <c r="Y9" s="27"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -23004,13 +24103,13 @@
       <c r="C12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="U12" s="7" t="s">
+      <c r="D12" s="9"/>
+      <c r="U12" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>174</v>
       </c>
     </row>
@@ -23023,7 +24122,7 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>177</v>
       </c>
     </row>
@@ -23073,7 +24172,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>189</v>
       </c>
     </row>
@@ -23156,8 +24255,8 @@
       <c r="S5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="V5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
@@ -23165,7 +24264,7 @@
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="3:19">
       <c r="C8" s="1" t="s">
@@ -23179,35 +24278,35 @@
       <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y9" s="26"/>
+      <c r="Y9" s="27"/>
     </row>
     <row r="11" spans="3:19">
       <c r="C11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="S11" s="7" t="s">
+      <c r="D11" s="9"/>
+      <c r="S11" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="28"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="4:20">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>211</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -23220,7 +24319,7 @@
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -23228,7 +24327,7 @@
       <c r="C18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="9" t="s">
         <v>216</v>
       </c>
     </row>
@@ -23236,17 +24335,17 @@
       <c r="D19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -23254,12 +24353,12 @@
       <c r="C22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -23275,7 +24374,7 @@
       <c r="D26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -23285,7 +24384,7 @@
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>229</v>
       </c>
     </row>
@@ -23298,7 +24397,7 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>232</v>
       </c>
     </row>
@@ -23420,48 +24519,48 @@
       <c r="D5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V5" s="6"/>
+      <c r="V5" s="8"/>
       <c r="X5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="4:24">
       <c r="D6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="4:24">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="4:26">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="Z10" s="25" t="s">
+      <c r="Z10" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>262</v>
       </c>
     </row>
@@ -23469,7 +24568,7 @@
       <c r="L12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Y12" s="26"/>
+      <c r="Y12" s="27"/>
       <c r="AL12" s="1" t="s">
         <v>264</v>
       </c>
@@ -23478,44 +24577,44 @@
       <c r="C13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="X13" s="9" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="4:25">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="W17" s="24" t="s">
+      <c r="W17" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="Z17" s="27" t="s">
+      <c r="Z17" s="28" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>275</v>
       </c>
     </row>
@@ -23523,7 +24622,7 @@
       <c r="C19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="X19" s="7" t="s">
+      <c r="X19" s="9" t="s">
         <v>277</v>
       </c>
     </row>
@@ -23531,17 +24630,17 @@
       <c r="D20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y20" s="7" t="s">
+      <c r="Y20" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>281</v>
       </c>
     </row>
@@ -23549,20 +24648,20 @@
       <c r="C24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="X24" s="7" t="s">
+      <c r="X24" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="Y25" s="7" t="s">
+      <c r="Y25" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="26" spans="4:25">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>286</v>
       </c>
       <c r="Y26" s="1" t="s">
@@ -23591,7 +24690,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="10" t="s">
         <v>293</v>
       </c>
     </row>
@@ -23617,7 +24716,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
         <v>299</v>
       </c>
     </row>
@@ -23652,31 +24751,31 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="V5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="V7" s="7" t="s">
+      <c r="D7" s="9"/>
+      <c r="V7" s="9" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>305</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -23684,67 +24783,67 @@
       </c>
     </row>
     <row r="9" spans="4:23">
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
       <c r="W9" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="Z11" s="25"/>
+      <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="3:22">
       <c r="C12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="V12" s="7" t="s">
+      <c r="D12" s="9"/>
+      <c r="V12" s="9" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="13" spans="4:25">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="Y13" s="26"/>
+      <c r="Y13" s="27"/>
     </row>
     <row r="15" spans="3:25">
       <c r="C15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="V15" s="7" t="s">
+      <c r="D15" s="9"/>
+      <c r="V15" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="Y15" s="6"/>
+      <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="W18" s="24"/>
-      <c r="Z18" s="27"/>
+      <c r="W18" s="25"/>
+      <c r="Z18" s="28"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>318</v>
       </c>
     </row>
@@ -23757,12 +24856,12 @@
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="7"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="3:22">
       <c r="C24" s="1" t="s">
@@ -23786,8 +24885,8 @@
       <c r="C27" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="V27" s="7" t="s">
+      <c r="D27" s="9"/>
+      <c r="V27" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -23800,7 +24899,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
         <v>330</v>
       </c>
     </row>
@@ -23823,7 +24922,7 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="8"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="3:22">
       <c r="C34" s="1" t="s">
@@ -23834,7 +24933,7 @@
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>337</v>
       </c>
     </row>
@@ -23898,7 +24997,7 @@
       <c r="C3" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="9" t="s">
         <v>346</v>
       </c>
     </row>
@@ -23906,17 +25005,17 @@
       <c r="D4" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>350</v>
       </c>
     </row>
@@ -23924,7 +25023,7 @@
       <c r="C7" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="9" t="s">
         <v>352</v>
       </c>
     </row>
@@ -23932,7 +25031,7 @@
       <c r="D8" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="14" t="s">
         <v>354</v>
       </c>
     </row>
@@ -23940,17 +25039,17 @@
       <c r="D9" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="X9" s="9" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>358</v>
       </c>
     </row>
@@ -23960,7 +25059,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>360</v>
       </c>
     </row>
@@ -23968,7 +25067,7 @@
       <c r="C14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="9" t="s">
         <v>362</v>
       </c>
     </row>
@@ -23981,12 +25080,12 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="14" t="s">
         <v>366</v>
       </c>
     </row>
@@ -24007,12 +25106,12 @@
       <c r="C21" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="W21" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>372</v>
       </c>
     </row>
@@ -24046,12 +25145,12 @@
       <c r="C30" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="W30" s="7" t="s">
+      <c r="W30" s="9" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>381</v>
       </c>
     </row>
@@ -24151,7 +25250,7 @@
       <c r="Y3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="Z3" s="7"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
@@ -24172,7 +25271,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="3:25">
       <c r="C9" s="1" t="s">
@@ -24204,7 +25303,7 @@
       <c r="C15" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="9" t="s">
         <v>409</v>
       </c>
     </row>
@@ -24212,36 +25311,36 @@
       <c r="D16" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="Z16" s="9" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>412</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="Z17" s="19" t="s">
+      <c r="Z17" s="20" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="Z18" s="7" t="s">
+      <c r="Z18" s="9" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>418</v>
       </c>
     </row>
@@ -24249,7 +25348,7 @@
       <c r="C21" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Y21" s="7" t="s">
+      <c r="Y21" s="9" t="s">
         <v>420</v>
       </c>
     </row>
@@ -24257,12 +25356,12 @@
       <c r="D22" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="Z22" s="7" t="s">
+      <c r="Z22" s="9" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>423</v>
       </c>
     </row>
@@ -24281,7 +25380,7 @@
       <c r="C25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="Y25" s="7" t="s">
+      <c r="Y25" s="9" t="s">
         <v>428</v>
       </c>
     </row>
@@ -24289,7 +25388,7 @@
       <c r="D26" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Z26" s="7" t="s">
+      <c r="Z26" s="9" t="s">
         <v>430</v>
       </c>
     </row>
@@ -24297,7 +25396,7 @@
       <c r="D27" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Z27" s="7" t="s">
+      <c r="Z27" s="9" t="s">
         <v>432</v>
       </c>
     </row>
@@ -24305,7 +25404,7 @@
       <c r="D28" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="Z28" s="7" t="s">
+      <c r="Z28" s="9" t="s">
         <v>434</v>
       </c>
     </row>
@@ -24313,12 +25412,12 @@
       <c r="D29" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="Z29" s="7" t="s">
+      <c r="Z29" s="9" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="30" spans="4:26">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>437</v>
       </c>
       <c r="Z30" s="1" t="s">
@@ -24326,7 +25425,7 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>439</v>
       </c>
     </row>
@@ -24336,12 +25435,12 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="34" spans="4:18">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="9" t="s">
         <v>442</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -24352,7 +25451,7 @@
       <c r="C35" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="Y35" s="7" t="s">
+      <c r="Y35" s="9" t="s">
         <v>445</v>
       </c>
     </row>
@@ -24360,17 +25459,17 @@
       <c r="D36" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="Z36" s="7" t="s">
+      <c r="Z36" s="9" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="9" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="9" t="s">
         <v>449</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="635" firstSheet="18" activeTab="25"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="635" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="20220724" sheetId="24" r:id="rId24"/>
     <sheet name="20220731" sheetId="25" r:id="rId25"/>
     <sheet name="20220807" sheetId="26" r:id="rId26"/>
+    <sheet name="20220814" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1425">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -16503,6 +16504,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Alright, children, let's </t>
     </r>
     <r>
@@ -16528,6 +16534,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>pay attention</t>
     </r>
     <r>
@@ -16541,6 +16553,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo de ，hái zǐ men ，ràng wǒ men </t>
     </r>
     <r>
@@ -16563,6 +16580,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Tommy, </t>
     </r>
     <r>
@@ -16597,6 +16619,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Okay, Crystal. now </t>
     </r>
     <r>
@@ -16619,6 +16646,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo de ，Crystal。xiàn zài </t>
     </r>
     <r>
@@ -16641,6 +16673,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">4 jiā 11 </t>
     </r>
     <r>
@@ -16678,6 +16715,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Miss Kadlec always asks crystal. She's such a teacher's </t>
     </r>
     <r>
@@ -16703,6 +16745,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tā shì lǎo shī de </t>
     </r>
     <r>
@@ -16728,6 +16775,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Okay, and what about fifty six </t>
     </r>
     <r>
@@ -16750,6 +16802,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> hǎo de ，56 </t>
     </r>
     <r>
@@ -16775,6 +16832,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">C: </t>
     </r>
     <r>
@@ -16797,6 +16859,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> fù</t>
     </r>
     <r>
@@ -16813,6 +16881,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Very good, Twelve </t>
     </r>
     <r>
@@ -16835,6 +16908,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hěn hǎo ，12 </t>
     </r>
     <r>
@@ -16860,6 +16938,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Very good. </t>
     </r>
     <r>
@@ -16882,6 +16965,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>hái hěn hǎo ，</t>
     </r>
     <r>
@@ -16905,6 +16993,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: zero </t>
     </r>
     <r>
@@ -16927,6 +17020,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 0 </t>
     </r>
     <r>
@@ -16964,6 +17062,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Okay, smarty pants, the </t>
     </r>
     <r>
@@ -16989,6 +17092,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">èr de </t>
     </r>
     <r>
@@ -17014,6 +17122,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>B:</t>
     </r>
     <r>
@@ -17053,6 +17166,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ </t>
     </r>
     <r>
@@ -17131,6 +17249,433 @@
   </si>
   <si>
     <t>li fang</t>
+  </si>
+  <si>
+    <t>A Relationship</t>
+  </si>
+  <si>
+    <t>A:  你去哪里了？Stephen! 我这几个小时一直在</t>
+  </si>
+  <si>
+    <t>A: Stephen, Where have you been?</t>
+  </si>
+  <si>
+    <t>电话联系你。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i've been trying to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>get a hold of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you for hours.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> nǐ qù nǎ lǐ le ？Stephen! wǒ zhè jǐ gè xiǎo shí yī zhí zài  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">diàn huà </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lián xì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我工作上有紧急情况，所以。。。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  i... um...there was an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>emergency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at work, so ...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ gōng zuò shàng yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jǐn jí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> qíng kuàng ，suǒ yǐ 。。。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我在餐厅等了你三个小时，你甚至都没有想到</t>
+  </si>
+  <si>
+    <t>A:  i was waiting for you in a restaurant for three hours</t>
+  </si>
+  <si>
+    <t>给我打一个电话。</t>
+  </si>
+  <si>
+    <t>and you didn't even call me .</t>
+  </si>
+  <si>
+    <t>wǒ zài cān tīng děng le nǐ sān gè xiǎo shí ，nǐ shèn zhì dōu méi yǒu xiǎng dào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gěi wǒ dǎ yī gè diàn huà </t>
+  </si>
+  <si>
+    <r>
+      <t>B: 亲爱的，我保证这种情况不会在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Honey, i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this won't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>happen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> again. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qīn ài de ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǎo zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhè zhǒng qíng kuàng bú huì zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fā shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 对，这些话我以前全部听过了，我不会在相信你</t>
+  </si>
+  <si>
+    <t>A:  Yeah, right. i've heard it all before. i'm not going to</t>
+  </si>
+  <si>
+    <t>的空头承诺了。这是你两周内第五次放我鸽子了，</t>
+  </si>
+  <si>
+    <r>
+      <t>take any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> more of your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>empty promises</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. This is your</t>
+    </r>
+  </si>
+  <si>
+    <t>你需要把你的个人事情分清楚。我讨厌你</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fifth time you've </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stood me up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in two weeks, you need</t>
+    </r>
+  </si>
+  <si>
+    <t>一直把工作放在第一位。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to get your priorities straight, i'm tired of you putting </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duì ，zhè xiē huà wǒ yǐ qián quán bù tīng guò le ，</t>
+  </si>
+  <si>
+    <t>your job first all the time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ bú huì zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiàng xìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kōng tóu chéng nuò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè shì nǐ liǎng zhōu nèi dì wǔ cì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fàng wǒ gē zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le </t>
+    </r>
+  </si>
+  <si>
+    <t>nǐ xū yào bǎ nǐ de gè rén shì qíng fen qīng chǔ 。wǒ tǎo yàn nǐ</t>
+  </si>
+  <si>
+    <t>yī zhí bǎ gōng zuò fàng zài dì yī wèi</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>B: 别这样，这不公平。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Come on, That's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>not fair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bié zhè yàng ，zhè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bú gōng píng</t>
+    </r>
+  </si>
+  <si>
+    <t>失联</t>
+  </si>
+  <si>
+    <t>shi lian</t>
+  </si>
+  <si>
+    <t>missing the connection</t>
+  </si>
+  <si>
+    <t>口头</t>
+  </si>
+  <si>
+    <t>kou tou</t>
+  </si>
+  <si>
+    <t>oral</t>
   </si>
 </sst>
 </file>
@@ -23400,8 +23945,8 @@
   <sheetPr/>
   <dimension ref="C1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="AM41" sqref="AM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -23488,7 +24033,6 @@
       <c r="C13" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="D13" s="1"/>
       <c r="V13" s="1" t="s">
         <v>1334</v>
       </c>
@@ -23520,7 +24064,6 @@
       <c r="C19" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="D19" s="1"/>
       <c r="V19" s="1" t="s">
         <v>1341</v>
       </c>
@@ -23561,7 +24104,6 @@
       <c r="C28" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="D28" s="1"/>
       <c r="T28" s="2"/>
       <c r="V28" s="1" t="s">
         <v>1350</v>
@@ -23592,7 +24134,6 @@
       <c r="C34" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="D34" s="1"/>
       <c r="V34" s="1" t="s">
         <v>1355</v>
       </c>
@@ -23606,7 +24147,6 @@
       <c r="C37" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="D37" s="1"/>
       <c r="V37" s="1" t="s">
         <v>1358</v>
       </c>
@@ -23723,6 +24263,217 @@
   <mergeCells count="1">
     <mergeCell ref="D48:H48"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:V32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22">
+      <c r="C20" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22">
+      <c r="C21" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="C25" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="635" firstSheet="19" activeTab="26"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="635" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -15,33 +15,34 @@
     <sheet name="20220227" sheetId="5" r:id="rId5"/>
     <sheet name="20220306" sheetId="6" r:id="rId6"/>
     <sheet name="20220313" sheetId="7" r:id="rId7"/>
-    <sheet name="20220320" sheetId="8" r:id="rId8"/>
-    <sheet name="20220327" sheetId="9" r:id="rId9"/>
-    <sheet name="20220403" sheetId="10" r:id="rId10"/>
-    <sheet name="20220417" sheetId="11" r:id="rId11"/>
-    <sheet name="20220501" sheetId="12" r:id="rId12"/>
-    <sheet name="20220508" sheetId="13" r:id="rId13"/>
-    <sheet name="20220515" sheetId="14" r:id="rId14"/>
-    <sheet name="20220522" sheetId="15" r:id="rId15"/>
-    <sheet name="20220529" sheetId="16" r:id="rId16"/>
-    <sheet name="20220605" sheetId="17" r:id="rId17"/>
-    <sheet name="20220612" sheetId="18" r:id="rId18"/>
-    <sheet name="20220619" sheetId="19" r:id="rId19"/>
-    <sheet name="20220626" sheetId="20" r:id="rId20"/>
-    <sheet name="20220703" sheetId="21" r:id="rId21"/>
-    <sheet name="20220710" sheetId="22" r:id="rId22"/>
-    <sheet name="20220717" sheetId="23" r:id="rId23"/>
-    <sheet name="20220724" sheetId="24" r:id="rId24"/>
-    <sheet name="20220731" sheetId="25" r:id="rId25"/>
-    <sheet name="20220807" sheetId="26" r:id="rId26"/>
-    <sheet name="20220814" sheetId="27" r:id="rId27"/>
+    <sheet name="20220814 (2)" sheetId="28" r:id="rId8"/>
+    <sheet name="20220320" sheetId="8" r:id="rId9"/>
+    <sheet name="20220327" sheetId="9" r:id="rId10"/>
+    <sheet name="20220403" sheetId="10" r:id="rId11"/>
+    <sheet name="20220417" sheetId="11" r:id="rId12"/>
+    <sheet name="20220501" sheetId="12" r:id="rId13"/>
+    <sheet name="20220508" sheetId="13" r:id="rId14"/>
+    <sheet name="20220515" sheetId="14" r:id="rId15"/>
+    <sheet name="20220522" sheetId="15" r:id="rId16"/>
+    <sheet name="20220529" sheetId="16" r:id="rId17"/>
+    <sheet name="20220605" sheetId="17" r:id="rId18"/>
+    <sheet name="20220612" sheetId="18" r:id="rId19"/>
+    <sheet name="20220619" sheetId="19" r:id="rId20"/>
+    <sheet name="20220626" sheetId="20" r:id="rId21"/>
+    <sheet name="20220703" sheetId="21" r:id="rId22"/>
+    <sheet name="20220710" sheetId="22" r:id="rId23"/>
+    <sheet name="20220717" sheetId="23" r:id="rId24"/>
+    <sheet name="20220724" sheetId="24" r:id="rId25"/>
+    <sheet name="20220731" sheetId="25" r:id="rId26"/>
+    <sheet name="20220807" sheetId="26" r:id="rId27"/>
+    <sheet name="20220814" sheetId="27" r:id="rId28"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1467">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -4276,6 +4277,450 @@
   </si>
   <si>
     <t>be fooled</t>
+  </si>
+  <si>
+    <t>Not feeling very well</t>
+  </si>
+  <si>
+    <t>A: 你还好吗？你看起来不是很舒服。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Are you okay，man?You don't look </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>very well</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ hái hǎo ma ？nǐ kàn qǐ lái bú shì hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shū fú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:我觉得很难受，我昨晚和Trevor出去，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: i feel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>terrible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. i went out last night with Trevor</t>
+    </r>
+  </si>
+  <si>
+    <t>然后事情有点失控。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and things got a little </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>out of hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ jue dé hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nán shòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ zuó wǎn hé Trevor chū qù ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rán hòu shì qíng yǒu diǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shī kòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 真好，那你们去哪里了？</t>
+  </si>
+  <si>
+    <t>A: Nice, So where did you guys go?</t>
+  </si>
+  <si>
+    <t>zhēn hǎo ，nà nǐ men qù nǎ lǐ le ？</t>
+  </si>
+  <si>
+    <t>B: 我们去了几家当地的酒吧，见了一些朋友。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  We hit a couple of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>local</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bars and met up with</t>
+    </r>
+  </si>
+  <si>
+    <t>一切都很好，直到mike来了，才知道昨天</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">some friends. Everything was cool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>until</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Make </t>
+    </r>
+  </si>
+  <si>
+    <t>是他的生日。</t>
+  </si>
+  <si>
+    <t>came along and it turned out that it was his</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men qù le jǐ jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dāng dì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de jiǔ ba ，</t>
+    </r>
+  </si>
+  <si>
+    <t>birthday yesterday.</t>
+  </si>
+  <si>
+    <t>jiàn le yī xiē péng yǒu 。yī qiē dōu hěn hǎo ，</t>
+  </si>
+  <si>
+    <r>
+      <t>zhí dào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mike lái le ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhī dào zuó tiān shì tā de shēng rì </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 不，Mike的生日一定是一场酒的盛宴。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Oh, no. Mike's birthday is a drink </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>feast for sure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú ，Mikede shēng rì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yī dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shì yī chǎng jiǔ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shèng yàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">must </t>
+  </si>
+  <si>
+    <t>B: 我们把酒吧里的东西都喝了一遍。</t>
+  </si>
+  <si>
+    <t>B: We drank everything in the bar.</t>
+  </si>
+  <si>
+    <t>wǒ men bǎ jiǔ ba lǐ de dōng xī dōu hē le yī biàn 。</t>
+  </si>
+  <si>
+    <t>A:这就是为什么你今天没来上班的原因吗？</t>
+  </si>
+  <si>
+    <t>A: is that why you missed work today?</t>
+  </si>
+  <si>
+    <t>zhè jiù shì wéi shen me nǐ jīn tiān méi lái shàng bān de yuán yīn ma ？</t>
+  </si>
+  <si>
+    <t>B: 是的，我早上醒来的时候觉得很恶心，</t>
+  </si>
+  <si>
+    <t>B: Yeah, i woke up this morning feeling really</t>
+  </si>
+  <si>
+    <t>我吐了5次。</t>
+  </si>
+  <si>
+    <r>
+      <t>nauseous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>throw up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> like five times.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，wǒ zǎo shàng xǐng lái de shí hòu jue dé hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  le 5cì 。</t>
+    </r>
+  </si>
+  <si>
+    <t>一切在掌握中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yī qiē zài zhǎng wò zhōng </t>
+  </si>
+  <si>
+    <t>all things in control</t>
   </si>
   <si>
     <t>Cut in line</t>
@@ -17264,6 +17709,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i've been trying to </t>
     </r>
     <r>
@@ -17289,6 +17739,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">diàn huà </t>
     </r>
     <r>
@@ -17314,6 +17769,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  i... um...there was an </t>
     </r>
     <r>
@@ -17336,6 +17796,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ gōng zuò shàng yǒu </t>
     </r>
     <r>
@@ -17376,6 +17841,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>B: 亲爱的，我保证这种情况不会在</t>
     </r>
     <r>
@@ -17398,6 +17868,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Honey, i </t>
     </r>
     <r>
@@ -17437,6 +17912,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">qīn ài de ，wǒ </t>
     </r>
     <r>
@@ -17485,6 +17965,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>take any</t>
     </r>
     <r>
@@ -17518,6 +18004,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">fifth time you've </t>
     </r>
     <r>
@@ -17552,6 +18043,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ bú huì zài </t>
     </r>
     <r>
@@ -17591,6 +18087,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhè shì nǐ liǎng zhōu nèi dì wǔ cì </t>
     </r>
     <r>
@@ -17625,6 +18126,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Come on, That's </t>
     </r>
     <r>
@@ -17647,6 +18153,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bié zhè yàng ，zhè </t>
     </r>
     <r>
@@ -19204,6 +19715,294 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="C1:AA46"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26">
+      <c r="C3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25">
+      <c r="C6" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="27:27">
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="3:25">
+      <c r="C9" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25">
+      <c r="C12" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25">
+      <c r="C15" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26">
+      <c r="D16" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26">
+      <c r="D17" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z17" s="20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="4:26">
+      <c r="D18" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25">
+      <c r="C21" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26">
+      <c r="D22" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="4:24">
+      <c r="D24" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
+      <c r="C25" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26">
+      <c r="D26" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26">
+      <c r="D27" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26">
+      <c r="D28" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26">
+      <c r="D29" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="4:26">
+      <c r="D30" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18">
+      <c r="D34" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25">
+      <c r="C35" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y35" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26">
+      <c r="D36" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z36" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25">
+      <c r="C39" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" ht="23.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:AA47"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -19224,39 +20023,39 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="3:26">
       <c r="C3" s="1" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="9" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="11:11">
       <c r="K5" s="1" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="1" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="27:27">
@@ -19264,146 +20063,146 @@
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="1" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="1" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="4:21">
       <c r="D13" s="1" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="9" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="4:26">
       <c r="D17" s="9" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="9" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="3:20">
       <c r="C19" s="1" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="4:21">
       <c r="D20" s="1" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="4:21">
       <c r="D21" s="1" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="9" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="9" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="3:20">
       <c r="C24" s="1" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="9" t="s">
-        <v>488</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" s="14" t="s">
-        <v>489</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="3:20">
       <c r="C27" s="1" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="9" t="s">
-        <v>492</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="13:13">
       <c r="M29" s="1" t="s">
-        <v>493</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="3:20">
       <c r="C30" s="1" t="s">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>495</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
     </row>
     <row r="47" ht="23.05" customHeight="1"/>
@@ -19414,7 +20213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:AA49"/>
@@ -19437,99 +20236,99 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="3:26">
       <c r="C3" s="1" t="s">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="4:22">
       <c r="D4" s="1" t="s">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="4:22">
       <c r="D5" s="1" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="4:22">
       <c r="D6" s="9" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="9" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="9" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:27">
       <c r="D9" s="9" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="AA9" s="14"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="4:22">
       <c r="D11" s="1" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="1" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="1" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="1" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="9" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="Z16" s="20"/>
     </row>
@@ -19538,150 +20337,150 @@
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="4:22">
       <c r="D19" s="1" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="U19" s="14"/>
       <c r="V19" s="1" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="4:22">
       <c r="D20" s="1" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="9" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="9" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="3:21">
       <c r="C23" s="1" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="D23" s="9"/>
       <c r="U23" s="9" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="4:22">
       <c r="D24" s="1" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="4:22">
       <c r="D25" s="9" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="4:22">
       <c r="D26" s="9" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="L26" s="14"/>
       <c r="V26" s="1" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="4:12">
       <c r="D27" s="9" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="4:22">
       <c r="D29" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="4:22">
       <c r="D30" s="1" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="9" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="9" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="3:21">
       <c r="C33" s="1" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="1" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="3:21">
       <c r="C37" s="1" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="1" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
     </row>
     <row r="40" spans="3:21">
       <c r="C40" s="1" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>551</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="1" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" ht="23.05" customHeight="1"/>
@@ -19692,7 +20491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:AF48"/>
@@ -19715,253 +20514,253 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="3:24">
       <c r="C3" s="1" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="4:25">
       <c r="D4" s="1" t="s">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>557</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="4:25">
       <c r="D5" s="9" t="s">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>559</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="9" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>562</v>
+        <v>604</v>
       </c>
       <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="9" t="s">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="9" t="s">
-        <v>565</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
-        <v>566</v>
+        <v>608</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>567</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="4:25">
       <c r="D11" s="1" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>569</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="9" t="s">
-        <v>570</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="4:16">
       <c r="D13" s="9" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="3:24">
       <c r="C14" s="1" t="s">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>574</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="4:26">
       <c r="D15" s="9" t="s">
-        <v>575</v>
+        <v>617</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>576</v>
+        <v>618</v>
       </c>
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="9" t="s">
-        <v>577</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="3:24">
       <c r="C17" s="1" t="s">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>579</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="4:25">
       <c r="D18" s="1" t="s">
-        <v>580</v>
+        <v>622</v>
       </c>
       <c r="U18" s="14"/>
       <c r="Y18" s="9" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="4:25">
       <c r="D19" s="9" t="s">
-        <v>582</v>
+        <v>624</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>583</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="9" t="s">
-        <v>584</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="D21" s="9"/>
       <c r="X21" s="9" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="4:32">
       <c r="D22" s="9" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="3:24">
       <c r="C24" s="1" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="V24" s="16"/>
       <c r="X24" s="9" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="4:25">
       <c r="D25" s="9" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="L25" s="14"/>
       <c r="Y25" s="9" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="9" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="3:24">
       <c r="C27" s="1" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="1" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="3:24">
       <c r="C30" s="1" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="D30" s="9"/>
       <c r="X30" s="9" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="9" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="1" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="1" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="1" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="1" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
     </row>
     <row r="48" ht="23.05" customHeight="1"/>
@@ -19972,7 +20771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:AA50"/>
@@ -19995,196 +20794,196 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="3:23">
       <c r="C3" s="1" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="3:23">
       <c r="C6" s="1" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="D6" s="9"/>
       <c r="W6" s="9" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="4:27">
       <c r="D7" s="1" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="9" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="9" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="3:23">
       <c r="C10" s="1" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="4:24">
       <c r="D11" s="1" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="4:24">
       <c r="D12" s="9" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="9" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="3:23">
       <c r="C15" s="1" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="9" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="9" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="3:23">
       <c r="C18" s="1" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>634</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="4:24">
       <c r="D19" s="1" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="U19" s="14"/>
       <c r="X19" s="9" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="9" t="s">
-        <v>637</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="9" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="3:23">
       <c r="C22" s="1" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="D22" s="9"/>
       <c r="W22" s="9" t="s">
-        <v>640</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="9" t="s">
-        <v>641</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25" spans="3:23">
       <c r="C25" s="1" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="V25" s="16"/>
       <c r="W25" s="1" t="s">
-        <v>643</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="4:24">
       <c r="D26" s="9" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="L26" s="14"/>
       <c r="X26" s="9" t="s">
-        <v>645</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="4:24">
       <c r="D27" s="9" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="L27" s="14"/>
       <c r="X27" s="1" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="9" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="9" t="s">
-        <v>649</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="3:23">
       <c r="C30" s="1" t="s">
-        <v>650</v>
+        <v>692</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>651</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="9" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="4:4">
@@ -20192,26 +20991,26 @@
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="1" t="s">
-        <v>654</v>
+        <v>696</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>656</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" ht="82.8" spans="3:10">
       <c r="C37" s="23" t="s">
-        <v>657</v>
+        <v>699</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
     </row>
     <row r="50" ht="23.05" customHeight="1"/>
@@ -20222,7 +21021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:AA50"/>
@@ -20245,95 +21044,95 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
-        <v>663</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="1" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
       <c r="D6" s="9"/>
       <c r="T6" s="9" t="s">
-        <v>665</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="4:27">
       <c r="D7" s="1" t="s">
-        <v>666</v>
+        <v>708</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>667</v>
+        <v>709</v>
       </c>
       <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="1" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:21">
       <c r="D9" s="9" t="s">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>671</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="8" t="s">
-        <v>672</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="4:24">
       <c r="D11" s="9" t="s">
-        <v>673</v>
+        <v>715</v>
       </c>
       <c r="X11" s="11"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="4:21">
       <c r="D13" s="1" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>677</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="9" t="s">
-        <v>678</v>
+        <v>720</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>679</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="9" t="s">
-        <v>680</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="4:26">
@@ -20342,16 +21141,16 @@
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
-        <v>681</v>
+        <v>723</v>
       </c>
       <c r="D17" s="9"/>
       <c r="T17" s="9" t="s">
-        <v>682</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="9" t="s">
-        <v>683</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="21:21">
@@ -20359,102 +21158,102 @@
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>685</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="9" t="s">
-        <v>686</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="9"/>
       <c r="J22" s="1" t="s">
-        <v>687</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
       <c r="D23" s="9"/>
       <c r="T23" s="9" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="9" t="s">
-        <v>690</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="13:22">
       <c r="M25" s="1" t="s">
-        <v>691</v>
+        <v>733</v>
       </c>
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="3:20">
       <c r="C26" s="1" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="D26" s="9"/>
       <c r="L26" s="14"/>
       <c r="T26" s="9" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="4:12">
       <c r="D27" s="9" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="9"/>
       <c r="N28" s="1" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="3:20">
       <c r="C29" s="1" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="D29" s="9"/>
       <c r="T29" s="1" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>698</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="3:20">
       <c r="C32" s="1" t="s">
-        <v>699</v>
+        <v>741</v>
       </c>
       <c r="D32" s="9"/>
       <c r="T32" s="1" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="9" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="1" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -20462,47 +21261,47 @@
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="1" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
     </row>
     <row r="43" ht="124.2" spans="3:10">
       <c r="C43" s="9" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="7:10">
       <c r="G44" s="1" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" s="1" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" ht="23.05" customHeight="1"/>
@@ -20513,7 +21312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA54"/>
@@ -20536,126 +21335,126 @@
     </row>
     <row r="2" spans="4:26">
       <c r="D2" s="1" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="3:24">
       <c r="C3" s="1" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="4:25">
       <c r="D4" s="1" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="4:25">
       <c r="D5" s="1" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="4:25">
       <c r="D6" s="9" t="s">
-        <v>724</v>
+        <v>766</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>725</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="4:27">
       <c r="D7" s="9" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="9" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="9" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="D10" s="8"/>
       <c r="X10" s="9" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="4:25">
       <c r="D11" s="1" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="X11" s="11"/>
       <c r="Y11" s="9" t="s">
-        <v>732</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="9" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="9" t="s">
-        <v>734</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="4:17">
       <c r="D14" s="21" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="3:24">
       <c r="C15" s="1" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="D15" s="9"/>
       <c r="X15" s="9" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="9" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="8" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="1" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="21:21">
@@ -20663,246 +21462,246 @@
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="1" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" spans="4:25">
       <c r="D21" s="9" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="8" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="4:11">
       <c r="D23" s="8" t="s">
-        <v>750</v>
+        <v>792</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>752</v>
+        <v>794</v>
       </c>
     </row>
     <row r="24" spans="3:24">
       <c r="C24" s="1" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>754</v>
+        <v>796</v>
       </c>
     </row>
     <row r="25" spans="4:25">
       <c r="D25" s="1" t="s">
-        <v>755</v>
+        <v>797</v>
       </c>
       <c r="V25" s="16"/>
       <c r="Y25" s="1" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="9" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="4:12">
       <c r="D27" s="9" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="9" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="3:25">
       <c r="C29" s="1" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="D29" s="9"/>
       <c r="Y29" s="9" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="9" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="3:24">
       <c r="C32" s="1" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="D32" s="9"/>
       <c r="X32" s="9" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" spans="4:25">
       <c r="D33" s="9" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="4:17">
       <c r="D34" s="9" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="3:25">
       <c r="C36" s="1" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="3:25">
       <c r="C37" s="23"/>
       <c r="D37" s="1" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>772</v>
+        <v>814</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="12" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" s="24" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
     </row>
     <row r="40" spans="3:25">
       <c r="C40" s="1" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
     </row>
     <row r="41" spans="4:25">
       <c r="D41" s="1" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
     </row>
     <row r="42" spans="4:25">
       <c r="D42" s="1" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>779</v>
+        <v>821</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="12" t="s">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="4:10">
       <c r="D44" s="1" t="s">
-        <v>782</v>
+        <v>824</v>
       </c>
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="16:16">
       <c r="P45" s="1" t="s">
-        <v>783</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="16:16">
       <c r="P46" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
     </row>
     <row r="47" spans="4:16">
       <c r="D47" s="1" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="4:7">
       <c r="D48" s="1" t="s">
-        <v>788</v>
+        <v>830</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" spans="4:7">
       <c r="D49" s="1" t="s">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>791</v>
+        <v>833</v>
       </c>
     </row>
     <row r="50" ht="17.85" customHeight="1" spans="4:7">
       <c r="D50" s="1" t="s">
-        <v>792</v>
+        <v>834</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>793</v>
+        <v>835</v>
       </c>
     </row>
     <row r="52" spans="4:7">
       <c r="D52" s="1" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>795</v>
+        <v>837</v>
       </c>
     </row>
     <row r="53" spans="4:7">
       <c r="D53" s="1" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>797</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" spans="4:7">
       <c r="D54" s="1" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>799</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -20912,7 +21711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA50"/>
@@ -20937,90 +21736,90 @@
     </row>
     <row r="2" spans="4:26">
       <c r="D2" s="1" t="s">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="4:21">
       <c r="D4" s="9" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="1" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="D6" s="9"/>
       <c r="T6" s="1" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" spans="4:27">
       <c r="D7" s="9" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="9" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="9" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="3:20">
       <c r="C10" s="1" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="D10" s="8"/>
       <c r="T10" s="9" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="4:24">
       <c r="D11" s="9" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="X11" s="11"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="9" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
     </row>
     <row r="13" spans="4:4">
@@ -21028,64 +21827,64 @@
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="1" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="D14" s="21"/>
       <c r="M14" s="8"/>
       <c r="Q14" s="11"/>
       <c r="T14" s="1" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="9" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="9"/>
       <c r="L16" s="1" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
-        <v>824</v>
+        <v>866</v>
       </c>
       <c r="D17" s="8"/>
       <c r="T17" s="9" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
     </row>
     <row r="18" spans="4:21">
       <c r="D18" s="9" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
     </row>
     <row r="19" spans="4:21">
       <c r="D19" s="9" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="U19" s="14"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
     </row>
     <row r="21" spans="4:19">
       <c r="D21" s="9" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="S21" s="8"/>
     </row>
@@ -21094,30 +21893,30 @@
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="D23" s="8"/>
       <c r="T23" s="1" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
     </row>
     <row r="24" spans="4:21">
       <c r="D24" s="1" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
     </row>
     <row r="25" spans="4:22">
       <c r="D25" s="1" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="9" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="L26" s="14"/>
     </row>
@@ -21129,7 +21928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:AF49"/>
@@ -21154,104 +21953,104 @@
     </row>
     <row r="2" spans="3:26">
       <c r="C2" s="1" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="3:18">
       <c r="C3" s="1" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>841</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="4:19">
       <c r="D4" s="1" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="9" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="D5" s="22"/>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="9" t="s">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="D7" s="9"/>
       <c r="R7" s="9" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="3:27">
       <c r="C8" s="9" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="D8" s="9"/>
       <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="9" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="3:18">
       <c r="C10" s="1" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="D10" s="8"/>
       <c r="R10" s="1" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="4:24">
       <c r="D11" s="9" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="X11" s="11"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="9" t="s">
-        <v>855</v>
+        <v>897</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="3:18">
       <c r="C14" s="1" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="D14" s="21"/>
       <c r="M14" s="8"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="1" t="s">
-        <v>857</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="1" t="s">
-        <v>858</v>
+        <v>900</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -21261,64 +22060,64 @@
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
-        <v>859</v>
+        <v>901</v>
       </c>
       <c r="D17" s="8"/>
       <c r="R17" s="9" t="s">
-        <v>860</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="9" t="s">
-        <v>861</v>
+        <v>903</v>
       </c>
     </row>
     <row r="19" spans="3:18">
       <c r="C19" s="1" t="s">
-        <v>862</v>
+        <v>904</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="4:19">
       <c r="D20" s="9" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="9" t="s">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="9" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="1" t="s">
-        <v>868</v>
+        <v>910</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="3:32">
       <c r="C24" s="9" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="V24" s="16"/>
       <c r="AD24" s="1" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>872</v>
+        <v>914</v>
       </c>
     </row>
     <row r="25" spans="4:12">
@@ -21327,74 +22126,74 @@
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" spans="3:19">
       <c r="C27" s="1" t="s">
-        <v>875</v>
+        <v>917</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>876</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="12" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="1" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="1" t="s">
-        <v>880</v>
+        <v>922</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>881</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="1" t="s">
-        <v>883</v>
+        <v>925</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>885</v>
+        <v>927</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="1" t="s">
-        <v>886</v>
+        <v>928</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="1" t="s">
-        <v>887</v>
+        <v>929</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>888</v>
+        <v>930</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>889</v>
+        <v>931</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
@@ -21405,7 +22204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:AA50"/>
@@ -21430,58 +22229,58 @@
     </row>
     <row r="2" spans="3:26">
       <c r="C2" s="1" t="s">
-        <v>890</v>
+        <v>932</v>
       </c>
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="4:20">
       <c r="D4" s="1" t="s">
-        <v>893</v>
+        <v>935</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>894</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="4:20">
       <c r="D5" s="9" t="s">
-        <v>895</v>
+        <v>937</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>896</v>
+        <v>938</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="10" t="s">
-        <v>897</v>
+        <v>939</v>
       </c>
     </row>
     <row r="7" spans="4:27">
       <c r="D7" s="10" t="s">
-        <v>898</v>
+        <v>940</v>
       </c>
       <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="3:27">
       <c r="C8" s="1" t="s">
-        <v>899</v>
+        <v>941</v>
       </c>
       <c r="D8" s="9"/>
       <c r="S8" s="1" t="s">
-        <v>900</v>
+        <v>942</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="9" t="s">
-        <v>901</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="4:4">
@@ -21489,16 +22288,16 @@
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
-        <v>902</v>
+        <v>944</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>903</v>
+        <v>945</v>
       </c>
       <c r="X11" s="11"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="9" t="s">
-        <v>904</v>
+        <v>946</v>
       </c>
     </row>
     <row r="13" spans="4:4">
@@ -21506,18 +22305,18 @@
     </row>
     <row r="14" spans="3:19">
       <c r="C14" s="1" t="s">
-        <v>905</v>
+        <v>947</v>
       </c>
       <c r="D14" s="21"/>
       <c r="M14" s="8"/>
       <c r="Q14" s="11"/>
       <c r="S14" s="1" t="s">
-        <v>906</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="9" t="s">
-        <v>907</v>
+        <v>949</v>
       </c>
     </row>
     <row r="16" spans="4:26">
@@ -21526,480 +22325,219 @@
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="1" t="s">
-        <v>908</v>
+        <v>950</v>
       </c>
       <c r="D17" s="8"/>
       <c r="S17" s="9" t="s">
-        <v>909</v>
+        <v>951</v>
       </c>
     </row>
     <row r="18" spans="4:20">
       <c r="D18" s="1" t="s">
-        <v>910</v>
+        <v>952</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>911</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="9" t="s">
-        <v>912</v>
+        <v>954</v>
       </c>
     </row>
     <row r="20" spans="4:19">
       <c r="D20" s="9" t="s">
-        <v>913</v>
+        <v>955</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>914</v>
+        <v>956</v>
       </c>
       <c r="S20" s="8"/>
     </row>
     <row r="22" spans="3:19">
       <c r="C22" s="9" t="s">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="D22" s="8"/>
       <c r="S22" s="1" t="s">
-        <v>916</v>
+        <v>958</v>
       </c>
     </row>
     <row r="23" spans="4:20">
       <c r="D23" s="1" t="s">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>918</v>
+        <v>960</v>
       </c>
     </row>
     <row r="24" spans="4:22">
       <c r="D24" s="10" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="3:19">
       <c r="C25" s="1" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D25" s="9"/>
       <c r="L25" s="14"/>
       <c r="S25" s="1" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
     </row>
     <row r="26" spans="4:20">
       <c r="D26" s="1" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="1" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" s="12"/>
       <c r="D28" s="1" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="3:19">
       <c r="C29" s="1" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>928</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="1" t="s">
-        <v>929</v>
+        <v>971</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>930</v>
+        <v>972</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>931</v>
+        <v>973</v>
       </c>
     </row>
     <row r="35" spans="3:19">
       <c r="C35" s="1" t="s">
-        <v>932</v>
+        <v>974</v>
       </c>
       <c r="E35" s="7"/>
       <c r="S35" s="1" t="s">
-        <v>933</v>
+        <v>975</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" s="1" t="s">
-        <v>928</v>
+        <v>970</v>
       </c>
     </row>
     <row r="38" spans="3:19">
       <c r="C38" s="1" t="s">
-        <v>934</v>
+        <v>976</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="1" t="s">
-        <v>936</v>
+        <v>978</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="1" t="s">
-        <v>937</v>
+        <v>979</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>938</v>
+        <v>980</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>939</v>
+        <v>981</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="1" t="s">
-        <v>940</v>
+        <v>982</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>942</v>
+        <v>984</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>943</v>
+        <v>985</v>
       </c>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="1" t="s">
-        <v>944</v>
+        <v>986</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>945</v>
+        <v>987</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>946</v>
+        <v>988</v>
       </c>
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="1" t="s">
-        <v>947</v>
+        <v>989</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>948</v>
+        <v>990</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>949</v>
+        <v>991</v>
       </c>
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="1" t="s">
-        <v>950</v>
+        <v>992</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>951</v>
+        <v>993</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>952</v>
+        <v>994</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1" spans="3:9">
       <c r="C49" s="1" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>955</v>
+        <v>997</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" s="1" t="s">
-        <v>956</v>
+        <v>998</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:AA49"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="3:26">
-      <c r="C2" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="4" spans="3:18">
-      <c r="C4" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="9" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="3:27">
-      <c r="C7" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="R7" s="9" t="s">
-        <v>963</v>
-      </c>
-      <c r="AA7" s="14"/>
-    </row>
-    <row r="8" spans="4:27">
-      <c r="D8" s="9" t="s">
-        <v>964</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="AA8" s="14"/>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="11" spans="3:24">
-      <c r="C11" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="S11" s="9"/>
-      <c r="X11" s="11"/>
-    </row>
-    <row r="12" spans="4:19">
-      <c r="D12" s="9" t="s">
-        <v>970</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="13" spans="4:19">
-      <c r="D13" s="9" t="s">
-        <v>972</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17">
-      <c r="D14" s="9" t="s">
-        <v>974</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="9" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="16" spans="4:26">
-      <c r="D16" s="9" t="s">
-        <v>976</v>
-      </c>
-      <c r="Z16" s="20"/>
-    </row>
-    <row r="17" spans="3:18">
-      <c r="C17" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="R17" s="9" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="18" spans="4:19">
-      <c r="D18" s="9" t="s">
-        <v>979</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="9" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19">
-      <c r="C20" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="R20" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="9" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>986</v>
-      </c>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="4:22">
-      <c r="D24" s="10" t="s">
-        <v>987</v>
-      </c>
-      <c r="V24" s="16"/>
-    </row>
-    <row r="25" spans="4:12">
-      <c r="D25" s="9"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="3:18">
-      <c r="C26" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19">
-      <c r="C27" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="12"/>
-      <c r="D28" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18">
-      <c r="C30" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18">
-      <c r="C33" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="34" spans="4:19">
-      <c r="D34" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="S34" s="5" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="3:18">
-      <c r="C36" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="49" ht="17.85" customHeight="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -22241,6 +22779,267 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="C1:AA49"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:26">
+      <c r="C2" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="4" spans="3:18">
+      <c r="C4" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="9" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="3:27">
+      <c r="C7" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="R7" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AA7" s="14"/>
+    </row>
+    <row r="8" spans="4:27">
+      <c r="D8" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="9" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="9" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24">
+      <c r="C11" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="4:19">
+      <c r="D12" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19">
+      <c r="D13" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17">
+      <c r="D14" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="9" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26">
+      <c r="D16" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Z16" s="20"/>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="R17" s="9" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19">
+      <c r="D18" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="9" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="R20" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="9" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="3:20">
+      <c r="C23" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="4:22">
+      <c r="D24" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="9"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="C26" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="C27" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="12"/>
+      <c r="D28" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="C30" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18">
+      <c r="C33" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19">
+      <c r="D34" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="3:18">
+      <c r="C36" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="49" ht="17.85" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A33" workbookViewId="0">
@@ -22263,21 +23062,21 @@
     </row>
     <row r="2" spans="3:26">
       <c r="C2" s="1" t="s">
-        <v>1005</v>
+        <v>1047</v>
       </c>
       <c r="Z2" s="8"/>
     </row>
     <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
-        <v>1006</v>
+        <v>1048</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>1007</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="9" t="s">
-        <v>1008</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="6" spans="4:4">
@@ -22285,18 +23084,18 @@
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
-        <v>1009</v>
+        <v>1051</v>
       </c>
       <c r="D7" s="10"/>
       <c r="R7" s="9"/>
       <c r="X7" s="9" t="s">
-        <v>1010</v>
+        <v>1052</v>
       </c>
       <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="9" t="s">
-        <v>1011</v>
+        <v>1053</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
@@ -22305,16 +23104,16 @@
     </row>
     <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
-        <v>1012</v>
+        <v>1054</v>
       </c>
       <c r="D10" s="9"/>
       <c r="X10" s="1" t="s">
-        <v>1013</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="11" spans="4:24">
       <c r="D11" s="1" t="s">
-        <v>1014</v>
+        <v>1056</v>
       </c>
       <c r="S11" s="9"/>
       <c r="X11" s="11"/>
@@ -22325,22 +23124,22 @@
     </row>
     <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
-        <v>1015</v>
+        <v>1057</v>
       </c>
       <c r="D13" s="9"/>
       <c r="S13" s="15"/>
       <c r="X13" s="1" t="s">
-        <v>1016</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="14" spans="4:25">
       <c r="D14" s="9" t="s">
-        <v>1017</v>
+        <v>1059</v>
       </c>
       <c r="M14" s="8"/>
       <c r="Q14" s="11"/>
       <c r="Y14" s="1" t="s">
-        <v>1018</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="15" spans="4:4">
@@ -22348,17 +23147,17 @@
     </row>
     <row r="16" spans="3:26">
       <c r="C16" s="1" t="s">
-        <v>1019</v>
+        <v>1061</v>
       </c>
       <c r="D16" s="9"/>
       <c r="X16" s="1" t="s">
-        <v>1020</v>
+        <v>1062</v>
       </c>
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="4:18">
       <c r="D17" s="12" t="s">
-        <v>1021</v>
+        <v>1063</v>
       </c>
       <c r="R17" s="9"/>
     </row>
@@ -22368,206 +23167,206 @@
     </row>
     <row r="19" spans="3:24">
       <c r="C19" s="1" t="s">
-        <v>1022</v>
+        <v>1064</v>
       </c>
       <c r="D19" s="9"/>
       <c r="X19" s="9" t="s">
-        <v>1023</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="20" spans="4:25">
       <c r="D20" s="9" t="s">
-        <v>1024</v>
+        <v>1066</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="8"/>
       <c r="Y20" s="1" t="s">
-        <v>1025</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="21" spans="4:16">
       <c r="D21" s="9" t="s">
-        <v>1026</v>
+        <v>1068</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>1027</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="22" spans="3:24">
       <c r="C22" s="9" t="s">
-        <v>1028</v>
+        <v>1070</v>
       </c>
       <c r="D22" s="8"/>
       <c r="X22" s="9" t="s">
-        <v>1029</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="23" spans="4:25">
       <c r="D23" s="9" t="s">
-        <v>1030</v>
+        <v>1072</v>
       </c>
       <c r="R23" s="9"/>
       <c r="T23" s="8"/>
       <c r="Y23" s="13" t="s">
-        <v>1031</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="24" spans="4:22">
       <c r="D24" s="10" t="s">
-        <v>1032</v>
+        <v>1074</v>
       </c>
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="3:24">
       <c r="C25" s="1" t="s">
-        <v>1033</v>
+        <v>1075</v>
       </c>
       <c r="D25" s="9"/>
       <c r="L25" s="14"/>
       <c r="X25" s="1" t="s">
-        <v>1034</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="1" t="s">
-        <v>1035</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="28" spans="3:24">
       <c r="C28" s="12" t="s">
-        <v>1036</v>
+        <v>1078</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>1037</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>1038</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="31" spans="3:24">
       <c r="C31" s="1" t="s">
-        <v>1039</v>
+        <v>1081</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>1040</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="32" spans="4:25">
       <c r="D32" s="1" t="s">
-        <v>1041</v>
+        <v>1083</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>1042</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="33" spans="4:15">
       <c r="D33" s="1" t="s">
-        <v>1043</v>
+        <v>1085</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1044</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="34" spans="3:24">
       <c r="C34" s="1" t="s">
-        <v>1045</v>
+        <v>1087</v>
       </c>
       <c r="S34" s="5"/>
       <c r="X34" s="1" t="s">
-        <v>1046</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="35" spans="4:25">
       <c r="D35" s="1" t="s">
-        <v>1047</v>
+        <v>1089</v>
       </c>
       <c r="E35" s="7"/>
       <c r="Y35" s="1" t="s">
-        <v>1048</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="36" spans="4:25">
       <c r="D36" s="1" t="s">
-        <v>1049</v>
+        <v>1091</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>1050</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" s="1" t="s">
-        <v>1051</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="38" spans="3:24">
       <c r="C38" s="1" t="s">
-        <v>1052</v>
+        <v>1094</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>1053</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="39" spans="4:25">
       <c r="D39" s="1" t="s">
-        <v>1054</v>
+        <v>1096</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>1055</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="41" spans="3:24">
       <c r="C41" s="1" t="s">
-        <v>1056</v>
+        <v>1098</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>1057</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="42" spans="4:25">
       <c r="D42" s="1" t="s">
-        <v>1058</v>
+        <v>1100</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>1059</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>1060</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>1061</v>
+        <v>1103</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>1062</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="45" spans="3:24">
       <c r="C45" s="1" t="s">
-        <v>1063</v>
+        <v>1105</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>1064</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="1" t="s">
-        <v>1065</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1" spans="3:12">
       <c r="C49" s="1" t="s">
-        <v>1066</v>
+        <v>1108</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1067</v>
+        <v>1109</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>1068</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -22577,7 +23376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:AB49"/>
@@ -22602,21 +23401,21 @@
     </row>
     <row r="2" spans="4:27">
       <c r="D2" s="1" t="s">
-        <v>1069</v>
+        <v>1111</v>
       </c>
       <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
-        <v>1070</v>
+        <v>1112</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1071</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
-        <v>1072</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="4:4">
@@ -22624,16 +23423,16 @@
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="1" t="s">
-        <v>1073</v>
+        <v>1115</v>
       </c>
       <c r="D6" s="10"/>
       <c r="U6" s="1" t="s">
-        <v>1074</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="4:28">
       <c r="D7" s="10" t="s">
-        <v>1075</v>
+        <v>1117</v>
       </c>
       <c r="S7" s="9"/>
       <c r="Y7" s="9"/>
@@ -22645,16 +23444,16 @@
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="1" t="s">
-        <v>1076</v>
+        <v>1118</v>
       </c>
       <c r="D9" s="9"/>
       <c r="U9" s="1" t="s">
-        <v>1077</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="9" t="s">
-        <v>1078</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="11" spans="20:25">
@@ -22663,52 +23462,52 @@
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="1" t="s">
-        <v>1079</v>
+        <v>1121</v>
       </c>
       <c r="D12" s="9"/>
       <c r="T12" s="13"/>
       <c r="U12" s="1" t="s">
-        <v>1080</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="13" spans="4:22">
       <c r="D13" s="9" t="s">
-        <v>1081</v>
+        <v>1123</v>
       </c>
       <c r="T13" s="15"/>
       <c r="V13" s="1" t="s">
-        <v>1082</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14" spans="4:22">
       <c r="D14" s="9" t="s">
-        <v>1083</v>
+        <v>1125</v>
       </c>
       <c r="M14" s="8"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="V14" s="1" t="s">
-        <v>1084</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="10" t="s">
-        <v>1085</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="16" spans="3:27">
       <c r="C16" s="1" t="s">
-        <v>1086</v>
+        <v>1128</v>
       </c>
       <c r="D16" s="9"/>
       <c r="U16" s="1" t="s">
-        <v>1087</v>
+        <v>1129</v>
       </c>
       <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="4:19">
       <c r="D17" s="12" t="s">
-        <v>1088</v>
+        <v>1130</v>
       </c>
       <c r="S17" s="9"/>
     </row>
@@ -22718,43 +23517,43 @@
     </row>
     <row r="19" spans="3:25">
       <c r="C19" s="1" t="s">
-        <v>1089</v>
+        <v>1131</v>
       </c>
       <c r="D19" s="9"/>
       <c r="U19" s="1" t="s">
-        <v>1090</v>
+        <v>1132</v>
       </c>
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="4:22">
       <c r="D20" s="9" t="s">
-        <v>1091</v>
+        <v>1133</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="8"/>
       <c r="V20" s="1" t="s">
-        <v>1092</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="21" spans="4:17">
       <c r="D21" s="9"/>
       <c r="Q21" s="1" t="s">
-        <v>1093</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="22" spans="3:25">
       <c r="C22" s="9" t="s">
-        <v>1094</v>
+        <v>1136</v>
       </c>
       <c r="D22" s="8"/>
       <c r="U22" s="1" t="s">
-        <v>1095</v>
+        <v>1137</v>
       </c>
       <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="4:26">
       <c r="D23" s="9" t="s">
-        <v>1096</v>
+        <v>1138</v>
       </c>
       <c r="S23" s="9"/>
       <c r="U23" s="8"/>
@@ -22762,132 +23561,132 @@
     </row>
     <row r="24" spans="4:23">
       <c r="D24" s="10" t="s">
-        <v>1097</v>
+        <v>1139</v>
       </c>
       <c r="W24" s="16"/>
     </row>
     <row r="25" spans="4:12">
       <c r="D25" s="9" t="s">
-        <v>1098</v>
+        <v>1140</v>
       </c>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
-        <v>1099</v>
+        <v>1141</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>1100</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="27" spans="4:22">
       <c r="D27" s="1" t="s">
-        <v>1101</v>
+        <v>1143</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>1102</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" s="12"/>
       <c r="D28" s="1" t="s">
-        <v>1103</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="29" spans="3:21">
       <c r="C29" s="1" t="s">
-        <v>1104</v>
+        <v>1146</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>1105</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>1106</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="32" spans="3:21">
       <c r="C32" s="1" t="s">
-        <v>1107</v>
+        <v>1149</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>1108</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="33" spans="4:22">
       <c r="D33" s="1" t="s">
-        <v>1109</v>
+        <v>1151</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1110</v>
+        <v>1152</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>1111</v>
+        <v>1153</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>1112</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="34" spans="4:22">
       <c r="D34" s="1" t="s">
-        <v>1113</v>
+        <v>1155</v>
       </c>
       <c r="T34" s="5"/>
       <c r="V34" s="1" t="s">
-        <v>1114</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="35" spans="4:22">
       <c r="D35" s="1" t="s">
-        <v>1115</v>
+        <v>1157</v>
       </c>
       <c r="E35" s="7"/>
       <c r="V35" s="1" t="s">
-        <v>1116</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="1" t="s">
-        <v>1117</v>
+        <v>1159</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1118</v>
+        <v>1160</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1119</v>
+        <v>1161</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>1120</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="1" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1121</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="1" t="s">
-        <v>1122</v>
+        <v>1164</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1123</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="42" spans="3:7">
       <c r="C42" s="1" t="s">
-        <v>1124</v>
+        <v>1166</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1125</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" s="1" t="s">
-        <v>1126</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
@@ -22898,7 +23697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:AB49"/>
@@ -22923,21 +23722,21 @@
     </row>
     <row r="2" spans="4:27">
       <c r="D2" s="1" t="s">
-        <v>1127</v>
+        <v>1169</v>
       </c>
       <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
-        <v>1128</v>
+        <v>1170</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1129</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
-        <v>1130</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="4:4">
@@ -22945,42 +23744,42 @@
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:19">
       <c r="C6" s="1" t="s">
-        <v>1131</v>
+        <v>1173</v>
       </c>
       <c r="D6" s="10"/>
       <c r="S6" s="1" t="s">
-        <v>1132</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="4:28">
       <c r="D7" s="10" t="s">
-        <v>1133</v>
+        <v>1175</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="1" t="s">
-        <v>1134</v>
+        <v>1176</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="AB7" s="14"/>
     </row>
     <row r="8" spans="4:28">
       <c r="D8" s="9" t="s">
-        <v>1135</v>
+        <v>1177</v>
       </c>
       <c r="AB8" s="14"/>
     </row>
     <row r="9" spans="3:19">
       <c r="C9" s="1" t="s">
-        <v>1136</v>
+        <v>1178</v>
       </c>
       <c r="D9" s="9"/>
       <c r="S9" s="1" t="s">
-        <v>1137</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="9" t="s">
-        <v>1138</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="20:25">
@@ -22989,17 +23788,17 @@
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
-        <v>1139</v>
+        <v>1181</v>
       </c>
       <c r="D12" s="9"/>
       <c r="S12" s="1" t="s">
-        <v>1140</v>
+        <v>1182</v>
       </c>
       <c r="T12" s="13"/>
     </row>
     <row r="13" spans="4:20">
       <c r="D13" s="9" t="s">
-        <v>1141</v>
+        <v>1183</v>
       </c>
       <c r="T13" s="15"/>
     </row>
@@ -23011,16 +23810,16 @@
     </row>
     <row r="15" spans="3:19">
       <c r="C15" s="1" t="s">
-        <v>1142</v>
+        <v>1184</v>
       </c>
       <c r="D15" s="10"/>
       <c r="S15" s="1" t="s">
-        <v>1143</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="16" spans="4:27">
       <c r="D16" s="9" t="s">
-        <v>1144</v>
+        <v>1186</v>
       </c>
       <c r="AA16" s="20"/>
     </row>
@@ -23030,17 +23829,17 @@
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="1" t="s">
-        <v>1145</v>
+        <v>1187</v>
       </c>
       <c r="D18" s="9"/>
       <c r="S18" s="1" t="s">
-        <v>1146</v>
+        <v>1188</v>
       </c>
       <c r="T18" s="9"/>
     </row>
     <row r="19" spans="4:25">
       <c r="D19" s="9" t="s">
-        <v>1147</v>
+        <v>1189</v>
       </c>
       <c r="Y19" s="9"/>
     </row>
@@ -23051,17 +23850,17 @@
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="1" t="s">
-        <v>1148</v>
+        <v>1190</v>
       </c>
       <c r="D21" s="9"/>
       <c r="S21" s="1" t="s">
-        <v>1149</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="22" spans="3:25">
       <c r="C22" s="9"/>
       <c r="D22" s="12" t="s">
-        <v>1150</v>
+        <v>1192</v>
       </c>
       <c r="Y22" s="9"/>
     </row>
@@ -23073,34 +23872,34 @@
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="1" t="s">
-        <v>1151</v>
+        <v>1193</v>
       </c>
       <c r="D24" s="10"/>
       <c r="S24" s="1" t="s">
-        <v>1152</v>
+        <v>1194</v>
       </c>
       <c r="W24" s="16"/>
     </row>
     <row r="25" spans="4:12">
       <c r="D25" s="9" t="s">
-        <v>1153</v>
+        <v>1195</v>
       </c>
       <c r="L25" s="14"/>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="12" t="s">
-        <v>1154</v>
+        <v>1196</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1155</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="1" t="s">
-        <v>1156</v>
+        <v>1198</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1157</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="34" spans="20:20">
@@ -23117,7 +23916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:I44"/>
@@ -23135,20 +23934,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="17" t="s">
-        <v>1158</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="18" t="s">
-        <v>1159</v>
+        <v>1201</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>1160</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="18" t="s">
-        <v>1161</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -23156,251 +23955,251 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="18" t="s">
-        <v>1162</v>
+        <v>1204</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>1163</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="18" t="s">
-        <v>1164</v>
+        <v>1206</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>1165</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="17" t="s">
-        <v>1166</v>
+        <v>1208</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>1167</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="17" t="s">
-        <v>1168</v>
+        <v>1210</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>1169</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="17" t="s">
-        <v>1170</v>
+        <v>1212</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>1171</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="17" t="s">
-        <v>1172</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="17" t="s">
-        <v>1173</v>
+        <v>1215</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>1174</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="17" t="s">
-        <v>1175</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="17" t="s">
-        <v>1176</v>
+        <v>1218</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>1177</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>1178</v>
+        <v>1220</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>1179</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="17" t="s">
-        <v>1180</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="17" t="s">
-        <v>1181</v>
+        <v>1223</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>1182</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="17" t="s">
-        <v>1183</v>
+        <v>1225</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>1184</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>1185</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" s="17" t="s">
-        <v>1186</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="17" t="s">
-        <v>1187</v>
+        <v>1229</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>1188</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="17" t="s">
-        <v>1189</v>
+        <v>1231</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>1190</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="17" t="s">
-        <v>1191</v>
+        <v>1233</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>1192</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="17" t="s">
-        <v>1193</v>
+        <v>1235</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>1194</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="17" t="s">
-        <v>1195</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="17" t="s">
-        <v>1196</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="17" t="s">
-        <v>1197</v>
+        <v>1239</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>1198</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="17" t="s">
-        <v>1199</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="17" t="s">
-        <v>1200</v>
+        <v>1242</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>1201</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="17" t="s">
-        <v>1202</v>
+        <v>1244</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>1203</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="17" t="s">
-        <v>1204</v>
+        <v>1246</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>1205</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="17" t="s">
-        <v>1206</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="17" t="s">
-        <v>1207</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="17" t="s">
-        <v>1208</v>
+        <v>1250</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1209</v>
+        <v>1251</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>1210</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="17" t="s">
-        <v>1211</v>
+        <v>1253</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1212</v>
+        <v>1254</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>1213</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="17" t="s">
-        <v>1214</v>
+        <v>1256</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>1215</v>
+        <v>1257</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="17" t="s">
-        <v>1216</v>
+        <v>1258</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1217</v>
+        <v>1259</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>1218</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="17" t="s">
-        <v>1219</v>
+        <v>1261</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>1220</v>
+        <v>1262</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>1221</v>
+        <v>1263</v>
       </c>
     </row>
   </sheetData>
@@ -23409,7 +24208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:AV49"/>
@@ -23434,35 +24233,35 @@
     </row>
     <row r="2" spans="3:27">
       <c r="C2" s="1" t="s">
-        <v>1222</v>
+        <v>1264</v>
       </c>
       <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="1" t="s">
-        <v>1223</v>
+        <v>1265</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>1224</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="4" spans="3:28">
       <c r="C4" s="1" t="s">
-        <v>1225</v>
+        <v>1267</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>1226</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="5" spans="3:29">
       <c r="C5" s="1" t="s">
-        <v>1227</v>
+        <v>1269</v>
       </c>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:29">
       <c r="C6" s="1" t="s">
-        <v>1228</v>
+        <v>1270</v>
       </c>
       <c r="AC6" s="10"/>
     </row>
@@ -23473,34 +24272,34 @@
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="1" t="s">
-        <v>1229</v>
+        <v>1271</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>1230</v>
+        <v>1272</v>
       </c>
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="3:46">
       <c r="C9" s="1" t="s">
-        <v>1231</v>
+        <v>1273</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>1232</v>
+        <v>1274</v>
       </c>
       <c r="AC9" s="9"/>
       <c r="AT9" s="1" t="s">
-        <v>1233</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="1" t="s">
-        <v>1234</v>
+        <v>1276</v>
       </c>
       <c r="AC10" s="9"/>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" s="1" t="s">
-        <v>1235</v>
+        <v>1277</v>
       </c>
       <c r="Y11" s="11"/>
       <c r="AS11" s="9"/>
@@ -23515,10 +24314,10 @@
     </row>
     <row r="14" spans="2:43">
       <c r="B14" s="1" t="s">
-        <v>1236</v>
+        <v>1278</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>1237</v>
+        <v>1279</v>
       </c>
       <c r="AC14" s="9"/>
       <c r="AL14" s="8"/>
@@ -23527,7 +24326,7 @@
     </row>
     <row r="15" spans="3:29">
       <c r="C15" s="1" t="s">
-        <v>1238</v>
+        <v>1280</v>
       </c>
       <c r="AC15" s="10"/>
     </row>
@@ -23540,30 +24339,30 @@
     </row>
     <row r="18" spans="2:45">
       <c r="B18" s="1" t="s">
-        <v>1239</v>
+        <v>1281</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>1240</v>
+        <v>1282</v>
       </c>
       <c r="AC18" s="9"/>
       <c r="AS18" s="9"/>
     </row>
     <row r="19" spans="3:29">
       <c r="C19" s="1" t="s">
-        <v>1241</v>
+        <v>1283</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="AB19" s="1" t="s">
-        <v>1242</v>
+        <v>1284</v>
       </c>
       <c r="AC19" s="9"/>
     </row>
     <row r="20" spans="3:45">
       <c r="C20" s="1" t="s">
-        <v>1243</v>
+        <v>1285</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>1244</v>
+        <v>1286</v>
       </c>
       <c r="AC20" s="9"/>
       <c r="AR20" s="9"/>
@@ -23571,7 +24370,7 @@
     </row>
     <row r="21" spans="3:29">
       <c r="C21" s="1" t="s">
-        <v>1245</v>
+        <v>1287</v>
       </c>
       <c r="AC21" s="9"/>
     </row>
@@ -23588,61 +24387,61 @@
     </row>
     <row r="24" spans="2:48">
       <c r="B24" s="1" t="s">
-        <v>1246</v>
+        <v>1288</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>1247</v>
+        <v>1289</v>
       </c>
       <c r="AC24" s="10"/>
       <c r="AV24" s="16"/>
     </row>
     <row r="25" spans="3:37">
       <c r="C25" s="1" t="s">
-        <v>1248</v>
+        <v>1290</v>
       </c>
       <c r="AC25" s="9"/>
       <c r="AK25" s="14"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="1" t="s">
-        <v>1249</v>
+        <v>1291</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1250</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="29" spans="3:28">
       <c r="C29" s="1" t="s">
-        <v>1251</v>
+        <v>1293</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>1252</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="1" t="s">
-        <v>1253</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
-        <v>1254</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="1" t="s">
-        <v>1255</v>
+        <v>1297</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>1256</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="34" spans="3:45">
       <c r="C34" s="1" t="s">
-        <v>1257</v>
+        <v>1299</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>1258</v>
+        <v>1300</v>
       </c>
       <c r="AS34" s="5"/>
     </row>
@@ -23651,24 +24450,24 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="1" t="s">
-        <v>1259</v>
+        <v>1301</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1260</v>
+        <v>1302</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>1261</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="1" t="s">
-        <v>1262</v>
+        <v>1304</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1263</v>
+        <v>1305</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>1264</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
@@ -23679,7 +24478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:Y40"/>
@@ -23704,233 +24503,233 @@
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="1" t="s">
-        <v>1265</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="3" spans="3:24">
       <c r="C3" s="1" t="s">
-        <v>1266</v>
+        <v>1308</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>1267</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="4" spans="4:25">
       <c r="D4" s="1" t="s">
-        <v>1268</v>
+        <v>1310</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>1269</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>1270</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="4" t="s">
-        <v>1271</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="8" spans="3:24">
       <c r="C8" s="1" t="s">
-        <v>1272</v>
+        <v>1314</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>1273</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="1" t="s">
-        <v>1274</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="10" ht="17.85" customHeight="1"/>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
-        <v>1275</v>
+        <v>1317</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>1276</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="1" t="s">
-        <v>1277</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
-        <v>1278</v>
+        <v>1320</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>1279</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="14" spans="4:25">
       <c r="D14" s="1" t="s">
-        <v>1280</v>
+        <v>1322</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>1281</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>1282</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1283</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" s="1" t="s">
-        <v>1284</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="19" spans="3:24">
       <c r="C19" s="1" t="s">
-        <v>1285</v>
+        <v>1327</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>1286</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="20" spans="4:25">
       <c r="D20" s="1" t="s">
-        <v>1287</v>
+        <v>1329</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>1288</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1" t="s">
-        <v>1289</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="22" spans="4:14">
       <c r="D22" s="1" t="s">
-        <v>1290</v>
+        <v>1332</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1291</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="23" spans="3:24">
       <c r="C23" s="1" t="s">
-        <v>1292</v>
+        <v>1334</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>1293</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="24" spans="4:25">
       <c r="D24" s="1" t="s">
-        <v>1294</v>
+        <v>1336</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>1295</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>1296</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" s="1" t="s">
-        <v>1297</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="27" spans="3:24">
       <c r="C27" s="1" t="s">
-        <v>1298</v>
+        <v>1340</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>1299</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="28" spans="4:25">
       <c r="D28" s="1" t="s">
-        <v>1300</v>
+        <v>1342</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>1301</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="29" spans="4:20">
       <c r="D29" s="1" t="s">
-        <v>1302</v>
+        <v>1344</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>914</v>
+        <v>956</v>
       </c>
     </row>
     <row r="30" spans="3:24">
       <c r="C30" s="1" t="s">
-        <v>1303</v>
+        <v>1345</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>1304</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>1305</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="33" spans="3:24">
       <c r="C33" s="1" t="s">
-        <v>1306</v>
+        <v>1348</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>1307</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="34" spans="4:25">
       <c r="D34" s="1" t="s">
-        <v>1308</v>
+        <v>1350</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>1309</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>1310</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="37" spans="3:24">
       <c r="C37" s="1" t="s">
-        <v>1311</v>
+        <v>1353</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>1312</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="38" spans="4:25">
       <c r="D38" s="1" t="s">
-        <v>1313</v>
+        <v>1355</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>1314</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="39" spans="4:25">
       <c r="D39" s="1" t="s">
-        <v>1315</v>
+        <v>1357</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>1316</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -23940,7 +24739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:Y56"/>
@@ -23965,161 +24764,161 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>1318</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="3" spans="3:22">
       <c r="C3" s="1" t="s">
-        <v>1319</v>
+        <v>1361</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>1320</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="4" spans="4:23">
       <c r="D4" s="1" t="s">
-        <v>1321</v>
+        <v>1363</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>1322</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>1323</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
-        <v>1325</v>
+        <v>1367</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1326</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="1" t="s">
-        <v>1327</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="9" ht="17.85" customHeight="1"/>
     <row r="10" spans="3:22">
       <c r="C10" s="1" t="s">
-        <v>1328</v>
+        <v>1370</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>1329</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="1" t="s">
-        <v>1330</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="12" spans="4:15">
       <c r="D12" s="1" t="s">
-        <v>1331</v>
+        <v>1373</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>1332</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="13" spans="3:22">
       <c r="C13" s="1" t="s">
-        <v>1333</v>
+        <v>1375</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>1334</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>1335</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="16" spans="3:22">
       <c r="C16" s="1" t="s">
-        <v>1336</v>
+        <v>1378</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>1337</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>1338</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="1" t="s">
-        <v>1339</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="3:22">
       <c r="C19" s="1" t="s">
-        <v>1340</v>
+        <v>1382</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>1341</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="1" t="s">
-        <v>1342</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="22" spans="3:22">
       <c r="C22" s="1" t="s">
-        <v>1343</v>
+        <v>1385</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>1344</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="23" spans="4:25">
       <c r="D23" s="2" t="s">
-        <v>1345</v>
+        <v>1387</v>
       </c>
       <c r="Y23" s="2"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
-        <v>1346</v>
+        <v>1388</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>1347</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="1" t="s">
-        <v>1348</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="28" spans="3:22">
       <c r="C28" s="1" t="s">
-        <v>1349</v>
+        <v>1391</v>
       </c>
       <c r="T28" s="2"/>
       <c r="V28" s="1" t="s">
-        <v>1350</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>1351</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="31" spans="3:22">
       <c r="C31" s="1" t="s">
-        <v>1352</v>
+        <v>1394</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>1353</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="32" spans="4:4">
@@ -24132,23 +24931,23 @@
     </row>
     <row r="34" spans="3:22">
       <c r="C34" s="1" t="s">
-        <v>1354</v>
+        <v>1396</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>1355</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>1356</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="37" spans="3:22">
       <c r="C37" s="1" t="s">
-        <v>1357</v>
+        <v>1399</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>1358</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="38" spans="4:25">
@@ -24159,49 +24958,49 @@
     </row>
     <row r="40" spans="3:22">
       <c r="C40" s="1" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>1360</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="41" spans="4:23">
       <c r="D41" s="1" t="s">
-        <v>1361</v>
+        <v>1403</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1362</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>1363</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>1364</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="44" spans="3:22">
       <c r="C44" s="1" t="s">
-        <v>1365</v>
+        <v>1407</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>1366</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>1367</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="47" spans="3:22">
       <c r="C47" s="1" t="s">
-        <v>1368</v>
+        <v>1410</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>1369</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="48" spans="4:8">
@@ -24215,48 +25014,48 @@
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="1" t="s">
-        <v>1370</v>
+        <v>1412</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1371</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" s="1" t="s">
-        <v>1372</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="1" t="s">
-        <v>1373</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="55" spans="3:14">
       <c r="C55" s="1" t="s">
-        <v>1374</v>
+        <v>1416</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1375</v>
+        <v>1417</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1376</v>
+        <v>1418</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>1377</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="56" spans="3:14">
       <c r="C56" s="1" t="s">
-        <v>1378</v>
+        <v>1420</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1379</v>
+        <v>1421</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1380</v>
+        <v>1422</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>1381</v>
+        <v>1423</v>
       </c>
     </row>
   </sheetData>
@@ -24269,12 +25068,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
@@ -24294,183 +25093,183 @@
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="1" t="s">
-        <v>1382</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
-        <v>1383</v>
+        <v>1425</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1384</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="4" spans="3:21">
       <c r="C4" s="1" t="s">
-        <v>1385</v>
+        <v>1427</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>1386</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>1387</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>1388</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
-        <v>1389</v>
+        <v>1431</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>1390</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>1391</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="1" t="s">
-        <v>1392</v>
+        <v>1434</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>1393</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="1" t="s">
-        <v>1394</v>
+        <v>1436</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>1395</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>1396</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>1397</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="14" spans="2:21">
       <c r="B14" s="1" t="s">
-        <v>1398</v>
+        <v>1440</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>1399</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>1400</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="1" t="s">
-        <v>1401</v>
+        <v>1443</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>1402</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="18" spans="3:22">
       <c r="C18" s="1" t="s">
-        <v>1403</v>
+        <v>1445</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>1404</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="19" spans="3:22">
       <c r="C19" s="1" t="s">
-        <v>1405</v>
+        <v>1447</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>1406</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="20" spans="3:22">
       <c r="C20" s="1" t="s">
-        <v>1407</v>
+        <v>1449</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>1408</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="21" spans="3:22">
       <c r="C21" s="1" t="s">
-        <v>1409</v>
+        <v>1451</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>1410</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>1411</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>1412</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>1413</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="25" spans="3:21">
       <c r="C25" s="1" t="s">
-        <v>1414</v>
+        <v>1456</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>1415</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="1" t="s">
-        <v>1416</v>
+        <v>1458</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>1417</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>1418</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
-        <v>1419</v>
+        <v>1461</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1420</v>
+        <v>1462</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1421</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>1422</v>
+        <v>1464</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1423</v>
+        <v>1465</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1424</v>
+        <v>1466</v>
       </c>
     </row>
   </sheetData>
@@ -25721,6 +26520,223 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B1:V34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21">
+      <c r="C15" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21">
+      <c r="C16" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:X46"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -25741,511 +26757,223 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="3:23">
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="4:24">
       <c r="D4" s="1" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="9" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="9" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="4:24">
       <c r="D8" s="1" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="4:24">
       <c r="D9" s="1" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="9" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="9" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="1" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="9" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="4:23">
       <c r="D15" s="1" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="9" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="14" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="3:23">
       <c r="C18" s="1" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="3:23">
       <c r="C21" s="1" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="9" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="1" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="3:23">
       <c r="C27" s="1" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="1" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="3:23">
       <c r="C30" s="1" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="9" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="3:23">
       <c r="C32" s="1" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="1" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="1" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="1" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="46" ht="23.05" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:AA46"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="3:26">
-      <c r="C3" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z3" s="9"/>
-    </row>
-    <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="3:25">
-      <c r="C6" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="27:27">
-      <c r="AA8" s="14"/>
-    </row>
-    <row r="9" spans="3:25">
-      <c r="C9" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25">
-      <c r="C12" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="3:25">
-      <c r="C15" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="4:26">
-      <c r="D16" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="Z16" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="4:26">
-      <c r="D17" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z17" s="20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="4:26">
-      <c r="D18" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25">
-      <c r="C21" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="4:26">
-      <c r="D22" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="4:24">
-      <c r="D24" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25">
-      <c r="C25" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="4:26">
-      <c r="D26" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z26" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="4:26">
-      <c r="D27" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="Z27" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="28" spans="4:26">
-      <c r="D28" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z28" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="4:26">
-      <c r="D29" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z29" s="9" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="30" spans="4:26">
-      <c r="D30" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="4:18">
-      <c r="D34" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="3:25">
-      <c r="C35" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y35" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="36" spans="4:26">
-      <c r="D36" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z36" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="39" spans="3:25">
-      <c r="C39" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9">
-      <c r="C43" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="46" ht="23.05" customHeight="1"/>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="21" activeTab="29"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="21" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="20220807" sheetId="26" r:id="rId28"/>
     <sheet name="20220814" sheetId="27" r:id="rId29"/>
     <sheet name="20220904" sheetId="30" r:id="rId30"/>
+    <sheet name="20220911" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1560">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -18275,6 +18276,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:I can't </t>
     </r>
     <r>
@@ -18331,6 +18337,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ bú gǎn </t>
     </r>
     <r>
@@ -18432,6 +18443,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Their </t>
     </r>
     <r>
@@ -18454,6 +18470,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>bié zhè yàng shuō ，kuài kàn ，</t>
     </r>
     <r>
@@ -18787,6 +18808,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tā tài </t>
     </r>
     <r>
@@ -18815,6 +18841,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Oh, great. Does this </t>
     </r>
     <r>
@@ -18837,6 +18868,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bú ，zhè shì bú shì </t>
     </r>
     <r>
@@ -18919,6 +18955,534 @@
   </si>
   <si>
     <t>quit drinking</t>
+  </si>
+  <si>
+    <t>On the way</t>
+  </si>
+  <si>
+    <t>A: 快点，上车。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hurry up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, get in.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kuài diǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，shàng chē 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:我来了，出发吧。</t>
+  </si>
+  <si>
+    <t>B: i'm in. let go.</t>
+  </si>
+  <si>
+    <t>wǒ lái le ，chū fā ba 。</t>
+  </si>
+  <si>
+    <t>A: 好的，这里左转。不，等一下，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: OK, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>make a left here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">...no, wait, i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+  </si>
+  <si>
+    <t>我的意思是右转，快点加速。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">make a right. Come on, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>speed up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ，zhè lǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zuǒ zhuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。bú ，děng yī xià ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yì sī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shì yòu zhuǎn ，kuài diǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiā sù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 天啊，你急什么？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  OMG, What's the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> tiān ā ，nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shen me ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 别担心，开就行。这个信号灯马上</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Don't worry about it. just drive. the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>light</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+  </si>
+  <si>
+    <t>就要变了，加大油门。</t>
+  </si>
+  <si>
+    <t>about to change, Step on it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bié dān xīn ，kāi jiù xing 。zhè gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xìn hào dēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mǎ shàng </t>
+    </r>
+  </si>
+  <si>
+    <t>jiù yào biàn le ，jiā dà yóu mén 。</t>
+  </si>
+  <si>
+    <t>B: 你疯了吗？我不会闯红灯的。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Are you nuts? i'm not going to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>run a red light</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ma ？wǒ bú huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chuǎng hóng dēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 算了，在这右转。这个时间，高速公路会</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Whatever, just turn right here. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>freeway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> will</t>
+    </r>
+  </si>
+  <si>
+    <t>水泄不通。我们走一条小路。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">be  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>packed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at this hour. Let's take a side street.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> suàn le ，zài zhè yòu zhuǎn 。zhè gè shí jiān ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gāo sù gōng lù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> huì  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>shuǐ xiè bú tōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。wǒ men zǒu yī tiáo xiǎo lù 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 你是怎么回事？天啊，这样做也无济于事啊。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  What's your problem? Geez, Having a fit is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>not</t>
+    </r>
+  </si>
+  <si>
+    <t>nǐ shì zěn me huí shì ？tiān ā ，</t>
+  </si>
+  <si>
+    <r>
+      <t>going to help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè yàng zuò yě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wú jì yú shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ā 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 耶，我们到了，5点58分，在图书馆闭馆前。</t>
+  </si>
+  <si>
+    <t>A:  Yes, we made it. 5:58, Just before the library closes.</t>
+  </si>
+  <si>
+    <t>yē ，wǒ men dào le ，5diǎn 58fèn ，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zài tú shū guǎn bì guǎn qián </t>
+  </si>
+  <si>
+    <t>B: 你简直是个怪胎。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: You are such a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>geek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> nǐ jiǎn zhí shì gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guài tāi</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -18951,13 +19515,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -19798,10 +20362,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -20562,7 +21126,7 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>460</v>
       </c>
       <c r="V18" s="2"/>
@@ -23949,7 +24513,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="S34" s="3" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -24216,7 +24780,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="5"/>
+      <c r="S34" s="3"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -24284,7 +24848,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -24575,7 +25139,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="5"/>
+      <c r="T34" s="3"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -24846,7 +25410,7 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="5"/>
+      <c r="T34" s="3"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -25386,7 +25950,7 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="5"/>
+      <c r="AS34" s="3"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -25471,7 +26035,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -25722,7 +26286,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="3" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -25767,7 +26331,7 @@
       <c r="D12" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="5" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -25947,13 +26511,13 @@
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <v>1.412135</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="1" t="s">
@@ -26515,7 +27079,7 @@
   <sheetPr/>
   <dimension ref="B1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
@@ -26741,6 +27305,227 @@
       </c>
       <c r="G34" s="1" t="s">
         <v>1516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="2" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="C28" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
+      <c r="C29" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>1559</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="21" activeTab="30"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="22" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,14 @@
     <sheet name="20220814" sheetId="27" r:id="rId29"/>
     <sheet name="20220904" sheetId="30" r:id="rId30"/>
     <sheet name="20220911" sheetId="31" r:id="rId31"/>
+    <sheet name="20220918" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1599">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -18964,6 +18965,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: </t>
     </r>
     <r>
@@ -18986,6 +18992,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>kuài diǎn</t>
     </r>
     <r>
@@ -19011,6 +19023,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: OK, </t>
     </r>
     <r>
@@ -19045,6 +19062,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">make a right. Come on, </t>
     </r>
     <r>
@@ -19067,6 +19089,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo de ，zhè lǐ </t>
     </r>
     <r>
@@ -19089,6 +19116,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ de </t>
     </r>
     <r>
@@ -19131,6 +19163,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  OMG, What's the </t>
     </r>
     <r>
@@ -19153,6 +19190,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> tiān ā ，nǐ </t>
     </r>
     <r>
@@ -19178,6 +19220,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Don't worry about it. just drive. the </t>
     </r>
     <r>
@@ -19206,6 +19253,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bié dān xīn ，kāi jiù xing 。zhè gè </t>
     </r>
     <r>
@@ -19234,6 +19286,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Are you nuts? i'm not going to </t>
     </r>
     <r>
@@ -19256,6 +19313,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ </t>
     </r>
     <r>
@@ -19298,6 +19360,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Whatever, just turn right here. The </t>
     </r>
     <r>
@@ -19323,6 +19390,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">be  </t>
     </r>
     <r>
@@ -19345,6 +19417,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> suàn le ，zài zhè yòu zhuǎn 。zhè gè shí jiān ，</t>
     </r>
     <r>
@@ -19367,6 +19444,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>shuǐ xiè bú tōng</t>
     </r>
     <r>
@@ -19383,6 +19466,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  What's your problem? Geez, Having a fit is </t>
     </r>
     <r>
@@ -19400,6 +19488,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>going to help</t>
     </r>
     <r>
@@ -19413,6 +19507,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhè yàng zuò yě </t>
     </r>
     <r>
@@ -19450,6 +19549,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: You are such a </t>
     </r>
     <r>
@@ -19472,6 +19576,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> nǐ jiǎn zhí shì gè </t>
     </r>
     <r>
@@ -19482,6 +19591,540 @@
         <charset val="134"/>
       </rPr>
       <t>guài tāi</t>
+    </r>
+  </si>
+  <si>
+    <t>Getting A haircut</t>
+  </si>
+  <si>
+    <t>A: 你好，请进。不要只是站在那里，请坐。</t>
+  </si>
+  <si>
+    <t>A: Hello, there! Come on in! Don't just stand there!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ hǎo ，qǐng jìn 。bú yào zhī shì zhàn zài nà lǐ ，qǐng zuò </t>
+  </si>
+  <si>
+    <t>Come and take a seat.</t>
+  </si>
+  <si>
+    <t>B: 嗯，好吧。我只是想修剪一下。没什么</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Um, okay, well, i just want a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>trim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>太花哨的。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nothing too </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fancy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">èn ，hǎo ba 。wǒ zhī shì xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiū jiǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià 。méi shen me</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huā shào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 天哪。你的头发太棒了！如此柔顺，如此闪亮。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Oh my god! Your hair is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>amazing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">! So </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>silky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shiny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>我要在你的头发上施魔法！听到了吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm going to work my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>magic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on your hair!</t>
+    </r>
+  </si>
+  <si>
+    <t>你看起来像个百万富翁。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You hear me? You're going to look like a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>million bucks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tiān nǎ 。nǐ de tóu fà  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tài bàng le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ！rú cǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>róu shùn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，rú cǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shǎn liàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ yào zài nǐ de tóu fā shàng shī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mó fǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ！tīng dào le ma ？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ kàn qǐ lái xiàng gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǎi wàn fù wēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好，你只需要把上面稍微剪一下。</t>
+  </si>
+  <si>
+    <t>B:  Okay. you just take a little off the top.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo ，nǐ zhī xū yào bǎ shàng miàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shāo wēi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jiǎn yī xià 。</t>
+    </r>
+  </si>
+  <si>
+    <t>a little</t>
+  </si>
+  <si>
+    <t>A: 别担心，我会处理一切的。哦，我的天！我很喜欢你的</t>
+  </si>
+  <si>
+    <t>A:  Don't you worry, i'll take care of everything. Oh my god.</t>
+  </si>
+  <si>
+    <t>卷发。你应该完全让它长大。你留非洲发型很好看。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i just love your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>curly hair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. you should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>totally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> let it grow out.</t>
+    </r>
+  </si>
+  <si>
+    <t>bié dān xīn ，wǒ huì chù lǐ yī qiē de 。ò ，wǒ de tiān ！</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>afro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> would look great on you.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ hěn xǐ huān nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>juàn fa4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ yīng gāi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wán quán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ràng tā zhǎng dà 。nǐ liú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fēi zhōu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> fā xíng hěn hǎo kàn 。</t>
+    </r>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>B: 不。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bú </t>
+  </si>
+  <si>
+    <t>B: no.</t>
+  </si>
+  <si>
+    <t>A: 好吧，但你会是我的杰作。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Okay, but you're going to be my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>masterpiece</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo ba ，dàn nǐ huì shì wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jié zuò</t>
     </r>
   </si>
 </sst>
@@ -19509,13 +20152,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -21126,10 +21769,10 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="V18" s="2"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="1" t="s">
@@ -21187,7 +21830,7 @@
       <c r="C29" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -24513,7 +25156,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -24780,7 +25423,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="3"/>
+      <c r="S34" s="2"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -24848,7 +25491,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -25139,7 +25782,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="3"/>
+      <c r="T34" s="2"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -25410,7 +26053,7 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="3"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -25950,7 +26593,7 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="3"/>
+      <c r="AS34" s="2"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -26138,7 +26781,7 @@
       <c r="D24" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -26172,7 +26815,7 @@
       <c r="D29" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="3" t="s">
         <v>999</v>
       </c>
     </row>
@@ -26230,7 +26873,7 @@
       <c r="D39" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="Y39" s="2" t="s">
+      <c r="Y39" s="3" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26286,7 +26929,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -26388,10 +27031,10 @@
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
@@ -26410,7 +27053,7 @@
       <c r="C28" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="T28" s="2"/>
+      <c r="T28" s="3"/>
       <c r="V28" s="1" t="s">
         <v>1435</v>
       </c>
@@ -26461,7 +27104,7 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="Y38" s="2"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="40" spans="3:22">
       <c r="C40" s="1" t="s">
@@ -26693,7 +27336,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -27193,7 +27836,7 @@
       <c r="Y18" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -27267,7 +27910,7 @@
       <c r="C29" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" s="3" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -27319,8 +27962,8 @@
   <sheetPr/>
   <dimension ref="B1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -27351,7 +27994,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -27427,7 +28070,7 @@
       <c r="C18" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -27451,7 +28094,6 @@
       <c r="B23" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="R23" s="1" t="s">
         <v>1543</v>
       </c>
@@ -27470,7 +28112,7 @@
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -27478,7 +28120,6 @@
       <c r="B27" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="C27" s="1"/>
       <c r="R27" s="1" t="s">
         <v>1549</v>
       </c>
@@ -27487,7 +28128,7 @@
       <c r="C28" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="3" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -27495,7 +28136,7 @@
       <c r="C29" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
@@ -27527,6 +28168,215 @@
       <c r="C34" s="1" t="s">
         <v>1559</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
+      <c r="C4" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24">
+      <c r="C11" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24">
+      <c r="C12" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="18" spans="15:27">
+      <c r="O18" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="C20" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24">
+      <c r="C21" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="W28" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="30" spans="19:19">
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="25:25">
+      <c r="Y31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -28603,7 +29453,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="3" t="s">
         <v>366</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="22" activeTab="31"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="23" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,14 @@
     <sheet name="20220904" sheetId="30" r:id="rId30"/>
     <sheet name="20220911" sheetId="31" r:id="rId31"/>
     <sheet name="20220918" sheetId="32" r:id="rId32"/>
+    <sheet name="20220925" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1647">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -19613,6 +19614,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Um, okay, well, i just want a </t>
     </r>
     <r>
@@ -19638,6 +19644,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Nothing too </t>
     </r>
     <r>
@@ -19660,6 +19671,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">èn ，hǎo ba 。wǒ zhī shì xiǎng </t>
     </r>
     <r>
@@ -19682,6 +19698,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tài </t>
     </r>
     <r>
@@ -19707,6 +19728,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Oh my god! Your hair is </t>
     </r>
     <r>
@@ -19766,6 +19792,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I'm going to work my </t>
     </r>
     <r>
@@ -19791,6 +19822,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">You hear me? You're going to look like a </t>
     </r>
     <r>
@@ -19813,6 +19849,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tiān nǎ 。nǐ de tóu fà  </t>
     </r>
     <r>
@@ -19869,6 +19910,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ yào zài nǐ de tóu fā shàng shī </t>
     </r>
     <r>
@@ -19891,6 +19937,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ kàn qǐ lái xiàng gè </t>
     </r>
     <r>
@@ -19919,6 +19970,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo ，nǐ zhī xū yào bǎ shàng miàn </t>
     </r>
     <r>
@@ -19953,6 +20009,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i just love your </t>
     </r>
     <r>
@@ -19995,6 +20056,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">An </t>
     </r>
     <r>
@@ -20017,6 +20083,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ hěn xǐ huān nǐ de </t>
     </r>
     <r>
@@ -20039,6 +20110,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ yīng gāi </t>
     </r>
     <r>
@@ -20093,6 +20169,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Okay, but you're going to be my </t>
     </r>
     <r>
@@ -20115,6 +20196,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo ba ，dàn nǐ huì shì wǒ de </t>
     </r>
     <r>
@@ -20126,6 +20212,470 @@
       </rPr>
       <t>jié zuò</t>
     </r>
+  </si>
+  <si>
+    <t>checking bags at the airport</t>
+  </si>
+  <si>
+    <t>A: 下一个，你好，先生。我可以看一下你的护照吗</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Next please. Hello sir, may i see your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>passport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, please?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xià yī gè ，nǐ hǎo ，xiān shēng 。wǒ kě yǐ kàn yī xià nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hù zhào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好的，给你。</t>
+  </si>
+  <si>
+    <t>B: Yes, Here you go.</t>
+  </si>
+  <si>
+    <t>hǎo de ，gěi nǐ 。</t>
+  </si>
+  <si>
+    <t>A: 你今天要托运行李吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Will you be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>checking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> any bags today?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> nǐ jīn tiān yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tuō yùn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xi2ng lǐ ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 是的，我想托运三件行李。</t>
+  </si>
+  <si>
+    <t>B:  Yes, i'd like to check three pieces.</t>
+  </si>
+  <si>
+    <t>shì de ，wǒ xiǎng tuō yùn sān jiàn xi2ng lǐ 。</t>
+  </si>
+  <si>
+    <t>A: 对不起，先生。航空公司的政策只允许托运两件行李，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  I'm sorry, sir. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Airline policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>allows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> only two pieces</t>
+    </r>
+  </si>
+  <si>
+    <t>每件20公斤，外加一件随身行李。额外的手提箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of checked luggage, at twenty kilograms each, </t>
+  </si>
+  <si>
+    <t>我得向你收取额外费用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus one piece of carry-on luggage, i'll have to </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">duì bú qǐ ，xiān shēng 。háng kōng gōng sī de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>charge your extra for the additional suitcase.</t>
+  </si>
+  <si>
+    <r>
+      <t>cè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yǔn xǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tuō yùn liǎng jiàn xi2ng lǐ ，měi jiàn 20gōng jīn ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wài jiā yī jiàn suí shēn xi2ng lǐ 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é wài de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shǒu tí xiāng </t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ déi xiàng nǐ shōu qǔ é wài fèi yòng 。</t>
+  </si>
+  <si>
+    <t>B: 什么？为什么？我要乘坐洲际航班。我飞了一万六千公里，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  What? Why! i'm taking an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>intercontinental flight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>我怎么能只带两个20公斤的袋子？</t>
+  </si>
+  <si>
+    <t>i'm flying sixteen thousand kilometers. How am i</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shen me ？wéi shen me ？wǒ yào chéng zuò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhōu jì háng bān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">supposed to only take two twenty kilo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ fēi le yī wàn liù qiān gōng lǐ ，wǒ zěn me néng zhī dài liǎng gè 20gōng jīn de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dài zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 对不起，先生。我无能为力。你也不能带着那个大包登记。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  i'm sorry, sir. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>There's nothing i can do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. You cannot</t>
+    </r>
+  </si>
+  <si>
+    <t>随身携带的行李必须放在头顶上的行李仓或者座椅下方，</t>
+  </si>
+  <si>
+    <r>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the flight with that large bag either. Carry-on</t>
+    </r>
+  </si>
+  <si>
+    <t>那个包太大了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bags must fit in the overhead compartment or </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">duì bú qǐ ，xiān shēng 。wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wú néng wéi lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>under your seat. That bag is clearly too big.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ yě bú néng dài zhe nà gè dà bāo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dēng jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>suí shēn xié dài de xi2ng lǐ bì xū fàng zài tóu dǐng shàng de xi2ng lǐ cāng huò zhě zuò yǐ xià fāng ，</t>
+  </si>
+  <si>
+    <t>nà gè bāo tài dà le 。</t>
+  </si>
+  <si>
+    <t>B: 现在我明白了。小姐，我要付多少钱。</t>
+  </si>
+  <si>
+    <t>B:  Now i see. miss, how much will i have to pay for all of this?</t>
+  </si>
+  <si>
+    <t>xiàn zài wǒ míng bái le 。xiǎo jiě ，wǒ yào fù duō shǎo qián 。</t>
+  </si>
+  <si>
+    <t>A: 让我们看看，六百二十五美元。</t>
+  </si>
+  <si>
+    <t>A:  Let's see. Six hundred and twenty five us dollars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ràng wǒ men kàn kàn ，liù bǎi èr shí wǔ měi yuán </t>
   </si>
 </sst>
 </file>
@@ -20152,13 +20702,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -21769,10 +22319,10 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="V18" s="3"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="1" t="s">
@@ -21830,7 +22380,7 @@
       <c r="C29" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="2" t="s">
         <v>474</v>
       </c>
     </row>
@@ -25156,7 +25706,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="S34" s="3" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -25423,7 +25973,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="2"/>
+      <c r="S34" s="3"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -25491,7 +26041,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -25782,7 +26332,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="2"/>
+      <c r="T34" s="3"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -26053,7 +26603,7 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="2"/>
+      <c r="T34" s="3"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -26593,7 +27143,7 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="2"/>
+      <c r="AS34" s="3"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -26781,7 +27331,7 @@
       <c r="D24" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="2" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -26815,7 +27365,7 @@
       <c r="D29" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="2" t="s">
         <v>999</v>
       </c>
     </row>
@@ -26873,7 +27423,7 @@
       <c r="D39" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="Y39" s="3" t="s">
+      <c r="Y39" s="2" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26929,7 +27479,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="3" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -27031,10 +27581,10 @@
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="Y23" s="3"/>
+      <c r="Y23" s="2"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
@@ -27053,7 +27603,7 @@
       <c r="C28" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="2"/>
       <c r="V28" s="1" t="s">
         <v>1435</v>
       </c>
@@ -27104,7 +27654,7 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="Y38" s="3"/>
+      <c r="Y38" s="2"/>
     </row>
     <row r="40" spans="3:22">
       <c r="C40" s="1" t="s">
@@ -27336,7 +27886,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>366</v>
       </c>
     </row>
@@ -27836,7 +28386,7 @@
       <c r="Y18" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -27910,7 +28460,7 @@
       <c r="C29" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="2" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -27994,7 +28544,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -28070,7 +28620,7 @@
       <c r="C18" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -28112,7 +28662,7 @@
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -28128,7 +28678,7 @@
       <c r="C28" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="2" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -28136,7 +28686,7 @@
       <c r="C29" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="Y29" s="3"/>
+      <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
@@ -28181,8 +28731,8 @@
   <sheetPr/>
   <dimension ref="B1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -28250,7 +28800,6 @@
       <c r="B10" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="W10" s="1" t="s">
         <v>1572</v>
       </c>
@@ -28303,13 +28852,12 @@
       <c r="O18" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="C19" s="1"/>
       <c r="W19" s="1" t="s">
         <v>1585</v>
       </c>
@@ -28362,7 +28910,7 @@
       <c r="B28" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3"/>
       <c r="W28" s="1" t="s">
         <v>1597</v>
       </c>
@@ -28373,10 +28921,254 @@
       </c>
     </row>
     <row r="30" spans="19:19">
-      <c r="S30" s="3"/>
+      <c r="S30" s="2"/>
     </row>
     <row r="31" spans="25:25">
-      <c r="Y31" s="3"/>
+      <c r="Y31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="X9" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="X12" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="X15" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25">
+      <c r="C16" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25">
+      <c r="C17" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="X22" s="1" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25">
+      <c r="C23" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25">
+      <c r="C24" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="B26" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
+      <c r="C28" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
+      <c r="C29" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="C31" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="2:25">
+      <c r="B33" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
+        <v>1646</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29453,7 +30245,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>366</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="23" activeTab="32"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="24" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,14 @@
     <sheet name="20220911" sheetId="31" r:id="rId31"/>
     <sheet name="20220918" sheetId="32" r:id="rId32"/>
     <sheet name="20220925" sheetId="33" r:id="rId33"/>
+    <sheet name="20221002" sheetId="34" r:id="rId34"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1690">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -20221,6 +20222,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Next please. Hello sir, may i see your </t>
     </r>
     <r>
@@ -20243,6 +20249,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">xià yī gè ，nǐ hǎo ，xiān shēng 。wǒ kě yǐ kàn yī xià nǐ de </t>
     </r>
     <r>
@@ -20277,6 +20288,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Will you be </t>
     </r>
     <r>
@@ -20299,6 +20315,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> nǐ jīn tiān yào </t>
     </r>
     <r>
@@ -20333,6 +20354,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  I'm sorry, sir. </t>
     </r>
     <r>
@@ -20384,6 +20410,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">duì bú qǐ ，xiān shēng 。háng kōng gōng sī de </t>
     </r>
     <r>
@@ -20409,6 +20440,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>cè</t>
     </r>
     <r>
@@ -20439,6 +20476,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>wài jiā yī jiàn suí shēn xi2ng lǐ 。</t>
     </r>
     <r>
@@ -20467,6 +20509,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  What? Why! i'm taking an </t>
     </r>
     <r>
@@ -20495,6 +20542,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shen me ？wéi shen me ？wǒ yào chéng zuò </t>
     </r>
     <r>
@@ -20517,6 +20569,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">supposed to only take two twenty kilo </t>
     </r>
     <r>
@@ -20539,6 +20596,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ fēi le yī wàn liù qiān gōng lǐ ，wǒ zěn me néng zhī dài liǎng gè 20gōng jīn de </t>
     </r>
     <r>
@@ -20564,6 +20626,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  i'm sorry, sir. </t>
     </r>
     <r>
@@ -20589,6 +20656,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>board</t>
     </r>
     <r>
@@ -20608,6 +20681,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">duì bú qǐ ，xiān shēng 。wǒ </t>
     </r>
     <r>
@@ -20633,6 +20711,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ yě bú néng dài zhe nà gè dà bāo </t>
     </r>
     <r>
@@ -20676,6 +20759,346 @@
   </si>
   <si>
     <t xml:space="preserve">ràng wǒ men kàn kàn ，liù bǎi èr shí wǔ měi yuán </t>
+  </si>
+  <si>
+    <t>Taking some time off</t>
+  </si>
+  <si>
+    <t>A: McKenna先生，你有空吗？我有事情</t>
+  </si>
+  <si>
+    <t>A: Mr. McKenna, do you have a second?</t>
+  </si>
+  <si>
+    <t>想和你谈一下？</t>
+  </si>
+  <si>
+    <t>I need to talk to you about something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McKenna xiān shēng ，nǐ yǒu ko4ng ma ？wǒ yǒu shì qíng </t>
+  </si>
+  <si>
+    <t>xiǎng hé nǐ tán yī xià ？</t>
+  </si>
+  <si>
+    <t>B:可以，Liv。 有什么事情吗？</t>
+  </si>
+  <si>
+    <t>B: Sure, Liv, what can i do for you?</t>
+  </si>
+  <si>
+    <t>kě yǐ ，Liv。 yǒu shen me shì qíng ma ？</t>
+  </si>
+  <si>
+    <t>A: 我只是想...是这样，我知道我已经用完了今年</t>
+  </si>
+  <si>
+    <t>A: Well, I was just wondering... you see, i know</t>
+  </si>
+  <si>
+    <t>的年假，但是我的妹妹结婚，婚礼在海外举行，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i've used up all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>my vacation days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this year,</t>
+    </r>
+  </si>
+  <si>
+    <t>所以。。。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But my sister is getting married and the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ zhī shì xiǎng ...shì zhè yàng ，wǒ zhī dào wǒ yǐ jīng </t>
+  </si>
+  <si>
+    <r>
+      <t>wedding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>overseas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and well...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yòng wán le jīn nián de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nián jia4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，dàn shì wǒ de mèi mèi jié hūn ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hūn lǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hǎi wài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jǔ xing ，suǒ yǐ...</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 你想请假，对吗？</t>
+  </si>
+  <si>
+    <t>B:  you want to take some time off, is that right?</t>
+  </si>
+  <si>
+    <t>nǐ xiǎng qǐng jia4 ，duì ma ？</t>
+  </si>
+  <si>
+    <t>A: 先生，是的。我只是希望我今年可以请几天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  Well, sir. i was just hoping that i might be able </t>
+  </si>
+  <si>
+    <t>的无薪假。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to take some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>unpaid leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this year.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xiān shēng ，shì de 。wǒ zhī shì xī wàng wǒ jīn nián kě yǐ qǐng jǐ tiān </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wú xīn jia4</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 你打算请哪几天？至少要提前两个月告知，这样我才能</t>
+  </si>
+  <si>
+    <t>B:  What dates are you planning on takeing off? i'll</t>
+  </si>
+  <si>
+    <t>为你请假做安排。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">need at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>least</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> two month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> so that i can plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nǐ dǎ suàn qǐng nǎ jǐ tiān ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhì shǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yào tí qián </t>
+    </r>
+  </si>
+  <si>
+    <t>for your absence.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">liǎng gè yuè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gào zhī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhè yàng wǒ cái néng wéi nǐ qǐng jiǎ zuò ān pái </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我打算9月1号到30号，这样可以吗？</t>
+  </si>
+  <si>
+    <t>A: I was thinking of taking off from September first</t>
+  </si>
+  <si>
+    <t>wǒ dǎ suàn 9yuè 1hào dào 30hào ，zhè yàng kě yǐ ma</t>
+  </si>
+  <si>
+    <t>until the thirtieth. Would you be okay whth that?</t>
+  </si>
+  <si>
+    <t>B:好的，应该可以。</t>
+  </si>
+  <si>
+    <t>B: Well, i guess so.</t>
+  </si>
+  <si>
+    <t>hǎo de ，yīng gāi kě yǐ</t>
   </si>
 </sst>
 </file>
@@ -20702,13 +21125,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -22319,10 +22742,10 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="V18" s="2"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="1" t="s">
@@ -22380,7 +22803,7 @@
       <c r="C29" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -25706,7 +26129,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -25973,7 +26396,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="3"/>
+      <c r="S34" s="2"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -26041,7 +26464,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -26332,7 +26755,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="3"/>
+      <c r="T34" s="2"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -26603,7 +27026,7 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="3"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -27143,7 +27566,7 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="3"/>
+      <c r="AS34" s="2"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -27331,7 +27754,7 @@
       <c r="D24" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -27365,7 +27788,7 @@
       <c r="D29" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="3" t="s">
         <v>999</v>
       </c>
     </row>
@@ -27423,7 +27846,7 @@
       <c r="D39" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="Y39" s="2" t="s">
+      <c r="Y39" s="3" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -27479,7 +27902,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -27581,10 +28004,10 @@
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
@@ -27603,7 +28026,7 @@
       <c r="C28" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="T28" s="2"/>
+      <c r="T28" s="3"/>
       <c r="V28" s="1" t="s">
         <v>1435</v>
       </c>
@@ -27654,7 +28077,7 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="Y38" s="2"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="40" spans="3:22">
       <c r="C40" s="1" t="s">
@@ -27886,7 +28309,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -28386,7 +28809,7 @@
       <c r="Y18" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -28460,7 +28883,7 @@
       <c r="C29" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" s="3" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -28544,7 +28967,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -28620,7 +29043,7 @@
       <c r="C18" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -28662,7 +29085,7 @@
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -28678,7 +29101,7 @@
       <c r="C28" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="3" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -28686,7 +29109,7 @@
       <c r="C29" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
@@ -28852,7 +29275,7 @@
       <c r="O18" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
@@ -28910,7 +29333,7 @@
       <c r="B28" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="2"/>
       <c r="W28" s="1" t="s">
         <v>1597</v>
       </c>
@@ -28921,10 +29344,10 @@
       </c>
     </row>
     <row r="30" spans="19:19">
-      <c r="S30" s="2"/>
+      <c r="S30" s="3"/>
     </row>
     <row r="31" spans="25:25">
-      <c r="Y31" s="2"/>
+      <c r="Y31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -28938,8 +29361,8 @@
   <sheetPr/>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -28991,7 +29414,6 @@
       <c r="B9" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="X9" s="1" t="s">
         <v>1607</v>
       </c>
@@ -29005,7 +29427,6 @@
       <c r="B12" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="X12" s="1" t="s">
         <v>1610</v>
       </c>
@@ -29019,7 +29440,6 @@
       <c r="B15" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="X15" s="1" t="s">
         <v>1613</v>
       </c>
@@ -29047,10 +29467,10 @@
       <c r="Y18" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -29068,7 +29488,6 @@
       <c r="B22" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="X22" s="1" t="s">
         <v>1624</v>
       </c>
@@ -29106,7 +29525,7 @@
       <c r="C27" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="Y27" s="2" t="s">
+      <c r="Y27" s="3" t="s">
         <v>1633</v>
       </c>
     </row>
@@ -29135,13 +29554,13 @@
       <c r="C31" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="S31" s="2"/>
+      <c r="S31" s="3"/>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="S32" s="2"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
@@ -29150,7 +29569,7 @@
       <c r="X33" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
@@ -29169,6 +29588,229 @@
       <c r="C37" s="1" t="s">
         <v>1646</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="2" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="18" spans="27:27">
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="V19" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23">
+      <c r="C25" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23">
+      <c r="C29" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="V31" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="25:25">
+      <c r="Y33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -30245,7 +30887,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="3" t="s">
         <v>366</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="24" activeTab="33"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="25" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,14 @@
     <sheet name="20220918" sheetId="32" r:id="rId32"/>
     <sheet name="20220925" sheetId="33" r:id="rId33"/>
     <sheet name="20221002" sheetId="34" r:id="rId34"/>
+    <sheet name="20221016" sheetId="35" r:id="rId35"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1726">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -20837,6 +20838,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>wedding</t>
     </r>
     <r>
@@ -20867,6 +20874,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">yòng wán le jīn nián de </t>
     </r>
     <r>
@@ -20889,6 +20901,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>hūn lǐ</t>
     </r>
     <r>
@@ -20967,6 +20985,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">de </t>
     </r>
     <r>
@@ -20990,6 +21013,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">need at </t>
     </r>
     <r>
@@ -21029,6 +21057,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>nǐ dǎ suàn qǐng nǎ jǐ tiān ？</t>
     </r>
     <r>
@@ -21099,6 +21132,372 @@
   </si>
   <si>
     <t>hǎo de ，yīng gāi kě yǐ</t>
+  </si>
+  <si>
+    <t>Get on the Roller Coaster</t>
+  </si>
+  <si>
+    <t>A: 我好激动，我们终于到这儿了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: i‘m so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>excited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. we're finally here. Six flags magic</t>
+    </r>
+  </si>
+  <si>
+    <t>六旗魔术山，这个世界上最好的娱乐公园。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mountain, this is the best </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>amusement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> park in the world.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jī dòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ men zhōng yú dào zhè ér le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">liù qí mó shù shān ，zhè gè shì jiè shàng zuì hǎo de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yú lè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> gōng yuán 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好了，现在歇一下，不然你心脏受不了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Alright, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>settle down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, you're gonna give yourself a heart attack.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo le ，xiàn zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiē yī xià</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，bú rán nǐ xīn zāng shòu bú le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 无法相信他们居然收每个人35美元。这简直</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  i can't believe they charge us 35 dollars each. it seems like a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rip-off</t>
+    </r>
+  </si>
+  <si>
+    <t>是欺诈，你觉得呢？我不会去玩这些游乐设施的。</t>
+  </si>
+  <si>
+    <t>do you think? it's not like i'm gonna get on these things.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wú fǎ xiàng xìn tā men jū rán shōu měi gè rén 35měi yuán 。zhè jiǎn zhí </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>qī zhà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ jiào dé ne ？wǒ bú huì qù wán zhè xiē yóu lè shè shī de</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 哇，那是世界上最高最快的过山车，一小时好几</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Wow! That's the world's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>highest and fastest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> roller-coaster.</t>
+    </r>
+  </si>
+  <si>
+    <t>英里，我要去坐那个可以吗？</t>
+  </si>
+  <si>
+    <t>you go at more than miles per hour! i wanna go that one.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wa ，nà shì shì jiè shàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zuì gāo zuì kuài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de guò shān chē ，yī xiǎo shí hǎo jǐ </t>
+    </r>
+  </si>
+  <si>
+    <t>yīng lǐ ，wǒ yào qù zuò nà gè kě yǐ ma ？</t>
+  </si>
+  <si>
+    <t>A: Chris, 我不确定你应不应该去，看起来有点儿不合适</t>
+  </si>
+  <si>
+    <t>A:  Chris, i'm not sure you should get on that. it seems a bit too</t>
+  </si>
+  <si>
+    <t>你。我们30分钟前吃了早餐，我觉得这不是个好主意。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">much for you. we just had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>breakfast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30 minutes age, i don't </t>
+    </r>
+  </si>
+  <si>
+    <t>Chris, wǒ bú què dìng nǐ yīng bú yīng gāi qù ，</t>
+  </si>
+  <si>
+    <t>think it's a good idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kàn qǐ lái yǒu diǎn ér bú hé shì nǐ 。wǒ men 30fèn zhōng qián </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chī le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zǎo cān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ jiào dé zhè bú shì gè hǎo zhǔ yì 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 别这样，妈妈。我可以的。我保证我其他什么都不求了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Come on, mom, i can handle it. i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i won't ask for anything else.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bié zhè yàng ，mā mā 。wǒ kě yǐ de 。wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǎo zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ qí tā shí me dōu bú qiú le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>C: 让他去吧，他没事的。</t>
+  </si>
+  <si>
+    <t>C: let him go, he will be fine.</t>
+  </si>
+  <si>
+    <t>ràng tā qù ba ，tā méi shì de 。</t>
   </si>
 </sst>
 </file>
@@ -29601,7 +30000,7 @@
   <sheetPr/>
   <dimension ref="B1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -29811,6 +30210,209 @@
     </row>
     <row r="33" spans="25:25">
       <c r="Y33" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
+      <c r="C4" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24">
+      <c r="C12" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="W15" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24">
+      <c r="C16" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="W19" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="C20" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24">
+      <c r="C21" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
+      <c r="C28" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="32" spans="19:19">
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="19:19">
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="25:25">
+      <c r="Y34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="25" activeTab="34"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="26" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,14 @@
     <sheet name="20220925" sheetId="33" r:id="rId33"/>
     <sheet name="20221002" sheetId="34" r:id="rId34"/>
     <sheet name="20221016" sheetId="35" r:id="rId35"/>
+    <sheet name="20221022" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1769">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -21141,6 +21142,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: i‘m so </t>
     </r>
     <r>
@@ -21158,7 +21164,24 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>. we're finally here. Six flags magic</t>
+      <t xml:space="preserve">. we're </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>finally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> here. Six flags magic</t>
     </r>
   </si>
   <si>
@@ -21166,6 +21189,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">mountain, this is the best </t>
     </r>
     <r>
@@ -21188,6 +21216,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ hǎo </t>
     </r>
     <r>
@@ -21205,11 +21238,33 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ，wǒ men zhōng yú dào zhè ér le 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve"> ，wǒ men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhōng yú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dào zhè ér le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">liù qí mó shù shān ，zhè gè shì jiè shàng zuì hǎo de </t>
     </r>
     <r>
@@ -21231,10 +21286,18 @@
     </r>
   </si>
   <si>
+    <t>world</t>
+  </si>
+  <si>
     <t>B: 好了，现在歇一下，不然你心脏受不了。</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Alright, </t>
     </r>
     <r>
@@ -21257,6 +21320,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo le ，xiàn zài </t>
     </r>
     <r>
@@ -21274,7 +21342,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ，bú rán nǐ xīn zāng shòu bú le 。</t>
+      <t xml:space="preserve"> ，bú rán nǐ xīn zāng shòu bú liao 。</t>
     </r>
   </si>
   <si>
@@ -21282,6 +21350,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  i can't believe they charge us 35 dollars each. it seems like a </t>
     </r>
     <r>
@@ -21305,6 +21378,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì </t>
     </r>
     <r>
@@ -21322,7 +21400,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ，nǐ jiào dé ne ？wǒ bú huì qù wán zhè xiē yóu lè shè shī de</t>
+      <t xml:space="preserve"> ，nǐ jue dé ne ？wǒ bú huì qù wán zhè xiē yóu lè shè shī de</t>
     </r>
   </si>
   <si>
@@ -21330,6 +21408,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Wow! That's the world's </t>
     </r>
     <r>
@@ -21358,6 +21441,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wa ，nà shì shì jiè shàng </t>
     </r>
     <r>
@@ -21392,6 +21480,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">much for you. we just had </t>
     </r>
     <r>
@@ -21409,7 +21502,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 30 minutes age, i don't </t>
+      <t xml:space="preserve"> 30 minutes ago, i don't </t>
     </r>
   </si>
   <si>
@@ -21423,6 +21516,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">chī le </t>
     </r>
     <r>
@@ -21440,7 +21538,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ，wǒ jiào dé zhè bú shì gè hǎo zhǔ yì 。</t>
+      <t xml:space="preserve"> ，wǒ jue dé zhè bú shì gè hǎo zhǔ yì 。</t>
     </r>
   </si>
   <si>
@@ -21448,6 +21546,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Come on, mom, i can handle it. i </t>
     </r>
     <r>
@@ -21470,6 +21573,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bié zhè yàng ，mā mā 。wǒ kě yǐ de 。wǒ </t>
     </r>
     <r>
@@ -21487,7 +21595,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> wǒ qí tā shí me dōu bú qiú le 。</t>
+      <t xml:space="preserve"> wǒ qí tā shen me dōu bú qiú le 。</t>
     </r>
   </si>
   <si>
@@ -21498,6 +21606,440 @@
   </si>
   <si>
     <t>ràng tā qù ba ，tā méi shì de 。</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>A: 怎么了？</t>
+  </si>
+  <si>
+    <t>A: What happened?</t>
+  </si>
+  <si>
+    <t>zěn me le ？</t>
+  </si>
+  <si>
+    <t>B: 是这样的，我的房租快要到期了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: That's it, My </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is up. i have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>我要搬家了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì zhè yàng de ，wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fáng zū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kuài yào dào qī le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bān jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 什么？为什么？不能续租吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: What? Why? Can't you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>renew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shen me ？wéi shen me ？bu néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xù zū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 很明显，房东要把这里卖出去赚些钱建</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apparently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is selling this place to </t>
+    </r>
+  </si>
+  <si>
+    <t>停车场。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">make way for the construction of a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>parking lot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hěn míng xiǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fáng dōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yào bǎ zhè lǐ mài chū qù zuàn xiē qián jiàn </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tíng chē chǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好吧，我可以帮你打包，我们要尽快帮你</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Well, i can help you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, we should start looking </t>
+    </r>
+  </si>
+  <si>
+    <t>找个新房子。</t>
+  </si>
+  <si>
+    <t>for a new place for you ASAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo ba ，wǒ kě yǐ bāng nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dǎ bāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ men yào jìn kuài bāng nǐ </t>
+    </r>
+  </si>
+  <si>
+    <t>zhǎo gè xīn fáng zǐ 。</t>
+  </si>
+  <si>
+    <t>ASAP</t>
+  </si>
+  <si>
+    <t>B: 我觉得我可能要搬去跟我的父母住几个月，</t>
+  </si>
+  <si>
+    <t>B:  I think i might move in with my parents for a couple</t>
+  </si>
+  <si>
+    <t>直到我找到房子。</t>
+  </si>
+  <si>
+    <t>of months until i can find something.</t>
+  </si>
+  <si>
+    <t>wǒ jue dé wǒ kě néng yào bān qù gēn wǒ de fù mǔ zhù jǐ gè yuè ，</t>
+  </si>
+  <si>
+    <t>zhí dào wǒ zhǎo dào fáng zǐ 。</t>
+  </si>
+  <si>
+    <t>A: 好的，如果有什么需要我帮忙，你跟我说。</t>
+  </si>
+  <si>
+    <t>A:  Well, let me know if there's anything i can do for you.</t>
+  </si>
+  <si>
+    <t>hǎo de ，rú guǒ yǒu shen me xū yào wǒ bāng máng ，nǐ gēn wǒ shuō 。</t>
+  </si>
+  <si>
+    <t>B: 嗯，你介意帮我照看一下我的宠物蛇几个星期吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Actually, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Would you mind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> looking after my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pet snake</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> èn ，nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiè yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bāng wǒ zhào kàn yī xià wǒ de</t>
+    </r>
+  </si>
+  <si>
+    <t>for a couple of weeks?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chǒng wù shé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jǐ gè xīng qī ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>房间</t>
+  </si>
+  <si>
+    <t>single room</t>
+  </si>
+  <si>
+    <t>fang jian</t>
   </si>
 </sst>
 </file>
@@ -21524,12 +22066,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -21537,6 +22073,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -22378,10 +22920,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -23141,10 +23683,10 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="V18" s="3"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="1" t="s">
@@ -23202,7 +23744,7 @@
       <c r="C29" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="2" t="s">
         <v>474</v>
       </c>
     </row>
@@ -26528,7 +27070,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="S34" s="4" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -26795,7 +27337,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="2"/>
+      <c r="S34" s="4"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -26863,7 +27405,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -27154,7 +27696,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="2"/>
+      <c r="T34" s="4"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -27425,7 +27967,7 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="2"/>
+      <c r="T34" s="4"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -27965,7 +28507,7 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="2"/>
+      <c r="AS34" s="4"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -28050,7 +28592,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -28153,7 +28695,7 @@
       <c r="D24" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="2" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -28187,7 +28729,7 @@
       <c r="D29" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="2" t="s">
         <v>999</v>
       </c>
     </row>
@@ -28245,7 +28787,7 @@
       <c r="D39" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="Y39" s="3" t="s">
+      <c r="Y39" s="2" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -28301,7 +28843,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="4" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -28346,7 +28888,7 @@
       <c r="D12" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -28403,10 +28945,10 @@
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="Y23" s="3"/>
+      <c r="Y23" s="2"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
@@ -28425,7 +28967,7 @@
       <c r="C28" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="2"/>
       <c r="V28" s="1" t="s">
         <v>1435</v>
       </c>
@@ -28476,7 +29018,7 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="Y38" s="3"/>
+      <c r="Y38" s="2"/>
     </row>
     <row r="40" spans="3:22">
       <c r="C40" s="1" t="s">
@@ -28526,13 +29068,13 @@
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>1.412135</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="1" t="s">
@@ -28708,7 +29250,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>366</v>
       </c>
     </row>
@@ -29208,7 +29750,7 @@
       <c r="Y18" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -29282,7 +29824,7 @@
       <c r="C29" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="2" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -29366,7 +29908,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -29442,7 +29984,7 @@
       <c r="C18" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -29484,7 +30026,7 @@
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -29500,7 +30042,7 @@
       <c r="C28" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="2" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -29508,7 +30050,7 @@
       <c r="C29" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="Y29" s="3"/>
+      <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
@@ -29674,7 +30216,7 @@
       <c r="O18" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
@@ -29732,7 +30274,7 @@
       <c r="B28" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="4"/>
       <c r="W28" s="1" t="s">
         <v>1597</v>
       </c>
@@ -29743,10 +30285,10 @@
       </c>
     </row>
     <row r="30" spans="19:19">
-      <c r="S30" s="3"/>
+      <c r="S30" s="2"/>
     </row>
     <row r="31" spans="25:25">
-      <c r="Y31" s="3"/>
+      <c r="Y31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29866,10 +30408,10 @@
       <c r="Y18" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -29924,7 +30466,7 @@
       <c r="C27" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="Y27" s="2" t="s">
         <v>1633</v>
       </c>
     </row>
@@ -29953,13 +30495,13 @@
       <c r="C31" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="2"/>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="S32" s="3"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
@@ -29968,7 +30510,7 @@
       <c r="X33" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="Y33" s="3"/>
+      <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
@@ -30090,7 +30632,7 @@
       <c r="C13" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="W13" s="4" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -30100,7 +30642,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -30118,13 +30660,13 @@
       </c>
     </row>
     <row r="18" spans="27:27">
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
       <c r="V19" s="1" t="s">
         <v>1671</v>
       </c>
@@ -30175,7 +30717,7 @@
       <c r="C27" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="Y27" s="3"/>
+      <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="1" t="s">
@@ -30197,7 +30739,7 @@
       <c r="B31" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="2"/>
       <c r="V31" s="1" t="s">
         <v>1688</v>
       </c>
@@ -30206,10 +30748,10 @@
       <c r="C32" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="S32" s="3"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="25:25">
-      <c r="Y33" s="3"/>
+      <c r="Y33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -30223,8 +30765,8 @@
   <sheetPr/>
   <dimension ref="B1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -30272,147 +30814,378 @@
         <v>1696</v>
       </c>
     </row>
+    <row r="7" spans="14:14">
+      <c r="N7" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
     <row r="8" spans="2:23">
       <c r="B8" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>1698</v>
+      </c>
       <c r="W8" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="11" spans="2:23">
       <c r="B11" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>1701</v>
+      </c>
       <c r="W11" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="12" spans="3:24">
       <c r="C12" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="W13" s="2"/>
+        <v>1705</v>
+      </c>
+      <c r="W13" s="4"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="15" spans="2:23">
       <c r="B15" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>1707</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="W15" s="1" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="16" spans="3:24">
       <c r="C16" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="18" spans="3:27">
       <c r="C18" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="AA18" s="3"/>
+        <v>1712</v>
+      </c>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>1713</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="W19" s="1" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="1" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="24" spans="2:23">
       <c r="B24" s="1" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="27" spans="2:23">
       <c r="B27" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>1724</v>
+      </c>
       <c r="W27" s="1" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="28" spans="3:25">
       <c r="C28" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="Y28" s="3"/>
+        <v>1726</v>
+      </c>
+      <c r="Y28" s="2"/>
     </row>
     <row r="32" spans="19:19">
-      <c r="S32" s="3"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="19:19">
-      <c r="S33" s="3"/>
+      <c r="S33" s="2"/>
     </row>
     <row r="34" spans="25:25">
-      <c r="Y34" s="3"/>
+      <c r="Y34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="2" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="3" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21">
+      <c r="C20" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25">
+      <c r="B28" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="32" spans="19:19">
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="25:25">
+      <c r="Y34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31489,7 +32262,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>366</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="26" activeTab="35"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="26" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,14 @@
     <sheet name="20221002" sheetId="34" r:id="rId34"/>
     <sheet name="20221016" sheetId="35" r:id="rId35"/>
     <sheet name="20221022" sheetId="36" r:id="rId36"/>
+    <sheet name="20221030" sheetId="37" r:id="rId37"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="1811">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -21624,6 +21625,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: That's it, My </t>
     </r>
     <r>
@@ -21666,6 +21672,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì zhè yàng de ，wǒ de </t>
     </r>
     <r>
@@ -21688,6 +21699,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ yào </t>
     </r>
     <r>
@@ -21713,6 +21729,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: What? Why? Can't you </t>
     </r>
     <r>
@@ -21735,6 +21756,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shen me ？wéi shen me ？bu néng </t>
     </r>
     <r>
@@ -21760,6 +21786,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: The </t>
     </r>
     <r>
@@ -21802,6 +21833,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">make way for the construction of a </t>
     </r>
     <r>
@@ -21824,6 +21860,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>hěn míng xiǎn</t>
     </r>
     <r>
@@ -21854,6 +21896,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>tíng chē chǎng</t>
     </r>
     <r>
@@ -21870,6 +21918,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Well, i can help you </t>
     </r>
     <r>
@@ -21898,6 +21951,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo ba ，wǒ kě yǐ bāng nǐ </t>
     </r>
     <r>
@@ -21956,6 +22014,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Actually, </t>
     </r>
     <r>
@@ -21987,6 +22050,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> èn ，nǐ </t>
     </r>
     <r>
@@ -22012,6 +22080,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -22040,6 +22113,338 @@
   </si>
   <si>
     <t>fang jian</t>
+  </si>
+  <si>
+    <t>quit somking</t>
+  </si>
+  <si>
+    <t>A: 亲爱的，我觉得你要戒烟了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:Honey, i think you should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quit smoking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: qīn ài de ，wǒ jue dé nǐ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiè yān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 为什么？你以前不是说我抽烟的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Why? You said i was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when smoking.</t>
+    </r>
+  </si>
+  <si>
+    <t>时候很性感吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wéi shen me ？nǐ yǐ qián bú shì shuō wǒ chōu yān de </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shí hòu hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xìng gǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 但是我更喜欢你健康。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  But i want you to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dàn shì wǒ gèng xǐ huān nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiàn kāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我知道吸烟有害。</t>
+  </si>
+  <si>
+    <t>B: Smoking is harmful to health, i know.</t>
+  </si>
+  <si>
+    <t>wǒ zhī dào xī yān yǒu hài 。</t>
+  </si>
+  <si>
+    <t>A: 看看这文章，上面说吸烟回导致癌症。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  Check out this article. It says smoking can </t>
+  </si>
+  <si>
+    <t>kàn kàn zhè wén zhāng ，</t>
+  </si>
+  <si>
+    <r>
+      <t>lead to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lung </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shàng miàn shuō xī yān huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dǎo zhì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ái zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>肺 fei</t>
+  </si>
+  <si>
+    <t>B: 我才不相信呢？</t>
+  </si>
+  <si>
+    <t>B I don't believe it.</t>
+  </si>
+  <si>
+    <t>wǒ cái bú xiàng xìn ne ？</t>
+  </si>
+  <si>
+    <t>A: 但是你知道吸烟有害健康是吧？</t>
+  </si>
+  <si>
+    <t>A: But you know that somking does harm to health</t>
+  </si>
+  <si>
+    <t>dàn shì nǐ zhī dào xī yān yǒu hài jiàn kāng shì ba ？</t>
+  </si>
+  <si>
+    <t>right?</t>
+  </si>
+  <si>
+    <t>B:我当然知道吸烟有害健康，但是戒烟难啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Of course i know it. But you know, it's hard to quit </t>
+  </si>
+  <si>
+    <t>wǒ dāng rán zhī dào xī yān yǒu hài jiàn kāng ，</t>
+  </si>
+  <si>
+    <t>somking.</t>
+  </si>
+  <si>
+    <t>dàn shì jiè yān nán ā 。</t>
+  </si>
+  <si>
+    <t>A: 别说废话了，你到底戒不戒烟</t>
+  </si>
+  <si>
+    <r>
+      <t>A:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Stop beating around the Bush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Will you quit or not?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bié shuō fèi huà le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ dào dǐ jiè bú jiè yān  </t>
+    </r>
+  </si>
+  <si>
+    <t>bie fei hua, do thing.</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>难</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
 </sst>
 </file>
@@ -22072,13 +22477,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -23683,7 +24088,7 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>460</v>
       </c>
       <c r="V18" s="2"/>
@@ -27070,7 +27475,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="S34" s="3" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -27337,7 +27742,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="4"/>
+      <c r="S34" s="3"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -27405,7 +27810,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -27696,7 +28101,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="4"/>
+      <c r="T34" s="3"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -27967,7 +28372,7 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="4"/>
+      <c r="T34" s="3"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -28507,7 +28912,7 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="4"/>
+      <c r="AS34" s="3"/>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="7"/>
@@ -28592,7 +28997,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -28843,7 +29248,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="3" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -28888,7 +29293,7 @@
       <c r="D12" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="4" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -30026,7 +30431,7 @@
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -30274,7 +30679,7 @@
       <c r="B28" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="W28" s="1" t="s">
         <v>1597</v>
       </c>
@@ -30632,7 +31037,7 @@
       <c r="C13" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="3" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -30642,7 +31047,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -30852,7 +31257,7 @@
       <c r="C13" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="W13" s="4"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -30863,7 +31268,7 @@
       <c r="B15" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
       <c r="W15" s="1" t="s">
         <v>1708</v>
       </c>
@@ -30970,7 +31375,7 @@
   <sheetPr/>
   <dimension ref="B1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -31010,7 +31415,6 @@
       <c r="B6" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="T6" s="1" t="s">
         <v>1732</v>
       </c>
@@ -31047,11 +31451,10 @@
       <c r="B13" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="T13" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="W13" s="4"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="1" t="s">
@@ -31067,7 +31470,7 @@
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>1744</v>
       </c>
     </row>
@@ -31075,7 +31478,6 @@
       <c r="B17" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="C17" s="1"/>
       <c r="T17" s="1" t="s">
         <v>1746</v>
       </c>
@@ -31106,7 +31508,6 @@
       <c r="B21" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="C21" s="1"/>
       <c r="T21" s="1" t="s">
         <v>1753</v>
       </c>
@@ -31136,7 +31537,6 @@
       <c r="B25" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="T25" s="1" t="s">
         <v>1759</v>
       </c>
@@ -31150,7 +31550,6 @@
       <c r="B28" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="C28" s="1"/>
       <c r="T28" s="1" t="s">
         <v>1762</v>
       </c>
@@ -31186,6 +31585,228 @@
     </row>
     <row r="34" spans="25:25">
       <c r="Y34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="T13" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21">
+      <c r="C23" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25">
+      <c r="C26" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="2" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="C31" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="2:25">
+      <c r="B32" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1808</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="26" activeTab="36"/>
+    <workbookView windowWidth="22368" windowHeight="9084" tabRatio="781" firstSheet="28" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -45,13 +44,14 @@
     <sheet name="20221016" sheetId="35" r:id="rId35"/>
     <sheet name="20221022" sheetId="36" r:id="rId36"/>
     <sheet name="20221030" sheetId="37" r:id="rId37"/>
+    <sheet name="20221106" sheetId="38" r:id="rId38"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="1811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1854">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -22122,6 +22122,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:Honey, i think you should </t>
     </r>
     <r>
@@ -22144,6 +22149,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: qīn ài de ，wǒ jue dé nǐ yào </t>
     </r>
     <r>
@@ -22169,6 +22179,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Why? You said i was </t>
     </r>
     <r>
@@ -22197,6 +22212,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shí hòu hěn </t>
     </r>
     <r>
@@ -22222,6 +22242,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  But i want you to be </t>
     </r>
     <r>
@@ -22244,6 +22269,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dàn shì wǒ gèng xǐ huān nǐ </t>
     </r>
     <r>
@@ -22284,6 +22314,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>lead to</t>
     </r>
     <r>
@@ -22314,6 +22350,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shàng miàn shuō xī yān huì </t>
     </r>
     <r>
@@ -22395,6 +22436,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>A:</t>
     </r>
     <r>
@@ -22417,6 +22463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>bié shuō fèi huà le</t>
     </r>
     <r>
@@ -22445,6 +22497,487 @@
   </si>
   <si>
     <t>hard</t>
+  </si>
+  <si>
+    <t>Winter Clothes</t>
+  </si>
+  <si>
+    <t>A: 再见，妈妈。</t>
+  </si>
+  <si>
+    <t>A: Bey, mom</t>
+  </si>
+  <si>
+    <t>zài jiàn ，mā mā 。</t>
+  </si>
+  <si>
+    <t>B: 等下，jimmy。外面很冷，</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Wait, Jimmy, it's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> outside. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Put</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on.</t>
+    </r>
+  </si>
+  <si>
+    <t>戴上帽子。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">děng xià ，jimmy。wài miàn hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lěng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dài shàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mào zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>穿上</t>
+  </si>
+  <si>
+    <t>chua1n shang</t>
+  </si>
+  <si>
+    <t>A: 好的，再见。</t>
+  </si>
+  <si>
+    <t>A:  Okay, bye!</t>
+  </si>
+  <si>
+    <t>hǎo de ，zài jiàn 。</t>
+  </si>
+  <si>
+    <t>B: 不，等一下。不带手套出去太冷了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: No, Wait, you will be too cold without </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mittens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú ，děng yī xià 。bú dài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shǒu tào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> chū qù tài lěng le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Alright, see ya.</t>
+  </si>
+  <si>
+    <t>B: 在等一下。风那么大，你会着凉感冒的，戴上围巾。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Hold on, with that wind, you're going to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>zài děng yī xià 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nà me dà ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a cold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, Wear this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scarf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhao liáng gǎn mào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de ，dài shàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wéi jīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好的，放学后见。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:Okay, see you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>after school</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> hǎo de ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fàng xué</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hòu jiàn 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 还有，戴上耳罩，把这些都穿上，我们可以走了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Oh and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>earmuffs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, Put these on...here we go.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> hái yǒu ，dài shàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ěr zhào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>bǎ zhè xiē dōu chuān shàng ，wǒ men kě yǐ zǒu le 。</t>
+  </si>
+  <si>
+    <t>A: 妈妈？</t>
+  </si>
+  <si>
+    <t>A: Mom?</t>
+  </si>
+  <si>
+    <t>mā mā ？</t>
+  </si>
+  <si>
+    <t>B: 怎么了？亲爱的。</t>
+  </si>
+  <si>
+    <t>zěn me le ？qīn ài de 。</t>
+  </si>
+  <si>
+    <t>B: Yes, honey?</t>
+  </si>
+  <si>
+    <t>A: 我。。我不能呼吸了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: i... i can't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>breathe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ 。。wǒ bú néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hū xī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>里面</t>
+  </si>
+  <si>
+    <t>li3 mia4n</t>
+  </si>
+  <si>
+    <t>inside</t>
   </si>
 </sst>
 </file>
@@ -22457,7 +22990,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -22471,7 +23004,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -23185,42 +23730,36 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -23229,112 +23768,118 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -23346,11 +23891,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -23358,6 +23903,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -23782,7 +24329,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
@@ -23801,7 +24348,7 @@
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -23814,12 +24361,12 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="9"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
@@ -23838,7 +24385,7 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="14"/>
       <c r="W16" s="1" t="s">
         <v>17</v>
       </c>
@@ -23847,15 +24394,15 @@
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="24"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="1" t="s">
@@ -23869,23 +24416,23 @@
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="32" t="s">
+      <c r="X21" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="24"/>
+      <c r="W23" s="26"/>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="W24" s="1" t="s">
@@ -23893,7 +24440,7 @@
       </c>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -23901,7 +24448,7 @@
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -23924,16 +24471,16 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="12"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="12"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="12"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -23953,7 +24500,7 @@
       <c r="Y34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD34" s="24"/>
+      <c r="AD34" s="26"/>
     </row>
     <row r="35" spans="23:25">
       <c r="W35" s="1" t="s">
@@ -24088,10 +24635,10 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="V18" s="2"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="1" t="s">
@@ -24149,7 +24696,7 @@
       <c r="C29" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -24214,7 +24761,7 @@
       <c r="Y3" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
@@ -24235,7 +24782,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="3:25">
       <c r="C9" s="1" t="s">
@@ -24267,7 +24814,7 @@
       <c r="C15" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" s="11" t="s">
         <v>494</v>
       </c>
     </row>
@@ -24275,36 +24822,36 @@
       <c r="D16" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="Z16" s="9" t="s">
+      <c r="Z16" s="11" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>497</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Z17" s="20" t="s">
+      <c r="Z17" s="22" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="Z18" s="9" t="s">
+      <c r="Z18" s="11" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>503</v>
       </c>
     </row>
@@ -24312,7 +24859,7 @@
       <c r="C21" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="Y21" s="9" t="s">
+      <c r="Y21" s="11" t="s">
         <v>505</v>
       </c>
     </row>
@@ -24320,12 +24867,12 @@
       <c r="D22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Z22" s="9" t="s">
+      <c r="Z22" s="11" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>508</v>
       </c>
     </row>
@@ -24344,7 +24891,7 @@
       <c r="C25" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Y25" s="9" t="s">
+      <c r="Y25" s="11" t="s">
         <v>513</v>
       </c>
     </row>
@@ -24352,7 +24899,7 @@
       <c r="D26" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="Z26" s="9" t="s">
+      <c r="Z26" s="11" t="s">
         <v>515</v>
       </c>
     </row>
@@ -24360,7 +24907,7 @@
       <c r="D27" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Z27" s="9" t="s">
+      <c r="Z27" s="11" t="s">
         <v>517</v>
       </c>
     </row>
@@ -24368,7 +24915,7 @@
       <c r="D28" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Z28" s="9" t="s">
+      <c r="Z28" s="11" t="s">
         <v>519</v>
       </c>
     </row>
@@ -24376,12 +24923,12 @@
       <c r="D29" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="Z29" s="9" t="s">
+      <c r="Z29" s="11" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="30" spans="4:26">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>522</v>
       </c>
       <c r="Z30" s="1" t="s">
@@ -24389,7 +24936,7 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>524</v>
       </c>
     </row>
@@ -24399,12 +24946,12 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="34" spans="4:18">
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>527</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -24415,7 +24962,7 @@
       <c r="C35" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Y35" s="9" t="s">
+      <c r="Y35" s="11" t="s">
         <v>530</v>
       </c>
     </row>
@@ -24423,17 +24970,17 @@
       <c r="D36" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Z36" s="9" t="s">
+      <c r="Z36" s="11" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>534</v>
       </c>
     </row>
@@ -24502,10 +25049,10 @@
       <c r="T3" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>544</v>
       </c>
     </row>
@@ -24528,7 +25075,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="1" t="s">
@@ -24547,7 +25094,7 @@
       <c r="C12" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="11" t="s">
         <v>553</v>
       </c>
     </row>
@@ -24560,7 +25107,7 @@
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>556</v>
       </c>
     </row>
@@ -24578,16 +25125,16 @@
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="Z17" s="20"/>
+      <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>562</v>
       </c>
     </row>
@@ -24595,7 +25142,7 @@
       <c r="C19" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="11" t="s">
         <v>564</v>
       </c>
     </row>
@@ -24603,7 +25150,7 @@
       <c r="D20" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="U20" s="14" t="s">
+      <c r="U20" s="16" t="s">
         <v>566</v>
       </c>
     </row>
@@ -24611,17 +25158,17 @@
       <c r="D21" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="U21" s="11" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>570</v>
       </c>
     </row>
@@ -24629,17 +25176,17 @@
       <c r="C24" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="T24" s="11" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="26" spans="12:12">
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="16" t="s">
         <v>574</v>
       </c>
     </row>
@@ -24647,12 +25194,12 @@
       <c r="C27" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="T27" s="11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>577</v>
       </c>
     </row>
@@ -24715,13 +25262,13 @@
       <c r="U3" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="4:22">
       <c r="D4" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="11" t="s">
         <v>586</v>
       </c>
     </row>
@@ -24734,35 +25281,35 @@
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="11" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="AA9" s="14"/>
+      <c r="AA9" s="16"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="11" t="s">
         <v>595</v>
       </c>
     </row>
@@ -24796,19 +25343,19 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="9"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="11" t="s">
         <v>605</v>
       </c>
     </row>
@@ -24816,7 +25363,7 @@
       <c r="D19" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="U19" s="14"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="1" t="s">
         <v>607</v>
       </c>
@@ -24825,17 +25372,17 @@
       <c r="D20" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="11" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>611</v>
       </c>
     </row>
@@ -24843,8 +25390,8 @@
       <c r="C23" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="U23" s="9" t="s">
+      <c r="D23" s="11"/>
+      <c r="U23" s="11" t="s">
         <v>613</v>
       </c>
     </row>
@@ -24857,27 +25404,27 @@
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="V25" s="16" t="s">
+      <c r="V25" s="18" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="L26" s="14"/>
+      <c r="L26" s="16"/>
       <c r="V26" s="1" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="L27" s="14"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -24904,12 +25451,12 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="11" t="s">
         <v>628</v>
       </c>
     </row>
@@ -24990,7 +25537,7 @@
       <c r="C3" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="11" t="s">
         <v>640</v>
       </c>
     </row>
@@ -25003,7 +25550,7 @@
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>643</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -25011,7 +25558,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -25019,22 +25566,22 @@
       <c r="C7" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>648</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>650</v>
       </c>
     </row>
@@ -25050,17 +25597,17 @@
       <c r="D11" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="11" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="13" spans="4:16">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>656</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -25076,16 +25623,16 @@
       </c>
     </row>
     <row r="15" spans="4:26">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="Z15" s="20"/>
+      <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>662</v>
       </c>
     </row>
@@ -25093,7 +25640,7 @@
       <c r="C17" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="X17" s="9" t="s">
+      <c r="X17" s="11" t="s">
         <v>664</v>
       </c>
     </row>
@@ -25101,21 +25648,21 @@
       <c r="D18" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="U18" s="14"/>
-      <c r="Y18" s="9" t="s">
+      <c r="U18" s="16"/>
+      <c r="Y18" s="11" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Y19" s="11" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>669</v>
       </c>
     </row>
@@ -25123,13 +25670,13 @@
       <c r="C21" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="X21" s="9" t="s">
+      <c r="D21" s="11"/>
+      <c r="X21" s="11" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="22" spans="4:32">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>672</v>
       </c>
       <c r="AF22" s="1" t="s">
@@ -25140,25 +25687,25 @@
       <c r="C24" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="V24" s="16"/>
-      <c r="X24" s="9" t="s">
+      <c r="V24" s="18"/>
+      <c r="X24" s="11" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="Y25" s="9" t="s">
+      <c r="L25" s="16"/>
+      <c r="Y25" s="11" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="L26" s="14"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="3:24">
       <c r="C27" s="1" t="s">
@@ -25177,13 +25724,13 @@
       <c r="C30" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="X30" s="9" t="s">
+      <c r="D30" s="11"/>
+      <c r="X30" s="11" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>684</v>
       </c>
     </row>
@@ -25283,8 +25830,8 @@
       <c r="C6" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="W6" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="W6" s="11" t="s">
         <v>701</v>
       </c>
     </row>
@@ -25292,19 +25839,19 @@
       <c r="D7" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>705</v>
       </c>
     </row>
@@ -25312,7 +25859,7 @@
       <c r="C10" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="11" t="s">
         <v>707</v>
       </c>
     </row>
@@ -25320,12 +25867,12 @@
       <c r="D11" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X11" s="13" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="12" spans="4:24">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>710</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -25333,7 +25880,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>712</v>
       </c>
     </row>
@@ -25346,16 +25893,16 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="X16" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>717</v>
       </c>
     </row>
@@ -25363,7 +25910,7 @@
       <c r="C18" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="11" t="s">
         <v>719</v>
       </c>
     </row>
@@ -25371,18 +25918,18 @@
       <c r="D19" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="U19" s="14"/>
-      <c r="X19" s="9" t="s">
+      <c r="U19" s="16"/>
+      <c r="X19" s="11" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>723</v>
       </c>
     </row>
@@ -25390,13 +25937,13 @@
       <c r="C22" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="W22" s="9" t="s">
+      <c r="D22" s="11"/>
+      <c r="W22" s="11" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>726</v>
       </c>
     </row>
@@ -25404,36 +25951,36 @@
       <c r="C25" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="V25" s="16"/>
+      <c r="V25" s="18"/>
       <c r="W25" s="1" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="26" spans="4:24">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="X26" s="9" t="s">
+      <c r="L26" s="16"/>
+      <c r="X26" s="11" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="27" spans="4:24">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="L27" s="14"/>
+      <c r="L27" s="16"/>
       <c r="X27" s="1" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>734</v>
       </c>
     </row>
@@ -25441,7 +25988,7 @@
       <c r="C30" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="W30" s="9" t="s">
+      <c r="W30" s="11" t="s">
         <v>736</v>
       </c>
     </row>
@@ -25451,12 +25998,12 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="11" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="9"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="1" t="s">
@@ -25470,7 +26017,7 @@
       </c>
     </row>
     <row r="37" ht="82.8" spans="3:10">
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="25" t="s">
         <v>742</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -25533,8 +26080,8 @@
       <c r="C6" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="T6" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="T6" s="11" t="s">
         <v>750</v>
       </c>
     </row>
@@ -25545,41 +26092,41 @@
       <c r="U7" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="11" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="X11" s="11"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="11" t="s">
         <v>760</v>
       </c>
     </row>
@@ -25587,12 +26134,12 @@
       <c r="D13" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="11" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>763</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -25600,30 +26147,30 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="9"/>
-      <c r="Z16" s="20"/>
+      <c r="D16" s="11"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="T17" s="9" t="s">
+      <c r="D17" s="11"/>
+      <c r="T17" s="11" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="14"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
@@ -25634,12 +26181,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="9"/>
+      <c r="D22" s="11"/>
       <c r="J22" s="1" t="s">
         <v>772</v>
       </c>
@@ -25648,13 +26195,13 @@
       <c r="C23" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="T23" s="9" t="s">
+      <c r="D23" s="11"/>
+      <c r="T23" s="11" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>775</v>
       </c>
     </row>
@@ -25662,26 +26209,26 @@
       <c r="M25" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="V25" s="16"/>
+      <c r="V25" s="18"/>
     </row>
     <row r="26" spans="3:20">
       <c r="C26" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="L26" s="14"/>
-      <c r="T26" s="9" t="s">
+      <c r="D26" s="11"/>
+      <c r="L26" s="16"/>
+      <c r="T26" s="11" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="L27" s="14"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="D28" s="9"/>
+      <c r="D28" s="11"/>
       <c r="N28" s="1" t="s">
         <v>780</v>
       </c>
@@ -25690,7 +26237,7 @@
       <c r="C29" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="11"/>
       <c r="T29" s="1" t="s">
         <v>782</v>
       </c>
@@ -25704,13 +26251,13 @@
       <c r="C32" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="11"/>
       <c r="T32" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>786</v>
       </c>
     </row>
@@ -25726,7 +26273,7 @@
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="23"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="1" t="s">
@@ -25750,13 +26297,13 @@
       </c>
     </row>
     <row r="43" ht="124.2" spans="3:10">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>795</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="25" t="s">
         <v>797</v>
       </c>
     </row>
@@ -25764,7 +26311,7 @@
       <c r="G44" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="14" t="s">
         <v>799</v>
       </c>
     </row>
@@ -25806,7 +26353,7 @@
       <c r="D2" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="10" t="s">
         <v>802</v>
       </c>
     </row>
@@ -25814,7 +26361,7 @@
       <c r="C3" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="11" t="s">
         <v>804</v>
       </c>
     </row>
@@ -25822,7 +26369,7 @@
       <c r="D4" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="11" t="s">
         <v>806</v>
       </c>
     </row>
@@ -25830,32 +26377,32 @@
       <c r="D5" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="11" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="11" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>813</v>
       </c>
     </row>
@@ -25863,8 +26410,8 @@
       <c r="C10" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="X10" s="9" t="s">
+      <c r="D10" s="10"/>
+      <c r="X10" s="11" t="s">
         <v>815</v>
       </c>
     </row>
@@ -25872,29 +26419,29 @@
       <c r="D11" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="9" t="s">
+      <c r="X11" s="13"/>
+      <c r="Y11" s="11" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="13" t="s">
         <v>822</v>
       </c>
     </row>
@@ -25902,22 +26449,22 @@
       <c r="C15" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="X15" s="9" t="s">
+      <c r="D15" s="11"/>
+      <c r="X15" s="11" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>825</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>827</v>
       </c>
     </row>
@@ -25927,7 +26474,7 @@
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="14"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="1" t="s">
@@ -25938,23 +26485,23 @@
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="Y21" s="9" t="s">
+      <c r="Y21" s="11" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="10" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="10" t="s">
         <v>835</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -25976,25 +26523,25 @@
       <c r="D25" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="V25" s="16"/>
+      <c r="V25" s="18"/>
       <c r="Y25" s="1" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="L26" s="14"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="L27" s="14"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>844</v>
       </c>
     </row>
@@ -26002,13 +26549,13 @@
       <c r="C29" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="Y29" s="9" t="s">
+      <c r="D29" s="11"/>
+      <c r="Y29" s="11" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>847</v>
       </c>
     </row>
@@ -26016,21 +26563,21 @@
       <c r="C32" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="X32" s="9" t="s">
+      <c r="D32" s="11"/>
+      <c r="X32" s="11" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="33" spans="4:25">
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="Y33" s="9" t="s">
+      <c r="Y33" s="11" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>852</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -26046,7 +26593,7 @@
       </c>
     </row>
     <row r="37" spans="3:25">
-      <c r="C37" s="23"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="1" t="s">
         <v>856</v>
       </c>
@@ -26055,12 +26602,12 @@
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="39" spans="9:9">
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="26" t="s">
         <v>832</v>
       </c>
     </row>
@@ -26092,17 +26639,17 @@
       <c r="A43" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="14" t="s">
         <v>866</v>
       </c>
-      <c r="J43" s="23"/>
+      <c r="J43" s="25"/>
     </row>
     <row r="44" spans="4:10">
       <c r="D44" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="J44" s="12"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="16:16">
       <c r="P45" s="1" t="s">
@@ -26207,21 +26754,21 @@
       <c r="D2" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="Z2" s="8"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="11" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="11" t="s">
         <v>889</v>
       </c>
     </row>
@@ -26229,7 +26776,7 @@
       <c r="A5" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>891</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -26243,28 +26790,28 @@
       <c r="C6" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="11"/>
       <c r="T6" s="1" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>899</v>
       </c>
     </row>
@@ -26272,62 +26819,62 @@
       <c r="C10" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="T10" s="9" t="s">
+      <c r="D10" s="10"/>
+      <c r="T10" s="11" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="X11" s="11"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="M14" s="8"/>
-      <c r="Q14" s="11"/>
+      <c r="D14" s="23"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="13"/>
       <c r="T14" s="1" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="9"/>
+      <c r="D16" s="11"/>
       <c r="L16" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="T17" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="T17" s="11" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>911</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -26335,36 +26882,36 @@
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="10" t="s">
         <v>914</v>
       </c>
-      <c r="U19" s="14"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="11" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="S21" s="8"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="8"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="10"/>
       <c r="T23" s="1" t="s">
         <v>919</v>
       </c>
@@ -26373,7 +26920,7 @@
       <c r="D24" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="U24" s="11" t="s">
         <v>921</v>
       </c>
     </row>
@@ -26381,13 +26928,13 @@
       <c r="D25" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="V25" s="16"/>
+      <c r="V25" s="18"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="L26" s="14"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -26424,7 +26971,7 @@
       <c r="C2" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="Z2" s="8"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="3:18">
       <c r="C3" s="1" t="s">
@@ -26438,41 +26985,41 @@
       <c r="D4" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="11" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="R7" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="R7" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="AA8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>934</v>
       </c>
     </row>
@@ -26480,39 +27027,39 @@
       <c r="C10" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="10"/>
       <c r="R10" s="1" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="10" t="s">
         <v>938</v>
       </c>
-      <c r="X11" s="11"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="3:18">
       <c r="C14" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="M14" s="8"/>
-      <c r="Q14" s="11"/>
+      <c r="D14" s="23"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="1" t="s">
         <v>942</v>
       </c>
@@ -26521,23 +27068,23 @@
       <c r="C15" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="9"/>
-      <c r="Z16" s="20"/>
+      <c r="D16" s="11"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="R17" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="R17" s="11" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>946</v>
       </c>
     </row>
@@ -26545,43 +27092,43 @@
       <c r="C19" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="11" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S20" s="10" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>951</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="11" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="24" spans="3:32">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="18"/>
       <c r="AD24" s="1" t="s">
         <v>956</v>
       </c>
@@ -26590,8 +27137,8 @@
       </c>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="9"/>
-      <c r="L25" s="14"/>
+      <c r="D25" s="11"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -26610,7 +27157,7 @@
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>962</v>
       </c>
     </row>
@@ -26652,7 +27199,7 @@
       <c r="D35" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="1" t="s">
@@ -26708,10 +27255,10 @@
       </c>
     </row>
     <row r="5" spans="4:19">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -26719,12 +27266,12 @@
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>50</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -26748,12 +27295,12 @@
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="4:19">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>57</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -26764,12 +27311,12 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -26777,12 +27324,12 @@
       <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -26931,7 +27478,7 @@
       <c r="C2" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="Z2" s="8"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -26945,12 +27492,12 @@
       <c r="D4" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="11" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>980</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -26958,77 +27505,77 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="3:27">
       <c r="C8" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="11"/>
       <c r="S8" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="8"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="X11" s="11"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="3:19">
       <c r="C14" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="M14" s="8"/>
-      <c r="Q14" s="11"/>
+      <c r="D14" s="23"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="13"/>
       <c r="S14" s="1" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="9"/>
-      <c r="Z16" s="20"/>
+      <c r="D16" s="11"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="S17" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="S17" s="11" t="s">
         <v>994</v>
       </c>
     </row>
@@ -27036,29 +27583,29 @@
       <c r="D18" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="11" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>998</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="S20" s="8"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="10"/>
       <c r="S22" s="1" t="s">
         <v>1001</v>
       </c>
@@ -27067,22 +27614,22 @@
       <c r="D23" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="T23" s="10" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="18"/>
     </row>
     <row r="25" spans="3:19">
       <c r="C25" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="L25" s="14"/>
+      <c r="D25" s="11"/>
+      <c r="L25" s="16"/>
       <c r="S25" s="1" t="s">
         <v>1006</v>
       </c>
@@ -27101,7 +27648,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="12"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="1" t="s">
         <v>1010</v>
       </c>
@@ -27136,7 +27683,7 @@
       <c r="C35" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="9"/>
       <c r="S35" s="1" t="s">
         <v>1018</v>
       </c>
@@ -27272,7 +27819,7 @@
       <c r="C2" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="Z2" s="8"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="4" spans="3:18">
       <c r="C4" s="1" t="s">
@@ -27283,39 +27830,39 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="R7" s="9" t="s">
+      <c r="D7" s="12"/>
+      <c r="R7" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>1049</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -27326,62 +27873,62 @@
       <c r="R11" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="X11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="15" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="13" spans="4:19">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="17" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="Q14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="R17" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="R17" s="11" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="11" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -27389,39 +27936,39 @@
       <c r="C20" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="R20" s="9" t="s">
+      <c r="D20" s="11"/>
+      <c r="R20" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="S20" s="8"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="T23" s="8"/>
+      <c r="T23" s="10"/>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>1072</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="18"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="9"/>
-      <c r="L25" s="14"/>
+      <c r="D25" s="11"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -27440,7 +27987,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="12"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="1" t="s">
         <v>1077</v>
       </c>
@@ -27475,7 +28022,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="5" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -27483,7 +28030,7 @@
       <c r="D35" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="3:18">
       <c r="C36" s="1" t="s">
@@ -27533,7 +28080,7 @@
       <c r="C2" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="Z2" s="8"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
@@ -27544,38 +28091,38 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="R7" s="9"/>
-      <c r="X7" s="9" t="s">
+      <c r="D7" s="12"/>
+      <c r="R7" s="11"/>
+      <c r="X7" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>1096</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="11"/>
       <c r="X10" s="1" t="s">
         <v>1098</v>
       </c>
@@ -27584,77 +28131,77 @@
       <c r="D11" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="X11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="9"/>
-      <c r="S12" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="S12" s="15"/>
     </row>
     <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="S13" s="15"/>
+      <c r="D13" s="11"/>
+      <c r="S13" s="17"/>
       <c r="X13" s="1" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="Q14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="13"/>
       <c r="Y14" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="3:26">
       <c r="C16" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="11"/>
       <c r="X16" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="4:18">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="14" t="s">
         <v>1106</v>
       </c>
-      <c r="R17" s="9"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="9"/>
-      <c r="S18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="S18" s="11"/>
     </row>
     <row r="19" spans="3:24">
       <c r="C19" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="X19" s="9" t="s">
+      <c r="D19" s="11"/>
+      <c r="X19" s="11" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="20" spans="4:25">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="8"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="10"/>
       <c r="Y20" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="21" spans="4:16">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>1111</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -27662,36 +28209,36 @@
       </c>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>1113</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="X22" s="9" t="s">
+      <c r="D22" s="10"/>
+      <c r="X22" s="11" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>1115</v>
       </c>
-      <c r="R23" s="9"/>
-      <c r="T23" s="8"/>
-      <c r="Y23" s="13" t="s">
+      <c r="R23" s="11"/>
+      <c r="T23" s="10"/>
+      <c r="Y23" s="15" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="18"/>
     </row>
     <row r="25" spans="3:24">
       <c r="C25" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="L25" s="14"/>
+      <c r="D25" s="11"/>
+      <c r="L25" s="16"/>
       <c r="X25" s="1" t="s">
         <v>1119</v>
       </c>
@@ -27702,7 +28249,7 @@
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>1121</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -27742,7 +28289,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="3"/>
+      <c r="S34" s="5"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -27751,7 +28298,7 @@
       <c r="D35" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="9"/>
       <c r="Y35" s="1" t="s">
         <v>1133</v>
       </c>
@@ -27810,7 +28357,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="5" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -27872,7 +28419,7 @@
       <c r="D2" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="AA2" s="8"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
@@ -27888,79 +28435,79 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="9"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
       <c r="U6" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>1160</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="AB7" s="14"/>
+      <c r="S7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="9"/>
-      <c r="AB8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="AB8" s="16"/>
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="11"/>
       <c r="U9" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="9"/>
-      <c r="Y11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="T12" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="T12" s="15"/>
       <c r="U12" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>1166</v>
       </c>
-      <c r="T13" s="15"/>
+      <c r="T13" s="17"/>
       <c r="V13" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>1168</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
       <c r="V14" s="1" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -27968,77 +28515,77 @@
       <c r="C16" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="11"/>
       <c r="U16" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="AA16" s="20"/>
+      <c r="AA16" s="22"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="14" t="s">
         <v>1173</v>
       </c>
-      <c r="S17" s="9"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19" spans="3:25">
       <c r="C19" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="11"/>
       <c r="U19" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="11"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>1176</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="8"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="10"/>
       <c r="V20" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="D21" s="9"/>
+      <c r="D21" s="11"/>
       <c r="Q21" s="1" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>1179</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="10"/>
       <c r="U22" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="Y22" s="9"/>
+      <c r="Y22" s="11"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>1181</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="U23" s="8"/>
-      <c r="Z23" s="13"/>
+      <c r="S23" s="11"/>
+      <c r="U23" s="10"/>
+      <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="W24" s="16"/>
+      <c r="W24" s="18"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
@@ -28057,7 +28604,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="12"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="1" t="s">
         <v>1188</v>
       </c>
@@ -28101,7 +28648,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="3"/>
+      <c r="T34" s="5"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -28110,7 +28657,7 @@
       <c r="D35" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="9"/>
       <c r="V35" s="1" t="s">
         <v>1201</v>
       </c>
@@ -28193,7 +28740,7 @@
       <c r="D2" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="AA2" s="8"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -28209,154 +28756,154 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="9"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:19">
       <c r="C6" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
       <c r="S6" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>1218</v>
       </c>
-      <c r="S7" s="9"/>
+      <c r="S7" s="11"/>
       <c r="T7" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="Y7" s="9"/>
-      <c r="AB7" s="14"/>
+      <c r="Y7" s="11"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>1220</v>
       </c>
-      <c r="AB8" s="14"/>
+      <c r="AB8" s="16"/>
     </row>
     <row r="9" spans="3:19">
       <c r="C9" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="11"/>
       <c r="S9" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="9"/>
-      <c r="Y11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="11"/>
       <c r="S12" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="T12" s="13"/>
+      <c r="T12" s="15"/>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="T13" s="15"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" spans="4:18">
-      <c r="D14" s="9"/>
-      <c r="M14" s="8"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="3:19">
       <c r="C15" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="12"/>
       <c r="S15" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>1229</v>
       </c>
-      <c r="AA16" s="20"/>
+      <c r="AA16" s="22"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="12"/>
-      <c r="S17" s="9"/>
+      <c r="D17" s="14"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="11"/>
       <c r="S18" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="T18" s="9"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>1232</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="11"/>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="8"/>
+      <c r="D20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="11"/>
       <c r="S21" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="9"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="14" t="s">
         <v>1235</v>
       </c>
-      <c r="Y22" s="9"/>
+      <c r="Y22" s="11"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="U23" s="8"/>
-      <c r="Z23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="U23" s="10"/>
+      <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="12"/>
       <c r="S24" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="W24" s="16"/>
+      <c r="W24" s="18"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>1239</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -28372,10 +28919,10 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="3"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="7"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -28396,278 +28943,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="7" width="8.88888888888889" style="17"/>
-    <col min="8" max="8" width="34.4444444444444" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="17"/>
+    <col min="1" max="7" width="8.88888888888889" style="19"/>
+    <col min="8" max="8" width="34.4444444444444" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>1244</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="19" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>1247</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="19" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>1249</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="19" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>1251</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="19" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>1253</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="21" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>1255</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="19" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>1258</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="19" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>1261</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="19" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>1263</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="19" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>1266</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="19" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>1268</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="19" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="19" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>1272</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="19" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>1274</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="19" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>1276</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="19" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>1278</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="19" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="19" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="19" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="19" t="s">
         <v>1282</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="19" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>1285</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="19" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>1287</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="19" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>1289</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="19" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="19" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="19" t="s">
         <v>1293</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="19" t="s">
         <v>1294</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="19" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>1296</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="19" t="s">
         <v>1297</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="19" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="19" t="s">
         <v>1299</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="19" t="s">
         <v>1300</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="19" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="19" t="s">
         <v>1301</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="19" t="s">
         <v>1302</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="19" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="19" t="s">
         <v>1304</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="19" t="s">
         <v>1305</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="19" t="s">
         <v>1306</v>
       </c>
     </row>
@@ -28704,7 +29251,7 @@
       <c r="C2" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="AA2" s="8"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="1" t="s">
@@ -28726,18 +29273,18 @@
       <c r="C5" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="11"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:29">
       <c r="C6" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="AC6" s="10"/>
+      <c r="AC6" s="12"/>
     </row>
     <row r="7" spans="25:44">
-      <c r="Y7" s="9"/>
-      <c r="AC7" s="10"/>
-      <c r="AR7" s="9"/>
+      <c r="Y7" s="11"/>
+      <c r="AC7" s="12"/>
+      <c r="AR7" s="11"/>
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="1" t="s">
@@ -28746,7 +29293,7 @@
       <c r="AA8" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="AC8" s="9"/>
+      <c r="AC8" s="11"/>
     </row>
     <row r="9" spans="3:46">
       <c r="C9" s="1" t="s">
@@ -28755,7 +29302,7 @@
       <c r="AB9" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="AC9" s="9"/>
+      <c r="AC9" s="11"/>
       <c r="AT9" s="1" t="s">
         <v>1318</v>
       </c>
@@ -28764,22 +29311,22 @@
       <c r="C10" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="AC10" s="9"/>
+      <c r="AC10" s="11"/>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="Y11" s="11"/>
-      <c r="AS11" s="9"/>
+      <c r="Y11" s="13"/>
+      <c r="AS11" s="11"/>
     </row>
     <row r="12" spans="29:45">
-      <c r="AC12" s="9"/>
-      <c r="AS12" s="13"/>
+      <c r="AC12" s="11"/>
+      <c r="AS12" s="15"/>
     </row>
     <row r="13" spans="29:45">
-      <c r="AC13" s="9"/>
-      <c r="AS13" s="15"/>
+      <c r="AC13" s="11"/>
+      <c r="AS13" s="17"/>
     </row>
     <row r="14" spans="2:43">
       <c r="B14" s="1" t="s">
@@ -28788,23 +29335,23 @@
       <c r="AA14" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="AC14" s="9"/>
-      <c r="AL14" s="8"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AL14" s="10"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
     </row>
     <row r="15" spans="3:29">
       <c r="C15" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="AC15" s="10"/>
+      <c r="AC15" s="12"/>
     </row>
     <row r="16" spans="29:29">
-      <c r="AC16" s="9"/>
+      <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="29:44">
-      <c r="AC17" s="12"/>
-      <c r="AR17" s="9"/>
+      <c r="AC17" s="14"/>
+      <c r="AR17" s="11"/>
     </row>
     <row r="18" spans="2:45">
       <c r="B18" s="1" t="s">
@@ -28813,18 +29360,18 @@
       <c r="AA18" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="AC18" s="9"/>
-      <c r="AS18" s="9"/>
+      <c r="AC18" s="11"/>
+      <c r="AS18" s="11"/>
     </row>
     <row r="19" spans="3:29">
       <c r="C19" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="11"/>
       <c r="AB19" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="AC19" s="9"/>
+      <c r="AC19" s="11"/>
     </row>
     <row r="20" spans="3:45">
       <c r="C20" s="1" t="s">
@@ -28833,26 +29380,26 @@
       <c r="AB20" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="AC20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="8"/>
+      <c r="AC20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="10"/>
     </row>
     <row r="21" spans="3:29">
       <c r="C21" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="AC21" s="9"/>
+      <c r="AC21" s="11"/>
     </row>
     <row r="22" spans="25:29">
-      <c r="Y22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="12"/>
+      <c r="Y22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="14"/>
     </row>
     <row r="23" spans="26:46">
-      <c r="Z23" s="13"/>
-      <c r="AC23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AT23" s="8"/>
+      <c r="Z23" s="15"/>
+      <c r="AC23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AT23" s="10"/>
     </row>
     <row r="24" spans="2:48">
       <c r="B24" s="1" t="s">
@@ -28861,21 +29408,21 @@
       <c r="AA24" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="AC24" s="10"/>
-      <c r="AV24" s="16"/>
+      <c r="AC24" s="12"/>
+      <c r="AV24" s="18"/>
     </row>
     <row r="25" spans="3:37">
       <c r="C25" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="AC25" s="9"/>
-      <c r="AK25" s="14"/>
+      <c r="AC25" s="11"/>
+      <c r="AK25" s="16"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="AB28" s="12" t="s">
+      <c r="AB28" s="14" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -28912,10 +29459,10 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="3"/>
+      <c r="AS34" s="5"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="7"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="1" t="s">
@@ -28997,7 +29544,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -29100,7 +29647,7 @@
       <c r="D24" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -29134,7 +29681,7 @@
       <c r="D29" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="3" t="s">
         <v>999</v>
       </c>
     </row>
@@ -29163,7 +29710,7 @@
       <c r="D34" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="Y34" s="6" t="s">
+      <c r="Y34" s="8" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -29192,7 +29739,7 @@
       <c r="D39" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="Y39" s="2" t="s">
+      <c r="Y39" s="3" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -29248,7 +29795,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="5" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -29293,7 +29840,7 @@
       <c r="D12" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="6" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -29350,10 +29897,10 @@
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
@@ -29372,7 +29919,7 @@
       <c r="C28" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="T28" s="2"/>
+      <c r="T28" s="3"/>
       <c r="V28" s="1" t="s">
         <v>1435</v>
       </c>
@@ -29396,7 +29943,7 @@
       </c>
     </row>
     <row r="33" spans="25:25">
-      <c r="Y33" s="6"/>
+      <c r="Y33" s="8"/>
     </row>
     <row r="34" spans="3:22">
       <c r="C34" s="1" t="s">
@@ -29423,7 +29970,7 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="Y38" s="2"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="40" spans="3:22">
       <c r="C40" s="1" t="s">
@@ -29473,13 +30020,13 @@
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="5">
+      <c r="D48" s="7">
         <v>1.412135</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="1" t="s">
@@ -29655,7 +30202,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -29783,11 +30330,11 @@
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="V5" s="8" t="s">
+      <c r="S5" s="10"/>
+      <c r="V5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -29795,7 +30342,7 @@
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -29803,7 +30350,7 @@
       <c r="D8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -29811,27 +30358,27 @@
       <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V9" s="27" t="s">
+      <c r="V9" s="29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -29844,7 +30391,7 @@
       </c>
     </row>
     <row r="15" spans="4:19">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>111</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -29852,7 +30399,7 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -29873,12 +30420,12 @@
       <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="V21" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -29891,7 +30438,7 @@
       </c>
     </row>
     <row r="25" spans="4:27">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>122</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -30014,7 +30561,7 @@
       <c r="F43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -30155,7 +30702,7 @@
       <c r="Y18" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -30229,7 +30776,7 @@
       <c r="C29" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" s="3" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -30313,7 +30860,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -30389,7 +30936,7 @@
       <c r="C18" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -30431,7 +30978,7 @@
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -30447,7 +30994,7 @@
       <c r="C28" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="3" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -30455,7 +31002,7 @@
       <c r="C29" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
@@ -30621,7 +31168,7 @@
       <c r="O18" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
@@ -30679,7 +31226,7 @@
       <c r="B28" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="5"/>
       <c r="W28" s="1" t="s">
         <v>1597</v>
       </c>
@@ -30690,10 +31237,10 @@
       </c>
     </row>
     <row r="30" spans="19:19">
-      <c r="S30" s="2"/>
+      <c r="S30" s="3"/>
     </row>
     <row r="31" spans="25:25">
-      <c r="Y31" s="2"/>
+      <c r="Y31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -30813,10 +31360,10 @@
       <c r="Y18" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -30871,7 +31418,7 @@
       <c r="C27" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="Y27" s="2" t="s">
+      <c r="Y27" s="3" t="s">
         <v>1633</v>
       </c>
     </row>
@@ -30900,13 +31447,13 @@
       <c r="C31" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="S31" s="2"/>
+      <c r="S31" s="3"/>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="S32" s="2"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
@@ -30915,7 +31462,7 @@
       <c r="X33" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
@@ -31037,7 +31584,7 @@
       <c r="C13" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="W13" s="5" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -31047,7 +31594,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -31065,13 +31612,13 @@
       </c>
     </row>
     <row r="18" spans="27:27">
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
       <c r="V19" s="1" t="s">
         <v>1671</v>
       </c>
@@ -31122,7 +31669,7 @@
       <c r="C27" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="Y27" s="2"/>
+      <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="1" t="s">
@@ -31144,7 +31691,7 @@
       <c r="B31" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="S31" s="2"/>
+      <c r="S31" s="3"/>
       <c r="V31" s="1" t="s">
         <v>1688</v>
       </c>
@@ -31153,10 +31700,10 @@
       <c r="C32" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="S32" s="2"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="25:25">
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31257,7 +31804,7 @@
       <c r="C13" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -31268,7 +31815,7 @@
       <c r="B15" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
       <c r="W15" s="1" t="s">
         <v>1708</v>
       </c>
@@ -31290,13 +31837,13 @@
       <c r="C18" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
       <c r="W19" s="1" t="s">
         <v>1714</v>
       </c>
@@ -31352,16 +31899,16 @@
       <c r="C28" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="3"/>
     </row>
     <row r="32" spans="19:19">
-      <c r="S32" s="2"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="19:19">
-      <c r="S33" s="2"/>
+      <c r="S33" s="3"/>
     </row>
     <row r="34" spans="25:25">
-      <c r="Y34" s="2"/>
+      <c r="Y34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31454,7 +32001,7 @@
       <c r="T13" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="1" t="s">
@@ -31465,12 +32012,12 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>1743</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>1744</v>
       </c>
     </row>
@@ -31489,7 +32036,7 @@
       <c r="U18" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -31553,7 +32100,7 @@
       <c r="T28" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="3:21">
       <c r="C29" s="1" t="s">
@@ -31569,7 +32116,7 @@
       </c>
     </row>
     <row r="32" spans="19:19">
-      <c r="S32" s="2"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="1" t="s">
@@ -31581,10 +32128,10 @@
       <c r="I33" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="S33" s="2"/>
+      <c r="S33" s="3"/>
     </row>
     <row r="34" spans="25:25">
-      <c r="Y34" s="2"/>
+      <c r="Y34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31598,8 +32145,8 @@
   <sheetPr/>
   <dimension ref="B1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -31638,7 +32185,6 @@
       <c r="B6" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="T6" s="1" t="s">
         <v>1774</v>
       </c>
@@ -31670,13 +32216,13 @@
       <c r="C11" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="W11" s="3"/>
+      <c r="W11" s="5"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="T13" s="1" t="s">
         <v>1782</v>
       </c>
@@ -31690,18 +32236,16 @@
       <c r="B16" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="T16" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="5" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -31730,7 +32274,6 @@
       <c r="B22" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="T22" s="1" t="s">
         <v>1794</v>
       </c>
@@ -31758,7 +32301,7 @@
       <c r="U26" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
@@ -31769,13 +32312,12 @@
       <c r="B28" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="C28" s="1"/>
       <c r="T28" s="1" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -31783,7 +32325,7 @@
       <c r="C31" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="S31" s="2"/>
+      <c r="S31" s="3"/>
     </row>
     <row r="32" spans="2:25">
       <c r="B32" s="1" t="s">
@@ -31795,7 +32337,7 @@
       <c r="E32" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="Y32" s="2"/>
+      <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
@@ -31806,6 +32348,235 @@
       </c>
       <c r="E33" s="1" t="s">
         <v>1808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="V13" s="1" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1853</v>
       </c>
     </row>
   </sheetData>
@@ -31846,7 +32617,7 @@
       <c r="C4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -31854,19 +32625,19 @@
       <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="8"/>
+      <c r="V5" s="10"/>
       <c r="W5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -31874,7 +32645,7 @@
       <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -31882,18 +32653,18 @@
       <c r="D9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="Y9" s="27"/>
+      <c r="Y9" s="29"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -31901,13 +32672,13 @@
       <c r="C12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="U12" s="9" t="s">
+      <c r="D12" s="11"/>
+      <c r="U12" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>174</v>
       </c>
     </row>
@@ -31920,7 +32691,7 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -31970,7 +32741,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>189</v>
       </c>
     </row>
@@ -32053,8 +32824,8 @@
       <c r="S5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="Y5" s="8"/>
+      <c r="V5" s="10"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
@@ -32062,7 +32833,7 @@
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="9"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="3:19">
       <c r="C8" s="1" t="s">
@@ -32076,35 +32847,35 @@
       <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y9" s="27"/>
+      <c r="Y9" s="29"/>
     </row>
     <row r="11" spans="3:19">
       <c r="C11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="S11" s="9" t="s">
+      <c r="D11" s="11"/>
+      <c r="S11" s="11" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="29"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="4:20">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>211</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -32117,7 +32888,7 @@
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>214</v>
       </c>
     </row>
@@ -32125,7 +32896,7 @@
       <c r="C18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="11" t="s">
         <v>216</v>
       </c>
     </row>
@@ -32133,17 +32904,17 @@
       <c r="D19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>220</v>
       </c>
     </row>
@@ -32151,12 +32922,12 @@
       <c r="C22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -32172,7 +32943,7 @@
       <c r="D26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T26" s="9" t="s">
+      <c r="T26" s="11" t="s">
         <v>227</v>
       </c>
     </row>
@@ -32182,7 +32953,7 @@
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="26" t="s">
         <v>229</v>
       </c>
     </row>
@@ -32195,7 +32966,7 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -32317,48 +33088,48 @@
       <c r="D5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V5" s="8"/>
+      <c r="V5" s="10"/>
       <c r="X5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="4:24">
       <c r="D6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="4:24">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="4:26">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="Z10" s="26" t="s">
+      <c r="Z10" s="28" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>262</v>
       </c>
     </row>
@@ -32366,7 +33137,7 @@
       <c r="L12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Y12" s="27"/>
+      <c r="Y12" s="29"/>
       <c r="AL12" s="1" t="s">
         <v>264</v>
       </c>
@@ -32375,44 +33146,44 @@
       <c r="C13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="X13" s="11" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="Y14" s="8" t="s">
+      <c r="Y14" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="4:25">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="W17" s="25" t="s">
+      <c r="W17" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="Z17" s="28" t="s">
+      <c r="Z17" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>275</v>
       </c>
     </row>
@@ -32420,7 +33191,7 @@
       <c r="C19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="X19" s="9" t="s">
+      <c r="X19" s="11" t="s">
         <v>277</v>
       </c>
     </row>
@@ -32428,17 +33199,17 @@
       <c r="D20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y20" s="9" t="s">
+      <c r="Y20" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>281</v>
       </c>
     </row>
@@ -32446,20 +33217,20 @@
       <c r="C24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="X24" s="9" t="s">
+      <c r="X24" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="Y25" s="9" t="s">
+      <c r="Y25" s="11" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="26" spans="4:25">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>286</v>
       </c>
       <c r="Y26" s="1" t="s">
@@ -32488,7 +33259,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="12" t="s">
         <v>293</v>
       </c>
     </row>
@@ -32514,7 +33285,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="11" t="s">
         <v>299</v>
       </c>
     </row>
@@ -32549,31 +33320,31 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="Y5" s="8"/>
+      <c r="V5" s="10"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="V7" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="V7" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>305</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -32581,67 +33352,67 @@
       </c>
     </row>
     <row r="9" spans="4:23">
-      <c r="D9" s="9"/>
+      <c r="D9" s="11"/>
       <c r="W9" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="Z11" s="26"/>
+      <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="3:22">
       <c r="C12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="V12" s="9" t="s">
+      <c r="D12" s="11"/>
+      <c r="V12" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="13" spans="4:25">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="Y13" s="27"/>
+      <c r="Y13" s="29"/>
     </row>
     <row r="15" spans="3:25">
       <c r="C15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="V15" s="9" t="s">
+      <c r="D15" s="11"/>
+      <c r="V15" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="Y15" s="8"/>
+      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="9"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="W18" s="25"/>
-      <c r="Z18" s="28"/>
+      <c r="W18" s="27"/>
+      <c r="Z18" s="30"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>318</v>
       </c>
     </row>
@@ -32654,12 +33425,12 @@
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="9"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="3:22">
       <c r="C24" s="1" t="s">
@@ -32683,8 +33454,8 @@
       <c r="C27" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="V27" s="9" t="s">
+      <c r="D27" s="11"/>
+      <c r="V27" s="11" t="s">
         <v>327</v>
       </c>
     </row>
@@ -32697,7 +33468,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>330</v>
       </c>
     </row>
@@ -32720,7 +33491,7 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="10"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="3:22">
       <c r="C34" s="1" t="s">
@@ -32731,7 +33502,7 @@
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="11" t="s">
         <v>337</v>
       </c>
     </row>
@@ -32883,7 +33654,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -33006,7 +33777,7 @@
       <c r="C3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="11" t="s">
         <v>389</v>
       </c>
     </row>
@@ -33014,17 +33785,17 @@
       <c r="D4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="11" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>393</v>
       </c>
     </row>
@@ -33032,7 +33803,7 @@
       <c r="C7" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="11" t="s">
         <v>395</v>
       </c>
     </row>
@@ -33040,7 +33811,7 @@
       <c r="D8" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="X8" s="16" t="s">
         <v>397</v>
       </c>
     </row>
@@ -33048,17 +33819,17 @@
       <c r="D9" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="11" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>401</v>
       </c>
     </row>
@@ -33068,7 +33839,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>403</v>
       </c>
     </row>
@@ -33076,7 +33847,7 @@
       <c r="C14" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="11" t="s">
         <v>405</v>
       </c>
     </row>
@@ -33089,12 +33860,12 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>409</v>
       </c>
     </row>
@@ -33115,12 +33886,12 @@
       <c r="C21" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>415</v>
       </c>
     </row>
@@ -33154,12 +33925,12 @@
       <c r="C30" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="W30" s="9" t="s">
+      <c r="W30" s="11" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>424</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9084" tabRatio="781" firstSheet="28" activeTab="37"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="29" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,14 @@
     <sheet name="20221022" sheetId="36" r:id="rId36"/>
     <sheet name="20221030" sheetId="37" r:id="rId37"/>
     <sheet name="20221106" sheetId="38" r:id="rId38"/>
+    <sheet name="20221120" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1896">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -22518,6 +22519,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Wait, Jimmy, it's </t>
     </r>
     <r>
@@ -22577,6 +22583,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">děng xià ，jimmy。wài miàn hěn </t>
     </r>
     <r>
@@ -22599,6 +22610,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>dài shàng</t>
     </r>
     <r>
@@ -22647,6 +22664,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: No, Wait, you will be too cold without </t>
     </r>
     <r>
@@ -22669,6 +22691,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bú ，děng yī xià 。bú dài </t>
     </r>
     <r>
@@ -22697,6 +22724,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Hold on, with that wind, you're going to </t>
     </r>
     <r>
@@ -22719,6 +22751,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>zài děng yī xià 。</t>
     </r>
     <r>
@@ -22741,6 +22778,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>a cold</t>
     </r>
     <r>
@@ -22771,6 +22814,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ huì </t>
     </r>
     <r>
@@ -22813,6 +22861,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:Okay, see you </t>
     </r>
     <r>
@@ -22835,6 +22888,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> hǎo de ，</t>
     </r>
     <r>
@@ -22860,6 +22918,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Oh and </t>
     </r>
     <r>
@@ -22882,6 +22945,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> hái yǒu ，dài shàng </t>
     </r>
     <r>
@@ -22928,6 +22996,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: i... i can't </t>
     </r>
     <r>
@@ -22950,6 +23023,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ 。。wǒ bú néng </t>
     </r>
     <r>
@@ -22978,6 +23056,510 @@
   </si>
   <si>
     <t>inside</t>
+  </si>
+  <si>
+    <t>Visiting A farm</t>
+  </si>
+  <si>
+    <t>A: 这里是不是很棒？我一直想有自己的农场，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: isn't this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>great</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">? i always wanted to own a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>farm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>出去住农村，种自己的食物。</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">live out in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, grow my own </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè lǐ shì bú shì hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ？wǒ yī zhí xiǎng yǒu zì jǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nóng chǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chū qù zhù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nóng cūn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zho4ng zì jǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shí wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 这里确实很漂亮，但是我不得不诚实的告诉你，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: This is very beatuiful, Though i have to confess, </t>
+  </si>
+  <si>
+    <t>我对农场的事情一窍不通。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> must / have to</t>
+  </si>
+  <si>
+    <t>i don't know the first thing about farming.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè lǐ què shí hěn piāo liàng ，dàn shì wǒ bú dé bú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chéng shí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de gào sù nǐ ，</t>
+    </r>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ duì nóng chǎng de shì qíng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yī qiào bú tōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>know nothing</t>
+  </si>
+  <si>
+    <t>A: 没关系，你别担心那个。</t>
+  </si>
+  <si>
+    <t>A: That's find, Don't worry about it.</t>
+  </si>
+  <si>
+    <t>méi guān xì ，nǐ bié dān xīn nà gè 。</t>
+  </si>
+  <si>
+    <t>B: 那是什么？</t>
+  </si>
+  <si>
+    <t>B:What was that?</t>
+  </si>
+  <si>
+    <t>nà shì shen me ？</t>
+  </si>
+  <si>
+    <t>A: 放轻松，那只是一头山羊。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Relax, it was just a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>goat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fàng qīng sōng ，nà zhī shì yī tóu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shān yáng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 那呢？</t>
+  </si>
+  <si>
+    <t>B:  And that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nà ne ？</t>
+  </si>
+  <si>
+    <t>A: 那是一些奶牛在吃草，等会儿我们可以给奶牛挤奶。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  It's just the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>grazing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> over there, We can </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nà shì yī xiē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nǎi niú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chī cǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>milk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> them later.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">děng huì ér wǒ men kě yǐ gěi nǎi niú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jǐ nǎi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 你知道吗？我认为在农村我无法经营好农场，我们还是</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  You know what? i don't know i can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> here</t>
+    </r>
+  </si>
+  <si>
+    <t>回城里去吧。</t>
+  </si>
+  <si>
+    <t>can not</t>
+  </si>
+  <si>
+    <t>in the countryside, i'm going back to the city.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ zhī dào ma ？wǒ rèn wéi zài nóng cūn wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wú fǎ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jīng yíng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hǎo nóng chǎng ，wǒ men hái shì huí chéng lǐ qù ba 。</t>
+    </r>
+  </si>
+  <si>
+    <t>back</t>
   </si>
 </sst>
 </file>
@@ -22990,7 +23572,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -22999,12 +23581,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -23029,6 +23605,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -23730,39 +24318,36 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -23774,98 +24359,101 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -23873,14 +24461,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -23893,10 +24481,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -23905,6 +24493,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -24329,7 +24918,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
@@ -24348,7 +24937,7 @@
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -24361,12 +24950,12 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
@@ -24385,7 +24974,7 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="W16" s="1" t="s">
         <v>17</v>
       </c>
@@ -24394,15 +24983,15 @@
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="26"/>
+      <c r="W17" s="27"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="14"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="1" t="s">
@@ -24416,23 +25005,23 @@
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="34" t="s">
+      <c r="X21" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="26"/>
+      <c r="W23" s="27"/>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>26</v>
       </c>
       <c r="W24" s="1" t="s">
@@ -24440,7 +25029,7 @@
       </c>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>28</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -24448,7 +25037,7 @@
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -24471,16 +25060,16 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="14"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="14"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="14"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -24500,7 +25089,7 @@
       <c r="Y34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD34" s="26"/>
+      <c r="AD34" s="27"/>
     </row>
     <row r="35" spans="23:25">
       <c r="W35" s="1" t="s">
@@ -24635,10 +25224,10 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="V18" s="3"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="1" t="s">
@@ -24696,7 +25285,7 @@
       <c r="C29" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="2" t="s">
         <v>474</v>
       </c>
     </row>
@@ -24761,7 +25350,7 @@
       <c r="Y3" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
@@ -24782,7 +25371,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="3:25">
       <c r="C9" s="1" t="s">
@@ -24814,7 +25403,7 @@
       <c r="C15" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Y15" s="12" t="s">
         <v>494</v>
       </c>
     </row>
@@ -24822,36 +25411,36 @@
       <c r="D16" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="Z16" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>497</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Z17" s="22" t="s">
+      <c r="Z17" s="23" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="Z18" s="12" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>503</v>
       </c>
     </row>
@@ -24859,7 +25448,7 @@
       <c r="C21" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Y21" s="12" t="s">
         <v>505</v>
       </c>
     </row>
@@ -24867,12 +25456,12 @@
       <c r="D22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="Z22" s="12" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>508</v>
       </c>
     </row>
@@ -24891,7 +25480,7 @@
       <c r="C25" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Y25" s="12" t="s">
         <v>513</v>
       </c>
     </row>
@@ -24899,7 +25488,7 @@
       <c r="D26" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="Z26" s="11" t="s">
+      <c r="Z26" s="12" t="s">
         <v>515</v>
       </c>
     </row>
@@ -24907,7 +25496,7 @@
       <c r="D27" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="Z27" s="12" t="s">
         <v>517</v>
       </c>
     </row>
@@ -24915,7 +25504,7 @@
       <c r="D28" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Z28" s="11" t="s">
+      <c r="Z28" s="12" t="s">
         <v>519</v>
       </c>
     </row>
@@ -24923,12 +25512,12 @@
       <c r="D29" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="Z29" s="11" t="s">
+      <c r="Z29" s="12" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="30" spans="4:26">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>522</v>
       </c>
       <c r="Z30" s="1" t="s">
@@ -24936,7 +25525,7 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>524</v>
       </c>
     </row>
@@ -24946,12 +25535,12 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="34" spans="4:18">
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>527</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -24962,7 +25551,7 @@
       <c r="C35" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Y35" s="11" t="s">
+      <c r="Y35" s="12" t="s">
         <v>530</v>
       </c>
     </row>
@@ -24970,17 +25559,17 @@
       <c r="D36" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Z36" s="11" t="s">
+      <c r="Z36" s="12" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>534</v>
       </c>
     </row>
@@ -25049,10 +25638,10 @@
       <c r="T3" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>544</v>
       </c>
     </row>
@@ -25075,7 +25664,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="1" t="s">
@@ -25094,7 +25683,7 @@
       <c r="C12" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="12" t="s">
         <v>553</v>
       </c>
     </row>
@@ -25107,7 +25696,7 @@
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>556</v>
       </c>
     </row>
@@ -25125,16 +25714,16 @@
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="Z17" s="22"/>
+      <c r="Z17" s="23"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>562</v>
       </c>
     </row>
@@ -25142,7 +25731,7 @@
       <c r="C19" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -25150,7 +25739,7 @@
       <c r="D20" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="U20" s="16" t="s">
+      <c r="U20" s="17" t="s">
         <v>566</v>
       </c>
     </row>
@@ -25158,17 +25747,17 @@
       <c r="D21" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="12" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>570</v>
       </c>
     </row>
@@ -25176,17 +25765,17 @@
       <c r="C24" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="12" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="26" spans="12:12">
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="17" t="s">
         <v>574</v>
       </c>
     </row>
@@ -25194,12 +25783,12 @@
       <c r="C27" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>577</v>
       </c>
     </row>
@@ -25262,13 +25851,13 @@
       <c r="U3" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="4:22">
       <c r="D4" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>586</v>
       </c>
     </row>
@@ -25281,35 +25870,35 @@
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="12" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="AA9" s="16"/>
+      <c r="AA9" s="17"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="12" t="s">
         <v>595</v>
       </c>
     </row>
@@ -25343,19 +25932,19 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="12" t="s">
         <v>605</v>
       </c>
     </row>
@@ -25363,7 +25952,7 @@
       <c r="D19" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="U19" s="16"/>
+      <c r="U19" s="17"/>
       <c r="V19" s="1" t="s">
         <v>607</v>
       </c>
@@ -25372,17 +25961,17 @@
       <c r="D20" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="12" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>611</v>
       </c>
     </row>
@@ -25390,8 +25979,8 @@
       <c r="C23" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="U23" s="11" t="s">
+      <c r="D23" s="12"/>
+      <c r="U23" s="12" t="s">
         <v>613</v>
       </c>
     </row>
@@ -25404,27 +25993,27 @@
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="V25" s="18" t="s">
+      <c r="V25" s="19" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="17"/>
       <c r="V26" s="1" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -25451,12 +26040,12 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>628</v>
       </c>
     </row>
@@ -25537,7 +26126,7 @@
       <c r="C3" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="12" t="s">
         <v>640</v>
       </c>
     </row>
@@ -25550,7 +26139,7 @@
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>643</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -25558,7 +26147,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>645</v>
       </c>
     </row>
@@ -25566,22 +26155,22 @@
       <c r="C7" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>648</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>650</v>
       </c>
     </row>
@@ -25597,17 +26186,17 @@
       <c r="D11" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Y11" s="12" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="13" spans="4:16">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>656</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -25623,16 +26212,16 @@
       </c>
     </row>
     <row r="15" spans="4:26">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Y15" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="Z15" s="22"/>
+      <c r="Z15" s="23"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>662</v>
       </c>
     </row>
@@ -25640,7 +26229,7 @@
       <c r="C17" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="X17" s="12" t="s">
         <v>664</v>
       </c>
     </row>
@@ -25648,21 +26237,21 @@
       <c r="D18" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="U18" s="16"/>
-      <c r="Y18" s="11" t="s">
+      <c r="U18" s="17"/>
+      <c r="Y18" s="12" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Y19" s="12" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>669</v>
       </c>
     </row>
@@ -25670,13 +26259,13 @@
       <c r="C21" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="X21" s="11" t="s">
+      <c r="D21" s="12"/>
+      <c r="X21" s="12" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="22" spans="4:32">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>672</v>
       </c>
       <c r="AF22" s="1" t="s">
@@ -25687,25 +26276,25 @@
       <c r="C24" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="X24" s="11" t="s">
+      <c r="V24" s="19"/>
+      <c r="X24" s="12" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="Y25" s="11" t="s">
+      <c r="L25" s="17"/>
+      <c r="Y25" s="12" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="3:24">
       <c r="C27" s="1" t="s">
@@ -25724,13 +26313,13 @@
       <c r="C30" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="X30" s="11" t="s">
+      <c r="D30" s="12"/>
+      <c r="X30" s="12" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>684</v>
       </c>
     </row>
@@ -25830,8 +26419,8 @@
       <c r="C6" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="W6" s="11" t="s">
+      <c r="D6" s="12"/>
+      <c r="W6" s="12" t="s">
         <v>701</v>
       </c>
     </row>
@@ -25839,19 +26428,19 @@
       <c r="D7" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>705</v>
       </c>
     </row>
@@ -25859,7 +26448,7 @@
       <c r="C10" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="12" t="s">
         <v>707</v>
       </c>
     </row>
@@ -25867,12 +26456,12 @@
       <c r="D11" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="X11" s="14" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="12" spans="4:24">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>710</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -25880,7 +26469,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>712</v>
       </c>
     </row>
@@ -25893,16 +26482,16 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="X16" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>717</v>
       </c>
     </row>
@@ -25910,7 +26499,7 @@
       <c r="C18" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="W18" s="12" t="s">
         <v>719</v>
       </c>
     </row>
@@ -25918,18 +26507,18 @@
       <c r="D19" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="X19" s="11" t="s">
+      <c r="U19" s="17"/>
+      <c r="X19" s="12" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>723</v>
       </c>
     </row>
@@ -25937,13 +26526,13 @@
       <c r="C22" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="W22" s="11" t="s">
+      <c r="D22" s="12"/>
+      <c r="W22" s="12" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>726</v>
       </c>
     </row>
@@ -25951,36 +26540,36 @@
       <c r="C25" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="V25" s="18"/>
+      <c r="V25" s="19"/>
       <c r="W25" s="1" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="26" spans="4:24">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="X26" s="11" t="s">
+      <c r="L26" s="17"/>
+      <c r="X26" s="12" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="27" spans="4:24">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="17"/>
       <c r="X27" s="1" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -25988,7 +26577,7 @@
       <c r="C30" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="W30" s="11" t="s">
+      <c r="W30" s="12" t="s">
         <v>736</v>
       </c>
     </row>
@@ -25998,12 +26587,12 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="11"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="1" t="s">
@@ -26017,7 +26606,7 @@
       </c>
     </row>
     <row r="37" ht="82.8" spans="3:10">
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>742</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -26080,8 +26669,8 @@
       <c r="C6" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="T6" s="11" t="s">
+      <c r="D6" s="12"/>
+      <c r="T6" s="12" t="s">
         <v>750</v>
       </c>
     </row>
@@ -26092,41 +26681,41 @@
       <c r="U7" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="12" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="X11" s="13"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="12" t="s">
         <v>760</v>
       </c>
     </row>
@@ -26134,12 +26723,12 @@
       <c r="D13" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="12" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>763</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -26147,30 +26736,30 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11"/>
-      <c r="Z16" s="22"/>
+      <c r="D16" s="12"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="T17" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="T17" s="12" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="16"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
@@ -26181,12 +26770,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="J22" s="1" t="s">
         <v>772</v>
       </c>
@@ -26195,13 +26784,13 @@
       <c r="C23" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="T23" s="11" t="s">
+      <c r="D23" s="12"/>
+      <c r="T23" s="12" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>775</v>
       </c>
     </row>
@@ -26209,26 +26798,26 @@
       <c r="M25" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="V25" s="18"/>
+      <c r="V25" s="19"/>
     </row>
     <row r="26" spans="3:20">
       <c r="C26" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="L26" s="16"/>
-      <c r="T26" s="11" t="s">
+      <c r="D26" s="12"/>
+      <c r="L26" s="17"/>
+      <c r="T26" s="12" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="D28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="N28" s="1" t="s">
         <v>780</v>
       </c>
@@ -26237,7 +26826,7 @@
       <c r="C29" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="T29" s="1" t="s">
         <v>782</v>
       </c>
@@ -26251,13 +26840,13 @@
       <c r="C32" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="T32" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>786</v>
       </c>
     </row>
@@ -26273,7 +26862,7 @@
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="25"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="1" t="s">
@@ -26297,13 +26886,13 @@
       </c>
     </row>
     <row r="43" ht="124.2" spans="3:10">
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>795</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="26" t="s">
         <v>797</v>
       </c>
     </row>
@@ -26311,7 +26900,7 @@
       <c r="G44" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="15" t="s">
         <v>799</v>
       </c>
     </row>
@@ -26353,7 +26942,7 @@
       <c r="D2" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="11" t="s">
         <v>802</v>
       </c>
     </row>
@@ -26361,7 +26950,7 @@
       <c r="C3" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="12" t="s">
         <v>804</v>
       </c>
     </row>
@@ -26369,7 +26958,7 @@
       <c r="D4" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="12" t="s">
         <v>806</v>
       </c>
     </row>
@@ -26377,32 +26966,32 @@
       <c r="D5" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="12" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="12" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>813</v>
       </c>
     </row>
@@ -26410,8 +26999,8 @@
       <c r="C10" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="X10" s="11" t="s">
+      <c r="D10" s="11"/>
+      <c r="X10" s="12" t="s">
         <v>815</v>
       </c>
     </row>
@@ -26419,29 +27008,29 @@
       <c r="D11" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="11" t="s">
+      <c r="X11" s="14"/>
+      <c r="Y11" s="12" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>820</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="14" t="s">
         <v>822</v>
       </c>
     </row>
@@ -26449,22 +27038,22 @@
       <c r="C15" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="X15" s="11" t="s">
+      <c r="D15" s="12"/>
+      <c r="X15" s="12" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>825</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>827</v>
       </c>
     </row>
@@ -26474,7 +27063,7 @@
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="16"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="1" t="s">
@@ -26485,23 +27074,23 @@
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Y21" s="12" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>835</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -26523,25 +27112,25 @@
       <c r="D25" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="V25" s="18"/>
+      <c r="V25" s="19"/>
       <c r="Y25" s="1" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>843</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>844</v>
       </c>
     </row>
@@ -26549,13 +27138,13 @@
       <c r="C29" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="Y29" s="11" t="s">
+      <c r="D29" s="12"/>
+      <c r="Y29" s="12" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -26563,21 +27152,21 @@
       <c r="C32" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="X32" s="11" t="s">
+      <c r="D32" s="12"/>
+      <c r="X32" s="12" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="33" spans="4:25">
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>850</v>
       </c>
-      <c r="Y33" s="11" t="s">
+      <c r="Y33" s="12" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>852</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -26593,7 +27182,7 @@
       </c>
     </row>
     <row r="37" spans="3:25">
-      <c r="C37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="1" t="s">
         <v>856</v>
       </c>
@@ -26602,12 +27191,12 @@
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="39" spans="9:9">
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="27" t="s">
         <v>832</v>
       </c>
     </row>
@@ -26639,17 +27228,17 @@
       <c r="A43" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="J43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="4:10">
       <c r="D44" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="J44" s="14"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="16:16">
       <c r="P45" s="1" t="s">
@@ -26754,21 +27343,21 @@
       <c r="D2" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="12" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>889</v>
       </c>
     </row>
@@ -26776,7 +27365,7 @@
       <c r="A5" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>891</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -26790,28 +27379,28 @@
       <c r="C6" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="T6" s="1" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="12" t="s">
         <v>897</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>898</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>899</v>
       </c>
     </row>
@@ -26819,62 +27408,62 @@
       <c r="C10" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="T10" s="11" t="s">
+      <c r="D10" s="11"/>
+      <c r="T10" s="12" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>902</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="12" t="s">
         <v>903</v>
       </c>
-      <c r="X11" s="13"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="13"/>
+      <c r="D14" s="24"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="14"/>
       <c r="T14" s="1" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="L16" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="T17" s="11" t="s">
+      <c r="D17" s="11"/>
+      <c r="T17" s="12" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>911</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -26882,36 +27471,36 @@
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="U19" s="16"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="12" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>917</v>
       </c>
-      <c r="S21" s="10"/>
+      <c r="S21" s="11"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="T23" s="1" t="s">
         <v>919</v>
       </c>
@@ -26920,7 +27509,7 @@
       <c r="D24" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="U24" s="12" t="s">
         <v>921</v>
       </c>
     </row>
@@ -26928,13 +27517,13 @@
       <c r="D25" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="V25" s="18"/>
+      <c r="V25" s="19"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -26971,7 +27560,7 @@
       <c r="C2" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="3:18">
       <c r="C3" s="1" t="s">
@@ -26985,41 +27574,41 @@
       <c r="D4" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>929</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="R7" s="11" t="s">
+      <c r="D7" s="12"/>
+      <c r="R7" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="AA8" s="16"/>
+      <c r="D8" s="12"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>934</v>
       </c>
     </row>
@@ -27027,39 +27616,39 @@
       <c r="C10" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="R10" s="1" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>937</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="11" t="s">
         <v>938</v>
       </c>
-      <c r="X11" s="13"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="3:18">
       <c r="C14" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="13"/>
+      <c r="D14" s="24"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="1" t="s">
         <v>942</v>
       </c>
@@ -27068,23 +27657,23 @@
       <c r="C15" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11"/>
-      <c r="Z16" s="22"/>
+      <c r="D16" s="12"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="R17" s="11" t="s">
+      <c r="D17" s="11"/>
+      <c r="R17" s="12" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>946</v>
       </c>
     </row>
@@ -27092,43 +27681,43 @@
       <c r="C19" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="12" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>949</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="11" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>952</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="12" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="24" spans="3:32">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="V24" s="18"/>
+      <c r="V24" s="19"/>
       <c r="AD24" s="1" t="s">
         <v>956</v>
       </c>
@@ -27137,8 +27726,8 @@
       </c>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="11"/>
-      <c r="L25" s="16"/>
+      <c r="D25" s="12"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -27157,7 +27746,7 @@
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>962</v>
       </c>
     </row>
@@ -27199,7 +27788,7 @@
       <c r="D35" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="1" t="s">
@@ -27255,10 +27844,10 @@
       </c>
     </row>
     <row r="5" spans="4:19">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -27266,12 +27855,12 @@
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -27295,12 +27884,12 @@
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="4:19">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -27311,12 +27900,12 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -27324,12 +27913,12 @@
       <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -27478,7 +28067,7 @@
       <c r="C2" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -27492,12 +28081,12 @@
       <c r="D4" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>980</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -27505,77 +28094,77 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="3:27">
       <c r="C8" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="S8" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="X11" s="13"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="3:19">
       <c r="C14" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="13"/>
+      <c r="D14" s="24"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="14"/>
       <c r="S14" s="1" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11"/>
-      <c r="Z16" s="22"/>
+      <c r="D16" s="12"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="S17" s="11" t="s">
+      <c r="D17" s="11"/>
+      <c r="S17" s="12" t="s">
         <v>994</v>
       </c>
     </row>
@@ -27583,29 +28172,29 @@
       <c r="D18" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="12" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>998</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="S20" s="10"/>
+      <c r="S20" s="11"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>1000</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="S22" s="1" t="s">
         <v>1001</v>
       </c>
@@ -27614,22 +28203,22 @@
       <c r="D23" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="T23" s="10" t="s">
+      <c r="T23" s="11" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1004</v>
       </c>
-      <c r="V24" s="18"/>
+      <c r="V24" s="19"/>
     </row>
     <row r="25" spans="3:19">
       <c r="C25" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="L25" s="16"/>
+      <c r="D25" s="12"/>
+      <c r="L25" s="17"/>
       <c r="S25" s="1" t="s">
         <v>1006</v>
       </c>
@@ -27648,7 +28237,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1" t="s">
         <v>1010</v>
       </c>
@@ -27683,7 +28272,7 @@
       <c r="C35" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
       <c r="S35" s="1" t="s">
         <v>1018</v>
       </c>
@@ -27819,7 +28408,7 @@
       <c r="C2" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="4" spans="3:18">
       <c r="C4" s="1" t="s">
@@ -27830,39 +28419,39 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="R7" s="11" t="s">
+      <c r="D7" s="13"/>
+      <c r="R7" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>1049</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -27873,62 +28462,62 @@
       <c r="R11" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="X11" s="13"/>
+      <c r="S11" s="12"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>1055</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="16" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="13" spans="4:19">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="S13" s="18" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>1059</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="13"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>1061</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="R17" s="11" t="s">
+      <c r="D17" s="11"/>
+      <c r="R17" s="12" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="12" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -27936,39 +28525,39 @@
       <c r="C20" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="R20" s="11" t="s">
+      <c r="D20" s="12"/>
+      <c r="R20" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="S20" s="10"/>
+      <c r="S20" s="11"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="12" t="s">
         <v>1071</v>
       </c>
-      <c r="T23" s="10"/>
+      <c r="T23" s="11"/>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1072</v>
       </c>
-      <c r="V24" s="18"/>
+      <c r="V24" s="19"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="11"/>
-      <c r="L25" s="16"/>
+      <c r="D25" s="12"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -27987,7 +28576,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1" t="s">
         <v>1077</v>
       </c>
@@ -28022,7 +28611,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="S34" s="4" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -28030,7 +28619,7 @@
       <c r="D35" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="3:18">
       <c r="C36" s="1" t="s">
@@ -28080,7 +28669,7 @@
       <c r="C2" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
@@ -28091,38 +28680,38 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="R7" s="11"/>
-      <c r="X7" s="11" t="s">
+      <c r="D7" s="13"/>
+      <c r="R7" s="12"/>
+      <c r="X7" s="12" t="s">
         <v>1095</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>1096</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="X10" s="1" t="s">
         <v>1098</v>
       </c>
@@ -28131,77 +28720,77 @@
       <c r="D11" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="X11" s="13"/>
+      <c r="S11" s="12"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="11"/>
-      <c r="S12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="S13" s="17"/>
+      <c r="D13" s="12"/>
+      <c r="S13" s="18"/>
       <c r="X13" s="1" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>1102</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="13"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="14"/>
       <c r="Y14" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="3:26">
       <c r="C16" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="X16" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="4:18">
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>1106</v>
       </c>
-      <c r="R17" s="11"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" spans="3:24">
       <c r="C19" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="X19" s="11" t="s">
+      <c r="D19" s="12"/>
+      <c r="X19" s="12" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="20" spans="4:25">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>1109</v>
       </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="10"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="11"/>
       <c r="Y20" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="21" spans="4:16">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>1111</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -28209,36 +28798,36 @@
       </c>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>1113</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="X22" s="11" t="s">
+      <c r="D22" s="11"/>
+      <c r="X22" s="12" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>1115</v>
       </c>
-      <c r="R23" s="11"/>
-      <c r="T23" s="10"/>
-      <c r="Y23" s="15" t="s">
+      <c r="R23" s="12"/>
+      <c r="T23" s="11"/>
+      <c r="Y23" s="16" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1117</v>
       </c>
-      <c r="V24" s="18"/>
+      <c r="V24" s="19"/>
     </row>
     <row r="25" spans="3:24">
       <c r="C25" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="L25" s="16"/>
+      <c r="D25" s="12"/>
+      <c r="L25" s="17"/>
       <c r="X25" s="1" t="s">
         <v>1119</v>
       </c>
@@ -28249,7 +28838,7 @@
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>1121</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -28289,7 +28878,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="5"/>
+      <c r="S34" s="4"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -28298,7 +28887,7 @@
       <c r="D35" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
       <c r="Y35" s="1" t="s">
         <v>1133</v>
       </c>
@@ -28357,7 +28946,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -28419,7 +29008,7 @@
       <c r="D2" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
@@ -28435,79 +29024,79 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="U6" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>1160</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="AB7" s="16"/>
+      <c r="S7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="AB7" s="17"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="11"/>
-      <c r="AB8" s="16"/>
+      <c r="D8" s="12"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="U9" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="11"/>
-      <c r="Y11" s="13"/>
+      <c r="T11" s="12"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="T12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>1166</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="18"/>
       <c r="V13" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>1168</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
       <c r="V14" s="1" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -28515,77 +29104,77 @@
       <c r="C16" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="U16" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="AA16" s="22"/>
+      <c r="AA16" s="23"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>1173</v>
       </c>
-      <c r="S17" s="11"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="3:25">
       <c r="C19" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="U19" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="Y19" s="11"/>
+      <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="10"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="11"/>
       <c r="V20" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="D21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="Q21" s="1" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>1179</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="U22" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="Y22" s="11"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>1181</v>
       </c>
-      <c r="S23" s="11"/>
-      <c r="U23" s="10"/>
-      <c r="Z23" s="15"/>
+      <c r="S23" s="12"/>
+      <c r="U23" s="11"/>
+      <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>1182</v>
       </c>
-      <c r="W24" s="18"/>
+      <c r="W24" s="19"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>1183</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
@@ -28604,7 +29193,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1" t="s">
         <v>1188</v>
       </c>
@@ -28648,7 +29237,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="5"/>
+      <c r="T34" s="4"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -28657,7 +29246,7 @@
       <c r="D35" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
       <c r="V35" s="1" t="s">
         <v>1201</v>
       </c>
@@ -28740,7 +29329,7 @@
       <c r="D2" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -28756,154 +29345,154 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:19">
       <c r="C6" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="S6" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>1218</v>
       </c>
-      <c r="S7" s="11"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="Y7" s="11"/>
-      <c r="AB7" s="16"/>
+      <c r="Y7" s="12"/>
+      <c r="AB7" s="17"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>1220</v>
       </c>
-      <c r="AB8" s="16"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="3:19">
       <c r="C9" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="S9" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="11"/>
-      <c r="Y11" s="13"/>
+      <c r="T11" s="12"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="S12" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="T12" s="15"/>
+      <c r="T12" s="16"/>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>1226</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="4:18">
-      <c r="D14" s="11"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="3:19">
       <c r="C15" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="S15" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>1229</v>
       </c>
-      <c r="AA16" s="22"/>
+      <c r="AA16" s="23"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="14"/>
-      <c r="S17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="S18" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="T18" s="11"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>1232</v>
       </c>
-      <c r="Y19" s="11"/>
+      <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="11"/>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="S21" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="11"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="15" t="s">
         <v>1235</v>
       </c>
-      <c r="Y22" s="11"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="U23" s="10"/>
-      <c r="Z23" s="15"/>
+      <c r="D23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="U23" s="11"/>
+      <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
       <c r="S24" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="W24" s="18"/>
+      <c r="W24" s="19"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>1238</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>1239</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -28919,10 +29508,10 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="5"/>
+      <c r="T34" s="4"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -28943,278 +29532,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="7" width="8.88888888888889" style="19"/>
-    <col min="8" max="8" width="34.4444444444444" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="19"/>
+    <col min="1" max="7" width="8.88888888888889" style="20"/>
+    <col min="8" max="8" width="34.4444444444444" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>1244</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>1247</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="20" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>1249</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="20" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>1251</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="20" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>1253</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="22" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>1255</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="20" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>1258</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="20" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>1261</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="20" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>1263</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="20" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>1266</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="20" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>1268</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="20" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="20" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>1272</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="20" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>1274</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="20" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>1276</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="20" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>1278</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="20" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>1282</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="20" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>1285</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="20" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>1287</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="20" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>1289</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="20" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>1293</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="20" t="s">
         <v>1294</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="20" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="20" t="s">
         <v>1296</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="20" t="s">
         <v>1297</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="20" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="20" t="s">
         <v>1299</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="20" t="s">
         <v>1300</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="20" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="20" t="s">
         <v>1301</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="20" t="s">
         <v>1302</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="20" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="20" t="s">
         <v>1304</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="20" t="s">
         <v>1305</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="20" t="s">
         <v>1306</v>
       </c>
     </row>
@@ -29251,7 +29840,7 @@
       <c r="C2" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="1" t="s">
@@ -29273,18 +29862,18 @@
       <c r="C5" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="AC5" s="11"/>
+      <c r="AC5" s="12"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:29">
       <c r="C6" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="AC6" s="12"/>
+      <c r="AC6" s="13"/>
     </row>
     <row r="7" spans="25:44">
-      <c r="Y7" s="11"/>
-      <c r="AC7" s="12"/>
-      <c r="AR7" s="11"/>
+      <c r="Y7" s="12"/>
+      <c r="AC7" s="13"/>
+      <c r="AR7" s="12"/>
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="1" t="s">
@@ -29293,7 +29882,7 @@
       <c r="AA8" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="AC8" s="11"/>
+      <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="3:46">
       <c r="C9" s="1" t="s">
@@ -29302,7 +29891,7 @@
       <c r="AB9" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="AC9" s="11"/>
+      <c r="AC9" s="12"/>
       <c r="AT9" s="1" t="s">
         <v>1318</v>
       </c>
@@ -29311,22 +29900,22 @@
       <c r="C10" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="AC10" s="11"/>
+      <c r="AC10" s="12"/>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="Y11" s="13"/>
-      <c r="AS11" s="11"/>
+      <c r="Y11" s="14"/>
+      <c r="AS11" s="12"/>
     </row>
     <row r="12" spans="29:45">
-      <c r="AC12" s="11"/>
-      <c r="AS12" s="15"/>
+      <c r="AC12" s="12"/>
+      <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="29:45">
-      <c r="AC13" s="11"/>
-      <c r="AS13" s="17"/>
+      <c r="AC13" s="12"/>
+      <c r="AS13" s="18"/>
     </row>
     <row r="14" spans="2:43">
       <c r="B14" s="1" t="s">
@@ -29335,23 +29924,23 @@
       <c r="AA14" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="AC14" s="11"/>
-      <c r="AL14" s="10"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
+      <c r="AC14" s="12"/>
+      <c r="AL14" s="11"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
     </row>
     <row r="15" spans="3:29">
       <c r="C15" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="AC15" s="12"/>
+      <c r="AC15" s="13"/>
     </row>
     <row r="16" spans="29:29">
-      <c r="AC16" s="11"/>
+      <c r="AC16" s="12"/>
     </row>
     <row r="17" spans="29:44">
-      <c r="AC17" s="14"/>
-      <c r="AR17" s="11"/>
+      <c r="AC17" s="15"/>
+      <c r="AR17" s="12"/>
     </row>
     <row r="18" spans="2:45">
       <c r="B18" s="1" t="s">
@@ -29360,18 +29949,18 @@
       <c r="AA18" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="AC18" s="11"/>
-      <c r="AS18" s="11"/>
+      <c r="AC18" s="12"/>
+      <c r="AS18" s="12"/>
     </row>
     <row r="19" spans="3:29">
       <c r="C19" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="Y19" s="11"/>
+      <c r="Y19" s="12"/>
       <c r="AB19" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="AC19" s="11"/>
+      <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="3:45">
       <c r="C20" s="1" t="s">
@@ -29380,26 +29969,26 @@
       <c r="AB20" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="AC20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="10"/>
+      <c r="AC20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="11"/>
     </row>
     <row r="21" spans="3:29">
       <c r="C21" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="AC21" s="11"/>
+      <c r="AC21" s="12"/>
     </row>
     <row r="22" spans="25:29">
-      <c r="Y22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="14"/>
+      <c r="Y22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="15"/>
     </row>
     <row r="23" spans="26:46">
-      <c r="Z23" s="15"/>
-      <c r="AC23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AT23" s="10"/>
+      <c r="Z23" s="16"/>
+      <c r="AC23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AT23" s="11"/>
     </row>
     <row r="24" spans="2:48">
       <c r="B24" s="1" t="s">
@@ -29408,21 +29997,21 @@
       <c r="AA24" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="AC24" s="12"/>
-      <c r="AV24" s="18"/>
+      <c r="AC24" s="13"/>
+      <c r="AV24" s="19"/>
     </row>
     <row r="25" spans="3:37">
       <c r="C25" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="AC25" s="11"/>
-      <c r="AK25" s="16"/>
+      <c r="AC25" s="12"/>
+      <c r="AK25" s="17"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="AB28" s="14" t="s">
+      <c r="AB28" s="15" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -29459,10 +30048,10 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="5"/>
+      <c r="AS34" s="4"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="1" t="s">
@@ -29544,7 +30133,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -29647,7 +30236,7 @@
       <c r="D24" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="2" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -29681,7 +30270,7 @@
       <c r="D29" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="2" t="s">
         <v>999</v>
       </c>
     </row>
@@ -29710,7 +30299,7 @@
       <c r="D34" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="Y34" s="8" t="s">
+      <c r="Y34" s="9" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -29739,7 +30328,7 @@
       <c r="D39" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="Y39" s="3" t="s">
+      <c r="Y39" s="2" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -29795,7 +30384,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -29840,7 +30429,7 @@
       <c r="D12" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="5" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -29897,10 +30486,10 @@
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="Y23" s="3"/>
+      <c r="Y23" s="2"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
@@ -29919,7 +30508,7 @@
       <c r="C28" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="2"/>
       <c r="V28" s="1" t="s">
         <v>1435</v>
       </c>
@@ -29943,7 +30532,7 @@
       </c>
     </row>
     <row r="33" spans="25:25">
-      <c r="Y33" s="8"/>
+      <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="3:22">
       <c r="C34" s="1" t="s">
@@ -29970,7 +30559,7 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="Y38" s="3"/>
+      <c r="Y38" s="2"/>
     </row>
     <row r="40" spans="3:22">
       <c r="C40" s="1" t="s">
@@ -30020,13 +30609,13 @@
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="7">
+      <c r="D48" s="8">
         <v>1.412135</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="1" t="s">
@@ -30202,7 +30791,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>366</v>
       </c>
     </row>
@@ -30330,11 +30919,11 @@
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="V5" s="10" t="s">
+      <c r="S5" s="11"/>
+      <c r="V5" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -30342,7 +30931,7 @@
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -30350,7 +30939,7 @@
       <c r="D8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -30358,27 +30947,27 @@
       <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V9" s="29" t="s">
+      <c r="V9" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>108</v>
       </c>
     </row>
@@ -30391,7 +30980,7 @@
       </c>
     </row>
     <row r="15" spans="4:19">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -30399,7 +30988,7 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -30420,12 +31009,12 @@
       <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -30438,7 +31027,7 @@
       </c>
     </row>
     <row r="25" spans="4:27">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>122</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -30561,7 +31150,7 @@
       <c r="F43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="15" t="s">
         <v>155</v>
       </c>
     </row>
@@ -30702,7 +31291,7 @@
       <c r="Y18" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -30776,7 +31365,7 @@
       <c r="C29" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="2" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -30860,7 +31449,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -30936,7 +31525,7 @@
       <c r="C18" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -30978,7 +31567,7 @@
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -30994,7 +31583,7 @@
       <c r="C28" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="2" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -31002,7 +31591,7 @@
       <c r="C29" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="Y29" s="3"/>
+      <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
@@ -31168,7 +31757,7 @@
       <c r="O18" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
@@ -31226,7 +31815,7 @@
       <c r="B28" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
       <c r="W28" s="1" t="s">
         <v>1597</v>
       </c>
@@ -31237,10 +31826,10 @@
       </c>
     </row>
     <row r="30" spans="19:19">
-      <c r="S30" s="3"/>
+      <c r="S30" s="2"/>
     </row>
     <row r="31" spans="25:25">
-      <c r="Y31" s="3"/>
+      <c r="Y31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31360,10 +31949,10 @@
       <c r="Y18" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -31418,7 +32007,7 @@
       <c r="C27" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="Y27" s="2" t="s">
         <v>1633</v>
       </c>
     </row>
@@ -31447,13 +32036,13 @@
       <c r="C31" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="2"/>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="S32" s="3"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
@@ -31462,7 +32051,7 @@
       <c r="X33" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="Y33" s="3"/>
+      <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
@@ -31584,7 +32173,7 @@
       <c r="C13" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="W13" s="4" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -31594,7 +32183,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -31612,13 +32201,13 @@
       </c>
     </row>
     <row r="18" spans="27:27">
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
       <c r="V19" s="1" t="s">
         <v>1671</v>
       </c>
@@ -31669,7 +32258,7 @@
       <c r="C27" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="Y27" s="3"/>
+      <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="1" t="s">
@@ -31691,7 +32280,7 @@
       <c r="B31" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="2"/>
       <c r="V31" s="1" t="s">
         <v>1688</v>
       </c>
@@ -31700,10 +32289,10 @@
       <c r="C32" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="S32" s="3"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="25:25">
-      <c r="Y33" s="3"/>
+      <c r="Y33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31804,7 +32393,7 @@
       <c r="C13" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="W13" s="5"/>
+      <c r="W13" s="4"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -31815,7 +32404,7 @@
       <c r="B15" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="W15" s="1" t="s">
         <v>1708</v>
       </c>
@@ -31837,13 +32426,13 @@
       <c r="C18" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
       <c r="W19" s="1" t="s">
         <v>1714</v>
       </c>
@@ -31899,16 +32488,16 @@
       <c r="C28" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="Y28" s="3"/>
+      <c r="Y28" s="2"/>
     </row>
     <row r="32" spans="19:19">
-      <c r="S32" s="3"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="19:19">
-      <c r="S33" s="3"/>
+      <c r="S33" s="2"/>
     </row>
     <row r="34" spans="25:25">
-      <c r="Y34" s="3"/>
+      <c r="Y34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -32001,7 +32590,7 @@
       <c r="T13" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="W13" s="5"/>
+      <c r="W13" s="4"/>
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="1" t="s">
@@ -32012,12 +32601,12 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>1743</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>1744</v>
       </c>
     </row>
@@ -32036,7 +32625,7 @@
       <c r="U18" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -32100,7 +32689,7 @@
       <c r="T28" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="Y28" s="3"/>
+      <c r="Y28" s="2"/>
     </row>
     <row r="29" spans="3:21">
       <c r="C29" s="1" t="s">
@@ -32116,7 +32705,7 @@
       </c>
     </row>
     <row r="32" spans="19:19">
-      <c r="S32" s="3"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="1" t="s">
@@ -32128,10 +32717,10 @@
       <c r="I33" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="S33" s="3"/>
+      <c r="S33" s="2"/>
     </row>
     <row r="34" spans="25:25">
-      <c r="Y34" s="3"/>
+      <c r="Y34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -32216,13 +32805,13 @@
       <c r="C11" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="W11" s="5"/>
+      <c r="W11" s="4"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
       <c r="T13" s="1" t="s">
         <v>1782</v>
       </c>
@@ -32239,13 +32828,13 @@
       <c r="T16" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="4" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -32301,7 +32890,7 @@
       <c r="U26" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="Y26" s="3"/>
+      <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
@@ -32317,7 +32906,7 @@
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -32325,7 +32914,7 @@
       <c r="C31" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="2"/>
     </row>
     <row r="32" spans="2:25">
       <c r="B32" s="1" t="s">
@@ -32337,7 +32926,7 @@
       <c r="E32" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="Y32" s="3"/>
+      <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
@@ -32362,7 +32951,7 @@
   <sheetPr/>
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -32420,7 +33009,7 @@
       </c>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>1820</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -32445,13 +33034,13 @@
       <c r="C11" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="W11" s="5"/>
+      <c r="W11" s="4"/>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="1" t="s">
         <v>1826</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
       <c r="V13" s="1" t="s">
         <v>1827</v>
       </c>
@@ -32468,16 +33057,16 @@
       <c r="V16" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="U17" s="5"/>
+      <c r="U17" s="4"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>1830</v>
       </c>
@@ -32489,7 +33078,7 @@
       <c r="C20" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="4" t="s">
         <v>1833</v>
       </c>
     </row>
@@ -32577,6 +33166,229 @@
       </c>
       <c r="H37" s="1" t="s">
         <v>1853</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AD30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
+      <c r="C4" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24">
+      <c r="C8" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30">
+      <c r="C9" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20">
+      <c r="C10" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="W14" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="16" spans="27:27">
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="U17" s="4"/>
+      <c r="W17" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="W26" s="1" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="C27" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="2" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="30" spans="18:18">
+      <c r="R30" s="1" t="s">
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
@@ -32617,7 +33429,7 @@
       <c r="C4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -32625,19 +33437,19 @@
       <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="10"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>165</v>
       </c>
     </row>
@@ -32645,7 +33457,7 @@
       <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -32653,18 +33465,18 @@
       <c r="D9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Y9" s="29"/>
+      <c r="Y9" s="30"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>171</v>
       </c>
     </row>
@@ -32672,13 +33484,13 @@
       <c r="C12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="U12" s="11" t="s">
+      <c r="D12" s="12"/>
+      <c r="U12" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="32" t="s">
         <v>174</v>
       </c>
     </row>
@@ -32691,7 +33503,7 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -32741,7 +33553,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>189</v>
       </c>
     </row>
@@ -32824,8 +33636,8 @@
       <c r="S5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
@@ -32833,7 +33645,7 @@
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="3:19">
       <c r="C8" s="1" t="s">
@@ -32847,35 +33659,35 @@
       <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y9" s="29"/>
+      <c r="Y9" s="30"/>
     </row>
     <row r="11" spans="3:19">
       <c r="C11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="S11" s="11" t="s">
+      <c r="D11" s="12"/>
+      <c r="S11" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="31"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="4:20">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>211</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -32888,7 +33700,7 @@
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>214</v>
       </c>
     </row>
@@ -32896,7 +33708,7 @@
       <c r="C18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="12" t="s">
         <v>216</v>
       </c>
     </row>
@@ -32904,17 +33716,17 @@
       <c r="D19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -32922,12 +33734,12 @@
       <c r="C22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>223</v>
       </c>
     </row>
@@ -32943,7 +33755,7 @@
       <c r="D26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -32953,7 +33765,7 @@
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="27" t="s">
         <v>229</v>
       </c>
     </row>
@@ -32966,7 +33778,7 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -33088,48 +33900,48 @@
       <c r="D5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V5" s="10"/>
+      <c r="V5" s="11"/>
       <c r="X5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="4:24">
       <c r="D6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="12" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="4:24">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="12" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="4:26">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="Z10" s="28" t="s">
+      <c r="Z10" s="29" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>262</v>
       </c>
     </row>
@@ -33137,7 +33949,7 @@
       <c r="L12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Y12" s="29"/>
+      <c r="Y12" s="30"/>
       <c r="AL12" s="1" t="s">
         <v>264</v>
       </c>
@@ -33146,44 +33958,44 @@
       <c r="C13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="X13" s="12" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="Y14" s="10" t="s">
+      <c r="Y14" s="11" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="4:25">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Y15" s="12" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="W17" s="27" t="s">
+      <c r="W17" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="Z17" s="30" t="s">
+      <c r="Z17" s="31" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>275</v>
       </c>
     </row>
@@ -33191,7 +34003,7 @@
       <c r="C19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="X19" s="12" t="s">
         <v>277</v>
       </c>
     </row>
@@ -33199,17 +34011,17 @@
       <c r="D20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Y20" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>281</v>
       </c>
     </row>
@@ -33217,20 +34029,20 @@
       <c r="C24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="X24" s="12" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Y25" s="12" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="26" spans="4:25">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>286</v>
       </c>
       <c r="Y26" s="1" t="s">
@@ -33259,7 +34071,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>293</v>
       </c>
     </row>
@@ -33285,7 +34097,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>299</v>
       </c>
     </row>
@@ -33320,31 +34132,31 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="V7" s="11" t="s">
+      <c r="D7" s="12"/>
+      <c r="V7" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>305</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -33352,67 +34164,67 @@
       </c>
     </row>
     <row r="9" spans="4:23">
-      <c r="D9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="W9" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="Z11" s="28"/>
+      <c r="Z11" s="29"/>
     </row>
     <row r="12" spans="3:22">
       <c r="C12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="V12" s="11" t="s">
+      <c r="D12" s="12"/>
+      <c r="V12" s="12" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="13" spans="4:25">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="Y13" s="29"/>
+      <c r="Y13" s="30"/>
     </row>
     <row r="15" spans="3:25">
       <c r="C15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="V15" s="11" t="s">
+      <c r="D15" s="12"/>
+      <c r="V15" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="11"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="W18" s="27"/>
-      <c r="Z18" s="30"/>
+      <c r="W18" s="28"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>318</v>
       </c>
     </row>
@@ -33425,12 +34237,12 @@
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="3:22">
       <c r="C24" s="1" t="s">
@@ -33454,8 +34266,8 @@
       <c r="C27" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="V27" s="11" t="s">
+      <c r="D27" s="12"/>
+      <c r="V27" s="12" t="s">
         <v>327</v>
       </c>
     </row>
@@ -33468,7 +34280,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>330</v>
       </c>
     </row>
@@ -33491,7 +34303,7 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="3:22">
       <c r="C34" s="1" t="s">
@@ -33502,7 +34314,7 @@
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>337</v>
       </c>
     </row>
@@ -33654,7 +34466,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>366</v>
       </c>
     </row>
@@ -33777,7 +34589,7 @@
       <c r="C3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="12" t="s">
         <v>389</v>
       </c>
     </row>
@@ -33785,17 +34597,17 @@
       <c r="D4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="12" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>393</v>
       </c>
     </row>
@@ -33803,7 +34615,7 @@
       <c r="C7" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="12" t="s">
         <v>395</v>
       </c>
     </row>
@@ -33811,7 +34623,7 @@
       <c r="D8" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="17" t="s">
         <v>397</v>
       </c>
     </row>
@@ -33819,17 +34631,17 @@
       <c r="D9" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="12" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>401</v>
       </c>
     </row>
@@ -33839,7 +34651,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>403</v>
       </c>
     </row>
@@ -33847,7 +34659,7 @@
       <c r="C14" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="W14" s="12" t="s">
         <v>405</v>
       </c>
     </row>
@@ -33860,12 +34672,12 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>409</v>
       </c>
     </row>
@@ -33886,12 +34698,12 @@
       <c r="C21" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="W21" s="12" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>415</v>
       </c>
     </row>
@@ -33925,12 +34737,12 @@
       <c r="C30" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="W30" s="11" t="s">
+      <c r="W30" s="12" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>424</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="29" activeTab="38"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="30" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,14 @@
     <sheet name="20221030" sheetId="37" r:id="rId37"/>
     <sheet name="20221106" sheetId="38" r:id="rId38"/>
     <sheet name="20221120" sheetId="39" r:id="rId39"/>
+    <sheet name="20221127" sheetId="40" r:id="rId40"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1950">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -23065,6 +23066,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: isn't this </t>
     </r>
     <r>
@@ -23110,6 +23116,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">live out in the </t>
     </r>
     <r>
@@ -23149,6 +23160,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhè lǐ shì bú shì hěn </t>
     </r>
     <r>
@@ -23188,6 +23204,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">chū qù zhù </t>
     </r>
     <r>
@@ -23242,6 +23263,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhè lǐ què shí hěn piāo liàng ，dàn shì wǒ bú dé bú </t>
     </r>
     <r>
@@ -23267,6 +23293,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ duì nóng chǎng de shì qíng </t>
     </r>
     <r>
@@ -23313,6 +23344,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Relax, it was just a </t>
     </r>
     <r>
@@ -23335,6 +23371,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">fàng qīng sōng ，nà zhī shì yī tóu </t>
     </r>
     <r>
@@ -23369,6 +23410,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  It's just the </t>
     </r>
     <r>
@@ -23408,6 +23454,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nà shì yī xiē </t>
     </r>
     <r>
@@ -23447,6 +23498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>milk</t>
     </r>
     <r>
@@ -23460,6 +23517,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">děng huì ér wǒ men kě yǐ gěi nǎi niú </t>
     </r>
     <r>
@@ -23485,6 +23547,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  You know what? i don't know i can </t>
     </r>
     <r>
@@ -23533,6 +23600,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ zhī dào ma ？wǒ rèn wéi zài nóng cūn wǒ </t>
     </r>
     <r>
@@ -23547,6 +23619,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>jīng yíng</t>
     </r>
     <r>
@@ -23560,6 +23638,506 @@
   </si>
   <si>
     <t>back</t>
+  </si>
+  <si>
+    <t>Chosing the perfect gift</t>
+  </si>
+  <si>
+    <t>A: Bill, Bill,你一定要帮帮我。</t>
+  </si>
+  <si>
+    <t>A: Bill, Bill, you gotta help me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill, Bill,nǐ yī dìng yào bāng bāng wǒ </t>
+  </si>
+  <si>
+    <t>B: 怎么啦？慢点儿说，你这样心脏会受不了的。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: What's wrong? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Slow down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or you're </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>zěn me lā ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>màn diǎn ér shuō</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gonna give yourself a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>heart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> attack.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ zhè yàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xīn zàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shòu bú liao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de 。</t>
+    </r>
+  </si>
+  <si>
+    <t>can‘t accept</t>
+  </si>
+  <si>
+    <t>A: 明天就是圣诞节了，我还没给我妈妈买礼物，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Tomorrow is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Christmas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, and i haven't </t>
+    </r>
+  </si>
+  <si>
+    <t>我真是个不孝子。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bought my mom anything, i'm such a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bad son</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">míng tiān jiù shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shèng dàn jiē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ，wǒ hái méi gěi wǒ mā mā mǎi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lǐ wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zhēn shì gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bú xiào zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>B: 不要担心，我们去商城就看看，先不买。</t>
+  </si>
+  <si>
+    <t>B: Take it easy. Let's go to the mall window-shop</t>
+  </si>
+  <si>
+    <t>看一下有没有她喜欢的东西。</t>
+  </si>
+  <si>
+    <t>a little and see if there is anything she might like.</t>
+  </si>
+  <si>
+    <t>bú yào dān xīn ，wǒ men qù shāng chéng jiù kàn kàn ，xiān bú mǎi 。</t>
+  </si>
+  <si>
+    <t>kàn yī xià yǒu méi yǒu tā xǐ huān de dōng xī 。</t>
+  </si>
+  <si>
+    <t>A: 这就是问题所在，我不知道给她买什么。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: That's just it. I don't know what to get her. Last </t>
+  </si>
+  <si>
+    <t>去年我给她买了一个戒指和一双鞋子，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">year, i got her a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that was two sizes too big</t>
+    </r>
+  </si>
+  <si>
+    <t>结果戒指大了两码，鞋子小了五码。</t>
+  </si>
+  <si>
+    <t>and a pair of shoes five sizes too small, i suck</t>
+  </si>
+  <si>
+    <t>我真的不会买礼物。</t>
+  </si>
+  <si>
+    <t>at getting presents for people.</t>
+  </si>
+  <si>
+    <t>zhè jiù shì wèn tí suǒ zài ，wǒ bú zhī dào gěi tā mǎi shen me 。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qù nián wǒ gěi tā mǎi le yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiè zhǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hé yī shuāng xié zǐ ，</t>
+    </r>
+  </si>
+  <si>
+    <t>yi zhi xie zi</t>
+  </si>
+  <si>
+    <t>jié guǒ jiè zhǐ dà le liǎng mǎ ，xié zǐ xiǎo le wǔ mǎ 。</t>
+  </si>
+  <si>
+    <t>wǒ zhēn de bú huì mǎi lǐ wù 。</t>
+  </si>
+  <si>
+    <t>B: 你大错特错了，你应该让她知道为了买这些她真正</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  That's where you're making a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>big mistake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, you should</t>
+    </r>
+  </si>
+  <si>
+    <t>喜欢的东西，你花了很多时间。</t>
+  </si>
+  <si>
+    <t>show her that you took the time and effort to look for</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dà cuò tè cuò le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ yīng gāi ràng tā zhī dào </t>
+    </r>
+  </si>
+  <si>
+    <t>something that she would really like.</t>
+  </si>
+  <si>
+    <t>wéi le mǎi zhè xiē tā zhēn zhèng  xǐ huān de dōng xī ，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le hěn duō shí jiān 。</t>
+    </r>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>A； 是的，你说的对，其实归根结底就是我很俗气。</t>
+  </si>
+  <si>
+    <t>A:  Yeah, you're right, When it comes down to it, i can</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，nǐ shuō de duì ，qí shí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guī gēn jié dǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">be pretty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tacky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jiù shì wǒ hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sú qì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>to the end</t>
+  </si>
+  <si>
+    <t>kai xin   happy</t>
+  </si>
+  <si>
+    <t>sang xin</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
 </sst>
 </file>
@@ -33180,7 +33758,7 @@
   <sheetPr/>
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -33236,7 +33814,6 @@
       <c r="B7" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="W7" s="1" t="s">
         <v>1863</v>
       </c>
@@ -33272,7 +33849,6 @@
       <c r="B11" s="1" t="s">
         <v>1871</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="W11" s="1" t="s">
         <v>1872</v>
       </c>
@@ -33289,7 +33865,6 @@
       <c r="B14" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="W14" s="1" t="s">
         <v>1875</v>
       </c>
@@ -33306,7 +33881,6 @@
       <c r="B17" s="1" t="s">
         <v>1877</v>
       </c>
-      <c r="C17" s="1"/>
       <c r="U17" s="4"/>
       <c r="W17" s="1" t="s">
         <v>1878</v>
@@ -33324,7 +33898,6 @@
       <c r="B20" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="C20" s="1"/>
       <c r="W20" s="1" t="s">
         <v>1881</v>
       </c>
@@ -33338,7 +33911,6 @@
       <c r="B23" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="W23" s="1" t="s">
         <v>1884</v>
       </c>
@@ -33360,7 +33932,6 @@
       <c r="B26" s="1" t="s">
         <v>1888</v>
       </c>
-      <c r="C26" s="1"/>
       <c r="W26" s="1" t="s">
         <v>1889</v>
       </c>
@@ -33595,6 +34166,272 @@
       </c>
     </row>
     <row r="42" ht="23.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AD36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="C8" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30">
+      <c r="B9" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AD9" s="6"/>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25">
+      <c r="C12" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="T13" s="1" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27">
+      <c r="C16" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="3:21">
+      <c r="C18" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="3"/>
+      <c r="C19" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21">
+      <c r="C20" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23">
+      <c r="C22" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21">
+      <c r="C27" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="T30" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21">
+      <c r="C31" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="781" firstSheet="30" activeTab="39"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="31" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,14 @@
     <sheet name="20221106" sheetId="38" r:id="rId38"/>
     <sheet name="20221120" sheetId="39" r:id="rId39"/>
     <sheet name="20221127" sheetId="40" r:id="rId40"/>
+    <sheet name="20221204" sheetId="41" r:id="rId41"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1992">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -23656,6 +23657,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: What's wrong? </t>
     </r>
     <r>
@@ -23678,6 +23684,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>zěn me lā ？</t>
     </r>
     <r>
@@ -23700,6 +23711,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">gonna give yourself a </t>
     </r>
     <r>
@@ -23722,6 +23738,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ zhè yàng </t>
     </r>
     <r>
@@ -23767,6 +23788,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Tomorrow is </t>
     </r>
     <r>
@@ -23792,6 +23818,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bought my mom anything, i'm such a </t>
     </r>
     <r>
@@ -23814,6 +23845,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">míng tiān jiù shì </t>
     </r>
     <r>
@@ -23853,6 +23889,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ zhēn shì gè </t>
     </r>
     <r>
@@ -23905,6 +23946,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">year, i got her a </t>
     </r>
     <r>
@@ -23942,6 +23988,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">qù nián wǒ gěi tā mǎi le yī gè </t>
     </r>
     <r>
@@ -23976,6 +24027,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  That's where you're making a </t>
     </r>
     <r>
@@ -24004,6 +24060,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ </t>
     </r>
     <r>
@@ -24032,6 +24093,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ </t>
     </r>
     <r>
@@ -24063,6 +24129,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì de ，nǐ shuō de duì ，qí shí </t>
     </r>
     <r>
@@ -24085,6 +24156,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">be pretty </t>
     </r>
     <r>
@@ -24107,6 +24183,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">jiù shì wǒ hěn </t>
     </r>
     <r>
@@ -24138,6 +24219,418 @@
   </si>
   <si>
     <t>sad</t>
+  </si>
+  <si>
+    <t>Turn over a new leaf</t>
+  </si>
+  <si>
+    <t>A: 现在是新年了，我决定从头开始。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Now that it's the new year, i've decide to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>turn over</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiàn zài shì xīn nián le ，wǒ jué ding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cóng tóu kāi shǐ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a new leaf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 真的吗？你决定从新开始了。</t>
+  </si>
+  <si>
+    <t>B: Yeah, You finally decided to wipe the slate clean.</t>
+  </si>
+  <si>
+    <t>zhēn de ma ？nǐ jué dìng cóng xīn kāi shǐ le 。</t>
+  </si>
+  <si>
+    <t>A: 说的对。我有了新的工作，如今居住在</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: you got it, i have a new job. i've living in a new city </t>
+  </si>
+  <si>
+    <t>新的城市，也有了新的朋友，这是个好时机，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with new friends, This is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>my opportunity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to make some </t>
+    </r>
+  </si>
+  <si>
+    <t>按照我想过的生活方式去做一些小改变。</t>
+  </si>
+  <si>
+    <t>xian zai</t>
+  </si>
+  <si>
+    <r>
+      <t>small changes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the way i live my life.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>shuō de duì 。wǒ yǒu le xīn de gōng zuò ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rú jīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jū zhù zài </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xīn de chéng shì ，yě yǒu le xīn de péng yǒu ，zhè shì gè hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shí jī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">àn zhào wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiǎng guò de shēng huó fāng shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> qù zuò yī xiē xiǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gǎi biàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>according to</t>
+  </si>
+  <si>
+    <t>B: 那你打算做些什么？参加艺术班还是其他的事情。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:So what are you going to do? Take up an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>art class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or something?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nà nǐ dǎ suàn zuò xiē shen me ？cān jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yì shù bān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hái shì qí tā de shì qíng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>shi .... hai shi ...</t>
+  </si>
+  <si>
+    <t>A: 首先，我决定戒烟。并不是因为我想省钱或</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Well, first of all, i've </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to stop smoking, it's not that i'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pinching</t>
+    </r>
+  </si>
+  <si>
+    <t>是别的。我从16岁开始抽烟，我想是时候戒烟了。</t>
+  </si>
+  <si>
+    <r>
+      <t>pennies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or anything. it's just that i've been smoking since i was sixteen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> shǒu xiān ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jué dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jiè yān 。bìng bú shì yīn wéi </t>
+    </r>
+  </si>
+  <si>
+    <t>and i think it's time to stop.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shěng qián</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> huò shì bié de 。wǒ cóng 16 suì </t>
+    </r>
+  </si>
+  <si>
+    <t>kāi shǐ chōu yān ，wǒ xiǎng shì shí hòu jiè yān le 。</t>
+  </si>
+  <si>
+    <t>B: 在这点上我同意你的观点，你还打算坐别的事情吗？</t>
+  </si>
+  <si>
+    <t>B:  i'm with you on that one. Anything else you're planning on doing?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zài zhè diǎn shàng wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tóng yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guān diǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ hái dǎ suàn zuò bié de shì qíng ma </t>
+  </si>
+  <si>
+    <t>viewpoint</t>
+  </si>
+  <si>
+    <t>A:最后一件事情，我要买车。</t>
+  </si>
+  <si>
+    <t>A: One last thing, i've decided to buy a car.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zuì hòu yī jiàn shì qíng ，wǒ yào mǎi chē </t>
   </si>
 </sst>
 </file>
@@ -24150,7 +24643,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="70">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -24164,13 +24657,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -24896,39 +25395,36 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="34" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="34" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="34" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -24940,98 +25436,101 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -25040,14 +25539,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -25060,10 +25559,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -25072,6 +25571,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -25496,7 +25996,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
@@ -25515,7 +26015,7 @@
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -25528,12 +26028,12 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
@@ -25552,7 +26052,7 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
       <c r="W16" s="1" t="s">
         <v>17</v>
       </c>
@@ -25561,15 +26061,15 @@
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="27"/>
+      <c r="W17" s="28"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="1" t="s">
@@ -25583,23 +26083,23 @@
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="35" t="s">
+      <c r="X21" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="27"/>
+      <c r="W23" s="28"/>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W24" s="1" t="s">
@@ -25607,7 +26107,7 @@
       </c>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -25615,7 +26115,7 @@
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -25638,16 +26138,16 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="15"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="15"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -25667,7 +26167,7 @@
       <c r="Y34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD34" s="27"/>
+      <c r="AD34" s="28"/>
     </row>
     <row r="35" spans="23:25">
       <c r="W35" s="1" t="s">
@@ -25802,10 +26302,10 @@
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="V18" s="2"/>
+      <c r="V18" s="4"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="1" t="s">
@@ -25863,7 +26363,7 @@
       <c r="C29" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="4" t="s">
         <v>474</v>
       </c>
     </row>
@@ -25928,7 +26428,7 @@
       <c r="Y3" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="Z3" s="12"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
@@ -25949,7 +26449,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="3:25">
       <c r="C9" s="1" t="s">
@@ -25981,7 +26481,7 @@
       <c r="C15" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="Y15" s="12" t="s">
+      <c r="Y15" s="13" t="s">
         <v>494</v>
       </c>
     </row>
@@ -25989,36 +26489,36 @@
       <c r="D16" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="Z16" s="12" t="s">
+      <c r="Z16" s="13" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>497</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Z17" s="23" t="s">
+      <c r="Z17" s="24" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="Z18" s="12" t="s">
+      <c r="Z18" s="13" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>503</v>
       </c>
     </row>
@@ -26026,7 +26526,7 @@
       <c r="C21" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="Y21" s="12" t="s">
+      <c r="Y21" s="13" t="s">
         <v>505</v>
       </c>
     </row>
@@ -26034,12 +26534,12 @@
       <c r="D22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Z22" s="12" t="s">
+      <c r="Z22" s="13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>508</v>
       </c>
     </row>
@@ -26058,7 +26558,7 @@
       <c r="C25" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Y25" s="12" t="s">
+      <c r="Y25" s="13" t="s">
         <v>513</v>
       </c>
     </row>
@@ -26066,7 +26566,7 @@
       <c r="D26" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="Z26" s="12" t="s">
+      <c r="Z26" s="13" t="s">
         <v>515</v>
       </c>
     </row>
@@ -26074,7 +26574,7 @@
       <c r="D27" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Z27" s="12" t="s">
+      <c r="Z27" s="13" t="s">
         <v>517</v>
       </c>
     </row>
@@ -26082,7 +26582,7 @@
       <c r="D28" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="Z28" s="13" t="s">
         <v>519</v>
       </c>
     </row>
@@ -26090,12 +26590,12 @@
       <c r="D29" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="Z29" s="12" t="s">
+      <c r="Z29" s="13" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="30" spans="4:26">
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>522</v>
       </c>
       <c r="Z30" s="1" t="s">
@@ -26103,7 +26603,7 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>524</v>
       </c>
     </row>
@@ -26113,12 +26613,12 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="34" spans="4:18">
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>527</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -26129,7 +26629,7 @@
       <c r="C35" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Y35" s="12" t="s">
+      <c r="Y35" s="13" t="s">
         <v>530</v>
       </c>
     </row>
@@ -26137,17 +26637,17 @@
       <c r="D36" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Z36" s="12" t="s">
+      <c r="Z36" s="13" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>534</v>
       </c>
     </row>
@@ -26216,10 +26716,10 @@
       <c r="T3" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="Z3" s="12"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>544</v>
       </c>
     </row>
@@ -26242,7 +26742,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="1" t="s">
@@ -26261,7 +26761,7 @@
       <c r="C12" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="13" t="s">
         <v>553</v>
       </c>
     </row>
@@ -26274,7 +26774,7 @@
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>556</v>
       </c>
     </row>
@@ -26292,16 +26792,16 @@
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="U17" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="Z17" s="23"/>
+      <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>562</v>
       </c>
     </row>
@@ -26309,7 +26809,7 @@
       <c r="C19" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" s="13" t="s">
         <v>564</v>
       </c>
     </row>
@@ -26317,7 +26817,7 @@
       <c r="D20" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="18" t="s">
         <v>566</v>
       </c>
     </row>
@@ -26325,17 +26825,17 @@
       <c r="D21" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="U21" s="13" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>570</v>
       </c>
     </row>
@@ -26343,17 +26843,17 @@
       <c r="C24" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="T24" s="13" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="26" spans="12:12">
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="18" t="s">
         <v>574</v>
       </c>
     </row>
@@ -26361,12 +26861,12 @@
       <c r="C27" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="T27" s="12" t="s">
+      <c r="T27" s="13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>577</v>
       </c>
     </row>
@@ -26429,13 +26929,13 @@
       <c r="U3" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="Z3" s="12"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="4:22">
       <c r="D4" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="13" t="s">
         <v>586</v>
       </c>
     </row>
@@ -26448,35 +26948,35 @@
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="13" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="AA9" s="17"/>
+      <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="U10" s="13" t="s">
         <v>595</v>
       </c>
     </row>
@@ -26510,19 +27010,19 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="U18" s="13" t="s">
         <v>605</v>
       </c>
     </row>
@@ -26530,7 +27030,7 @@
       <c r="D19" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="U19" s="17"/>
+      <c r="U19" s="18"/>
       <c r="V19" s="1" t="s">
         <v>607</v>
       </c>
@@ -26539,17 +27039,17 @@
       <c r="D20" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="V20" s="12" t="s">
+      <c r="V20" s="13" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>611</v>
       </c>
     </row>
@@ -26557,8 +27057,8 @@
       <c r="C23" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="U23" s="12" t="s">
+      <c r="D23" s="13"/>
+      <c r="U23" s="13" t="s">
         <v>613</v>
       </c>
     </row>
@@ -26571,27 +27071,27 @@
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="V25" s="19" t="s">
+      <c r="V25" s="20" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="18"/>
       <c r="V26" s="1" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -26618,12 +27118,12 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>628</v>
       </c>
     </row>
@@ -26704,7 +27204,7 @@
       <c r="C3" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="13" t="s">
         <v>640</v>
       </c>
     </row>
@@ -26717,7 +27217,7 @@
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>643</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -26725,7 +27225,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>645</v>
       </c>
     </row>
@@ -26733,22 +27233,22 @@
       <c r="C7" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>648</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>650</v>
       </c>
     </row>
@@ -26764,17 +27264,17 @@
       <c r="D11" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Y11" s="12" t="s">
+      <c r="Y11" s="13" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="13" spans="4:16">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>656</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -26790,16 +27290,16 @@
       </c>
     </row>
     <row r="15" spans="4:26">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="Y15" s="12" t="s">
+      <c r="Y15" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="Z15" s="23"/>
+      <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>662</v>
       </c>
     </row>
@@ -26807,7 +27307,7 @@
       <c r="C17" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="X17" s="12" t="s">
+      <c r="X17" s="13" t="s">
         <v>664</v>
       </c>
     </row>
@@ -26815,21 +27315,21 @@
       <c r="D18" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="U18" s="17"/>
-      <c r="Y18" s="12" t="s">
+      <c r="U18" s="18"/>
+      <c r="Y18" s="13" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="Y19" s="12" t="s">
+      <c r="Y19" s="13" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>669</v>
       </c>
     </row>
@@ -26837,13 +27337,13 @@
       <c r="C21" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="X21" s="12" t="s">
+      <c r="D21" s="13"/>
+      <c r="X21" s="13" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="22" spans="4:32">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>672</v>
       </c>
       <c r="AF22" s="1" t="s">
@@ -26854,25 +27354,25 @@
       <c r="C24" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="V24" s="19"/>
-      <c r="X24" s="12" t="s">
+      <c r="V24" s="20"/>
+      <c r="X24" s="13" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="Y25" s="12" t="s">
+      <c r="L25" s="18"/>
+      <c r="Y25" s="13" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="3:24">
       <c r="C27" s="1" t="s">
@@ -26891,13 +27391,13 @@
       <c r="C30" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="X30" s="12" t="s">
+      <c r="D30" s="13"/>
+      <c r="X30" s="13" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>684</v>
       </c>
     </row>
@@ -26997,8 +27497,8 @@
       <c r="C6" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="W6" s="12" t="s">
+      <c r="D6" s="13"/>
+      <c r="W6" s="13" t="s">
         <v>701</v>
       </c>
     </row>
@@ -27006,19 +27506,19 @@
       <c r="D7" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>705</v>
       </c>
     </row>
@@ -27026,7 +27526,7 @@
       <c r="C10" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="13" t="s">
         <v>707</v>
       </c>
     </row>
@@ -27034,12 +27534,12 @@
       <c r="D11" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="X11" s="14" t="s">
+      <c r="X11" s="15" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="12" spans="4:24">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>710</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -27047,7 +27547,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>712</v>
       </c>
     </row>
@@ -27060,16 +27560,16 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="X16" s="12" t="s">
+      <c r="X16" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>717</v>
       </c>
     </row>
@@ -27077,7 +27577,7 @@
       <c r="C18" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="W18" s="12" t="s">
+      <c r="W18" s="13" t="s">
         <v>719</v>
       </c>
     </row>
@@ -27085,18 +27585,18 @@
       <c r="D19" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="U19" s="17"/>
-      <c r="X19" s="12" t="s">
+      <c r="U19" s="18"/>
+      <c r="X19" s="13" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>723</v>
       </c>
     </row>
@@ -27104,13 +27604,13 @@
       <c r="C22" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="W22" s="12" t="s">
+      <c r="D22" s="13"/>
+      <c r="W22" s="13" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>726</v>
       </c>
     </row>
@@ -27118,36 +27618,36 @@
       <c r="C25" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="V25" s="19"/>
+      <c r="V25" s="20"/>
       <c r="W25" s="1" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="26" spans="4:24">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="X26" s="12" t="s">
+      <c r="L26" s="18"/>
+      <c r="X26" s="13" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="27" spans="4:24">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="18"/>
       <c r="X27" s="1" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>734</v>
       </c>
     </row>
@@ -27155,7 +27655,7 @@
       <c r="C30" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="W30" s="12" t="s">
+      <c r="W30" s="13" t="s">
         <v>736</v>
       </c>
     </row>
@@ -27165,12 +27665,12 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="1" t="s">
@@ -27184,7 +27684,7 @@
       </c>
     </row>
     <row r="37" ht="82.8" spans="3:10">
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>742</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -27247,8 +27747,8 @@
       <c r="C6" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="T6" s="12" t="s">
+      <c r="D6" s="13"/>
+      <c r="T6" s="13" t="s">
         <v>750</v>
       </c>
     </row>
@@ -27259,41 +27759,41 @@
       <c r="U7" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="U8" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="13" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="13" t="s">
         <v>760</v>
       </c>
     </row>
@@ -27301,12 +27801,12 @@
       <c r="D13" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="U13" s="13" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>763</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -27314,30 +27814,30 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="12"/>
-      <c r="Z16" s="23"/>
+      <c r="D16" s="13"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="T17" s="12" t="s">
+      <c r="D17" s="13"/>
+      <c r="T17" s="13" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="17"/>
+      <c r="U19" s="18"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
@@ -27348,12 +27848,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="J22" s="1" t="s">
         <v>772</v>
       </c>
@@ -27362,13 +27862,13 @@
       <c r="C23" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="T23" s="12" t="s">
+      <c r="D23" s="13"/>
+      <c r="T23" s="13" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>775</v>
       </c>
     </row>
@@ -27376,26 +27876,26 @@
       <c r="M25" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="V25" s="19"/>
+      <c r="V25" s="20"/>
     </row>
     <row r="26" spans="3:20">
       <c r="C26" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="L26" s="17"/>
-      <c r="T26" s="12" t="s">
+      <c r="D26" s="13"/>
+      <c r="L26" s="18"/>
+      <c r="T26" s="13" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="N28" s="1" t="s">
         <v>780</v>
       </c>
@@ -27404,7 +27904,7 @@
       <c r="C29" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
       <c r="T29" s="1" t="s">
         <v>782</v>
       </c>
@@ -27418,13 +27918,13 @@
       <c r="C32" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
       <c r="T32" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>786</v>
       </c>
     </row>
@@ -27440,7 +27940,7 @@
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="26"/>
+      <c r="C37" s="27"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="1" t="s">
@@ -27464,13 +27964,13 @@
       </c>
     </row>
     <row r="43" ht="124.2" spans="3:10">
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>795</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="27" t="s">
         <v>797</v>
       </c>
     </row>
@@ -27478,7 +27978,7 @@
       <c r="G44" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="16" t="s">
         <v>799</v>
       </c>
     </row>
@@ -27520,7 +28020,7 @@
       <c r="D2" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="12" t="s">
         <v>802</v>
       </c>
     </row>
@@ -27528,7 +28028,7 @@
       <c r="C3" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="13" t="s">
         <v>804</v>
       </c>
     </row>
@@ -27536,7 +28036,7 @@
       <c r="D4" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="13" t="s">
         <v>806</v>
       </c>
     </row>
@@ -27544,32 +28044,32 @@
       <c r="D5" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="13" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="13" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>813</v>
       </c>
     </row>
@@ -27577,8 +28077,8 @@
       <c r="C10" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="X10" s="12" t="s">
+      <c r="D10" s="12"/>
+      <c r="X10" s="13" t="s">
         <v>815</v>
       </c>
     </row>
@@ -27586,29 +28086,29 @@
       <c r="D11" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="12" t="s">
+      <c r="X11" s="15"/>
+      <c r="Y11" s="13" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>820</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="15" t="s">
         <v>822</v>
       </c>
     </row>
@@ -27616,22 +28116,22 @@
       <c r="C15" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="X15" s="12" t="s">
+      <c r="D15" s="13"/>
+      <c r="X15" s="13" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>825</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>827</v>
       </c>
     </row>
@@ -27641,7 +28141,7 @@
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="17"/>
+      <c r="U19" s="18"/>
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="1" t="s">
@@ -27652,23 +28152,23 @@
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="Y21" s="12" t="s">
+      <c r="Y21" s="13" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>835</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -27690,25 +28190,25 @@
       <c r="D25" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="V25" s="19"/>
+      <c r="V25" s="20"/>
       <c r="Y25" s="1" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>844</v>
       </c>
     </row>
@@ -27716,13 +28216,13 @@
       <c r="C29" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="Y29" s="12" t="s">
+      <c r="D29" s="13"/>
+      <c r="Y29" s="13" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>847</v>
       </c>
     </row>
@@ -27730,21 +28230,21 @@
       <c r="C32" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="X32" s="12" t="s">
+      <c r="D32" s="13"/>
+      <c r="X32" s="13" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="33" spans="4:25">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="Y33" s="12" t="s">
+      <c r="Y33" s="13" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>852</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -27760,7 +28260,7 @@
       </c>
     </row>
     <row r="37" spans="3:25">
-      <c r="C37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="1" t="s">
         <v>856</v>
       </c>
@@ -27769,12 +28269,12 @@
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="39" spans="9:9">
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="28" t="s">
         <v>832</v>
       </c>
     </row>
@@ -27806,17 +28306,17 @@
       <c r="A43" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="J43" s="26"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="4:10">
       <c r="D44" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="J44" s="15"/>
+      <c r="J44" s="16"/>
     </row>
     <row r="45" spans="16:16">
       <c r="P45" s="1" t="s">
@@ -27921,21 +28421,21 @@
       <c r="D2" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="Z2" s="11"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="13" t="s">
         <v>889</v>
       </c>
     </row>
@@ -27943,7 +28443,7 @@
       <c r="A5" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>891</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -27957,28 +28457,28 @@
       <c r="C6" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="T6" s="1" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>899</v>
       </c>
     </row>
@@ -27986,62 +28486,62 @@
       <c r="C10" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="T10" s="12" t="s">
+      <c r="D10" s="12"/>
+      <c r="T10" s="13" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>902</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="13" t="s">
         <v>903</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="14"/>
+      <c r="D14" s="25"/>
+      <c r="M14" s="12"/>
+      <c r="Q14" s="15"/>
       <c r="T14" s="1" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="L16" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="T17" s="12" t="s">
+      <c r="D17" s="12"/>
+      <c r="T17" s="13" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>911</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -28049,36 +28549,36 @@
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="12" t="s">
         <v>914</v>
       </c>
-      <c r="U19" s="17"/>
+      <c r="U19" s="18"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="T20" s="13" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="S21" s="11"/>
+      <c r="S21" s="12"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="T23" s="1" t="s">
         <v>919</v>
       </c>
@@ -28087,7 +28587,7 @@
       <c r="D24" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="U24" s="13" t="s">
         <v>921</v>
       </c>
     </row>
@@ -28095,13 +28595,13 @@
       <c r="D25" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="V25" s="19"/>
+      <c r="V25" s="20"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -28138,7 +28638,7 @@
       <c r="C2" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="Z2" s="11"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="3:18">
       <c r="C3" s="1" t="s">
@@ -28152,41 +28652,41 @@
       <c r="D4" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="13" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>930</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="R7" s="12" t="s">
+      <c r="D7" s="13"/>
+      <c r="R7" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="AA8" s="17"/>
+      <c r="D8" s="13"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>934</v>
       </c>
     </row>
@@ -28194,39 +28694,39 @@
       <c r="C10" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="R10" s="1" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="3:18">
       <c r="C14" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="14"/>
+      <c r="D14" s="25"/>
+      <c r="M14" s="12"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="1" t="s">
         <v>942</v>
       </c>
@@ -28235,23 +28735,23 @@
       <c r="C15" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="12"/>
-      <c r="Z16" s="23"/>
+      <c r="D16" s="13"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="R17" s="12" t="s">
+      <c r="D17" s="12"/>
+      <c r="R17" s="13" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>946</v>
       </c>
     </row>
@@ -28259,43 +28759,43 @@
       <c r="C19" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="R19" s="13" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>949</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="12" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="13" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="24" spans="3:32">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="V24" s="19"/>
+      <c r="V24" s="20"/>
       <c r="AD24" s="1" t="s">
         <v>956</v>
       </c>
@@ -28304,8 +28804,8 @@
       </c>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="12"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="13"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -28324,7 +28824,7 @@
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>962</v>
       </c>
     </row>
@@ -28366,7 +28866,7 @@
       <c r="D35" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="1" t="s">
@@ -28422,10 +28922,10 @@
       </c>
     </row>
     <row r="5" spans="4:19">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -28433,12 +28933,12 @@
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>50</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -28462,12 +28962,12 @@
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="4:19">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>57</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -28478,12 +28978,12 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="R16" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -28491,12 +28991,12 @@
       <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="R19" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -28645,7 +29145,7 @@
       <c r="C2" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="Z2" s="11"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -28659,12 +29159,12 @@
       <c r="D4" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="13" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>980</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -28672,77 +29172,77 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="3:27">
       <c r="C8" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="S8" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="3:19">
       <c r="C14" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="14"/>
+      <c r="D14" s="25"/>
+      <c r="M14" s="12"/>
+      <c r="Q14" s="15"/>
       <c r="S14" s="1" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="12"/>
-      <c r="Z16" s="23"/>
+      <c r="D16" s="13"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="S17" s="12" t="s">
+      <c r="D17" s="12"/>
+      <c r="S17" s="13" t="s">
         <v>994</v>
       </c>
     </row>
@@ -28750,29 +29250,29 @@
       <c r="D18" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="T18" s="13" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>998</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="S20" s="11"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="S22" s="1" t="s">
         <v>1001</v>
       </c>
@@ -28781,22 +29281,22 @@
       <c r="D23" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="12" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="V24" s="19"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="3:19">
       <c r="C25" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="13"/>
+      <c r="L25" s="18"/>
       <c r="S25" s="1" t="s">
         <v>1006</v>
       </c>
@@ -28815,7 +29315,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="1" t="s">
         <v>1010</v>
       </c>
@@ -28850,7 +29350,7 @@
       <c r="C35" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
       <c r="S35" s="1" t="s">
         <v>1018</v>
       </c>
@@ -28986,7 +29486,7 @@
       <c r="C2" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="Z2" s="11"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="4" spans="3:18">
       <c r="C4" s="1" t="s">
@@ -28997,39 +29497,39 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="R7" s="12" t="s">
+      <c r="D7" s="14"/>
+      <c r="R7" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>1049</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -29040,62 +29540,62 @@
       <c r="R11" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="X11" s="14"/>
+      <c r="S11" s="13"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="17" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="13" spans="4:19">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>1057</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="19" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="14" spans="4:17">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="14"/>
+      <c r="M14" s="12"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>1061</v>
       </c>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="R17" s="12" t="s">
+      <c r="D17" s="12"/>
+      <c r="R17" s="13" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>1064</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="S18" s="13" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -29103,39 +29603,39 @@
       <c r="C20" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="R20" s="12" t="s">
+      <c r="D20" s="13"/>
+      <c r="R20" s="13" t="s">
         <v>1068</v>
       </c>
-      <c r="S20" s="11"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="T23" s="11"/>
+      <c r="T23" s="12"/>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>1072</v>
       </c>
-      <c r="V24" s="19"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="12"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="13"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -29154,7 +29654,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="1" t="s">
         <v>1077</v>
       </c>
@@ -29189,7 +29689,7 @@
       <c r="D34" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="S34" s="5" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -29197,7 +29697,7 @@
       <c r="D35" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="3:18">
       <c r="C36" s="1" t="s">
@@ -29247,7 +29747,7 @@
       <c r="C2" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="Z2" s="11"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
@@ -29258,38 +29758,38 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="R7" s="12"/>
-      <c r="X7" s="12" t="s">
+      <c r="D7" s="14"/>
+      <c r="R7" s="13"/>
+      <c r="X7" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>1096</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="X10" s="1" t="s">
         <v>1098</v>
       </c>
@@ -29298,77 +29798,77 @@
       <c r="D11" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="X11" s="14"/>
+      <c r="S11" s="13"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="12"/>
-      <c r="S12" s="16"/>
+      <c r="D12" s="13"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="S13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="S13" s="19"/>
       <c r="X13" s="1" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="14"/>
+      <c r="M14" s="12"/>
+      <c r="Q14" s="15"/>
       <c r="Y14" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="3:26">
       <c r="C16" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="X16" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="4:18">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>1106</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="S18" s="13"/>
     </row>
     <row r="19" spans="3:24">
       <c r="C19" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="X19" s="12" t="s">
+      <c r="D19" s="13"/>
+      <c r="X19" s="13" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="20" spans="4:25">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>1109</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="11"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="12"/>
       <c r="Y20" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="21" spans="4:16">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>1111</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -29376,36 +29876,36 @@
       </c>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1113</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="X22" s="12" t="s">
+      <c r="D22" s="12"/>
+      <c r="X22" s="13" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>1115</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="T23" s="11"/>
-      <c r="Y23" s="16" t="s">
+      <c r="R23" s="13"/>
+      <c r="T23" s="12"/>
+      <c r="Y23" s="17" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>1117</v>
       </c>
-      <c r="V24" s="19"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="3:24">
       <c r="C25" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="13"/>
+      <c r="L25" s="18"/>
       <c r="X25" s="1" t="s">
         <v>1119</v>
       </c>
@@ -29416,7 +29916,7 @@
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>1121</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -29456,7 +29956,7 @@
       <c r="C34" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="S34" s="4"/>
+      <c r="S34" s="5"/>
       <c r="X34" s="1" t="s">
         <v>1131</v>
       </c>
@@ -29465,7 +29965,7 @@
       <c r="D35" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
       <c r="Y35" s="1" t="s">
         <v>1133</v>
       </c>
@@ -29524,7 +30024,7 @@
       <c r="A44" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -29586,7 +30086,7 @@
       <c r="D2" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="AA2" s="11"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
@@ -29602,79 +30102,79 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="U6" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>1160</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="AB7" s="17"/>
+      <c r="S7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="AB7" s="18"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="12"/>
-      <c r="AB8" s="17"/>
+      <c r="D8" s="13"/>
+      <c r="AB8" s="18"/>
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="U9" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="12"/>
-      <c r="Y11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="T12" s="16"/>
+      <c r="D12" s="13"/>
+      <c r="T12" s="17"/>
       <c r="U12" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="T13" s="18"/>
+      <c r="T13" s="19"/>
       <c r="V13" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>1168</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="M14" s="12"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
       <c r="V14" s="1" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -29682,77 +30182,77 @@
       <c r="C16" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="U16" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="24"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>1173</v>
       </c>
-      <c r="S17" s="12"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="T18" s="13"/>
     </row>
     <row r="19" spans="3:25">
       <c r="C19" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="U19" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="Y19" s="12"/>
+      <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>1176</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="11"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="12"/>
       <c r="V20" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="Q21" s="1" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1179</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="U22" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="Y22" s="12"/>
+      <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="S23" s="12"/>
-      <c r="U23" s="11"/>
-      <c r="Z23" s="16"/>
+      <c r="S23" s="13"/>
+      <c r="U23" s="12"/>
+      <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>1182</v>
       </c>
-      <c r="W24" s="19"/>
+      <c r="W24" s="20"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
@@ -29771,7 +30271,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="1" t="s">
         <v>1188</v>
       </c>
@@ -29815,7 +30315,7 @@
       <c r="D34" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="T34" s="4"/>
+      <c r="T34" s="5"/>
       <c r="V34" s="1" t="s">
         <v>1199</v>
       </c>
@@ -29824,7 +30324,7 @@
       <c r="D35" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
       <c r="V35" s="1" t="s">
         <v>1201</v>
       </c>
@@ -29907,7 +30407,7 @@
       <c r="D2" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="AA2" s="11"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -29923,154 +30423,154 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:19">
       <c r="C6" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="S6" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>1218</v>
       </c>
-      <c r="S7" s="12"/>
+      <c r="S7" s="13"/>
       <c r="T7" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="Y7" s="12"/>
-      <c r="AB7" s="17"/>
+      <c r="Y7" s="13"/>
+      <c r="AB7" s="18"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>1220</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="18"/>
     </row>
     <row r="9" spans="3:19">
       <c r="C9" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="S9" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="11" spans="20:25">
-      <c r="T11" s="12"/>
-      <c r="Y11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="S12" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="T12" s="16"/>
+      <c r="T12" s="17"/>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>1226</v>
       </c>
-      <c r="T13" s="18"/>
+      <c r="T13" s="19"/>
     </row>
     <row r="14" spans="4:18">
-      <c r="D14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="M14" s="12"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="3:19">
       <c r="C15" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="S15" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>1229</v>
       </c>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="24"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="15"/>
-      <c r="S17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
       <c r="S18" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="T18" s="12"/>
+      <c r="T18" s="13"/>
     </row>
     <row r="19" spans="4:25">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>1232</v>
       </c>
-      <c r="Y19" s="12"/>
+      <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="S21" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="12"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="16" t="s">
         <v>1235</v>
       </c>
-      <c r="Y22" s="12"/>
+      <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="U23" s="11"/>
-      <c r="Z23" s="16"/>
+      <c r="D23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="U23" s="12"/>
+      <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="S24" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="W24" s="19"/>
+      <c r="W24" s="20"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>1238</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>1239</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -30086,10 +30586,10 @@
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="4"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -30110,278 +30610,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="7" width="8.88888888888889" style="20"/>
-    <col min="8" max="8" width="34.4444444444444" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="20"/>
+    <col min="1" max="7" width="8.88888888888889" style="21"/>
+    <col min="8" max="8" width="34.4444444444444" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1244</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>1247</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="21" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>1249</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="21" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>1251</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="21" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>1253</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="23" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>1255</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="21" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>1258</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="21" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>1261</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="21" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>1263</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="21" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>1266</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="21" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>1268</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="21" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="21" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>1272</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="21" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>1274</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="21" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>1276</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="21" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>1278</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="21" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>1282</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="21" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>1285</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="21" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>1287</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="21" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>1289</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="21" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
         <v>1293</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="21" t="s">
         <v>1294</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="21" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>1296</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="21" t="s">
         <v>1297</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="21" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>1299</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="21" t="s">
         <v>1300</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="21" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>1301</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="21" t="s">
         <v>1302</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="21" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>1304</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="21" t="s">
         <v>1305</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="21" t="s">
         <v>1306</v>
       </c>
     </row>
@@ -30418,7 +30918,7 @@
       <c r="C2" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="AA2" s="11"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="1" t="s">
@@ -30440,18 +30940,18 @@
       <c r="C5" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="AC5" s="12"/>
+      <c r="AC5" s="13"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="3:29">
       <c r="C6" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="AC6" s="13"/>
+      <c r="AC6" s="14"/>
     </row>
     <row r="7" spans="25:44">
-      <c r="Y7" s="12"/>
-      <c r="AC7" s="13"/>
-      <c r="AR7" s="12"/>
+      <c r="Y7" s="13"/>
+      <c r="AC7" s="14"/>
+      <c r="AR7" s="13"/>
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="1" t="s">
@@ -30460,7 +30960,7 @@
       <c r="AA8" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="AC8" s="12"/>
+      <c r="AC8" s="13"/>
     </row>
     <row r="9" spans="3:46">
       <c r="C9" s="1" t="s">
@@ -30469,7 +30969,7 @@
       <c r="AB9" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="AC9" s="12"/>
+      <c r="AC9" s="13"/>
       <c r="AT9" s="1" t="s">
         <v>1318</v>
       </c>
@@ -30478,22 +30978,22 @@
       <c r="C10" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="AC10" s="12"/>
+      <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="Y11" s="14"/>
-      <c r="AS11" s="12"/>
+      <c r="Y11" s="15"/>
+      <c r="AS11" s="13"/>
     </row>
     <row r="12" spans="29:45">
-      <c r="AC12" s="12"/>
-      <c r="AS12" s="16"/>
+      <c r="AC12" s="13"/>
+      <c r="AS12" s="17"/>
     </row>
     <row r="13" spans="29:45">
-      <c r="AC13" s="12"/>
-      <c r="AS13" s="18"/>
+      <c r="AC13" s="13"/>
+      <c r="AS13" s="19"/>
     </row>
     <row r="14" spans="2:43">
       <c r="B14" s="1" t="s">
@@ -30502,23 +31002,23 @@
       <c r="AA14" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="AC14" s="12"/>
-      <c r="AL14" s="11"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
+      <c r="AC14" s="13"/>
+      <c r="AL14" s="12"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
     </row>
     <row r="15" spans="3:29">
       <c r="C15" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="AC15" s="13"/>
+      <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="29:29">
-      <c r="AC16" s="12"/>
+      <c r="AC16" s="13"/>
     </row>
     <row r="17" spans="29:44">
-      <c r="AC17" s="15"/>
-      <c r="AR17" s="12"/>
+      <c r="AC17" s="16"/>
+      <c r="AR17" s="13"/>
     </row>
     <row r="18" spans="2:45">
       <c r="B18" s="1" t="s">
@@ -30527,18 +31027,18 @@
       <c r="AA18" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="AC18" s="12"/>
-      <c r="AS18" s="12"/>
+      <c r="AC18" s="13"/>
+      <c r="AS18" s="13"/>
     </row>
     <row r="19" spans="3:29">
       <c r="C19" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="Y19" s="12"/>
+      <c r="Y19" s="13"/>
       <c r="AB19" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="AC19" s="12"/>
+      <c r="AC19" s="13"/>
     </row>
     <row r="20" spans="3:45">
       <c r="C20" s="1" t="s">
@@ -30547,26 +31047,26 @@
       <c r="AB20" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="AC20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="11"/>
+      <c r="AC20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="12"/>
     </row>
     <row r="21" spans="3:29">
       <c r="C21" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="AC21" s="12"/>
+      <c r="AC21" s="13"/>
     </row>
     <row r="22" spans="25:29">
-      <c r="Y22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="15"/>
+      <c r="Y22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="26:46">
-      <c r="Z23" s="16"/>
-      <c r="AC23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AT23" s="11"/>
+      <c r="Z23" s="17"/>
+      <c r="AC23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AT23" s="12"/>
     </row>
     <row r="24" spans="2:48">
       <c r="B24" s="1" t="s">
@@ -30575,21 +31075,21 @@
       <c r="AA24" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="AC24" s="13"/>
-      <c r="AV24" s="19"/>
+      <c r="AC24" s="14"/>
+      <c r="AV24" s="20"/>
     </row>
     <row r="25" spans="3:37">
       <c r="C25" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="AC25" s="12"/>
-      <c r="AK25" s="17"/>
+      <c r="AC25" s="13"/>
+      <c r="AK25" s="18"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="AB28" s="15" t="s">
+      <c r="AB28" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -30626,10 +31126,10 @@
       <c r="AB34" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS34" s="4"/>
+      <c r="AS34" s="5"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="1" t="s">
@@ -30711,7 +31211,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -30814,7 +31314,7 @@
       <c r="D24" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" s="4" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -30848,7 +31348,7 @@
       <c r="D29" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="4" t="s">
         <v>999</v>
       </c>
     </row>
@@ -30877,7 +31377,7 @@
       <c r="D34" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="Y34" s="9" t="s">
+      <c r="Y34" s="10" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -30906,7 +31406,7 @@
       <c r="D39" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="Y39" s="2" t="s">
+      <c r="Y39" s="4" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -30962,7 +31462,7 @@
       <c r="D4" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="5" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -31007,7 +31507,7 @@
       <c r="D12" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="6" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -31064,10 +31564,10 @@
       </c>
     </row>
     <row r="23" spans="4:25">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="4"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
@@ -31086,7 +31586,7 @@
       <c r="C28" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="T28" s="2"/>
+      <c r="T28" s="4"/>
       <c r="V28" s="1" t="s">
         <v>1435</v>
       </c>
@@ -31110,7 +31610,7 @@
       </c>
     </row>
     <row r="33" spans="25:25">
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="10"/>
     </row>
     <row r="34" spans="3:22">
       <c r="C34" s="1" t="s">
@@ -31137,7 +31637,7 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="Y38" s="2"/>
+      <c r="Y38" s="4"/>
     </row>
     <row r="40" spans="3:22">
       <c r="C40" s="1" t="s">
@@ -31187,13 +31687,13 @@
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>1.412135</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="1" t="s">
@@ -31369,7 +31869,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="4" t="s">
         <v>366</v>
       </c>
     </row>
@@ -31497,11 +31997,11 @@
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="V5" s="11" t="s">
+      <c r="S5" s="12"/>
+      <c r="V5" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -31509,7 +32009,7 @@
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -31517,7 +32017,7 @@
       <c r="D8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -31525,27 +32025,27 @@
       <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V9" s="30" t="s">
+      <c r="V9" s="31" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -31558,7 +32058,7 @@
       </c>
     </row>
     <row r="15" spans="4:19">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>111</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -31566,7 +32066,7 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -31587,12 +32087,12 @@
       <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V21" s="12" t="s">
+      <c r="V21" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -31605,7 +32105,7 @@
       </c>
     </row>
     <row r="25" spans="4:27">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>122</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -31728,7 +32228,7 @@
       <c r="F43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -31869,7 +32369,7 @@
       <c r="Y18" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -31943,7 +32443,7 @@
       <c r="C29" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" s="4" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -32027,7 +32527,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -32103,7 +32603,7 @@
       <c r="C18" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -32145,7 +32645,7 @@
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -32161,7 +32661,7 @@
       <c r="C28" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="4" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -32169,7 +32669,7 @@
       <c r="C29" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
@@ -32335,7 +32835,7 @@
       <c r="O18" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
@@ -32393,7 +32893,7 @@
       <c r="B28" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="W28" s="1" t="s">
         <v>1597</v>
       </c>
@@ -32404,10 +32904,10 @@
       </c>
     </row>
     <row r="30" spans="19:19">
-      <c r="S30" s="2"/>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="25:25">
-      <c r="Y31" s="2"/>
+      <c r="Y31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -32527,10 +33027,10 @@
       <c r="Y18" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -32585,7 +33085,7 @@
       <c r="C27" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="Y27" s="2" t="s">
+      <c r="Y27" s="4" t="s">
         <v>1633</v>
       </c>
     </row>
@@ -32614,13 +33114,13 @@
       <c r="C31" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="S31" s="2"/>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="S32" s="2"/>
+      <c r="S32" s="4"/>
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
@@ -32629,7 +33129,7 @@
       <c r="X33" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
@@ -32751,7 +33251,7 @@
       <c r="C13" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="5" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -32761,7 +33261,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -32779,13 +33279,13 @@
       </c>
     </row>
     <row r="18" spans="27:27">
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4"/>
       <c r="V19" s="1" t="s">
         <v>1671</v>
       </c>
@@ -32836,7 +33336,7 @@
       <c r="C27" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="Y27" s="2"/>
+      <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="1" t="s">
@@ -32858,7 +33358,7 @@
       <c r="B31" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="S31" s="2"/>
+      <c r="S31" s="4"/>
       <c r="V31" s="1" t="s">
         <v>1688</v>
       </c>
@@ -32867,10 +33367,10 @@
       <c r="C32" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="S32" s="2"/>
+      <c r="S32" s="4"/>
     </row>
     <row r="33" spans="25:25">
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -32971,7 +33471,7 @@
       <c r="C13" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="W13" s="4"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -32982,7 +33482,7 @@
       <c r="B15" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="W15" s="1" t="s">
         <v>1708</v>
       </c>
@@ -33004,13 +33504,13 @@
       <c r="C18" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4"/>
       <c r="W19" s="1" t="s">
         <v>1714</v>
       </c>
@@ -33066,16 +33566,16 @@
       <c r="C28" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="4"/>
     </row>
     <row r="32" spans="19:19">
-      <c r="S32" s="2"/>
+      <c r="S32" s="4"/>
     </row>
     <row r="33" spans="19:19">
-      <c r="S33" s="2"/>
+      <c r="S33" s="4"/>
     </row>
     <row r="34" spans="25:25">
-      <c r="Y34" s="2"/>
+      <c r="Y34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -33168,7 +33668,7 @@
       <c r="T13" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="W13" s="4"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="1" t="s">
@@ -33179,12 +33679,12 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>1743</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>1744</v>
       </c>
     </row>
@@ -33203,7 +33703,7 @@
       <c r="U18" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
@@ -33267,7 +33767,7 @@
       <c r="T28" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="3:21">
       <c r="C29" s="1" t="s">
@@ -33283,7 +33783,7 @@
       </c>
     </row>
     <row r="32" spans="19:19">
-      <c r="S32" s="2"/>
+      <c r="S32" s="4"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="1" t="s">
@@ -33295,10 +33795,10 @@
       <c r="I33" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="S33" s="2"/>
+      <c r="S33" s="4"/>
     </row>
     <row r="34" spans="25:25">
-      <c r="Y34" s="2"/>
+      <c r="Y34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -33383,13 +33883,13 @@
       <c r="C11" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="5"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="T13" s="1" t="s">
         <v>1782</v>
       </c>
@@ -33406,13 +33906,13 @@
       <c r="T16" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="5" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -33468,7 +33968,7 @@
       <c r="U26" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
@@ -33484,7 +33984,7 @@
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -33492,7 +33992,7 @@
       <c r="C31" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="S31" s="2"/>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="2:25">
       <c r="B32" s="1" t="s">
@@ -33504,7 +34004,7 @@
       <c r="E32" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="Y32" s="2"/>
+      <c r="Y32" s="4"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
@@ -33587,7 +34087,7 @@
       </c>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>1820</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -33612,13 +34112,13 @@
       <c r="C11" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="5"/>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="1" t="s">
         <v>1826</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="V13" s="1" t="s">
         <v>1827</v>
       </c>
@@ -33635,13 +34135,13 @@
       <c r="V16" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="3"/>
@@ -33656,7 +34156,7 @@
       <c r="C20" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="W20" s="5" t="s">
         <v>1833</v>
       </c>
     </row>
@@ -33833,7 +34333,7 @@
       <c r="C9" s="1" t="s">
         <v>1867</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="7" t="s">
         <v>1868</v>
       </c>
     </row>
@@ -33859,7 +34359,7 @@
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="2:23">
       <c r="B14" s="1" t="s">
@@ -33875,13 +34375,13 @@
       </c>
     </row>
     <row r="16" spans="27:27">
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="2:23">
       <c r="B17" s="1" t="s">
         <v>1877</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="U17" s="5"/>
       <c r="W17" s="1" t="s">
         <v>1878</v>
       </c>
@@ -33919,7 +34419,7 @@
       <c r="C24" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="6" t="s">
         <v>1886</v>
       </c>
     </row>
@@ -33953,7 +34453,7 @@
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>1894</v>
       </c>
     </row>
@@ -34000,7 +34500,7 @@
       <c r="C4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -34008,19 +34508,19 @@
       <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="11"/>
+      <c r="V5" s="12"/>
       <c r="W5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>165</v>
       </c>
     </row>
@@ -34028,7 +34528,7 @@
       <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="U8" s="13" t="s">
         <v>167</v>
       </c>
     </row>
@@ -34036,18 +34536,18 @@
       <c r="D9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="Y9" s="30"/>
+      <c r="Y9" s="31"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -34055,13 +34555,13 @@
       <c r="C12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="U12" s="12" t="s">
+      <c r="D12" s="13"/>
+      <c r="U12" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>174</v>
       </c>
     </row>
@@ -34074,7 +34574,7 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -34124,7 +34624,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>189</v>
       </c>
     </row>
@@ -34178,8 +34678,8 @@
   <sheetPr/>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AP36" sqref="AP36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -34218,7 +34718,6 @@
       <c r="B6" s="1" t="s">
         <v>1900</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="T6" s="1" t="s">
         <v>1901</v>
       </c>
@@ -34243,11 +34742,10 @@
       <c r="B9" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="T9" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="AD9" s="6"/>
+      <c r="AD9" s="7"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
@@ -34274,7 +34772,7 @@
       <c r="B13" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="T13" s="1" t="s">
         <v>1914</v>
       </c>
@@ -34296,7 +34794,7 @@
       <c r="C16" s="1" t="s">
         <v>1918</v>
       </c>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="1" t="s">
@@ -34305,7 +34803,7 @@
       <c r="T17" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
@@ -34354,13 +34852,12 @@
       <c r="C24" s="1" t="s">
         <v>1931</v>
       </c>
-      <c r="X24" s="5"/>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="T25" s="1" t="s">
         <v>1933</v>
       </c>
@@ -34398,7 +34895,7 @@
       <c r="B30" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="4"/>
       <c r="T30" s="1" t="s">
         <v>1942</v>
       </c>
@@ -34431,6 +34928,226 @@
       <c r="F36" s="1" t="s">
         <v>1949</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AD34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
+      <c r="C4" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30">
+      <c r="B9" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AD9" s="7"/>
+    </row>
+    <row r="10" spans="3:24">
+      <c r="C10" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24">
+      <c r="C11" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29">
+      <c r="C13" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="18" spans="5:30">
+      <c r="E18" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27">
+      <c r="C20" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="3:24">
+      <c r="C21" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="X21" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="C23" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20">
+      <c r="C25" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24">
+      <c r="C28" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -34473,8 +35190,8 @@
       <c r="S5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
@@ -34482,7 +35199,7 @@
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="3:19">
       <c r="C8" s="1" t="s">
@@ -34496,35 +35213,35 @@
       <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y9" s="30"/>
+      <c r="Y9" s="31"/>
     </row>
     <row r="11" spans="3:19">
       <c r="C11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="S11" s="12" t="s">
+      <c r="D11" s="13"/>
+      <c r="S11" s="13" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="32"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="13" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="4:20">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>211</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -34537,7 +35254,7 @@
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>214</v>
       </c>
     </row>
@@ -34545,7 +35262,7 @@
       <c r="C18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="S18" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34553,17 +35270,17 @@
       <c r="D19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>220</v>
       </c>
     </row>
@@ -34571,12 +35288,12 @@
       <c r="C22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="S22" s="13" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>223</v>
       </c>
     </row>
@@ -34592,7 +35309,7 @@
       <c r="D26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="T26" s="13" t="s">
         <v>227</v>
       </c>
     </row>
@@ -34602,7 +35319,7 @@
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="28" t="s">
         <v>229</v>
       </c>
     </row>
@@ -34615,7 +35332,7 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>232</v>
       </c>
     </row>
@@ -34737,48 +35454,48 @@
       <c r="D5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V5" s="11"/>
+      <c r="V5" s="12"/>
       <c r="X5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="4:24">
       <c r="D6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="13" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="4:24">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="13" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="4:26">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="Z10" s="29" t="s">
+      <c r="Z10" s="30" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>262</v>
       </c>
     </row>
@@ -34786,7 +35503,7 @@
       <c r="L12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Y12" s="30"/>
+      <c r="Y12" s="31"/>
       <c r="AL12" s="1" t="s">
         <v>264</v>
       </c>
@@ -34795,44 +35512,44 @@
       <c r="C13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="X13" s="12" t="s">
+      <c r="X13" s="13" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Y14" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="4:25">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="Y15" s="12" t="s">
+      <c r="Y15" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="W17" s="28" t="s">
+      <c r="W17" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="Z17" s="31" t="s">
+      <c r="Z17" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>275</v>
       </c>
     </row>
@@ -34840,7 +35557,7 @@
       <c r="C19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="X19" s="12" t="s">
+      <c r="X19" s="13" t="s">
         <v>277</v>
       </c>
     </row>
@@ -34848,17 +35565,17 @@
       <c r="D20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y20" s="12" t="s">
+      <c r="Y20" s="13" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>281</v>
       </c>
     </row>
@@ -34866,20 +35583,20 @@
       <c r="C24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="X24" s="12" t="s">
+      <c r="X24" s="13" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="4:25">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="Y25" s="12" t="s">
+      <c r="Y25" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="26" spans="4:25">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>286</v>
       </c>
       <c r="Y26" s="1" t="s">
@@ -34908,7 +35625,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>293</v>
       </c>
     </row>
@@ -34934,7 +35651,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>299</v>
       </c>
     </row>
@@ -34969,31 +35686,31 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="4:25">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="V7" s="12" t="s">
+      <c r="D7" s="13"/>
+      <c r="V7" s="13" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>305</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -35001,67 +35718,67 @@
       </c>
     </row>
     <row r="9" spans="4:23">
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="W9" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="Z11" s="29"/>
+      <c r="Z11" s="30"/>
     </row>
     <row r="12" spans="3:22">
       <c r="C12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="V12" s="12" t="s">
+      <c r="D12" s="13"/>
+      <c r="V12" s="13" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="13" spans="4:25">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="Y13" s="30"/>
+      <c r="Y13" s="31"/>
     </row>
     <row r="15" spans="3:25">
       <c r="C15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="V15" s="12" t="s">
+      <c r="D15" s="13"/>
+      <c r="V15" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="Y15" s="11"/>
+      <c r="Y15" s="12"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="V18" s="12" t="s">
+      <c r="V18" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="W18" s="28"/>
-      <c r="Z18" s="31"/>
+      <c r="W18" s="29"/>
+      <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>318</v>
       </c>
     </row>
@@ -35074,12 +35791,12 @@
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="3:22">
       <c r="C24" s="1" t="s">
@@ -35103,8 +35820,8 @@
       <c r="C27" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="V27" s="12" t="s">
+      <c r="D27" s="13"/>
+      <c r="V27" s="13" t="s">
         <v>327</v>
       </c>
     </row>
@@ -35117,7 +35834,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>330</v>
       </c>
     </row>
@@ -35140,7 +35857,7 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="13"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="3:22">
       <c r="C34" s="1" t="s">
@@ -35151,7 +35868,7 @@
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>337</v>
       </c>
     </row>
@@ -35303,7 +36020,7 @@
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="4" t="s">
         <v>366</v>
       </c>
     </row>
@@ -35426,7 +36143,7 @@
       <c r="C3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="13" t="s">
         <v>389</v>
       </c>
     </row>
@@ -35434,17 +36151,17 @@
       <c r="D4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="13" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>393</v>
       </c>
     </row>
@@ -35452,7 +36169,7 @@
       <c r="C7" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="13" t="s">
         <v>395</v>
       </c>
     </row>
@@ -35460,7 +36177,7 @@
       <c r="D8" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="18" t="s">
         <v>397</v>
       </c>
     </row>
@@ -35468,17 +36185,17 @@
       <c r="D9" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="13" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>401</v>
       </c>
     </row>
@@ -35488,7 +36205,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>403</v>
       </c>
     </row>
@@ -35496,7 +36213,7 @@
       <c r="C14" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="W14" s="12" t="s">
+      <c r="W14" s="13" t="s">
         <v>405</v>
       </c>
     </row>
@@ -35509,12 +36226,12 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>409</v>
       </c>
     </row>
@@ -35535,12 +36252,12 @@
       <c r="C21" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="W21" s="12" t="s">
+      <c r="W21" s="13" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>415</v>
       </c>
     </row>
@@ -35574,12 +36291,12 @@
       <c r="C30" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="W30" s="12" t="s">
+      <c r="W30" s="13" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>424</v>
       </c>
     </row>

--- a/learn_chinese2022.xlsx
+++ b/learn_chinese2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="781" firstSheet="33" activeTab="42"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="781" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -25409,6 +25409,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: i won't </t>
     </r>
     <r>
@@ -25437,6 +25442,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">lǎo bǎn ，wǒ jiù bú </t>
     </r>
     <r>
@@ -25471,6 +25481,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: </t>
     </r>
     <r>
@@ -25493,6 +25508,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>jiā xīn</t>
     </r>
     <r>
@@ -25515,6 +25536,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: i </t>
     </r>
     <r>
@@ -25557,6 +25583,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">current </t>
     </r>
     <r>
@@ -25596,6 +25627,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ </t>
     </r>
     <r>
@@ -25652,6 +25688,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>impact</t>
     </r>
     <r>
@@ -25682,6 +25724,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>xià huá</t>
     </r>
     <r>
@@ -25715,6 +25763,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">fù miàn </t>
     </r>
     <r>
@@ -25769,7 +25822,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -25990,34 +26043,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -26036,14 +26061,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -26085,6 +26102,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26135,7 +26167,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26258,55 +26311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26324,31 +26335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26372,6 +26371,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -26384,7 +26395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26408,7 +26443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26432,6 +26479,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -26449,21 +26502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -26496,6 +26534,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26552,138 +26605,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -26738,52 +26791,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -27851,8 +27904,8 @@
   <sheetPr/>
   <dimension ref="C1:AA47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -28064,8 +28117,8 @@
   <sheetPr/>
   <dimension ref="C1:AA49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AQ42" sqref="AQ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -36568,7 +36621,7 @@
   <sheetPr/>
   <dimension ref="B1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -36595,7 +36648,6 @@
       <c r="B3" s="1" t="s">
         <v>2042</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="V3" s="1" t="s">
         <v>2043</v>
       </c>
@@ -36609,7 +36661,6 @@
       <c r="B6" s="1" t="s">
         <v>2045</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="V6" s="1" t="s">
         <v>2046</v>
       </c>
@@ -36623,7 +36674,6 @@
       <c r="B9" s="1" t="s">
         <v>2048</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="V9" s="1" t="s">
         <v>2049</v>
       </c>
@@ -36632,7 +36682,6 @@
       <c r="C10" s="1" t="s">
         <v>2050</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="V10" s="1" t="s">
         <v>2051</v>
       </c>
@@ -36646,7 +36695,6 @@
       <c r="B12" s="1" t="s">
         <v>2053</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="V12" s="1" t="s">
         <v>2054</v>
       </c>
@@ -36694,7 +36742,6 @@
       <c r="B20" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="C20" s="1"/>
       <c r="D20" s="3"/>
       <c r="V20" s="1" t="s">
         <v>2065</v>
@@ -36718,7 +36765,6 @@
       <c r="B23" s="1" t="s">
         <v>2069</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="V23" s="1" t="s">
         <v>2070</v>
       </c>
@@ -36727,7 +36773,6 @@
       <c r="C24" s="1" t="s">
         <v>2071</v>
       </c>
-      <c r="D24" s="1"/>
       <c r="W24" s="1" t="s">
         <v>2072</v>
       </c>
@@ -36757,7 +36802,6 @@
       <c r="C28" s="1" t="s">
         <v>2078</v>
       </c>
-      <c r="D28" s="1"/>
       <c r="P28" s="1" t="s">
         <v>2079</v>
       </c>
@@ -36787,7 +36831,6 @@
       <c r="B32" s="1" t="s">
         <v>2085</v>
       </c>
-      <c r="C32" s="1"/>
       <c r="V32" s="1" t="s">
         <v>2086</v>
       </c>
